--- a/data/GreatLink/GreatLink Asia Dividend Advantage.xlsx
+++ b/data/GreatLink/GreatLink Asia Dividend Advantage.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid831327"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid885020"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,21 +26,114 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>10/06/2024</t>
+  </si>
+  <si>
+    <t>0.971</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>0.977</t>
+  </si>
+  <si>
+    <t>06/06/2024</t>
+  </si>
+  <si>
+    <t>0.975</t>
+  </si>
+  <si>
+    <t>05/06/2024</t>
+  </si>
+  <si>
+    <t>0.966</t>
+  </si>
+  <si>
+    <t>04/06/2024</t>
+  </si>
+  <si>
+    <t>0.952</t>
+  </si>
+  <si>
+    <t>03/06/2024</t>
+  </si>
+  <si>
+    <t>0.945</t>
+  </si>
+  <si>
+    <t>31/05/2024</t>
+  </si>
+  <si>
+    <t>30/05/2024</t>
+  </si>
+  <si>
+    <t>0.949</t>
+  </si>
+  <si>
+    <t>29/05/2024</t>
+  </si>
+  <si>
+    <t>0.957</t>
+  </si>
+  <si>
+    <t>28/05/2024</t>
+  </si>
+  <si>
+    <t>0.968</t>
+  </si>
+  <si>
+    <t>27/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>0.963</t>
+  </si>
+  <si>
+    <t>23/05/2024</t>
+  </si>
+  <si>
+    <t>0.970</t>
+  </si>
+  <si>
+    <t>21/05/2024</t>
+  </si>
+  <si>
+    <t>0.964</t>
+  </si>
+  <si>
+    <t>20/05/2024</t>
+  </si>
+  <si>
+    <t>0.974</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>0.969</t>
+  </si>
+  <si>
+    <t>16/05/2024</t>
+  </si>
+  <si>
+    <t>15/05/2024</t>
+  </si>
+  <si>
+    <t>14/05/2024</t>
+  </si>
+  <si>
     <t>13/05/2024</t>
   </si>
   <si>
-    <t>0.964</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>10/05/2024</t>
   </si>
   <si>
-    <t>0.957</t>
-  </si>
-  <si>
     <t>09/05/2024</t>
   </si>
   <si>
@@ -60,9 +153,6 @@
   </si>
   <si>
     <t>06/05/2024</t>
-  </si>
-  <si>
-    <t>0.949</t>
   </si>
   <si>
     <t>03/05/2024</t>
@@ -525,7 +615,7 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -533,10 +623,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -544,7 +634,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
@@ -555,10 +645,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -566,10 +656,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -577,12 +667,221 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
         <v>25</v>
       </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink Asia Dividend Advantage.xlsx
+++ b/data/GreatLink/GreatLink Asia Dividend Advantage.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid885020"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid543762"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,27 +26,96 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>01/07/2024</t>
+  </si>
+  <si>
+    <t>0.982</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>28/06/2024</t>
+  </si>
+  <si>
+    <t>0.980</t>
+  </si>
+  <si>
+    <t>27/06/2024</t>
+  </si>
+  <si>
+    <t>0.984</t>
+  </si>
+  <si>
+    <t>26/06/2024</t>
+  </si>
+  <si>
+    <t>0.987</t>
+  </si>
+  <si>
+    <t>25/06/2024</t>
+  </si>
+  <si>
+    <t>24/06/2024</t>
+  </si>
+  <si>
+    <t>0.977</t>
+  </si>
+  <si>
+    <t>21/06/2024</t>
+  </si>
+  <si>
+    <t>0.981</t>
+  </si>
+  <si>
+    <t>20/06/2024</t>
+  </si>
+  <si>
+    <t>0.986</t>
+  </si>
+  <si>
+    <t>19/06/2024</t>
+  </si>
+  <si>
+    <t>18/06/2024</t>
+  </si>
+  <si>
+    <t>0.975</t>
+  </si>
+  <si>
+    <t>14/06/2024</t>
+  </si>
+  <si>
+    <t>13/06/2024</t>
+  </si>
+  <si>
+    <t>0.974</t>
+  </si>
+  <si>
+    <t>12/06/2024</t>
+  </si>
+  <si>
+    <t>0.962</t>
+  </si>
+  <si>
+    <t>11/06/2024</t>
+  </si>
+  <si>
+    <t>0.968</t>
+  </si>
+  <si>
     <t>10/06/2024</t>
   </si>
   <si>
     <t>0.971</t>
   </si>
   <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>07/06/2024</t>
   </si>
   <si>
-    <t>0.977</t>
-  </si>
-  <si>
     <t>06/06/2024</t>
   </si>
   <si>
-    <t>0.975</t>
-  </si>
-  <si>
     <t>05/06/2024</t>
   </si>
   <si>
@@ -83,9 +152,6 @@
     <t>28/05/2024</t>
   </si>
   <si>
-    <t>0.968</t>
-  </si>
-  <si>
     <t>27/05/2024</t>
   </si>
   <si>
@@ -108,9 +174,6 @@
   </si>
   <si>
     <t>20/05/2024</t>
-  </si>
-  <si>
-    <t>0.974</t>
   </si>
   <si>
     <t>17/05/2024</t>
@@ -571,7 +634,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -579,10 +642,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -590,10 +653,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
         <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -615,7 +678,7 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -623,10 +686,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
         <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -634,10 +697,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -645,10 +708,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
         <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -656,10 +719,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
         <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -667,10 +730,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
         <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -678,10 +741,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
         <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -689,10 +752,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -700,10 +763,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -711,10 +774,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -722,10 +785,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
         <v>36</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -736,7 +799,7 @@
         <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -744,10 +807,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
         <v>38</v>
-      </c>
-      <c r="B22" t="s">
-        <v>20</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -755,10 +818,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -766,10 +829,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -777,10 +840,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -791,7 +854,7 @@
         <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -802,7 +865,7 @@
         <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -810,10 +873,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -821,10 +884,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -832,10 +895,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -843,10 +906,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -854,10 +917,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -865,10 +928,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -876,12 +939,166 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink Asia Dividend Advantage.xlsx
+++ b/data/GreatLink/GreatLink Asia Dividend Advantage.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid543762"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid371297"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,42 +26,156 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>01/08/2024</t>
+  </si>
+  <si>
+    <t>0.947</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>31/07/2024</t>
+  </si>
+  <si>
+    <t>0.948</t>
+  </si>
+  <si>
+    <t>30/07/2024</t>
+  </si>
+  <si>
+    <t>0.941</t>
+  </si>
+  <si>
+    <t>29/07/2024</t>
+  </si>
+  <si>
+    <t>0.945</t>
+  </si>
+  <si>
+    <t>26/07/2024</t>
+  </si>
+  <si>
+    <t>0.944</t>
+  </si>
+  <si>
+    <t>25/07/2024</t>
+  </si>
+  <si>
+    <t>0.940</t>
+  </si>
+  <si>
+    <t>24/07/2024</t>
+  </si>
+  <si>
+    <t>0.955</t>
+  </si>
+  <si>
+    <t>23/07/2024</t>
+  </si>
+  <si>
+    <t>0.968</t>
+  </si>
+  <si>
+    <t>22/07/2024</t>
+  </si>
+  <si>
+    <t>19/07/2024</t>
+  </si>
+  <si>
+    <t>18/07/2024</t>
+  </si>
+  <si>
+    <t>0.980</t>
+  </si>
+  <si>
+    <t>17/07/2024</t>
+  </si>
+  <si>
+    <t>0.984</t>
+  </si>
+  <si>
+    <t>16/07/2024</t>
+  </si>
+  <si>
+    <t>0.985</t>
+  </si>
+  <si>
+    <t>15/07/2024</t>
+  </si>
+  <si>
+    <t>0.987</t>
+  </si>
+  <si>
+    <t>12/07/2024</t>
+  </si>
+  <si>
+    <t>0.990</t>
+  </si>
+  <si>
+    <t>11/07/2024</t>
+  </si>
+  <si>
+    <t>0.986</t>
+  </si>
+  <si>
+    <t>10/07/2024</t>
+  </si>
+  <si>
+    <t>0.979</t>
+  </si>
+  <si>
+    <t>09/07/2024</t>
+  </si>
+  <si>
+    <t>0.983</t>
+  </si>
+  <si>
+    <t>08/07/2024</t>
+  </si>
+  <si>
+    <t>0.978</t>
+  </si>
+  <si>
+    <t>05/07/2024</t>
+  </si>
+  <si>
+    <t>0.977</t>
+  </si>
+  <si>
+    <t>04/07/2024</t>
+  </si>
+  <si>
+    <t>0.982</t>
+  </si>
+  <si>
+    <t>03/07/2024</t>
+  </si>
+  <si>
+    <t>0.976</t>
+  </si>
+  <si>
+    <t>02/07/2024</t>
+  </si>
+  <si>
     <t>01/07/2024</t>
   </si>
   <si>
-    <t>0.982</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>28/06/2024</t>
   </si>
   <si>
-    <t>0.980</t>
-  </si>
-  <si>
     <t>27/06/2024</t>
   </si>
   <si>
-    <t>0.984</t>
-  </si>
-  <si>
     <t>26/06/2024</t>
   </si>
   <si>
-    <t>0.987</t>
-  </si>
-  <si>
     <t>25/06/2024</t>
   </si>
   <si>
     <t>24/06/2024</t>
   </si>
   <si>
-    <t>0.977</t>
-  </si>
-  <si>
     <t>21/06/2024</t>
   </si>
   <si>
@@ -71,9 +185,6 @@
     <t>20/06/2024</t>
   </si>
   <si>
-    <t>0.986</t>
-  </si>
-  <si>
     <t>19/06/2024</t>
   </si>
   <si>
@@ -101,9 +212,6 @@
     <t>11/06/2024</t>
   </si>
   <si>
-    <t>0.968</t>
-  </si>
-  <si>
     <t>10/06/2024</t>
   </si>
   <si>
@@ -131,9 +239,6 @@
     <t>03/06/2024</t>
   </si>
   <si>
-    <t>0.945</t>
-  </si>
-  <si>
     <t>31/05/2024</t>
   </si>
   <si>
@@ -222,9 +327,6 @@
   </si>
   <si>
     <t>02/05/2024</t>
-  </si>
-  <si>
-    <t>0.948</t>
   </si>
   <si>
     <t>30/04/2024</t>
@@ -634,7 +736,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -642,10 +744,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -653,10 +755,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -664,10 +766,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -675,10 +777,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
         <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -686,10 +788,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -700,7 +802,7 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -708,10 +810,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -719,10 +821,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -730,10 +832,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -741,10 +843,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -752,10 +854,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -763,10 +865,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -774,10 +876,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -785,10 +887,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -796,10 +898,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -807,10 +909,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -818,10 +920,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -829,10 +931,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -840,10 +942,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -851,10 +953,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -862,10 +964,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -873,10 +975,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -884,10 +986,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -898,7 +1000,7 @@
         <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -920,7 +1022,7 @@
         <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -931,7 +1033,7 @@
         <v>56</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -942,7 +1044,7 @@
         <v>57</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -950,10 +1052,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -961,10 +1063,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -972,10 +1074,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B37" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -983,10 +1085,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B38" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -994,10 +1096,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B39" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -1005,7 +1107,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B40" t="s">
         <v>41</v>
@@ -1016,10 +1118,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -1027,10 +1129,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B42" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -1038,10 +1140,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -1049,10 +1151,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -1060,10 +1162,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B45" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -1071,10 +1173,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B46" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -1082,10 +1184,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B47" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -1093,12 +1195,265 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>81</v>
+      </c>
+      <c r="B50" t="s">
+        <v>82</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>83</v>
+      </c>
+      <c r="B51" t="s">
+        <v>84</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>85</v>
+      </c>
+      <c r="B52" t="s">
+        <v>86</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>87</v>
+      </c>
+      <c r="B53" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>88</v>
+      </c>
+      <c r="B54" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>90</v>
+      </c>
+      <c r="B55" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>91</v>
+      </c>
+      <c r="B56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>92</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>93</v>
+      </c>
+      <c r="B58" t="s">
+        <v>86</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>94</v>
+      </c>
+      <c r="B59" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>95</v>
+      </c>
+      <c r="B60" t="s">
+        <v>96</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>97</v>
+      </c>
+      <c r="B61" t="s">
+        <v>98</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>99</v>
+      </c>
+      <c r="B62" t="s">
+        <v>100</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>101</v>
+      </c>
+      <c r="B63" t="s">
         <v>76</v>
       </c>
-      <c r="B48" t="s">
-        <v>73</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>102</v>
+      </c>
+      <c r="B64" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>103</v>
+      </c>
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>104</v>
+      </c>
+      <c r="B66" t="s">
+        <v>76</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>105</v>
+      </c>
+      <c r="B67" t="s">
+        <v>76</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>106</v>
+      </c>
+      <c r="B68" t="s">
+        <v>107</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>108</v>
+      </c>
+      <c r="B69" t="s">
+        <v>107</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>109</v>
+      </c>
+      <c r="B70" t="s">
+        <v>107</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>110</v>
+      </c>
+      <c r="B71" t="s">
+        <v>107</v>
+      </c>
+      <c r="C71" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink Asia Dividend Advantage.xlsx
+++ b/data/GreatLink/GreatLink Asia Dividend Advantage.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid371297"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid579061"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,15 +26,126 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>03/09/2024</t>
+  </si>
+  <si>
+    <t>0.946</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>02/09/2024</t>
+  </si>
+  <si>
+    <t>0.943</t>
+  </si>
+  <si>
+    <t>30/08/2024</t>
+  </si>
+  <si>
+    <t>29/08/2024</t>
+  </si>
+  <si>
+    <t>28/08/2024</t>
+  </si>
+  <si>
+    <t>0.938</t>
+  </si>
+  <si>
+    <t>27/08/2024</t>
+  </si>
+  <si>
+    <t>0.941</t>
+  </si>
+  <si>
+    <t>26/08/2024</t>
+  </si>
+  <si>
+    <t>0.942</t>
+  </si>
+  <si>
+    <t>23/08/2024</t>
+  </si>
+  <si>
+    <t>0.935</t>
+  </si>
+  <si>
+    <t>22/08/2024</t>
+  </si>
+  <si>
+    <t>0.940</t>
+  </si>
+  <si>
+    <t>21/08/2024</t>
+  </si>
+  <si>
+    <t>0.936</t>
+  </si>
+  <si>
+    <t>20/08/2024</t>
+  </si>
+  <si>
+    <t>19/08/2024</t>
+  </si>
+  <si>
+    <t>16/08/2024</t>
+  </si>
+  <si>
+    <t>15/08/2024</t>
+  </si>
+  <si>
+    <t>0.928</t>
+  </si>
+  <si>
+    <t>14/08/2024</t>
+  </si>
+  <si>
+    <t>0.926</t>
+  </si>
+  <si>
+    <t>13/08/2024</t>
+  </si>
+  <si>
+    <t>0.924</t>
+  </si>
+  <si>
+    <t>12/08/2024</t>
+  </si>
+  <si>
+    <t>08/08/2024</t>
+  </si>
+  <si>
+    <t>0.917</t>
+  </si>
+  <si>
+    <t>07/08/2024</t>
+  </si>
+  <si>
+    <t>0.918</t>
+  </si>
+  <si>
+    <t>06/08/2024</t>
+  </si>
+  <si>
+    <t>0.899</t>
+  </si>
+  <si>
+    <t>05/08/2024</t>
+  </si>
+  <si>
+    <t>0.920</t>
+  </si>
+  <si>
+    <t>02/08/2024</t>
+  </si>
+  <si>
     <t>01/08/2024</t>
   </si>
   <si>
     <t>0.947</t>
   </si>
   <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>31/07/2024</t>
   </si>
   <si>
@@ -44,9 +155,6 @@
     <t>30/07/2024</t>
   </si>
   <si>
-    <t>0.941</t>
-  </si>
-  <si>
     <t>29/07/2024</t>
   </si>
   <si>
@@ -60,9 +168,6 @@
   </si>
   <si>
     <t>25/07/2024</t>
-  </si>
-  <si>
-    <t>0.940</t>
   </si>
   <si>
     <t>24/07/2024</t>
@@ -714,7 +819,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -722,10 +827,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -733,10 +838,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -744,10 +849,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -755,10 +860,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -766,10 +871,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -777,7 +882,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
@@ -788,10 +893,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
         <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -802,7 +907,7 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -810,10 +915,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -821,10 +926,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -832,10 +937,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -843,10 +948,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -854,10 +959,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -865,10 +970,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -876,10 +981,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -887,10 +992,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -898,10 +1003,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -909,10 +1014,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -920,10 +1025,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -931,10 +1036,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -942,10 +1047,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -953,10 +1058,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -964,10 +1069,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -975,10 +1080,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -986,10 +1091,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -997,10 +1102,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" t="s">
         <v>52</v>
-      </c>
-      <c r="B30" t="s">
-        <v>41</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -1022,7 +1127,7 @@
         <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -1033,7 +1138,7 @@
         <v>56</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -1055,7 +1160,7 @@
         <v>59</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -1063,10 +1168,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1074,10 +1179,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -1085,10 +1190,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -1096,10 +1201,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B39" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -1107,10 +1212,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1118,10 +1223,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -1129,10 +1234,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B42" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -1140,10 +1245,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -1151,10 +1256,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -1162,10 +1267,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -1173,10 +1278,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B46" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -1184,7 +1289,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B47" t="s">
         <v>78</v>
@@ -1195,10 +1300,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B48" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -1206,10 +1311,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B49" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -1217,10 +1322,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B50" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -1228,10 +1333,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B51" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -1239,10 +1344,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B52" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -1250,10 +1355,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -1261,10 +1366,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B54" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -1272,10 +1377,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B55" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -1283,10 +1388,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B56" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -1294,10 +1399,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B57" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -1305,10 +1410,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B58" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -1316,10 +1421,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B59" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -1327,10 +1432,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B60" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -1338,10 +1443,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B61" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -1349,10 +1454,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B62" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -1360,10 +1465,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B63" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -1371,10 +1476,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B64" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -1382,10 +1487,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -1393,10 +1498,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B66" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -1404,10 +1509,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B67" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -1415,10 +1520,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B68" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -1426,10 +1531,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B69" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -1437,10 +1542,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B70" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -1448,12 +1553,254 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B71" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="C71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>116</v>
+      </c>
+      <c r="B72" t="s">
+        <v>117</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>118</v>
+      </c>
+      <c r="B73" t="s">
+        <v>119</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>120</v>
+      </c>
+      <c r="B74" t="s">
+        <v>121</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>122</v>
+      </c>
+      <c r="B75" t="s">
+        <v>96</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>123</v>
+      </c>
+      <c r="B76" t="s">
+        <v>124</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>125</v>
+      </c>
+      <c r="B77" t="s">
+        <v>101</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>126</v>
+      </c>
+      <c r="B78" t="s">
+        <v>121</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>127</v>
+      </c>
+      <c r="B79" t="s">
+        <v>117</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>128</v>
+      </c>
+      <c r="B80" t="s">
+        <v>121</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>129</v>
+      </c>
+      <c r="B81" t="s">
+        <v>113</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>130</v>
+      </c>
+      <c r="B82" t="s">
+        <v>131</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>132</v>
+      </c>
+      <c r="B83" t="s">
+        <v>133</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>134</v>
+      </c>
+      <c r="B84" t="s">
+        <v>135</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>136</v>
+      </c>
+      <c r="B85" t="s">
+        <v>111</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>137</v>
+      </c>
+      <c r="B86" t="s">
+        <v>111</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>138</v>
+      </c>
+      <c r="B87" t="s">
+        <v>44</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>139</v>
+      </c>
+      <c r="B88" t="s">
+        <v>111</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>140</v>
+      </c>
+      <c r="B89" t="s">
+        <v>111</v>
+      </c>
+      <c r="C89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>141</v>
+      </c>
+      <c r="B90" t="s">
+        <v>142</v>
+      </c>
+      <c r="C90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>143</v>
+      </c>
+      <c r="B91" t="s">
+        <v>142</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>144</v>
+      </c>
+      <c r="B92" t="s">
+        <v>142</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>145</v>
+      </c>
+      <c r="B93" t="s">
+        <v>142</v>
+      </c>
+      <c r="C93" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink Asia Dividend Advantage.xlsx
+++ b/data/GreatLink/GreatLink Asia Dividend Advantage.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid579061"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid611406"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,21 +26,135 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>03/10/2024</t>
+  </si>
+  <si>
+    <t>0.999</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>02/10/2024</t>
+  </si>
+  <si>
+    <t>1.018</t>
+  </si>
+  <si>
+    <t>01/10/2024</t>
+  </si>
+  <si>
+    <t>0.998</t>
+  </si>
+  <si>
+    <t>30/09/2024</t>
+  </si>
+  <si>
+    <t>27/09/2024</t>
+  </si>
+  <si>
+    <t>1.001</t>
+  </si>
+  <si>
+    <t>26/09/2024</t>
+  </si>
+  <si>
+    <t>0.990</t>
+  </si>
+  <si>
+    <t>25/09/2024</t>
+  </si>
+  <si>
+    <t>0.968</t>
+  </si>
+  <si>
+    <t>24/09/2024</t>
+  </si>
+  <si>
+    <t>0.963</t>
+  </si>
+  <si>
+    <t>23/09/2024</t>
+  </si>
+  <si>
+    <t>0.953</t>
+  </si>
+  <si>
+    <t>20/09/2024</t>
+  </si>
+  <si>
+    <t>0.955</t>
+  </si>
+  <si>
+    <t>19/09/2024</t>
+  </si>
+  <si>
+    <t>0.943</t>
+  </si>
+  <si>
+    <t>18/09/2024</t>
+  </si>
+  <si>
+    <t>0.931</t>
+  </si>
+  <si>
+    <t>17/09/2024</t>
+  </si>
+  <si>
+    <t>0.933</t>
+  </si>
+  <si>
+    <t>16/09/2024</t>
+  </si>
+  <si>
+    <t>0.930</t>
+  </si>
+  <si>
+    <t>13/09/2024</t>
+  </si>
+  <si>
+    <t>12/09/2024</t>
+  </si>
+  <si>
+    <t>11/09/2024</t>
+  </si>
+  <si>
+    <t>0.920</t>
+  </si>
+  <si>
+    <t>10/09/2024</t>
+  </si>
+  <si>
+    <t>0.925</t>
+  </si>
+  <si>
+    <t>09/09/2024</t>
+  </si>
+  <si>
+    <t>0.923</t>
+  </si>
+  <si>
+    <t>06/09/2024</t>
+  </si>
+  <si>
+    <t>05/09/2024</t>
+  </si>
+  <si>
+    <t>0.928</t>
+  </si>
+  <si>
+    <t>04/09/2024</t>
+  </si>
+  <si>
     <t>03/09/2024</t>
   </si>
   <si>
     <t>0.946</t>
   </si>
   <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>02/09/2024</t>
   </si>
   <si>
-    <t>0.943</t>
-  </si>
-  <si>
     <t>30/08/2024</t>
   </si>
   <si>
@@ -95,9 +209,6 @@
     <t>15/08/2024</t>
   </si>
   <si>
-    <t>0.928</t>
-  </si>
-  <si>
     <t>14/08/2024</t>
   </si>
   <si>
@@ -134,9 +245,6 @@
     <t>05/08/2024</t>
   </si>
   <si>
-    <t>0.920</t>
-  </si>
-  <si>
     <t>02/08/2024</t>
   </si>
   <si>
@@ -173,15 +281,9 @@
     <t>24/07/2024</t>
   </si>
   <si>
-    <t>0.955</t>
-  </si>
-  <si>
     <t>23/07/2024</t>
   </si>
   <si>
-    <t>0.968</t>
-  </si>
-  <si>
     <t>22/07/2024</t>
   </si>
   <si>
@@ -215,9 +317,6 @@
     <t>12/07/2024</t>
   </si>
   <si>
-    <t>0.990</t>
-  </si>
-  <si>
     <t>11/07/2024</t>
   </si>
   <si>
@@ -368,9 +467,6 @@
     <t>24/05/2024</t>
   </si>
   <si>
-    <t>0.963</t>
-  </si>
-  <si>
     <t>23/05/2024</t>
   </si>
   <si>
@@ -408,9 +504,6 @@
   </si>
   <si>
     <t>09/05/2024</t>
-  </si>
-  <si>
-    <t>0.953</t>
   </si>
   <si>
     <t>08/05/2024</t>
@@ -819,7 +912,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -827,10 +920,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -838,10 +931,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -849,10 +942,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -860,10 +953,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -871,10 +964,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -882,10 +975,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -893,10 +986,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -904,10 +997,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -915,10 +1008,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -926,10 +1019,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -937,10 +1030,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -948,10 +1041,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -959,7 +1052,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
         <v>30</v>
@@ -970,10 +1063,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -981,10 +1074,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -992,10 +1085,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -1003,10 +1096,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
         <v>36</v>
-      </c>
-      <c r="B21" t="s">
-        <v>37</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -1014,10 +1107,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1025,10 +1118,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -1036,10 +1129,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1047,10 +1140,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -1058,10 +1151,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -1069,10 +1162,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -1094,7 +1187,7 @@
         <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -1102,10 +1195,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -1113,10 +1206,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -1124,10 +1217,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -1135,10 +1228,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -1146,10 +1239,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -1157,10 +1250,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -1168,10 +1261,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1182,7 +1275,7 @@
         <v>63</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -1190,10 +1283,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" t="s">
         <v>65</v>
-      </c>
-      <c r="B38" t="s">
-        <v>66</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -1201,10 +1294,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" t="s">
         <v>67</v>
-      </c>
-      <c r="B39" t="s">
-        <v>68</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -1212,10 +1305,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B40" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1223,10 +1316,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B41" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -1234,10 +1327,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B42" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -1245,10 +1338,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B43" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -1256,10 +1349,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B44" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -1267,10 +1360,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B45" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -1278,10 +1371,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B46" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -1289,10 +1382,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B47" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -1300,10 +1393,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -1311,10 +1404,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B49" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -1322,10 +1415,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50" t="s">
         <v>85</v>
-      </c>
-      <c r="B50" t="s">
-        <v>64</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -1336,7 +1429,7 @@
         <v>86</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -1347,7 +1440,7 @@
         <v>87</v>
       </c>
       <c r="B52" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -1358,7 +1451,7 @@
         <v>88</v>
       </c>
       <c r="B53" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -1366,10 +1459,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B54" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -1377,10 +1470,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B55" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -1388,10 +1481,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>91</v>
+      </c>
+      <c r="B56" t="s">
         <v>92</v>
-      </c>
-      <c r="B56" t="s">
-        <v>93</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -1399,10 +1492,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>93</v>
+      </c>
+      <c r="B57" t="s">
         <v>94</v>
-      </c>
-      <c r="B57" t="s">
-        <v>76</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -1435,7 +1528,7 @@
         <v>99</v>
       </c>
       <c r="B60" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -1457,7 +1550,7 @@
         <v>102</v>
       </c>
       <c r="B62" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -1465,10 +1558,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B63" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -1476,10 +1569,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B64" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -1487,10 +1580,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B65" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -1498,10 +1591,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B66" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -1509,10 +1602,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B67" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -1520,10 +1613,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B68" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -1531,10 +1624,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B69" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -1542,10 +1635,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B70" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -1553,10 +1646,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B71" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -1564,10 +1657,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B72" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -1575,10 +1668,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B73" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -1589,7 +1682,7 @@
         <v>120</v>
       </c>
       <c r="B74" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -1597,10 +1690,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
+        <v>121</v>
+      </c>
+      <c r="B75" t="s">
         <v>122</v>
-      </c>
-      <c r="B75" t="s">
-        <v>96</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -1611,7 +1704,7 @@
         <v>123</v>
       </c>
       <c r="B76" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -1619,10 +1712,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B77" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -1630,10 +1723,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>125</v>
+      </c>
+      <c r="B78" t="s">
         <v>126</v>
-      </c>
-      <c r="B78" t="s">
-        <v>121</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -1644,7 +1737,7 @@
         <v>127</v>
       </c>
       <c r="B79" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -1655,7 +1748,7 @@
         <v>128</v>
       </c>
       <c r="B80" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -1663,10 +1756,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B81" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -1674,10 +1767,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B82" t="s">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -1685,10 +1778,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B83" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -1696,10 +1789,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B84" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -1710,7 +1803,7 @@
         <v>136</v>
       </c>
       <c r="B85" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -1721,7 +1814,7 @@
         <v>137</v>
       </c>
       <c r="B86" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -1729,10 +1822,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B87" t="s">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -1740,10 +1833,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B88" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -1751,10 +1844,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B89" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -1762,10 +1855,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B90" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -1773,10 +1866,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B91" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -1784,10 +1877,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B92" t="s">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -1795,12 +1888,254 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B93" t="s">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="C93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>149</v>
+      </c>
+      <c r="B94" t="s">
+        <v>18</v>
+      </c>
+      <c r="C94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>150</v>
+      </c>
+      <c r="B95" t="s">
+        <v>151</v>
+      </c>
+      <c r="C95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>152</v>
+      </c>
+      <c r="B96" t="s">
+        <v>153</v>
+      </c>
+      <c r="C96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>154</v>
+      </c>
+      <c r="B97" t="s">
+        <v>129</v>
+      </c>
+      <c r="C97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>155</v>
+      </c>
+      <c r="B98" t="s">
+        <v>156</v>
+      </c>
+      <c r="C98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>157</v>
+      </c>
+      <c r="B99" t="s">
+        <v>134</v>
+      </c>
+      <c r="C99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>158</v>
+      </c>
+      <c r="B100" t="s">
+        <v>153</v>
+      </c>
+      <c r="C100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>159</v>
+      </c>
+      <c r="B101" t="s">
+        <v>18</v>
+      </c>
+      <c r="C101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>160</v>
+      </c>
+      <c r="B102" t="s">
+        <v>153</v>
+      </c>
+      <c r="C102" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>161</v>
+      </c>
+      <c r="B103" t="s">
+        <v>146</v>
+      </c>
+      <c r="C103" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>162</v>
+      </c>
+      <c r="B104" t="s">
+        <v>20</v>
+      </c>
+      <c r="C104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>163</v>
+      </c>
+      <c r="B105" t="s">
+        <v>164</v>
+      </c>
+      <c r="C105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>165</v>
+      </c>
+      <c r="B106" t="s">
+        <v>166</v>
+      </c>
+      <c r="C106" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>167</v>
+      </c>
+      <c r="B107" t="s">
+        <v>144</v>
+      </c>
+      <c r="C107" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>168</v>
+      </c>
+      <c r="B108" t="s">
+        <v>144</v>
+      </c>
+      <c r="C108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>169</v>
+      </c>
+      <c r="B109" t="s">
+        <v>80</v>
+      </c>
+      <c r="C109" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>170</v>
+      </c>
+      <c r="B110" t="s">
+        <v>144</v>
+      </c>
+      <c r="C110" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>171</v>
+      </c>
+      <c r="B111" t="s">
+        <v>144</v>
+      </c>
+      <c r="C111" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>172</v>
+      </c>
+      <c r="B112" t="s">
+        <v>173</v>
+      </c>
+      <c r="C112" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>174</v>
+      </c>
+      <c r="B113" t="s">
+        <v>173</v>
+      </c>
+      <c r="C113" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>175</v>
+      </c>
+      <c r="B114" t="s">
+        <v>173</v>
+      </c>
+      <c r="C114" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>176</v>
+      </c>
+      <c r="B115" t="s">
+        <v>173</v>
+      </c>
+      <c r="C115" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink Asia Dividend Advantage.xlsx
+++ b/data/GreatLink/GreatLink Asia Dividend Advantage.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid611406"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid110237"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,15 +26,111 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>30/10/2024</t>
+  </si>
+  <si>
+    <t>0.973</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>29/10/2024</t>
+  </si>
+  <si>
+    <t>0.984</t>
+  </si>
+  <si>
+    <t>28/10/2024</t>
+  </si>
+  <si>
+    <t>0.982</t>
+  </si>
+  <si>
+    <t>25/10/2024</t>
+  </si>
+  <si>
+    <t>24/10/2024</t>
+  </si>
+  <si>
+    <t>0.980</t>
+  </si>
+  <si>
+    <t>23/10/2024</t>
+  </si>
+  <si>
+    <t>0.988</t>
+  </si>
+  <si>
+    <t>22/10/2024</t>
+  </si>
+  <si>
+    <t>21/10/2024</t>
+  </si>
+  <si>
+    <t>18/10/2024</t>
+  </si>
+  <si>
+    <t>17/10/2024</t>
+  </si>
+  <si>
+    <t>0.970</t>
+  </si>
+  <si>
+    <t>16/10/2024</t>
+  </si>
+  <si>
+    <t>0.978</t>
+  </si>
+  <si>
+    <t>15/10/2024</t>
+  </si>
+  <si>
+    <t>0.985</t>
+  </si>
+  <si>
+    <t>14/10/2024</t>
+  </si>
+  <si>
+    <t>0.996</t>
+  </si>
+  <si>
+    <t>11/10/2024</t>
+  </si>
+  <si>
+    <t>0.995</t>
+  </si>
+  <si>
+    <t>10/10/2024</t>
+  </si>
+  <si>
+    <t>0.999</t>
+  </si>
+  <si>
+    <t>09/10/2024</t>
+  </si>
+  <si>
+    <t>08/10/2024</t>
+  </si>
+  <si>
+    <t>0.989</t>
+  </si>
+  <si>
+    <t>07/10/2024</t>
+  </si>
+  <si>
+    <t>1.012</t>
+  </si>
+  <si>
+    <t>04/10/2024</t>
+  </si>
+  <si>
+    <t>1.011</t>
+  </si>
+  <si>
     <t>03/10/2024</t>
   </si>
   <si>
-    <t>0.999</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>02/10/2024</t>
   </si>
   <si>
@@ -293,21 +389,12 @@
     <t>18/07/2024</t>
   </si>
   <si>
-    <t>0.980</t>
-  </si>
-  <si>
     <t>17/07/2024</t>
   </si>
   <si>
-    <t>0.984</t>
-  </si>
-  <si>
     <t>16/07/2024</t>
   </si>
   <si>
-    <t>0.985</t>
-  </si>
-  <si>
     <t>15/07/2024</t>
   </si>
   <si>
@@ -338,9 +425,6 @@
     <t>08/07/2024</t>
   </si>
   <si>
-    <t>0.978</t>
-  </si>
-  <si>
     <t>05/07/2024</t>
   </si>
   <si>
@@ -350,9 +434,6 @@
     <t>04/07/2024</t>
   </si>
   <si>
-    <t>0.982</t>
-  </si>
-  <si>
     <t>03/07/2024</t>
   </si>
   <si>
@@ -468,9 +549,6 @@
   </si>
   <si>
     <t>23/05/2024</t>
-  </si>
-  <si>
-    <t>0.970</t>
   </si>
   <si>
     <t>21/05/2024</t>
@@ -956,7 +1034,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -964,10 +1042,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -975,10 +1053,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -986,10 +1064,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -997,10 +1075,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1008,10 +1086,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1019,10 +1097,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1030,10 +1108,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1041,10 +1119,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -1052,10 +1130,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -1063,10 +1141,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -1074,10 +1152,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -1085,10 +1163,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -1096,10 +1174,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -1107,10 +1185,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1118,7 +1196,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
         <v>41</v>
@@ -1129,10 +1207,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1140,10 +1218,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -1151,10 +1229,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" t="s">
         <v>46</v>
-      </c>
-      <c r="B26" t="s">
-        <v>44</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -1165,7 +1243,7 @@
         <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -1173,10 +1251,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -1184,10 +1262,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -1195,10 +1273,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -1206,10 +1284,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -1217,10 +1295,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -1228,10 +1306,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -1239,10 +1317,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -1250,10 +1328,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -1261,10 +1339,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" t="s">
         <v>62</v>
-      </c>
-      <c r="B36" t="s">
-        <v>24</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1272,10 +1350,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -1283,10 +1361,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B38" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -1294,10 +1372,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B39" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -1305,10 +1383,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" t="s">
         <v>68</v>
-      </c>
-      <c r="B40" t="s">
-        <v>41</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1316,10 +1394,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B41" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -1327,10 +1405,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B42" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -1338,10 +1416,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B43" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -1349,10 +1427,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -1360,10 +1438,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45" t="s">
         <v>76</v>
-      </c>
-      <c r="B45" t="s">
-        <v>34</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -1371,10 +1449,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -1382,10 +1460,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -1393,10 +1471,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -1404,10 +1482,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B49" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -1415,10 +1493,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B50" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -1426,10 +1504,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -1437,10 +1515,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B52" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -1448,10 +1526,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -1459,10 +1537,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -1470,10 +1548,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -1481,10 +1559,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B56" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -1492,10 +1570,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B57" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -1503,10 +1581,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B58" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -1514,10 +1592,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B59" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -1525,10 +1603,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B60" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -1536,10 +1614,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B61" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -1547,10 +1625,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B62" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -1558,10 +1636,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B63" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -1569,10 +1647,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B64" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -1580,10 +1658,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B65" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -1591,10 +1669,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B66" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -1602,10 +1680,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B67" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -1616,7 +1694,7 @@
         <v>114</v>
       </c>
       <c r="B68" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -1624,10 +1702,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B69" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -1635,10 +1713,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B70" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -1646,10 +1724,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B71" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -1657,10 +1735,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B72" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -1668,10 +1746,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B73" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -1679,10 +1757,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B74" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -1690,10 +1768,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B75" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -1701,10 +1779,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B76" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -1712,10 +1790,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B77" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -1723,10 +1801,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B78" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -1734,10 +1812,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B79" t="s">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -1745,10 +1823,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B80" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -1756,10 +1834,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B81" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -1767,10 +1845,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B82" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -1778,10 +1856,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B83" t="s">
-        <v>134</v>
+        <v>21</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -1789,10 +1867,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B84" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -1800,10 +1878,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B85" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -1811,10 +1889,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B86" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -1822,10 +1900,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B87" t="s">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -1833,10 +1911,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B88" t="s">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -1844,10 +1922,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B89" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -1855,10 +1933,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B90" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -1869,7 +1947,7 @@
         <v>145</v>
       </c>
       <c r="B91" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -1877,10 +1955,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B92" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -1888,10 +1966,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B93" t="s">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -1899,10 +1977,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
+        <v>148</v>
+      </c>
+      <c r="B94" t="s">
         <v>149</v>
-      </c>
-      <c r="B94" t="s">
-        <v>18</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -1913,7 +1991,7 @@
         <v>150</v>
       </c>
       <c r="B95" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -1921,10 +1999,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B96" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -1932,10 +2010,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B97" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -1943,10 +2021,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B98" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -1954,10 +2032,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B99" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -1965,10 +2043,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
+        <v>157</v>
+      </c>
+      <c r="B100" t="s">
         <v>158</v>
-      </c>
-      <c r="B100" t="s">
-        <v>153</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -1979,7 +2057,7 @@
         <v>159</v>
       </c>
       <c r="B101" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -1990,7 +2068,7 @@
         <v>160</v>
       </c>
       <c r="B102" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -1998,10 +2076,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B103" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -2009,10 +2087,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B104" t="s">
-        <v>20</v>
+        <v>153</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -2020,10 +2098,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B105" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -2031,10 +2109,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B106" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -2042,10 +2120,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B107" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -2053,10 +2131,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B108" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -2064,10 +2142,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B109" t="s">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -2075,10 +2153,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B110" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -2086,10 +2164,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B111" t="s">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -2097,10 +2175,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B112" t="s">
-        <v>173</v>
+        <v>48</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -2108,10 +2186,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B113" t="s">
-        <v>173</v>
+        <v>50</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -2119,10 +2197,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B114" t="s">
-        <v>173</v>
+        <v>19</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -2130,12 +2208,221 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B115" t="s">
+        <v>179</v>
+      </c>
+      <c r="C115" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>180</v>
+      </c>
+      <c r="B116" t="s">
+        <v>156</v>
+      </c>
+      <c r="C116" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>181</v>
+      </c>
+      <c r="B117" t="s">
+        <v>182</v>
+      </c>
+      <c r="C117" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>183</v>
+      </c>
+      <c r="B118" t="s">
+        <v>161</v>
+      </c>
+      <c r="C118" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>184</v>
+      </c>
+      <c r="B119" t="s">
+        <v>179</v>
+      </c>
+      <c r="C119" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>185</v>
+      </c>
+      <c r="B120" t="s">
+        <v>50</v>
+      </c>
+      <c r="C120" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>186</v>
+      </c>
+      <c r="B121" t="s">
+        <v>179</v>
+      </c>
+      <c r="C121" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>187</v>
+      </c>
+      <c r="B122" t="s">
         <v>173</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C122" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>188</v>
+      </c>
+      <c r="B123" t="s">
+        <v>52</v>
+      </c>
+      <c r="C123" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>189</v>
+      </c>
+      <c r="B124" t="s">
+        <v>190</v>
+      </c>
+      <c r="C124" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>191</v>
+      </c>
+      <c r="B125" t="s">
+        <v>192</v>
+      </c>
+      <c r="C125" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>193</v>
+      </c>
+      <c r="B126" t="s">
+        <v>171</v>
+      </c>
+      <c r="C126" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>194</v>
+      </c>
+      <c r="B127" t="s">
+        <v>171</v>
+      </c>
+      <c r="C127" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>195</v>
+      </c>
+      <c r="B128" t="s">
+        <v>112</v>
+      </c>
+      <c r="C128" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>196</v>
+      </c>
+      <c r="B129" t="s">
+        <v>171</v>
+      </c>
+      <c r="C129" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>197</v>
+      </c>
+      <c r="B130" t="s">
+        <v>171</v>
+      </c>
+      <c r="C130" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>198</v>
+      </c>
+      <c r="B131" t="s">
+        <v>199</v>
+      </c>
+      <c r="C131" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>200</v>
+      </c>
+      <c r="B132" t="s">
+        <v>199</v>
+      </c>
+      <c r="C132" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>201</v>
+      </c>
+      <c r="B133" t="s">
+        <v>199</v>
+      </c>
+      <c r="C133" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>202</v>
+      </c>
+      <c r="B134" t="s">
+        <v>199</v>
+      </c>
+      <c r="C134" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink Asia Dividend Advantage.xlsx
+++ b/data/GreatLink/GreatLink Asia Dividend Advantage.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid110237"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid126911"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="231">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,15 +26,141 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>05/12/2024</t>
+  </si>
+  <si>
+    <t>0.990</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>04/12/2024</t>
+  </si>
+  <si>
+    <t>0.991</t>
+  </si>
+  <si>
+    <t>03/12/2024</t>
+  </si>
+  <si>
+    <t>02/12/2024</t>
+  </si>
+  <si>
+    <t>0.982</t>
+  </si>
+  <si>
+    <t>29/11/2024</t>
+  </si>
+  <si>
+    <t>0.973</t>
+  </si>
+  <si>
+    <t>28/11/2024</t>
+  </si>
+  <si>
+    <t>0.972</t>
+  </si>
+  <si>
+    <t>27/11/2024</t>
+  </si>
+  <si>
+    <t>0.980</t>
+  </si>
+  <si>
+    <t>26/11/2024</t>
+  </si>
+  <si>
+    <t>0.977</t>
+  </si>
+  <si>
+    <t>25/11/2024</t>
+  </si>
+  <si>
+    <t>0.981</t>
+  </si>
+  <si>
+    <t>22/11/2024</t>
+  </si>
+  <si>
+    <t>21/11/2024</t>
+  </si>
+  <si>
+    <t>20/11/2024</t>
+  </si>
+  <si>
+    <t>0.976</t>
+  </si>
+  <si>
+    <t>19/11/2024</t>
+  </si>
+  <si>
+    <t>0.969</t>
+  </si>
+  <si>
+    <t>18/11/2024</t>
+  </si>
+  <si>
+    <t>0.963</t>
+  </si>
+  <si>
+    <t>15/11/2024</t>
+  </si>
+  <si>
+    <t>0.965</t>
+  </si>
+  <si>
+    <t>14/11/2024</t>
+  </si>
+  <si>
+    <t>0.962</t>
+  </si>
+  <si>
+    <t>13/11/2024</t>
+  </si>
+  <si>
+    <t>12/11/2024</t>
+  </si>
+  <si>
+    <t>11/11/2024</t>
+  </si>
+  <si>
+    <t>0.988</t>
+  </si>
+  <si>
+    <t>08/11/2024</t>
+  </si>
+  <si>
+    <t>0.986</t>
+  </si>
+  <si>
+    <t>07/11/2024</t>
+  </si>
+  <si>
+    <t>06/11/2024</t>
+  </si>
+  <si>
+    <t>05/11/2024</t>
+  </si>
+  <si>
+    <t>0.978</t>
+  </si>
+  <si>
+    <t>04/11/2024</t>
+  </si>
+  <si>
+    <t>0.968</t>
+  </si>
+  <si>
+    <t>01/11/2024</t>
+  </si>
+  <si>
+    <t>0.970</t>
+  </si>
+  <si>
     <t>30/10/2024</t>
   </si>
   <si>
-    <t>0.973</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>29/10/2024</t>
   </si>
   <si>
@@ -44,24 +170,15 @@
     <t>28/10/2024</t>
   </si>
   <si>
-    <t>0.982</t>
-  </si>
-  <si>
     <t>25/10/2024</t>
   </si>
   <si>
     <t>24/10/2024</t>
   </si>
   <si>
-    <t>0.980</t>
-  </si>
-  <si>
     <t>23/10/2024</t>
   </si>
   <si>
-    <t>0.988</t>
-  </si>
-  <si>
     <t>22/10/2024</t>
   </si>
   <si>
@@ -74,15 +191,9 @@
     <t>17/10/2024</t>
   </si>
   <si>
-    <t>0.970</t>
-  </si>
-  <si>
     <t>16/10/2024</t>
   </si>
   <si>
-    <t>0.978</t>
-  </si>
-  <si>
     <t>15/10/2024</t>
   </si>
   <si>
@@ -155,21 +266,12 @@
     <t>26/09/2024</t>
   </si>
   <si>
-    <t>0.990</t>
-  </si>
-  <si>
     <t>25/09/2024</t>
   </si>
   <si>
-    <t>0.968</t>
-  </si>
-  <si>
     <t>24/09/2024</t>
   </si>
   <si>
-    <t>0.963</t>
-  </si>
-  <si>
     <t>23/09/2024</t>
   </si>
   <si>
@@ -407,9 +509,6 @@
     <t>11/07/2024</t>
   </si>
   <si>
-    <t>0.986</t>
-  </si>
-  <si>
     <t>10/07/2024</t>
   </si>
   <si>
@@ -428,18 +527,12 @@
     <t>05/07/2024</t>
   </si>
   <si>
-    <t>0.977</t>
-  </si>
-  <si>
     <t>04/07/2024</t>
   </si>
   <si>
     <t>03/07/2024</t>
   </si>
   <si>
-    <t>0.976</t>
-  </si>
-  <si>
     <t>02/07/2024</t>
   </si>
   <si>
@@ -464,9 +557,6 @@
     <t>21/06/2024</t>
   </si>
   <si>
-    <t>0.981</t>
-  </si>
-  <si>
     <t>20/06/2024</t>
   </si>
   <si>
@@ -491,9 +581,6 @@
     <t>12/06/2024</t>
   </si>
   <si>
-    <t>0.962</t>
-  </si>
-  <si>
     <t>11/06/2024</t>
   </si>
   <si>
@@ -561,9 +648,6 @@
   </si>
   <si>
     <t>17/05/2024</t>
-  </si>
-  <si>
-    <t>0.969</t>
   </si>
   <si>
     <t>16/05/2024</t>
@@ -990,7 +1074,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -998,10 +1082,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1034,7 +1118,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1042,10 +1126,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -1053,10 +1137,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1064,10 +1148,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
         <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1075,10 +1159,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1086,10 +1170,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1097,10 +1181,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1108,10 +1192,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1119,10 +1203,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -1130,10 +1214,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -1141,10 +1225,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -1152,10 +1236,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -1177,7 +1261,7 @@
         <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -1185,10 +1269,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1199,7 +1283,7 @@
         <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -1207,10 +1291,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" t="s">
         <v>42</v>
-      </c>
-      <c r="B24" t="s">
-        <v>41</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1243,7 +1327,7 @@
         <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -1251,10 +1335,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" t="s">
         <v>49</v>
-      </c>
-      <c r="B28" t="s">
-        <v>50</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -1262,10 +1346,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -1273,10 +1357,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -1284,10 +1368,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -1295,10 +1379,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -1306,10 +1390,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -1317,10 +1401,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -1328,10 +1412,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B35" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -1339,10 +1423,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1350,10 +1434,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -1361,10 +1445,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -1372,10 +1456,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B39" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -1383,10 +1467,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B40" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1394,10 +1478,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -1405,10 +1489,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -1416,10 +1500,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B43" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -1427,10 +1511,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -1438,10 +1522,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B45" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -1449,10 +1533,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -1460,10 +1544,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B47" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -1471,10 +1555,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B48" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -1482,10 +1566,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B49" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -1493,10 +1577,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B50" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -1504,10 +1588,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B51" t="s">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -1515,10 +1599,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B52" t="s">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -1526,10 +1610,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B53" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -1537,10 +1621,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B54" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -1548,10 +1632,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -1559,10 +1643,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B56" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -1570,10 +1654,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B57" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -1581,10 +1665,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B58" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -1592,10 +1676,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B59" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -1603,10 +1687,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B60" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -1614,10 +1698,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B61" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -1625,10 +1709,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B62" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -1636,10 +1720,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -1647,10 +1731,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -1658,10 +1742,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B65" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -1669,10 +1753,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B66" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -1680,10 +1764,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B67" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -1691,10 +1775,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B68" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -1702,10 +1786,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B69" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -1713,10 +1797,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B70" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -1724,10 +1808,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B71" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -1735,10 +1819,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B72" t="s">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -1746,10 +1830,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B73" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -1757,10 +1841,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B74" t="s">
-        <v>48</v>
+        <v>119</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -1768,10 +1852,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B75" t="s">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -1779,10 +1863,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>123</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -1790,10 +1874,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
+        <v>124</v>
+      </c>
+      <c r="B77" t="s">
         <v>125</v>
-      </c>
-      <c r="B77" t="s">
-        <v>23</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -1804,7 +1888,7 @@
         <v>126</v>
       </c>
       <c r="B78" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -1812,10 +1896,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B79" t="s">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -1823,10 +1907,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B80" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -1834,10 +1918,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B81" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -1845,10 +1929,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B82" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -1856,10 +1940,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B83" t="s">
-        <v>21</v>
+        <v>133</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -1867,10 +1951,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B84" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -1878,10 +1962,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B85" t="s">
-        <v>9</v>
+        <v>136</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -1889,10 +1973,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B86" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -1900,10 +1984,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B87" t="s">
-        <v>21</v>
+        <v>140</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -1911,10 +1995,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B88" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -1922,10 +2006,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B89" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -1933,10 +2017,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
+        <v>143</v>
+      </c>
+      <c r="B90" t="s">
         <v>144</v>
-      </c>
-      <c r="B90" t="s">
-        <v>7</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -1947,7 +2031,7 @@
         <v>145</v>
       </c>
       <c r="B91" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -1955,10 +2039,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>117</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -1966,10 +2050,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B93" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -1977,10 +2061,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B94" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -1988,10 +2072,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B95" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -1999,10 +2083,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B96" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -2010,10 +2094,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B97" t="s">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -2021,10 +2105,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B98" t="s">
-        <v>137</v>
+        <v>44</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -2032,10 +2116,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B99" t="s">
-        <v>156</v>
+        <v>44</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -2046,7 +2130,7 @@
         <v>157</v>
       </c>
       <c r="B100" t="s">
-        <v>158</v>
+        <v>16</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -2054,10 +2138,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B101" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -2065,10 +2149,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B102" t="s">
-        <v>161</v>
+        <v>60</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -2076,10 +2160,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B103" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -2087,10 +2171,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B104" t="s">
-        <v>153</v>
+        <v>4</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -2098,10 +2182,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B105" t="s">
-        <v>165</v>
+        <v>38</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -2109,10 +2193,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B106" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -2120,10 +2204,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B107" t="s">
-        <v>115</v>
+        <v>167</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -2131,10 +2215,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B108" t="s">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -2142,10 +2226,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B109" t="s">
-        <v>171</v>
+        <v>18</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -2153,10 +2237,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B110" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -2164,10 +2248,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B111" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -2175,10 +2259,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B112" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -2186,10 +2270,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B113" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -2197,10 +2281,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B114" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -2208,10 +2292,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B115" t="s">
-        <v>179</v>
+        <v>49</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -2219,10 +2303,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B116" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -2230,10 +2314,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B117" t="s">
-        <v>182</v>
+        <v>49</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -2241,10 +2325,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B118" t="s">
-        <v>161</v>
+        <v>18</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -2252,10 +2336,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B119" t="s">
-        <v>179</v>
+        <v>20</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -2263,10 +2347,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B120" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -2274,10 +2358,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B121" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -2285,10 +2369,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B122" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -2296,10 +2380,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B123" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -2307,10 +2391,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B124" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -2318,10 +2402,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B125" t="s">
-        <v>192</v>
+        <v>32</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -2329,10 +2413,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B126" t="s">
-        <v>171</v>
+        <v>44</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -2340,10 +2424,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B127" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -2351,10 +2435,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B128" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -2362,10 +2446,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B129" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -2373,10 +2457,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B130" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -2384,10 +2468,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B131" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -2395,10 +2479,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B132" t="s">
-        <v>199</v>
+        <v>149</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -2406,10 +2490,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B133" t="s">
-        <v>199</v>
+        <v>149</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -2417,12 +2501,287 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
+        <v>199</v>
+      </c>
+      <c r="B134" t="s">
+        <v>200</v>
+      </c>
+      <c r="C134" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>201</v>
+      </c>
+      <c r="B135" t="s">
         <v>202</v>
       </c>
-      <c r="B134" t="s">
-        <v>199</v>
-      </c>
-      <c r="C134" t="s">
+      <c r="C135" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>203</v>
+      </c>
+      <c r="B136" t="s">
+        <v>44</v>
+      </c>
+      <c r="C136" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>204</v>
+      </c>
+      <c r="B137" t="s">
+        <v>44</v>
+      </c>
+      <c r="C137" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>205</v>
+      </c>
+      <c r="B138" t="s">
+        <v>28</v>
+      </c>
+      <c r="C138" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>206</v>
+      </c>
+      <c r="B139" t="s">
+        <v>46</v>
+      </c>
+      <c r="C139" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>207</v>
+      </c>
+      <c r="B140" t="s">
+        <v>208</v>
+      </c>
+      <c r="C140" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>209</v>
+      </c>
+      <c r="B141" t="s">
+        <v>186</v>
+      </c>
+      <c r="C141" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>210</v>
+      </c>
+      <c r="B142" t="s">
+        <v>26</v>
+      </c>
+      <c r="C142" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>211</v>
+      </c>
+      <c r="B143" t="s">
+        <v>190</v>
+      </c>
+      <c r="C143" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>212</v>
+      </c>
+      <c r="B144" t="s">
+        <v>208</v>
+      </c>
+      <c r="C144" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>213</v>
+      </c>
+      <c r="B145" t="s">
+        <v>28</v>
+      </c>
+      <c r="C145" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>214</v>
+      </c>
+      <c r="B146" t="s">
+        <v>208</v>
+      </c>
+      <c r="C146" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>215</v>
+      </c>
+      <c r="B147" t="s">
+        <v>202</v>
+      </c>
+      <c r="C147" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>216</v>
+      </c>
+      <c r="B148" t="s">
+        <v>86</v>
+      </c>
+      <c r="C148" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>217</v>
+      </c>
+      <c r="B149" t="s">
+        <v>218</v>
+      </c>
+      <c r="C149" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>219</v>
+      </c>
+      <c r="B150" t="s">
+        <v>220</v>
+      </c>
+      <c r="C150" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>221</v>
+      </c>
+      <c r="B151" t="s">
+        <v>200</v>
+      </c>
+      <c r="C151" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>222</v>
+      </c>
+      <c r="B152" t="s">
+        <v>200</v>
+      </c>
+      <c r="C152" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>223</v>
+      </c>
+      <c r="B153" t="s">
+        <v>146</v>
+      </c>
+      <c r="C153" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>224</v>
+      </c>
+      <c r="B154" t="s">
+        <v>200</v>
+      </c>
+      <c r="C154" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>225</v>
+      </c>
+      <c r="B155" t="s">
+        <v>200</v>
+      </c>
+      <c r="C155" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>226</v>
+      </c>
+      <c r="B156" t="s">
+        <v>227</v>
+      </c>
+      <c r="C156" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>228</v>
+      </c>
+      <c r="B157" t="s">
+        <v>227</v>
+      </c>
+      <c r="C157" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>229</v>
+      </c>
+      <c r="B158" t="s">
+        <v>227</v>
+      </c>
+      <c r="C158" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>230</v>
+      </c>
+      <c r="B159" t="s">
+        <v>227</v>
+      </c>
+      <c r="C159" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink Asia Dividend Advantage.xlsx
+++ b/data/GreatLink/GreatLink Asia Dividend Advantage.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid126911"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid43798"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="263">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,15 +26,162 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>16/01/2025</t>
+  </si>
+  <si>
+    <t>0.957</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>15/01/2025</t>
+  </si>
+  <si>
+    <t>0.949</t>
+  </si>
+  <si>
+    <t>14/01/2025</t>
+  </si>
+  <si>
+    <t>0.950</t>
+  </si>
+  <si>
+    <t>13/01/2025</t>
+  </si>
+  <si>
+    <t>0.948</t>
+  </si>
+  <si>
+    <t>10/01/2025</t>
+  </si>
+  <si>
+    <t>0.962</t>
+  </si>
+  <si>
+    <t>09/01/2025</t>
+  </si>
+  <si>
+    <t>0.968</t>
+  </si>
+  <si>
+    <t>08/01/2025</t>
+  </si>
+  <si>
+    <t>0.971</t>
+  </si>
+  <si>
+    <t>07/01/2025</t>
+  </si>
+  <si>
+    <t>0.973</t>
+  </si>
+  <si>
+    <t>06/01/2025</t>
+  </si>
+  <si>
+    <t>0.972</t>
+  </si>
+  <si>
+    <t>03/01/2025</t>
+  </si>
+  <si>
+    <t>0.985</t>
+  </si>
+  <si>
+    <t>02/01/2025</t>
+  </si>
+  <si>
+    <t>0.989</t>
+  </si>
+  <si>
+    <t>31/12/2024</t>
+  </si>
+  <si>
+    <t>0.990</t>
+  </si>
+  <si>
+    <t>30/12/2024</t>
+  </si>
+  <si>
+    <t>27/12/2024</t>
+  </si>
+  <si>
+    <t>0.994</t>
+  </si>
+  <si>
+    <t>26/12/2024</t>
+  </si>
+  <si>
+    <t>24/12/2024</t>
+  </si>
+  <si>
+    <t>23/12/2024</t>
+  </si>
+  <si>
+    <t>20/12/2024</t>
+  </si>
+  <si>
+    <t>0.980</t>
+  </si>
+  <si>
+    <t>19/12/2024</t>
+  </si>
+  <si>
+    <t>18/12/2024</t>
+  </si>
+  <si>
+    <t>0.995</t>
+  </si>
+  <si>
+    <t>17/12/2024</t>
+  </si>
+  <si>
+    <t>0.992</t>
+  </si>
+  <si>
+    <t>16/12/2024</t>
+  </si>
+  <si>
+    <t>0.998</t>
+  </si>
+  <si>
+    <t>13/12/2024</t>
+  </si>
+  <si>
+    <t>1.005</t>
+  </si>
+  <si>
+    <t>12/12/2024</t>
+  </si>
+  <si>
+    <t>1.011</t>
+  </si>
+  <si>
+    <t>11/12/2024</t>
+  </si>
+  <si>
+    <t>1.001</t>
+  </si>
+  <si>
+    <t>10/12/2024</t>
+  </si>
+  <si>
+    <t>09/12/2024</t>
+  </si>
+  <si>
+    <t>0.999</t>
+  </si>
+  <si>
+    <t>06/12/2024</t>
+  </si>
+  <si>
+    <t>0.993</t>
+  </si>
+  <si>
     <t>05/12/2024</t>
   </si>
   <si>
-    <t>0.990</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>04/12/2024</t>
   </si>
   <si>
@@ -53,21 +200,12 @@
     <t>29/11/2024</t>
   </si>
   <si>
-    <t>0.973</t>
-  </si>
-  <si>
     <t>28/11/2024</t>
   </si>
   <si>
-    <t>0.972</t>
-  </si>
-  <si>
     <t>27/11/2024</t>
   </si>
   <si>
-    <t>0.980</t>
-  </si>
-  <si>
     <t>26/11/2024</t>
   </si>
   <si>
@@ -113,9 +251,6 @@
     <t>14/11/2024</t>
   </si>
   <si>
-    <t>0.962</t>
-  </si>
-  <si>
     <t>13/11/2024</t>
   </si>
   <si>
@@ -149,9 +284,6 @@
     <t>04/11/2024</t>
   </si>
   <si>
-    <t>0.968</t>
-  </si>
-  <si>
     <t>01/11/2024</t>
   </si>
   <si>
@@ -197,9 +329,6 @@
     <t>15/10/2024</t>
   </si>
   <si>
-    <t>0.985</t>
-  </si>
-  <si>
     <t>14/10/2024</t>
   </si>
   <si>
@@ -209,24 +338,15 @@
     <t>11/10/2024</t>
   </si>
   <si>
-    <t>0.995</t>
-  </si>
-  <si>
     <t>10/10/2024</t>
   </si>
   <si>
-    <t>0.999</t>
-  </si>
-  <si>
     <t>09/10/2024</t>
   </si>
   <si>
     <t>08/10/2024</t>
   </si>
   <si>
-    <t>0.989</t>
-  </si>
-  <si>
     <t>07/10/2024</t>
   </si>
   <si>
@@ -236,9 +356,6 @@
     <t>04/10/2024</t>
   </si>
   <si>
-    <t>1.011</t>
-  </si>
-  <si>
     <t>03/10/2024</t>
   </si>
   <si>
@@ -251,18 +368,12 @@
     <t>01/10/2024</t>
   </si>
   <si>
-    <t>0.998</t>
-  </si>
-  <si>
     <t>30/09/2024</t>
   </si>
   <si>
     <t>27/09/2024</t>
   </si>
   <si>
-    <t>1.001</t>
-  </si>
-  <si>
     <t>26/09/2024</t>
   </si>
   <si>
@@ -455,9 +566,6 @@
     <t>31/07/2024</t>
   </si>
   <si>
-    <t>0.948</t>
-  </si>
-  <si>
     <t>30/07/2024</t>
   </si>
   <si>
@@ -587,9 +695,6 @@
     <t>10/06/2024</t>
   </si>
   <si>
-    <t>0.971</t>
-  </si>
-  <si>
     <t>07/06/2024</t>
   </si>
   <si>
@@ -617,15 +722,9 @@
     <t>30/05/2024</t>
   </si>
   <si>
-    <t>0.949</t>
-  </si>
-  <si>
     <t>29/05/2024</t>
   </si>
   <si>
-    <t>0.957</t>
-  </si>
-  <si>
     <t>28/05/2024</t>
   </si>
   <si>
@@ -696,9 +795,6 @@
   </si>
   <si>
     <t>26/04/2024</t>
-  </si>
-  <si>
-    <t>0.950</t>
   </si>
   <si>
     <t>25/04/2024</t>
@@ -1074,7 +1170,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1082,10 +1178,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1093,10 +1189,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1104,10 +1200,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1115,10 +1211,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1126,10 +1222,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -1137,10 +1233,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1148,10 +1244,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1159,10 +1255,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1170,10 +1266,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1181,10 +1277,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1192,10 +1288,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1203,7 +1299,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
@@ -1214,10 +1310,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -1228,7 +1324,7 @@
         <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -1239,7 +1335,7 @@
         <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -1247,10 +1343,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -1272,7 +1368,7 @@
         <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1280,10 +1376,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -1291,10 +1387,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1302,10 +1398,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -1313,10 +1409,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -1324,10 +1420,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -1335,10 +1431,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -1346,10 +1442,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -1357,10 +1453,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -1368,10 +1464,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -1379,10 +1475,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -1390,10 +1486,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -1401,10 +1497,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -1412,10 +1508,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -1423,10 +1519,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1434,10 +1530,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -1445,10 +1541,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B38" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -1456,10 +1552,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -1467,10 +1563,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B40" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1478,10 +1574,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -1489,10 +1585,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B42" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -1500,10 +1596,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B43" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -1511,10 +1607,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B44" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -1522,10 +1618,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B45" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -1533,10 +1629,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B46" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -1544,10 +1640,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B47" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -1555,10 +1651,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B48" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -1566,10 +1662,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B49" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -1577,10 +1673,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B50" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -1588,10 +1684,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B51" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -1599,10 +1695,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B52" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -1610,10 +1706,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B53" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -1621,10 +1717,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B54" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -1632,10 +1728,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B55" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -1643,10 +1739,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B56" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -1654,10 +1750,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B57" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -1665,10 +1761,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B58" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -1676,10 +1772,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B59" t="s">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -1690,7 +1786,7 @@
         <v>97</v>
       </c>
       <c r="B60" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -1701,7 +1797,7 @@
         <v>98</v>
       </c>
       <c r="B61" t="s">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -1712,7 +1808,7 @@
         <v>99</v>
       </c>
       <c r="B62" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -1720,10 +1816,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B63" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -1731,10 +1827,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B64" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -1742,10 +1838,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B65" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -1753,10 +1849,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B66" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -1764,10 +1860,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B67" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -1775,10 +1871,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B68" t="s">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -1786,10 +1882,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B69" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -1797,10 +1893,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B70" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -1808,10 +1904,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B71" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -1819,10 +1915,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B72" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -1830,10 +1926,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B73" t="s">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -1841,10 +1937,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B74" t="s">
-        <v>119</v>
+        <v>51</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -1852,10 +1948,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B75" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -1863,10 +1959,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B76" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -1874,10 +1970,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B77" t="s">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -1885,10 +1981,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B78" t="s">
-        <v>119</v>
+        <v>48</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -1896,10 +1992,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B79" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -1907,10 +2003,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B80" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -1918,10 +2014,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B81" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -1929,10 +2025,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B82" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -1940,10 +2036,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B83" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -1951,10 +2047,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B84" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -1962,10 +2058,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B85" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -1973,10 +2069,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B86" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -1984,10 +2080,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B87" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -1995,10 +2091,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B88" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -2006,10 +2102,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B89" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -2017,10 +2113,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B90" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -2028,10 +2124,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B91" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -2039,10 +2135,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B92" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -2050,10 +2146,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B93" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -2061,10 +2157,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B94" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -2072,10 +2168,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B95" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -2083,10 +2179,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B96" t="s">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -2094,10 +2190,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B97" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -2105,10 +2201,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B98" t="s">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -2116,10 +2212,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B99" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -2127,10 +2223,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B100" t="s">
-        <v>16</v>
+        <v>152</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -2138,10 +2234,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B101" t="s">
-        <v>49</v>
+        <v>154</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -2149,10 +2245,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B102" t="s">
-        <v>60</v>
+        <v>156</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -2160,10 +2256,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B103" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -2171,10 +2267,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B104" t="s">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -2182,10 +2278,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B105" t="s">
-        <v>38</v>
+        <v>162</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -2193,10 +2289,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B106" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -2204,10 +2300,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B107" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -2215,10 +2311,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B108" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -2226,10 +2322,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B109" t="s">
-        <v>18</v>
+        <v>144</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -2237,10 +2333,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B110" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -2248,10 +2344,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B111" t="s">
-        <v>24</v>
+        <v>170</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -2259,10 +2355,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B112" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -2270,10 +2366,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
+        <v>172</v>
+      </c>
+      <c r="B113" t="s">
         <v>173</v>
-      </c>
-      <c r="B113" t="s">
-        <v>10</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -2284,7 +2380,7 @@
         <v>174</v>
       </c>
       <c r="B114" t="s">
-        <v>16</v>
+        <v>175</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -2292,10 +2388,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B115" t="s">
-        <v>49</v>
+        <v>177</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -2303,10 +2399,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B116" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -2314,10 +2410,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B117" t="s">
-        <v>49</v>
+        <v>137</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -2325,10 +2421,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B118" t="s">
-        <v>18</v>
+        <v>181</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -2336,10 +2432,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B119" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -2347,10 +2443,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B120" t="s">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -2358,10 +2454,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B121" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -2369,10 +2465,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B122" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -2380,10 +2476,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B123" t="s">
-        <v>18</v>
+        <v>160</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -2391,10 +2487,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B124" t="s">
-        <v>186</v>
+        <v>125</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -2402,10 +2498,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B125" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -2413,10 +2509,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B126" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -2424,10 +2520,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B127" t="s">
-        <v>190</v>
+        <v>15</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -2435,10 +2531,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B128" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -2446,10 +2542,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B129" t="s">
-        <v>183</v>
+        <v>93</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -2457,10 +2553,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B130" t="s">
-        <v>194</v>
+        <v>23</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -2468,10 +2564,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B131" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -2479,10 +2575,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B132" t="s">
-        <v>149</v>
+        <v>27</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -2490,10 +2586,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B133" t="s">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -2501,10 +2597,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B134" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -2512,10 +2608,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B135" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -2523,10 +2619,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B136" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -2534,10 +2630,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B137" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -2545,10 +2641,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B138" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -2556,10 +2652,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B139" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -2567,10 +2663,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B140" t="s">
-        <v>208</v>
+        <v>87</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -2581,7 +2677,7 @@
         <v>209</v>
       </c>
       <c r="B141" t="s">
-        <v>186</v>
+        <v>59</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -2592,7 +2688,7 @@
         <v>210</v>
       </c>
       <c r="B142" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -2603,7 +2699,7 @@
         <v>211</v>
       </c>
       <c r="B143" t="s">
-        <v>190</v>
+        <v>93</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -2614,7 +2710,7 @@
         <v>212</v>
       </c>
       <c r="B144" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -2625,7 +2721,7 @@
         <v>213</v>
       </c>
       <c r="B145" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -2636,7 +2732,7 @@
         <v>214</v>
       </c>
       <c r="B146" t="s">
-        <v>208</v>
+        <v>64</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -2647,7 +2743,7 @@
         <v>215</v>
       </c>
       <c r="B147" t="s">
-        <v>202</v>
+        <v>66</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -2658,7 +2754,7 @@
         <v>216</v>
       </c>
       <c r="B148" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -2669,7 +2765,7 @@
         <v>217</v>
       </c>
       <c r="B149" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -2677,10 +2773,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
+        <v>218</v>
+      </c>
+      <c r="B150" t="s">
         <v>219</v>
-      </c>
-      <c r="B150" t="s">
-        <v>220</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -2688,10 +2784,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B151" t="s">
-        <v>200</v>
+        <v>64</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -2699,10 +2795,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
+        <v>221</v>
+      </c>
+      <c r="B152" t="s">
         <v>222</v>
-      </c>
-      <c r="B152" t="s">
-        <v>200</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -2713,7 +2809,7 @@
         <v>223</v>
       </c>
       <c r="B153" t="s">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -2724,7 +2820,7 @@
         <v>224</v>
       </c>
       <c r="B154" t="s">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -2735,7 +2831,7 @@
         <v>225</v>
       </c>
       <c r="B155" t="s">
-        <v>200</v>
+        <v>17</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -2746,7 +2842,7 @@
         <v>226</v>
       </c>
       <c r="B156" t="s">
-        <v>227</v>
+        <v>64</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -2754,10 +2850,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B157" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -2765,10 +2861,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
+        <v>228</v>
+      </c>
+      <c r="B158" t="s">
         <v>229</v>
-      </c>
-      <c r="B158" t="s">
-        <v>227</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -2779,9 +2875,317 @@
         <v>230</v>
       </c>
       <c r="B159" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C159" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>232</v>
+      </c>
+      <c r="B160" t="s">
+        <v>185</v>
+      </c>
+      <c r="C160" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>233</v>
+      </c>
+      <c r="B161" t="s">
+        <v>185</v>
+      </c>
+      <c r="C161" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>234</v>
+      </c>
+      <c r="B162" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>235</v>
+      </c>
+      <c r="B163" t="s">
+        <v>4</v>
+      </c>
+      <c r="C163" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>236</v>
+      </c>
+      <c r="B164" t="s">
+        <v>15</v>
+      </c>
+      <c r="C164" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>237</v>
+      </c>
+      <c r="B165" t="s">
+        <v>15</v>
+      </c>
+      <c r="C165" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>238</v>
+      </c>
+      <c r="B166" t="s">
+        <v>74</v>
+      </c>
+      <c r="C166" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>239</v>
+      </c>
+      <c r="B167" t="s">
+        <v>90</v>
+      </c>
+      <c r="C167" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>240</v>
+      </c>
+      <c r="B168" t="s">
+        <v>241</v>
+      </c>
+      <c r="C168" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>242</v>
+      </c>
+      <c r="B169" t="s">
+        <v>222</v>
+      </c>
+      <c r="C169" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>243</v>
+      </c>
+      <c r="B170" t="s">
+        <v>72</v>
+      </c>
+      <c r="C170" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>244</v>
+      </c>
+      <c r="B171" t="s">
+        <v>17</v>
+      </c>
+      <c r="C171" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>245</v>
+      </c>
+      <c r="B172" t="s">
+        <v>241</v>
+      </c>
+      <c r="C172" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>246</v>
+      </c>
+      <c r="B173" t="s">
+        <v>74</v>
+      </c>
+      <c r="C173" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>247</v>
+      </c>
+      <c r="B174" t="s">
+        <v>241</v>
+      </c>
+      <c r="C174" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>248</v>
+      </c>
+      <c r="B175" t="s">
+        <v>4</v>
+      </c>
+      <c r="C175" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>249</v>
+      </c>
+      <c r="B176" t="s">
+        <v>123</v>
+      </c>
+      <c r="C176" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>250</v>
+      </c>
+      <c r="B177" t="s">
+        <v>251</v>
+      </c>
+      <c r="C177" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>252</v>
+      </c>
+      <c r="B178" t="s">
+        <v>253</v>
+      </c>
+      <c r="C178" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>254</v>
+      </c>
+      <c r="B179" t="s">
+        <v>7</v>
+      </c>
+      <c r="C179" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>255</v>
+      </c>
+      <c r="B180" t="s">
+        <v>7</v>
+      </c>
+      <c r="C180" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>256</v>
+      </c>
+      <c r="B181" t="s">
+        <v>11</v>
+      </c>
+      <c r="C181" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>257</v>
+      </c>
+      <c r="B182" t="s">
+        <v>7</v>
+      </c>
+      <c r="C182" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>258</v>
+      </c>
+      <c r="B183" t="s">
+        <v>7</v>
+      </c>
+      <c r="C183" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>259</v>
+      </c>
+      <c r="B184" t="s">
+        <v>9</v>
+      </c>
+      <c r="C184" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>260</v>
+      </c>
+      <c r="B185" t="s">
+        <v>9</v>
+      </c>
+      <c r="C185" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>261</v>
+      </c>
+      <c r="B186" t="s">
+        <v>9</v>
+      </c>
+      <c r="C186" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>262</v>
+      </c>
+      <c r="B187" t="s">
+        <v>9</v>
+      </c>
+      <c r="C187" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink Asia Dividend Advantage.xlsx
+++ b/data/GreatLink/GreatLink Asia Dividend Advantage.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid43798"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid644114"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="291">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,15 +26,138 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>24/02/2025</t>
+  </si>
+  <si>
+    <t>0.974</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>21/02/2025</t>
+  </si>
+  <si>
+    <t>0.978</t>
+  </si>
+  <si>
+    <t>20/02/2025</t>
+  </si>
+  <si>
+    <t>0.968</t>
+  </si>
+  <si>
+    <t>19/02/2025</t>
+  </si>
+  <si>
+    <t>0.981</t>
+  </si>
+  <si>
+    <t>18/02/2025</t>
+  </si>
+  <si>
+    <t>0.979</t>
+  </si>
+  <si>
+    <t>17/02/2025</t>
+  </si>
+  <si>
+    <t>0.975</t>
+  </si>
+  <si>
+    <t>14/02/2025</t>
+  </si>
+  <si>
+    <t>13/02/2025</t>
+  </si>
+  <si>
+    <t>0.958</t>
+  </si>
+  <si>
+    <t>12/02/2025</t>
+  </si>
+  <si>
+    <t>0.964</t>
+  </si>
+  <si>
+    <t>11/02/2025</t>
+  </si>
+  <si>
+    <t>0.960</t>
+  </si>
+  <si>
+    <t>10/02/2025</t>
+  </si>
+  <si>
+    <t>0.967</t>
+  </si>
+  <si>
+    <t>07/02/2025</t>
+  </si>
+  <si>
+    <t>06/02/2025</t>
+  </si>
+  <si>
+    <t>0.962</t>
+  </si>
+  <si>
+    <t>05/02/2025</t>
+  </si>
+  <si>
+    <t>0.956</t>
+  </si>
+  <si>
+    <t>04/02/2025</t>
+  </si>
+  <si>
+    <t>03/02/2025</t>
+  </si>
+  <si>
+    <t>0.952</t>
+  </si>
+  <si>
+    <t>31/01/2025</t>
+  </si>
+  <si>
+    <t>28/01/2025</t>
+  </si>
+  <si>
+    <t>27/01/2025</t>
+  </si>
+  <si>
+    <t>0.942</t>
+  </si>
+  <si>
+    <t>24/01/2025</t>
+  </si>
+  <si>
+    <t>0.953</t>
+  </si>
+  <si>
+    <t>23/01/2025</t>
+  </si>
+  <si>
+    <t>22/01/2025</t>
+  </si>
+  <si>
+    <t>21/01/2025</t>
+  </si>
+  <si>
+    <t>0.955</t>
+  </si>
+  <si>
+    <t>20/01/2025</t>
+  </si>
+  <si>
+    <t>17/01/2025</t>
+  </si>
+  <si>
     <t>16/01/2025</t>
   </si>
   <si>
     <t>0.957</t>
   </si>
   <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>15/01/2025</t>
   </si>
   <si>
@@ -56,15 +179,9 @@
     <t>10/01/2025</t>
   </si>
   <si>
-    <t>0.962</t>
-  </si>
-  <si>
     <t>09/01/2025</t>
   </si>
   <si>
-    <t>0.968</t>
-  </si>
-  <si>
     <t>08/01/2025</t>
   </si>
   <si>
@@ -215,9 +332,6 @@
     <t>25/11/2024</t>
   </si>
   <si>
-    <t>0.981</t>
-  </si>
-  <si>
     <t>22/11/2024</t>
   </si>
   <si>
@@ -278,9 +392,6 @@
     <t>05/11/2024</t>
   </si>
   <si>
-    <t>0.978</t>
-  </si>
-  <si>
     <t>04/11/2024</t>
   </si>
   <si>
@@ -386,15 +497,9 @@
     <t>23/09/2024</t>
   </si>
   <si>
-    <t>0.953</t>
-  </si>
-  <si>
     <t>20/09/2024</t>
   </si>
   <si>
-    <t>0.955</t>
-  </si>
-  <si>
     <t>19/09/2024</t>
   </si>
   <si>
@@ -485,9 +590,6 @@
     <t>26/08/2024</t>
   </si>
   <si>
-    <t>0.942</t>
-  </si>
-  <si>
     <t>23/08/2024</t>
   </si>
   <si>
@@ -620,9 +722,6 @@
     <t>10/07/2024</t>
   </si>
   <si>
-    <t>0.979</t>
-  </si>
-  <si>
     <t>09/07/2024</t>
   </si>
   <si>
@@ -674,18 +773,12 @@
     <t>18/06/2024</t>
   </si>
   <si>
-    <t>0.975</t>
-  </si>
-  <si>
     <t>14/06/2024</t>
   </si>
   <si>
     <t>13/06/2024</t>
   </si>
   <si>
-    <t>0.974</t>
-  </si>
-  <si>
     <t>12/06/2024</t>
   </si>
   <si>
@@ -710,9 +803,6 @@
     <t>04/06/2024</t>
   </si>
   <si>
-    <t>0.952</t>
-  </si>
-  <si>
     <t>03/06/2024</t>
   </si>
   <si>
@@ -740,9 +830,6 @@
     <t>21/05/2024</t>
   </si>
   <si>
-    <t>0.964</t>
-  </si>
-  <si>
     <t>20/05/2024</t>
   </si>
   <si>
@@ -774,9 +861,6 @@
   </si>
   <si>
     <t>07/05/2024</t>
-  </si>
-  <si>
-    <t>0.958</t>
   </si>
   <si>
     <t>06/05/2024</t>
@@ -1214,7 +1298,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1222,10 +1306,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
         <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -1233,10 +1317,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
         <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1244,10 +1328,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
         <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1255,10 +1339,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
         <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1266,10 +1350,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1277,7 +1361,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
@@ -1288,10 +1372,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
         <v>29</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1299,10 +1383,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -1310,10 +1394,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
         <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -1324,7 +1408,7 @@
         <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -1335,7 +1419,7 @@
         <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -1343,10 +1427,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
         <v>36</v>
-      </c>
-      <c r="B20" t="s">
-        <v>27</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -1368,7 +1452,7 @@
         <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1376,10 +1460,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -1387,10 +1471,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1398,10 +1482,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -1409,10 +1493,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -1420,10 +1504,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -1431,10 +1515,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -1442,10 +1526,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -1453,10 +1537,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -1464,10 +1548,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -1475,10 +1559,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -1486,10 +1570,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -1497,10 +1581,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -1508,10 +1592,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B35" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -1519,10 +1603,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" t="s">
         <v>62</v>
-      </c>
-      <c r="B36" t="s">
-        <v>35</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1555,7 +1639,7 @@
         <v>67</v>
       </c>
       <c r="B39" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -1566,7 +1650,7 @@
         <v>68</v>
       </c>
       <c r="B40" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1574,10 +1658,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" t="s">
         <v>69</v>
-      </c>
-      <c r="B41" t="s">
-        <v>70</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -1588,7 +1672,7 @@
         <v>71</v>
       </c>
       <c r="B42" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -1596,10 +1680,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B43" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -1607,10 +1691,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B44" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -1618,10 +1702,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -1629,10 +1713,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B46" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -1640,10 +1724,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>78</v>
+      </c>
+      <c r="B47" t="s">
         <v>79</v>
-      </c>
-      <c r="B47" t="s">
-        <v>19</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -1676,7 +1760,7 @@
         <v>84</v>
       </c>
       <c r="B50" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -1684,10 +1768,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -1695,10 +1779,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B52" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -1706,10 +1790,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -1717,10 +1801,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B54" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -1728,10 +1812,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B55" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -1739,10 +1823,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B56" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -1750,10 +1834,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -1761,10 +1845,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -1772,10 +1856,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B59" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -1783,10 +1867,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B60" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -1794,10 +1878,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B61" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -1805,10 +1889,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B62" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -1816,10 +1900,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B63" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -1827,10 +1911,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B64" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -1838,10 +1922,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B65" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -1849,10 +1933,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B66" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -1860,10 +1944,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B67" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -1871,10 +1955,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B68" t="s">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -1882,10 +1966,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B69" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -1893,10 +1977,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B70" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -1904,10 +1988,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B71" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -1915,10 +1999,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B72" t="s">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -1926,10 +2010,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B73" t="s">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -1937,10 +2021,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B74" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -1948,10 +2032,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B75" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -1959,10 +2043,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B76" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -1970,10 +2054,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B77" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -1981,10 +2065,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B78" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -1992,10 +2076,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B79" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -2003,10 +2087,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B80" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -2014,10 +2098,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B81" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -2025,10 +2109,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="B82" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -2036,10 +2120,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B83" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -2047,10 +2131,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B84" t="s">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -2058,10 +2142,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B85" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -2069,10 +2153,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B86" t="s">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -2080,10 +2164,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B87" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -2091,10 +2175,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B88" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -2102,10 +2186,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B89" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -2113,10 +2197,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B90" t="s">
-        <v>137</v>
+        <v>7</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -2124,10 +2208,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B91" t="s">
-        <v>139</v>
+        <v>62</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -2135,10 +2219,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B92" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -2146,10 +2230,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B93" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -2157,10 +2241,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B94" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -2171,7 +2255,7 @@
         <v>145</v>
       </c>
       <c r="B95" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -2182,7 +2266,7 @@
         <v>146</v>
       </c>
       <c r="B96" t="s">
-        <v>147</v>
+        <v>64</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -2190,10 +2274,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
+        <v>147</v>
+      </c>
+      <c r="B97" t="s">
         <v>148</v>
-      </c>
-      <c r="B97" t="s">
-        <v>127</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -2204,7 +2288,7 @@
         <v>149</v>
       </c>
       <c r="B98" t="s">
-        <v>147</v>
+        <v>85</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -2215,7 +2299,7 @@
         <v>150</v>
       </c>
       <c r="B99" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -2237,7 +2321,7 @@
         <v>153</v>
       </c>
       <c r="B101" t="s">
-        <v>154</v>
+        <v>81</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -2245,10 +2329,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B102" t="s">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -2256,10 +2340,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B103" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -2267,10 +2351,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B104" t="s">
-        <v>160</v>
+        <v>66</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -2278,10 +2362,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B105" t="s">
-        <v>162</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -2289,10 +2373,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B106" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -2300,10 +2384,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B107" t="s">
-        <v>154</v>
+        <v>38</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -2311,10 +2395,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B108" t="s">
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -2322,10 +2406,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B109" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -2333,10 +2417,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B110" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -2344,10 +2428,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B111" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -2355,10 +2439,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B112" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -2366,10 +2450,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B113" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -2377,10 +2461,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B114" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -2388,10 +2472,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B115" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -2399,10 +2483,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B116" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -2410,10 +2494,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B117" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -2421,10 +2505,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B118" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -2432,10 +2516,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B119" t="s">
-        <v>11</v>
+        <v>179</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -2443,10 +2527,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B120" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -2454,10 +2538,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B121" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -2465,10 +2549,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B122" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -2476,10 +2560,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B123" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -2487,10 +2571,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B124" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -2498,10 +2582,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B125" t="s">
-        <v>15</v>
+        <v>187</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -2509,10 +2593,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B126" t="s">
-        <v>15</v>
+        <v>189</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -2520,10 +2604,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B127" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -2531,10 +2615,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B128" t="s">
-        <v>35</v>
+        <v>192</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -2542,10 +2626,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
+        <v>193</v>
+      </c>
+      <c r="B129" t="s">
         <v>194</v>
-      </c>
-      <c r="B129" t="s">
-        <v>93</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -2556,7 +2640,7 @@
         <v>195</v>
       </c>
       <c r="B130" t="s">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -2564,10 +2648,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B131" t="s">
-        <v>197</v>
+        <v>36</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -2578,7 +2662,7 @@
         <v>198</v>
       </c>
       <c r="B132" t="s">
-        <v>27</v>
+        <v>189</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -2589,7 +2673,7 @@
         <v>199</v>
       </c>
       <c r="B133" t="s">
-        <v>83</v>
+        <v>162</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -2600,7 +2684,7 @@
         <v>200</v>
       </c>
       <c r="B134" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -2608,10 +2692,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
+        <v>201</v>
+      </c>
+      <c r="B135" t="s">
         <v>202</v>
-      </c>
-      <c r="B135" t="s">
-        <v>203</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -2619,10 +2703,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
+        <v>203</v>
+      </c>
+      <c r="B136" t="s">
         <v>204</v>
-      </c>
-      <c r="B136" t="s">
-        <v>87</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -2633,7 +2717,7 @@
         <v>205</v>
       </c>
       <c r="B137" t="s">
-        <v>64</v>
+        <v>179</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -2644,7 +2728,7 @@
         <v>206</v>
       </c>
       <c r="B138" t="s">
-        <v>59</v>
+        <v>207</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -2652,10 +2736,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B139" t="s">
-        <v>70</v>
+        <v>209</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -2663,10 +2747,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B140" t="s">
-        <v>87</v>
+        <v>211</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -2674,10 +2758,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B141" t="s">
-        <v>59</v>
+        <v>172</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -2685,10 +2769,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B142" t="s">
-        <v>35</v>
+        <v>172</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -2696,10 +2780,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B143" t="s">
-        <v>93</v>
+        <v>215</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -2707,10 +2791,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B144" t="s">
-        <v>197</v>
+        <v>52</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -2718,10 +2802,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B145" t="s">
-        <v>93</v>
+        <v>189</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -2729,10 +2813,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B146" t="s">
-        <v>64</v>
+        <v>219</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -2740,10 +2824,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B147" t="s">
-        <v>66</v>
+        <v>221</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -2751,10 +2835,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B148" t="s">
-        <v>83</v>
+        <v>194</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -2762,10 +2846,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B149" t="s">
-        <v>197</v>
+        <v>42</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -2773,10 +2857,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B150" t="s">
-        <v>219</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -2784,10 +2868,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B151" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -2795,10 +2879,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B152" t="s">
-        <v>222</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -2806,10 +2890,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B153" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -2817,10 +2901,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B154" t="s">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -2828,10 +2912,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B155" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -2839,10 +2923,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B156" t="s">
-        <v>64</v>
+        <v>231</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -2850,10 +2934,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B157" t="s">
-        <v>219</v>
+        <v>66</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -2861,10 +2945,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B158" t="s">
-        <v>229</v>
+        <v>121</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -2872,10 +2956,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B159" t="s">
-        <v>231</v>
+        <v>13</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -2883,10 +2967,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B160" t="s">
-        <v>185</v>
+        <v>236</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -2894,10 +2978,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B161" t="s">
-        <v>185</v>
+        <v>7</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -2905,10 +2989,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -2916,10 +3000,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B163" t="s">
-        <v>4</v>
+        <v>98</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -2927,10 +3011,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B164" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -2938,10 +3022,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B165" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -2949,10 +3033,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B166" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -2960,10 +3044,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B167" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -2971,10 +3055,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B168" t="s">
-        <v>241</v>
+        <v>130</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -2982,10 +3066,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B169" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -2993,10 +3077,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B170" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -3004,10 +3088,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B171" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -3015,10 +3099,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B172" t="s">
-        <v>241</v>
+        <v>11</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -3026,10 +3110,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B173" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -3037,10 +3121,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B174" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -3048,10 +3132,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B175" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -3059,10 +3143,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B176" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -3070,10 +3154,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B177" t="s">
-        <v>251</v>
+        <v>4</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -3081,10 +3165,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B178" t="s">
-        <v>253</v>
+        <v>27</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -3092,10 +3176,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -3103,10 +3187,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -3114,10 +3198,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B181" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -3125,10 +3209,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -3136,10 +3220,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>260</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -3147,10 +3231,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B184" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -3158,10 +3242,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B185" t="s">
-        <v>9</v>
+        <v>219</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -3169,10 +3253,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B186" t="s">
-        <v>9</v>
+        <v>219</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -3180,12 +3264,287 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B187" t="s">
+        <v>48</v>
+      </c>
+      <c r="C187" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>265</v>
+      </c>
+      <c r="B188" t="s">
+        <v>46</v>
+      </c>
+      <c r="C188" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>266</v>
+      </c>
+      <c r="B189" t="s">
         <v>9</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C189" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>267</v>
+      </c>
+      <c r="B190" t="s">
+        <v>9</v>
+      </c>
+      <c r="C190" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>268</v>
+      </c>
+      <c r="B191" t="s">
+        <v>112</v>
+      </c>
+      <c r="C191" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>269</v>
+      </c>
+      <c r="B192" t="s">
+        <v>127</v>
+      </c>
+      <c r="C192" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>270</v>
+      </c>
+      <c r="B193" t="s">
+        <v>20</v>
+      </c>
+      <c r="C193" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>271</v>
+      </c>
+      <c r="B194" t="s">
+        <v>4</v>
+      </c>
+      <c r="C194" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>272</v>
+      </c>
+      <c r="B195" t="s">
+        <v>110</v>
+      </c>
+      <c r="C195" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>273</v>
+      </c>
+      <c r="B196" t="s">
+        <v>56</v>
+      </c>
+      <c r="C196" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>274</v>
+      </c>
+      <c r="B197" t="s">
+        <v>20</v>
+      </c>
+      <c r="C197" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>275</v>
+      </c>
+      <c r="B198" t="s">
+        <v>112</v>
+      </c>
+      <c r="C198" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>276</v>
+      </c>
+      <c r="B199" t="s">
+        <v>20</v>
+      </c>
+      <c r="C199" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>277</v>
+      </c>
+      <c r="B200" t="s">
+        <v>46</v>
+      </c>
+      <c r="C200" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>278</v>
+      </c>
+      <c r="B201" t="s">
+        <v>38</v>
+      </c>
+      <c r="C201" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>279</v>
+      </c>
+      <c r="B202" t="s">
+        <v>280</v>
+      </c>
+      <c r="C202" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>281</v>
+      </c>
+      <c r="B203" t="s">
+        <v>18</v>
+      </c>
+      <c r="C203" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>282</v>
+      </c>
+      <c r="B204" t="s">
+        <v>48</v>
+      </c>
+      <c r="C204" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>283</v>
+      </c>
+      <c r="B205" t="s">
+        <v>48</v>
+      </c>
+      <c r="C205" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>284</v>
+      </c>
+      <c r="B206" t="s">
+        <v>52</v>
+      </c>
+      <c r="C206" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>285</v>
+      </c>
+      <c r="B207" t="s">
+        <v>48</v>
+      </c>
+      <c r="C207" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>286</v>
+      </c>
+      <c r="B208" t="s">
+        <v>48</v>
+      </c>
+      <c r="C208" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>287</v>
+      </c>
+      <c r="B209" t="s">
+        <v>50</v>
+      </c>
+      <c r="C209" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>288</v>
+      </c>
+      <c r="B210" t="s">
+        <v>50</v>
+      </c>
+      <c r="C210" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>289</v>
+      </c>
+      <c r="B211" t="s">
+        <v>50</v>
+      </c>
+      <c r="C211" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>290</v>
+      </c>
+      <c r="B212" t="s">
+        <v>50</v>
+      </c>
+      <c r="C212" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink Asia Dividend Advantage.xlsx
+++ b/data/GreatLink/GreatLink Asia Dividend Advantage.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid644114"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid467306"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="304">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,15 +26,81 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>13/03/2025</t>
+  </si>
+  <si>
+    <t>0.950</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>12/03/2025</t>
+  </si>
+  <si>
+    <t>0.955</t>
+  </si>
+  <si>
+    <t>11/03/2025</t>
+  </si>
+  <si>
+    <t>0.956</t>
+  </si>
+  <si>
+    <t>10/03/2025</t>
+  </si>
+  <si>
+    <t>0.958</t>
+  </si>
+  <si>
+    <t>07/03/2025</t>
+  </si>
+  <si>
+    <t>0.967</t>
+  </si>
+  <si>
+    <t>06/03/2025</t>
+  </si>
+  <si>
+    <t>0.970</t>
+  </si>
+  <si>
+    <t>05/03/2025</t>
+  </si>
+  <si>
+    <t>04/03/2025</t>
+  </si>
+  <si>
+    <t>03/03/2025</t>
+  </si>
+  <si>
+    <t>28/02/2025</t>
+  </si>
+  <si>
+    <t>27/02/2025</t>
+  </si>
+  <si>
+    <t>0.975</t>
+  </si>
+  <si>
+    <t>26/02/2025</t>
+  </si>
+  <si>
+    <t>0.968</t>
+  </si>
+  <si>
+    <t>25/02/2025</t>
+  </si>
+  <si>
+    <t>0.960</t>
+  </si>
+  <si>
     <t>24/02/2025</t>
   </si>
   <si>
     <t>0.974</t>
   </si>
   <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>21/02/2025</t>
   </si>
   <si>
@@ -44,9 +110,6 @@
     <t>20/02/2025</t>
   </si>
   <si>
-    <t>0.968</t>
-  </si>
-  <si>
     <t>19/02/2025</t>
   </si>
   <si>
@@ -62,18 +125,12 @@
     <t>17/02/2025</t>
   </si>
   <si>
-    <t>0.975</t>
-  </si>
-  <si>
     <t>14/02/2025</t>
   </si>
   <si>
     <t>13/02/2025</t>
   </si>
   <si>
-    <t>0.958</t>
-  </si>
-  <si>
     <t>12/02/2025</t>
   </si>
   <si>
@@ -83,15 +140,9 @@
     <t>11/02/2025</t>
   </si>
   <si>
-    <t>0.960</t>
-  </si>
-  <si>
     <t>10/02/2025</t>
   </si>
   <si>
-    <t>0.967</t>
-  </si>
-  <si>
     <t>07/02/2025</t>
   </si>
   <si>
@@ -104,9 +155,6 @@
     <t>05/02/2025</t>
   </si>
   <si>
-    <t>0.956</t>
-  </si>
-  <si>
     <t>04/02/2025</t>
   </si>
   <si>
@@ -143,9 +191,6 @@
     <t>21/01/2025</t>
   </si>
   <si>
-    <t>0.955</t>
-  </si>
-  <si>
     <t>20/01/2025</t>
   </si>
   <si>
@@ -167,9 +212,6 @@
     <t>14/01/2025</t>
   </si>
   <si>
-    <t>0.950</t>
-  </si>
-  <si>
     <t>13/01/2025</t>
   </si>
   <si>
@@ -396,9 +438,6 @@
   </si>
   <si>
     <t>01/11/2024</t>
-  </si>
-  <si>
-    <t>0.970</t>
   </si>
   <si>
     <t>30/10/2024</t>
@@ -1298,7 +1337,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1309,7 +1348,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -1317,10 +1356,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1328,10 +1367,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1339,10 +1378,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1350,10 +1389,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1361,10 +1400,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1372,10 +1411,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1383,10 +1422,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -1394,10 +1433,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -1405,7 +1444,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
         <v>32</v>
@@ -1416,10 +1455,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
         <v>34</v>
-      </c>
-      <c r="B19" t="s">
-        <v>32</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -1430,7 +1469,7 @@
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -1438,10 +1477,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -1449,10 +1488,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1460,10 +1499,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -1471,10 +1510,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1482,10 +1521,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -1493,10 +1532,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -1504,10 +1543,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -1515,10 +1554,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -1526,10 +1565,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -1537,10 +1576,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -1548,10 +1587,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -1559,10 +1598,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -1570,10 +1609,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -1581,10 +1620,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -1592,10 +1631,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -1603,10 +1642,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1614,10 +1653,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -1625,10 +1664,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B38" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -1636,10 +1675,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B39" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -1647,10 +1686,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B40" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1658,10 +1697,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B41" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -1669,10 +1708,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B42" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -1680,10 +1719,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B43" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -1691,10 +1730,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B44" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -1702,10 +1741,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B45" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -1713,10 +1752,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B46" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -1724,10 +1763,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B47" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -1735,10 +1774,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B48" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -1746,10 +1785,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B49" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -1757,10 +1796,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B50" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -1768,10 +1807,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B51" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -1779,10 +1818,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B52" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -1790,10 +1829,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B53" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -1801,10 +1840,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B54" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -1812,10 +1851,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B55" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -1823,10 +1862,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B56" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -1834,10 +1873,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B57" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -1845,10 +1884,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B58" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -1856,10 +1895,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B59" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -1867,10 +1906,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -1878,10 +1917,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B61" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -1889,10 +1928,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B62" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -1900,10 +1939,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B63" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -1911,10 +1950,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B64" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -1922,10 +1961,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B65" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -1933,10 +1972,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B66" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -1944,10 +1983,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B67" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -1955,10 +1994,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B68" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -1966,10 +2005,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B69" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -1977,10 +2016,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B70" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -1988,10 +2027,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B71" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -1999,10 +2038,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B72" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -2010,10 +2049,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B73" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -2021,10 +2060,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B74" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -2032,10 +2071,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B75" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -2043,10 +2082,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B76" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -2054,10 +2093,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>117</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -2065,10 +2104,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B78" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -2076,10 +2115,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B79" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -2087,10 +2126,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B80" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -2098,10 +2137,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B81" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -2109,10 +2148,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B82" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -2120,10 +2159,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B83" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -2131,10 +2170,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B84" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -2142,10 +2181,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B85" t="s">
-        <v>119</v>
+        <v>72</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -2153,10 +2192,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B86" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -2164,10 +2203,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B87" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -2175,10 +2214,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B88" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -2186,10 +2225,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B89" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -2197,10 +2236,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -2208,10 +2247,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B91" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -2219,10 +2258,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B92" t="s">
-        <v>142</v>
+        <v>15</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -2230,10 +2269,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B93" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -2241,10 +2280,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B94" t="s">
-        <v>90</v>
+        <v>143</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -2252,10 +2291,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B95" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -2263,10 +2302,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B96" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -2274,10 +2313,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B97" t="s">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -2285,10 +2324,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B98" t="s">
-        <v>85</v>
+        <v>133</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -2296,10 +2335,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B99" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -2307,10 +2346,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B100" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -2318,10 +2357,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B101" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -2329,10 +2368,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B102" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -2340,10 +2379,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B103" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -2351,10 +2390,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B104" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -2362,10 +2401,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B105" t="s">
-        <v>9</v>
+        <v>155</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -2373,10 +2412,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B106" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -2384,10 +2423,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B107" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -2395,10 +2434,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B108" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -2406,10 +2445,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B109" t="s">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -2417,10 +2456,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B110" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -2428,10 +2467,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B111" t="s">
-        <v>166</v>
+        <v>99</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -2439,10 +2478,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B112" t="s">
-        <v>168</v>
+        <v>104</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -2450,10 +2489,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B113" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -2461,10 +2500,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B114" t="s">
-        <v>168</v>
+        <v>95</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -2472,10 +2511,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B115" t="s">
-        <v>172</v>
+        <v>95</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -2483,10 +2522,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B116" t="s">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -2494,10 +2533,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B117" t="s">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -2505,10 +2544,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B118" t="s">
-        <v>174</v>
+        <v>23</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -2516,10 +2555,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B119" t="s">
-        <v>179</v>
+        <v>126</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -2527,10 +2566,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B120" t="s">
-        <v>179</v>
+        <v>54</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -2538,10 +2577,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B121" t="s">
-        <v>182</v>
+        <v>7</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -2549,10 +2588,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B122" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -2560,10 +2599,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B123" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -2571,10 +2610,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B124" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -2582,10 +2621,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B125" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -2593,10 +2632,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B126" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -2604,10 +2643,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B127" t="s">
-        <v>36</v>
+        <v>181</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -2615,10 +2654,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B128" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -2626,10 +2665,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B129" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -2637,10 +2676,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B130" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -2648,10 +2687,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B131" t="s">
-        <v>36</v>
+        <v>187</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -2659,10 +2698,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B132" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -2670,10 +2709,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B133" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -2681,10 +2720,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B134" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -2692,10 +2731,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B135" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -2703,10 +2742,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B136" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -2714,10 +2753,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B137" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -2725,10 +2764,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B138" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -2736,10 +2775,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B139" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -2747,10 +2786,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B140" t="s">
-        <v>211</v>
+        <v>52</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -2758,10 +2797,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B141" t="s">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -2769,10 +2808,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B142" t="s">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -2780,10 +2819,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B143" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -2791,7 +2830,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B144" t="s">
         <v>52</v>
@@ -2802,10 +2841,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B145" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -2813,10 +2852,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B146" t="s">
-        <v>219</v>
+        <v>175</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -2824,10 +2863,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B147" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -2835,10 +2874,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B148" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -2846,10 +2885,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B149" t="s">
-        <v>42</v>
+        <v>217</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -2857,10 +2896,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B150" t="s">
-        <v>9</v>
+        <v>192</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -2868,10 +2907,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B151" t="s">
-        <v>9</v>
+        <v>220</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -2879,10 +2918,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B152" t="s">
-        <v>9</v>
+        <v>222</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -2890,10 +2929,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B153" t="s">
-        <v>74</v>
+        <v>224</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -2901,10 +2940,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B154" t="s">
-        <v>130</v>
+        <v>185</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -2912,10 +2951,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B155" t="s">
-        <v>62</v>
+        <v>185</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -2923,10 +2962,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B156" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -2934,7 +2973,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B157" t="s">
         <v>66</v>
@@ -2945,10 +2984,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B158" t="s">
-        <v>121</v>
+        <v>202</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -2956,10 +2995,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B159" t="s">
-        <v>13</v>
+        <v>232</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -2967,10 +3006,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B160" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -2978,10 +3017,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>207</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -2989,10 +3028,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B162" t="s">
-        <v>103</v>
+        <v>7</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -3000,10 +3039,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B163" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -3011,10 +3050,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B164" t="s">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -3022,10 +3061,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -3033,10 +3072,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B166" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -3044,10 +3083,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B167" t="s">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -3055,10 +3094,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B168" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -3066,10 +3105,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B169" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -3077,10 +3116,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B170" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -3088,10 +3127,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B171" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -3099,10 +3138,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B172" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -3110,10 +3149,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
+        <v>248</v>
+      </c>
+      <c r="B173" t="s">
         <v>249</v>
-      </c>
-      <c r="B173" t="s">
-        <v>121</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -3124,7 +3163,7 @@
         <v>250</v>
       </c>
       <c r="B174" t="s">
-        <v>231</v>
+        <v>29</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -3135,7 +3174,7 @@
         <v>251</v>
       </c>
       <c r="B175" t="s">
-        <v>15</v>
+        <v>117</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -3146,7 +3185,7 @@
         <v>252</v>
       </c>
       <c r="B176" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -3157,7 +3196,7 @@
         <v>253</v>
       </c>
       <c r="B177" t="s">
-        <v>4</v>
+        <v>122</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -3168,7 +3207,7 @@
         <v>254</v>
       </c>
       <c r="B178" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -3179,7 +3218,7 @@
         <v>255</v>
       </c>
       <c r="B179" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -3190,7 +3229,7 @@
         <v>256</v>
       </c>
       <c r="B180" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -3201,7 +3240,7 @@
         <v>257</v>
       </c>
       <c r="B181" t="s">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -3212,7 +3251,7 @@
         <v>258</v>
       </c>
       <c r="B182" t="s">
-        <v>15</v>
+        <v>244</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -3223,7 +3262,7 @@
         <v>259</v>
       </c>
       <c r="B183" t="s">
-        <v>260</v>
+        <v>143</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -3231,10 +3270,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B184" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -3242,10 +3281,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B185" t="s">
-        <v>219</v>
+        <v>32</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -3253,10 +3292,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B186" t="s">
-        <v>219</v>
+        <v>135</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -3264,10 +3303,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B187" t="s">
-        <v>48</v>
+        <v>244</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -3275,10 +3314,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B188" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -3286,10 +3325,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B189" t="s">
-        <v>9</v>
+        <v>117</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -3297,10 +3336,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B190" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -3308,10 +3347,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B191" t="s">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -3319,10 +3358,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B192" t="s">
-        <v>127</v>
+        <v>23</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -3330,10 +3369,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B193" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -3341,10 +3380,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B194" t="s">
-        <v>4</v>
+        <v>117</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -3352,10 +3391,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B195" t="s">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -3363,10 +3402,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
+        <v>272</v>
+      </c>
+      <c r="B196" t="s">
         <v>273</v>
-      </c>
-      <c r="B196" t="s">
-        <v>56</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -3377,7 +3416,7 @@
         <v>274</v>
       </c>
       <c r="B197" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -3388,7 +3427,7 @@
         <v>275</v>
       </c>
       <c r="B198" t="s">
-        <v>112</v>
+        <v>232</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -3399,7 +3438,7 @@
         <v>276</v>
       </c>
       <c r="B199" t="s">
-        <v>20</v>
+        <v>232</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -3410,7 +3449,7 @@
         <v>277</v>
       </c>
       <c r="B200" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -3421,7 +3460,7 @@
         <v>278</v>
       </c>
       <c r="B201" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -3432,7 +3471,7 @@
         <v>279</v>
       </c>
       <c r="B202" t="s">
-        <v>280</v>
+        <v>23</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -3440,10 +3479,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B203" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -3451,10 +3490,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B204" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -3462,10 +3501,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B205" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -3473,10 +3512,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B206" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -3484,10 +3523,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B207" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -3495,10 +3534,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B208" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -3506,10 +3545,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B209" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -3517,10 +3556,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B210" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -3528,10 +3567,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B211" t="s">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -3539,12 +3578,155 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
+        <v>289</v>
+      </c>
+      <c r="B212" t="s">
+        <v>39</v>
+      </c>
+      <c r="C212" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
         <v>290</v>
       </c>
-      <c r="B212" t="s">
-        <v>50</v>
-      </c>
-      <c r="C212" t="s">
+      <c r="B213" t="s">
+        <v>61</v>
+      </c>
+      <c r="C213" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>291</v>
+      </c>
+      <c r="B214" t="s">
+        <v>54</v>
+      </c>
+      <c r="C214" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>292</v>
+      </c>
+      <c r="B215" t="s">
+        <v>293</v>
+      </c>
+      <c r="C215" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>294</v>
+      </c>
+      <c r="B216" t="s">
+        <v>11</v>
+      </c>
+      <c r="C216" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>295</v>
+      </c>
+      <c r="B217" t="s">
+        <v>63</v>
+      </c>
+      <c r="C217" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>296</v>
+      </c>
+      <c r="B218" t="s">
+        <v>63</v>
+      </c>
+      <c r="C218" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>297</v>
+      </c>
+      <c r="B219" t="s">
+        <v>66</v>
+      </c>
+      <c r="C219" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>298</v>
+      </c>
+      <c r="B220" t="s">
+        <v>63</v>
+      </c>
+      <c r="C220" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>299</v>
+      </c>
+      <c r="B221" t="s">
+        <v>63</v>
+      </c>
+      <c r="C221" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>300</v>
+      </c>
+      <c r="B222" t="s">
+        <v>4</v>
+      </c>
+      <c r="C222" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>301</v>
+      </c>
+      <c r="B223" t="s">
+        <v>4</v>
+      </c>
+      <c r="C223" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>302</v>
+      </c>
+      <c r="B224" t="s">
+        <v>4</v>
+      </c>
+      <c r="C224" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>303</v>
+      </c>
+      <c r="B225" t="s">
+        <v>4</v>
+      </c>
+      <c r="C225" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink Asia Dividend Advantage.xlsx
+++ b/data/GreatLink/GreatLink Asia Dividend Advantage.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid467306"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid281025"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>

--- a/data/GreatLink/GreatLink Asia Dividend Advantage.xlsx
+++ b/data/GreatLink/GreatLink Asia Dividend Advantage.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid281025"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid242318"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="321">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,15 +26,93 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>07/04/2025</t>
+  </si>
+  <si>
+    <t>0.866</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>04/04/2025</t>
+  </si>
+  <si>
+    <t>0.936</t>
+  </si>
+  <si>
+    <t>03/04/2025</t>
+  </si>
+  <si>
+    <t>02/04/2025</t>
+  </si>
+  <si>
+    <t>0.972</t>
+  </si>
+  <si>
+    <t>01/04/2025</t>
+  </si>
+  <si>
+    <t>0.968</t>
+  </si>
+  <si>
+    <t>28/03/2025</t>
+  </si>
+  <si>
+    <t>0.975</t>
+  </si>
+  <si>
+    <t>27/03/2025</t>
+  </si>
+  <si>
+    <t>0.978</t>
+  </si>
+  <si>
+    <t>26/03/2025</t>
+  </si>
+  <si>
+    <t>0.976</t>
+  </si>
+  <si>
+    <t>25/03/2025</t>
+  </si>
+  <si>
+    <t>0.969</t>
+  </si>
+  <si>
+    <t>24/03/2025</t>
+  </si>
+  <si>
+    <t>21/03/2025</t>
+  </si>
+  <si>
+    <t>20/03/2025</t>
+  </si>
+  <si>
+    <t>0.973</t>
+  </si>
+  <si>
+    <t>19/03/2025</t>
+  </si>
+  <si>
+    <t>18/03/2025</t>
+  </si>
+  <si>
+    <t>17/03/2025</t>
+  </si>
+  <si>
+    <t>0.957</t>
+  </si>
+  <si>
+    <t>14/03/2025</t>
+  </si>
+  <si>
     <t>13/03/2025</t>
   </si>
   <si>
     <t>0.950</t>
   </si>
   <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>12/03/2025</t>
   </si>
   <si>
@@ -80,15 +158,9 @@
     <t>27/02/2025</t>
   </si>
   <si>
-    <t>0.975</t>
-  </si>
-  <si>
     <t>26/02/2025</t>
   </si>
   <si>
-    <t>0.968</t>
-  </si>
-  <si>
     <t>25/02/2025</t>
   </si>
   <si>
@@ -104,9 +176,6 @@
     <t>21/02/2025</t>
   </si>
   <si>
-    <t>0.978</t>
-  </si>
-  <si>
     <t>20/02/2025</t>
   </si>
   <si>
@@ -200,9 +269,6 @@
     <t>16/01/2025</t>
   </si>
   <si>
-    <t>0.957</t>
-  </si>
-  <si>
     <t>15/01/2025</t>
   </si>
   <si>
@@ -233,15 +299,9 @@
     <t>07/01/2025</t>
   </si>
   <si>
-    <t>0.973</t>
-  </si>
-  <si>
     <t>06/01/2025</t>
   </si>
   <si>
-    <t>0.972</t>
-  </si>
-  <si>
     <t>03/01/2025</t>
   </si>
   <si>
@@ -383,15 +443,9 @@
     <t>20/11/2024</t>
   </si>
   <si>
-    <t>0.976</t>
-  </si>
-  <si>
     <t>19/11/2024</t>
   </si>
   <si>
-    <t>0.969</t>
-  </si>
-  <si>
     <t>18/11/2024</t>
   </si>
   <si>
@@ -642,9 +696,6 @@
   </si>
   <si>
     <t>21/08/2024</t>
-  </si>
-  <si>
-    <t>0.936</t>
   </si>
   <si>
     <t>20/08/2024</t>
@@ -1293,7 +1344,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1301,10 +1352,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1312,10 +1363,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1323,10 +1374,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1334,10 +1385,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
         <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1348,7 +1399,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -1356,10 +1407,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1367,10 +1418,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1378,10 +1429,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1389,10 +1440,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1400,10 +1451,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1414,7 +1465,7 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1422,10 +1473,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
         <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -1433,10 +1484,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -1444,10 +1495,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
         <v>31</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -1455,10 +1506,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
         <v>33</v>
-      </c>
-      <c r="B19" t="s">
-        <v>34</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -1466,10 +1517,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
         <v>35</v>
-      </c>
-      <c r="B20" t="s">
-        <v>21</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -1480,7 +1531,7 @@
         <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -1488,10 +1539,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1499,10 +1550,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -1510,10 +1561,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1521,10 +1572,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -1532,10 +1583,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -1543,10 +1594,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -1554,10 +1605,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -1565,10 +1616,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -1576,10 +1627,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -1587,10 +1638,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -1598,10 +1649,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -1609,10 +1660,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -1620,10 +1671,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -1631,10 +1682,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -1642,10 +1693,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1653,10 +1704,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -1664,10 +1715,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -1675,10 +1726,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -1686,10 +1737,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1697,10 +1748,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -1708,10 +1759,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B42" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -1719,10 +1770,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B43" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -1730,10 +1781,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -1741,10 +1792,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B45" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -1752,10 +1803,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B46" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -1763,10 +1814,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" t="s">
         <v>71</v>
-      </c>
-      <c r="B47" t="s">
-        <v>72</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -1777,7 +1828,7 @@
         <v>73</v>
       </c>
       <c r="B48" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -1785,10 +1836,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" t="s">
         <v>75</v>
-      </c>
-      <c r="B49" t="s">
-        <v>76</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -1796,10 +1847,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" t="s">
         <v>77</v>
-      </c>
-      <c r="B50" t="s">
-        <v>78</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -1807,10 +1858,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B51" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -1818,10 +1869,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B52" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -1829,10 +1880,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B53" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -1840,10 +1891,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B54" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -1851,10 +1902,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B55" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -1862,10 +1913,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B56" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -1873,10 +1924,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B57" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -1884,10 +1935,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B58" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -1895,10 +1946,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B59" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -1906,10 +1957,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B60" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -1917,10 +1968,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B61" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -1928,10 +1979,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B62" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -1939,10 +1990,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B63" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -1950,10 +2001,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B64" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -1961,10 +2012,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B65" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -1972,10 +2023,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B66" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -1983,10 +2034,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B67" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -1994,10 +2045,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B68" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -2005,10 +2056,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B69" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -2016,10 +2067,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B70" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -2027,10 +2078,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B71" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -2038,10 +2089,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B72" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -2049,10 +2100,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B73" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -2060,10 +2111,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B74" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -2071,10 +2122,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B75" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -2082,10 +2133,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B76" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -2093,10 +2144,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B77" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -2104,10 +2155,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B78" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -2115,10 +2166,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B79" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -2126,10 +2177,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B80" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -2137,10 +2188,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B81" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -2148,10 +2199,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B82" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -2159,10 +2210,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B83" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -2170,10 +2221,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B84" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -2181,10 +2232,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B85" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -2192,10 +2243,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B86" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -2203,10 +2254,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B87" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -2214,10 +2265,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B88" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -2225,10 +2276,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B89" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -2236,10 +2287,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B90" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -2247,10 +2298,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B91" t="s">
-        <v>23</v>
+        <v>137</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -2258,10 +2309,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B92" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -2269,10 +2320,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B93" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -2280,10 +2331,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B94" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -2291,10 +2342,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B95" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -2302,10 +2353,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B96" t="s">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -2313,10 +2364,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B97" t="s">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -2324,10 +2375,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B98" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -2335,10 +2386,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B99" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -2346,10 +2397,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B100" t="s">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -2357,10 +2408,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B101" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -2368,10 +2419,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
+        <v>150</v>
+      </c>
+      <c r="B102" t="s">
         <v>151</v>
-      </c>
-      <c r="B102" t="s">
-        <v>15</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -2382,7 +2433,7 @@
         <v>152</v>
       </c>
       <c r="B103" t="s">
-        <v>29</v>
+        <v>153</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -2390,10 +2441,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B104" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -2401,10 +2452,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B105" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -2415,7 +2466,7 @@
         <v>156</v>
       </c>
       <c r="B106" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -2426,7 +2477,7 @@
         <v>157</v>
       </c>
       <c r="B107" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -2437,7 +2488,7 @@
         <v>158</v>
       </c>
       <c r="B108" t="s">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -2448,7 +2499,7 @@
         <v>159</v>
       </c>
       <c r="B109" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -2470,7 +2521,7 @@
         <v>162</v>
       </c>
       <c r="B111" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -2481,7 +2532,7 @@
         <v>163</v>
       </c>
       <c r="B112" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -2492,7 +2543,7 @@
         <v>164</v>
       </c>
       <c r="B113" t="s">
-        <v>165</v>
+        <v>108</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -2500,10 +2551,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B114" t="s">
-        <v>95</v>
+        <v>151</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -2511,10 +2562,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B115" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -2522,10 +2573,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B116" t="s">
-        <v>101</v>
+        <v>161</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -2533,10 +2584,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B117" t="s">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -2544,10 +2595,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B118" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -2555,10 +2606,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B119" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -2566,10 +2617,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B120" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -2577,10 +2628,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
+        <v>172</v>
+      </c>
+      <c r="B121" t="s">
         <v>173</v>
-      </c>
-      <c r="B121" t="s">
-        <v>7</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -2591,7 +2642,7 @@
         <v>174</v>
       </c>
       <c r="B122" t="s">
-        <v>175</v>
+        <v>111</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -2599,10 +2650,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B123" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -2610,10 +2661,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B124" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -2621,10 +2672,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B125" t="s">
-        <v>181</v>
+        <v>98</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -2632,10 +2683,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B126" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -2643,10 +2694,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B127" t="s">
-        <v>181</v>
+        <v>119</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -2654,10 +2705,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B128" t="s">
-        <v>185</v>
+        <v>124</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -2665,10 +2716,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B129" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -2676,10 +2727,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B130" t="s">
-        <v>189</v>
+        <v>115</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -2687,10 +2738,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B131" t="s">
-        <v>187</v>
+        <v>115</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -2698,10 +2749,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B132" t="s">
-        <v>192</v>
+        <v>121</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -2709,10 +2760,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B133" t="s">
-        <v>192</v>
+        <v>100</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -2720,10 +2771,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B134" t="s">
-        <v>195</v>
+        <v>12</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -2731,10 +2782,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B135" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -2742,10 +2793,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B136" t="s">
-        <v>195</v>
+        <v>77</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -2753,10 +2804,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B137" t="s">
-        <v>175</v>
+        <v>33</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -2764,10 +2815,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B138" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -2775,10 +2826,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B139" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -2786,10 +2837,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B140" t="s">
-        <v>52</v>
+        <v>197</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -2797,10 +2848,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B141" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -2808,10 +2859,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B142" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -2819,10 +2870,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B143" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -2830,10 +2881,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B144" t="s">
-        <v>52</v>
+        <v>203</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -2841,10 +2892,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B145" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -2852,10 +2903,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B146" t="s">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -2863,10 +2914,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B147" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -2874,10 +2925,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B148" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -2885,10 +2936,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B149" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -2896,10 +2947,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B150" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -2907,10 +2958,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B151" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -2918,10 +2969,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B152" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -2929,10 +2980,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B153" t="s">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -2940,10 +2991,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B154" t="s">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -2951,10 +3002,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B155" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -2962,10 +3013,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B156" t="s">
-        <v>228</v>
+        <v>75</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -2973,10 +3024,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B157" t="s">
-        <v>66</v>
+        <v>223</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -2984,10 +3035,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B158" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -2995,10 +3046,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B159" t="s">
-        <v>232</v>
+        <v>7</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -3006,10 +3057,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B160" t="s">
-        <v>234</v>
+        <v>75</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -3017,10 +3068,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B161" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -3028,10 +3079,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>193</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -3039,10 +3090,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B163" t="s">
-        <v>23</v>
+        <v>210</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -3050,10 +3101,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B164" t="s">
-        <v>23</v>
+        <v>232</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -3061,10 +3112,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B165" t="s">
-        <v>23</v>
+        <v>234</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -3072,10 +3123,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B166" t="s">
-        <v>88</v>
+        <v>210</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -3083,10 +3134,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B167" t="s">
-        <v>143</v>
+        <v>237</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -3094,10 +3145,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B168" t="s">
-        <v>76</v>
+        <v>239</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -3105,10 +3156,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B169" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -3116,10 +3167,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B170" t="s">
-        <v>80</v>
+        <v>203</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -3127,10 +3178,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B171" t="s">
-        <v>135</v>
+        <v>203</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -3138,10 +3189,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B172" t="s">
-        <v>34</v>
+        <v>245</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -3149,10 +3200,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B173" t="s">
-        <v>249</v>
+        <v>88</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -3160,10 +3211,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B174" t="s">
-        <v>29</v>
+        <v>220</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -3171,10 +3222,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B175" t="s">
-        <v>117</v>
+        <v>249</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -3182,10 +3233,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B176" t="s">
-        <v>112</v>
+        <v>251</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -3193,10 +3244,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B177" t="s">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -3204,10 +3255,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B178" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -3215,10 +3266,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B179" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -3226,10 +3277,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B180" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -3237,10 +3288,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B181" t="s">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -3248,10 +3299,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B182" t="s">
-        <v>244</v>
+        <v>108</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -3259,10 +3310,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B183" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -3270,10 +3321,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B184" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -3281,10 +3332,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
+        <v>260</v>
+      </c>
+      <c r="B185" t="s">
         <v>261</v>
-      </c>
-      <c r="B185" t="s">
-        <v>32</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -3295,7 +3346,7 @@
         <v>262</v>
       </c>
       <c r="B186" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -3306,7 +3357,7 @@
         <v>263</v>
       </c>
       <c r="B187" t="s">
-        <v>244</v>
+        <v>153</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -3317,7 +3368,7 @@
         <v>264</v>
       </c>
       <c r="B188" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -3328,7 +3379,7 @@
         <v>265</v>
       </c>
       <c r="B189" t="s">
-        <v>117</v>
+        <v>266</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -3336,10 +3387,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B190" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -3347,10 +3398,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B191" t="s">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -3358,10 +3409,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B192" t="s">
-        <v>23</v>
+        <v>132</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -3369,10 +3420,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B193" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -3380,10 +3431,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B194" t="s">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -3391,10 +3442,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B195" t="s">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -3402,10 +3453,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B196" t="s">
-        <v>273</v>
+        <v>108</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -3416,7 +3467,7 @@
         <v>274</v>
       </c>
       <c r="B197" t="s">
-        <v>48</v>
+        <v>161</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -3427,7 +3478,7 @@
         <v>275</v>
       </c>
       <c r="B198" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -3438,7 +3489,7 @@
         <v>276</v>
       </c>
       <c r="B199" t="s">
-        <v>232</v>
+        <v>161</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -3449,7 +3500,7 @@
         <v>277</v>
       </c>
       <c r="B200" t="s">
-        <v>63</v>
+        <v>137</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -3460,7 +3511,7 @@
         <v>278</v>
       </c>
       <c r="B201" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -3471,7 +3522,7 @@
         <v>279</v>
       </c>
       <c r="B202" t="s">
-        <v>23</v>
+        <v>153</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -3482,7 +3533,7 @@
         <v>280</v>
       </c>
       <c r="B203" t="s">
-        <v>23</v>
+        <v>261</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -3493,7 +3544,7 @@
         <v>281</v>
       </c>
       <c r="B204" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -3504,7 +3555,7 @@
         <v>282</v>
       </c>
       <c r="B205" t="s">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -3515,7 +3566,7 @@
         <v>283</v>
       </c>
       <c r="B206" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -3526,7 +3577,7 @@
         <v>284</v>
       </c>
       <c r="B207" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -3537,7 +3588,7 @@
         <v>285</v>
       </c>
       <c r="B208" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -3548,7 +3599,7 @@
         <v>286</v>
       </c>
       <c r="B209" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -3559,7 +3610,7 @@
         <v>287</v>
       </c>
       <c r="B210" t="s">
-        <v>39</v>
+        <v>137</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -3570,7 +3621,7 @@
         <v>288</v>
       </c>
       <c r="B211" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -3581,7 +3632,7 @@
         <v>289</v>
       </c>
       <c r="B212" t="s">
-        <v>39</v>
+        <v>290</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -3589,10 +3640,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B213" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -3600,10 +3651,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B214" t="s">
-        <v>54</v>
+        <v>249</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -3611,10 +3662,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B215" t="s">
-        <v>293</v>
+        <v>249</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -3625,7 +3676,7 @@
         <v>294</v>
       </c>
       <c r="B216" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -3636,7 +3687,7 @@
         <v>295</v>
       </c>
       <c r="B217" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -3647,7 +3698,7 @@
         <v>296</v>
       </c>
       <c r="B218" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -3658,7 +3709,7 @@
         <v>297</v>
       </c>
       <c r="B219" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -3669,7 +3720,7 @@
         <v>298</v>
       </c>
       <c r="B220" t="s">
-        <v>63</v>
+        <v>144</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -3680,7 +3731,7 @@
         <v>299</v>
       </c>
       <c r="B221" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -3691,7 +3742,7 @@
         <v>300</v>
       </c>
       <c r="B222" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -3702,7 +3753,7 @@
         <v>301</v>
       </c>
       <c r="B223" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -3713,7 +3764,7 @@
         <v>302</v>
       </c>
       <c r="B224" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -3724,9 +3775,185 @@
         <v>303</v>
       </c>
       <c r="B225" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C225" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>304</v>
+      </c>
+      <c r="B226" t="s">
+        <v>62</v>
+      </c>
+      <c r="C226" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>305</v>
+      </c>
+      <c r="B227" t="s">
+        <v>144</v>
+      </c>
+      <c r="C227" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>306</v>
+      </c>
+      <c r="B228" t="s">
+        <v>62</v>
+      </c>
+      <c r="C228" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>307</v>
+      </c>
+      <c r="B229" t="s">
+        <v>28</v>
+      </c>
+      <c r="C229" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>308</v>
+      </c>
+      <c r="B230" t="s">
+        <v>77</v>
+      </c>
+      <c r="C230" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>309</v>
+      </c>
+      <c r="B231" t="s">
+        <v>310</v>
+      </c>
+      <c r="C231" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>311</v>
+      </c>
+      <c r="B232" t="s">
+        <v>37</v>
+      </c>
+      <c r="C232" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>312</v>
+      </c>
+      <c r="B233" t="s">
+        <v>85</v>
+      </c>
+      <c r="C233" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>313</v>
+      </c>
+      <c r="B234" t="s">
+        <v>85</v>
+      </c>
+      <c r="C234" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>314</v>
+      </c>
+      <c r="B235" t="s">
+        <v>88</v>
+      </c>
+      <c r="C235" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>315</v>
+      </c>
+      <c r="B236" t="s">
+        <v>85</v>
+      </c>
+      <c r="C236" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>316</v>
+      </c>
+      <c r="B237" t="s">
+        <v>85</v>
+      </c>
+      <c r="C237" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>317</v>
+      </c>
+      <c r="B238" t="s">
+        <v>31</v>
+      </c>
+      <c r="C238" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>318</v>
+      </c>
+      <c r="B239" t="s">
+        <v>31</v>
+      </c>
+      <c r="C239" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>319</v>
+      </c>
+      <c r="B240" t="s">
+        <v>31</v>
+      </c>
+      <c r="C240" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>320</v>
+      </c>
+      <c r="B241" t="s">
+        <v>31</v>
+      </c>
+      <c r="C241" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink Asia Dividend Advantage.xlsx
+++ b/data/GreatLink/GreatLink Asia Dividend Advantage.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid242318"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid287651"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="348">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,15 +26,102 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>30/04/2025</t>
+  </si>
+  <si>
+    <t>0.932</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>29/04/2025</t>
+  </si>
+  <si>
+    <t>0.922</t>
+  </si>
+  <si>
+    <t>28/04/2025</t>
+  </si>
+  <si>
+    <t>0.923</t>
+  </si>
+  <si>
+    <t>25/04/2025</t>
+  </si>
+  <si>
+    <t>24/04/2025</t>
+  </si>
+  <si>
+    <t>0.914</t>
+  </si>
+  <si>
+    <t>23/04/2025</t>
+  </si>
+  <si>
+    <t>0.919</t>
+  </si>
+  <si>
+    <t>22/04/2025</t>
+  </si>
+  <si>
+    <t>0.899</t>
+  </si>
+  <si>
+    <t>21/04/2025</t>
+  </si>
+  <si>
+    <t>17/04/2025</t>
+  </si>
+  <si>
+    <t>16/04/2025</t>
+  </si>
+  <si>
+    <t>0.887</t>
+  </si>
+  <si>
+    <t>15/04/2025</t>
+  </si>
+  <si>
+    <t>0.894</t>
+  </si>
+  <si>
+    <t>14/04/2025</t>
+  </si>
+  <si>
+    <t>0.885</t>
+  </si>
+  <si>
+    <t>11/04/2025</t>
+  </si>
+  <si>
+    <t>0.879</t>
+  </si>
+  <si>
+    <t>10/04/2025</t>
+  </si>
+  <si>
+    <t>0.882</t>
+  </si>
+  <si>
+    <t>09/04/2025</t>
+  </si>
+  <si>
+    <t>0.853</t>
+  </si>
+  <si>
+    <t>08/04/2025</t>
+  </si>
+  <si>
+    <t>0.865</t>
+  </si>
+  <si>
     <t>07/04/2025</t>
   </si>
   <si>
     <t>0.866</t>
   </si>
   <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>04/04/2025</t>
   </si>
   <si>
@@ -638,9 +725,6 @@
     <t>09/09/2024</t>
   </si>
   <si>
-    <t>0.923</t>
-  </si>
-  <si>
     <t>06/09/2024</t>
   </si>
   <si>
@@ -738,9 +822,6 @@
   </si>
   <si>
     <t>06/08/2024</t>
-  </si>
-  <si>
-    <t>0.899</t>
   </si>
   <si>
     <t>05/08/2024</t>
@@ -1344,7 +1425,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1352,10 +1433,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1399,7 +1480,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -1407,10 +1488,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1418,10 +1499,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1429,10 +1510,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1454,7 +1535,7 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1462,10 +1543,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1473,10 +1554,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -1484,10 +1565,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -1495,10 +1576,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -1506,10 +1587,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -1517,10 +1598,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -1528,10 +1609,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -1539,10 +1620,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1550,10 +1631,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -1561,10 +1642,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1572,10 +1653,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -1583,10 +1664,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -1594,10 +1675,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -1605,10 +1686,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -1616,10 +1697,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -1627,10 +1708,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -1638,10 +1719,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -1649,10 +1730,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -1660,10 +1741,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -1671,10 +1752,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -1682,10 +1763,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -1693,10 +1774,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1704,10 +1785,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -1715,10 +1796,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -1726,10 +1807,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -1737,10 +1818,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1748,10 +1829,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" t="s">
         <v>64</v>
-      </c>
-      <c r="B41" t="s">
-        <v>39</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -1759,10 +1840,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -1770,10 +1851,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B43" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -1781,10 +1862,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -1792,10 +1873,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B45" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -1803,10 +1884,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B46" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -1814,10 +1895,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B47" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -1825,10 +1906,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B48" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -1836,10 +1917,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B49" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -1847,10 +1928,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B50" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -1858,10 +1939,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B51" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -1869,10 +1950,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B52" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -1880,10 +1961,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B53" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -1891,10 +1972,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B54" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -1902,10 +1983,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B55" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -1913,10 +1994,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B56" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -1924,10 +2005,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B57" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -1935,10 +2016,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B58" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -1946,10 +2027,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B59" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -1957,10 +2038,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B60" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -1968,10 +2049,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B61" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -1979,10 +2060,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B62" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -1990,10 +2071,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B63" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -2001,10 +2082,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B64" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -2012,10 +2093,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B65" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -2023,10 +2104,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B66" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -2034,10 +2115,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B67" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -2045,10 +2126,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B68" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -2056,10 +2137,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B69" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -2067,10 +2148,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B70" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -2078,10 +2159,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B71" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -2089,10 +2170,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B72" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -2100,10 +2181,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B73" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -2111,10 +2192,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B74" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -2122,10 +2203,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B75" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -2133,10 +2214,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B76" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -2144,10 +2225,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B77" t="s">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -2155,10 +2236,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B78" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -2166,10 +2247,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B79" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -2177,10 +2258,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B80" t="s">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -2188,10 +2269,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B81" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -2199,10 +2280,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B82" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -2210,10 +2291,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B83" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -2221,10 +2302,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B84" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -2232,10 +2313,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B85" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -2243,10 +2324,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B86" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -2254,7 +2335,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B87" t="s">
         <v>132</v>
@@ -2265,10 +2346,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B88" t="s">
-        <v>24</v>
+        <v>127</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -2276,10 +2357,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B89" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -2287,10 +2368,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B90" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -2298,10 +2379,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B91" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -2309,10 +2390,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B92" t="s">
-        <v>55</v>
+        <v>142</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -2320,10 +2401,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B93" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -2331,10 +2412,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B94" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -2342,10 +2423,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B95" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -2353,10 +2434,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B96" t="s">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -2364,10 +2445,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B97" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -2375,10 +2456,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B98" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -2386,10 +2467,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B99" t="s">
-        <v>67</v>
+        <v>155</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -2397,10 +2478,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B100" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -2408,10 +2489,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B101" t="s">
-        <v>24</v>
+        <v>158</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -2419,10 +2500,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="B102" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -2430,10 +2511,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B103" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -2441,10 +2522,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B104" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -2452,10 +2533,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B105" t="s">
-        <v>132</v>
+        <v>39</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -2463,10 +2544,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B106" t="s">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -2474,10 +2555,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="B107" t="s">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -2485,10 +2566,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="B108" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -2496,10 +2577,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="B109" t="s">
-        <v>24</v>
+        <v>166</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -2507,10 +2588,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="B110" t="s">
-        <v>161</v>
+        <v>39</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -2518,10 +2599,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B111" t="s">
-        <v>132</v>
+        <v>47</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -2529,10 +2610,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B112" t="s">
-        <v>132</v>
+        <v>49</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -2540,10 +2621,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B113" t="s">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -2551,10 +2632,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="B114" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -2562,10 +2643,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B115" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -2573,10 +2654,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="B116" t="s">
-        <v>161</v>
+        <v>49</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -2584,10 +2665,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B117" t="s">
-        <v>151</v>
+        <v>53</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -2595,10 +2676,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="B118" t="s">
-        <v>41</v>
+        <v>180</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -2606,10 +2687,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="B119" t="s">
-        <v>16</v>
+        <v>182</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -2617,10 +2698,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B120" t="s">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -2628,10 +2709,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="B121" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -2639,10 +2720,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="B122" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -2650,10 +2731,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B123" t="s">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -2661,10 +2742,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="B124" t="s">
-        <v>151</v>
+        <v>70</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -2672,10 +2753,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="B125" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -2683,10 +2764,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="B126" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -2694,10 +2775,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="B127" t="s">
-        <v>119</v>
+        <v>161</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -2705,10 +2786,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B128" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -2716,10 +2797,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="B129" t="s">
-        <v>183</v>
+        <v>137</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -2727,10 +2808,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="B130" t="s">
-        <v>115</v>
+        <v>180</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -2738,10 +2819,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="B131" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -2749,10 +2830,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B132" t="s">
-        <v>121</v>
+        <v>190</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -2760,10 +2841,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="B133" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -2771,10 +2852,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="B134" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -2782,10 +2863,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="B135" t="s">
-        <v>144</v>
+        <v>45</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -2793,10 +2874,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="B136" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -2804,10 +2885,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="B137" t="s">
-        <v>33</v>
+        <v>202</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -2815,10 +2896,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="B138" t="s">
-        <v>193</v>
+        <v>140</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -2826,10 +2907,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="B139" t="s">
-        <v>195</v>
+        <v>153</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -2837,10 +2918,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="B140" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -2848,10 +2929,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B141" t="s">
-        <v>199</v>
+        <v>127</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -2859,10 +2940,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="B142" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -2870,10 +2951,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="B143" t="s">
-        <v>199</v>
+        <v>148</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -2881,10 +2962,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B144" t="s">
-        <v>203</v>
+        <v>153</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -2892,10 +2973,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B145" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -2903,10 +2984,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B146" t="s">
-        <v>207</v>
+        <v>144</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -2914,10 +2995,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B147" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -2925,10 +3006,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B148" t="s">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -2936,10 +3017,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B149" t="s">
-        <v>210</v>
+        <v>129</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -2947,10 +3028,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B150" t="s">
-        <v>213</v>
+        <v>41</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -2958,10 +3039,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B151" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -2969,10 +3050,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B152" t="s">
-        <v>213</v>
+        <v>106</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -2980,10 +3061,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B153" t="s">
-        <v>193</v>
+        <v>62</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -2991,10 +3072,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B154" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -3002,10 +3083,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B155" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -3013,10 +3094,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B156" t="s">
-        <v>75</v>
+        <v>226</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -3024,10 +3105,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B157" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -3035,10 +3116,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B158" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -3046,10 +3127,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>228</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -3057,10 +3138,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B160" t="s">
-        <v>75</v>
+        <v>232</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -3068,10 +3149,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B161" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -3079,10 +3160,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B162" t="s">
-        <v>193</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -3090,10 +3171,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B163" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -3101,10 +3182,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B164" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -3112,10 +3193,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B165" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -3123,10 +3204,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B166" t="s">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -3134,10 +3215,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B167" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -3145,10 +3226,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B168" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -3156,10 +3237,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B169" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -3167,10 +3248,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B170" t="s">
-        <v>203</v>
+        <v>246</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -3178,10 +3259,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B171" t="s">
-        <v>203</v>
+        <v>248</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -3189,10 +3270,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B172" t="s">
-        <v>245</v>
+        <v>104</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -3200,10 +3281,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B173" t="s">
-        <v>88</v>
+        <v>251</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -3211,10 +3292,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B174" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -3222,10 +3303,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B175" t="s">
-        <v>249</v>
+        <v>36</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -3233,10 +3314,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B176" t="s">
-        <v>251</v>
+        <v>104</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -3244,10 +3325,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B177" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -3255,10 +3336,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B178" t="s">
-        <v>33</v>
+        <v>222</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -3266,10 +3347,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B179" t="s">
-        <v>12</v>
+        <v>238</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -3277,10 +3358,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B180" t="s">
-        <v>12</v>
+        <v>260</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -3288,10 +3369,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B181" t="s">
-        <v>12</v>
+        <v>262</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -3299,10 +3380,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="B182" t="s">
-        <v>108</v>
+        <v>238</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -3310,10 +3391,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B183" t="s">
-        <v>161</v>
+        <v>265</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -3321,10 +3402,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="B184" t="s">
-        <v>96</v>
+        <v>267</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -3332,10 +3413,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B185" t="s">
-        <v>261</v>
+        <v>16</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -3343,10 +3424,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="B186" t="s">
-        <v>100</v>
+        <v>232</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -3354,10 +3435,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="B187" t="s">
-        <v>153</v>
+        <v>232</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -3365,10 +3446,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B188" t="s">
-        <v>57</v>
+        <v>272</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -3376,10 +3457,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="B189" t="s">
-        <v>266</v>
+        <v>117</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -3387,10 +3468,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="B190" t="s">
-        <v>16</v>
+        <v>248</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -3398,10 +3479,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="B191" t="s">
-        <v>137</v>
+        <v>276</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -3409,10 +3490,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="B192" t="s">
-        <v>132</v>
+        <v>278</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -3420,10 +3501,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="B193" t="s">
-        <v>18</v>
+        <v>253</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -3431,10 +3512,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="B194" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -3442,10 +3523,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="B195" t="s">
-        <v>132</v>
+        <v>41</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -3453,10 +3534,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="B196" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -3464,10 +3545,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="B197" t="s">
-        <v>161</v>
+        <v>41</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -3475,10 +3556,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="B198" t="s">
-        <v>261</v>
+        <v>137</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -3486,10 +3567,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="B199" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -3497,10 +3578,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="B200" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -3508,10 +3589,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="B201" t="s">
-        <v>55</v>
+        <v>288</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -3519,10 +3600,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="B202" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -3530,10 +3611,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="B203" t="s">
-        <v>261</v>
+        <v>182</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -3541,10 +3622,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="B204" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -3552,10 +3633,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="B205" t="s">
-        <v>137</v>
+        <v>293</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -3563,10 +3644,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="B206" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -3574,10 +3655,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="B207" t="s">
-        <v>67</v>
+        <v>166</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -3585,10 +3666,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="B208" t="s">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -3596,10 +3677,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="B209" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -3607,10 +3688,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="B210" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -3618,10 +3699,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="B211" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -3629,10 +3710,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="B212" t="s">
-        <v>290</v>
+        <v>137</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -3640,10 +3721,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="B213" t="s">
-        <v>71</v>
+        <v>190</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -3651,10 +3732,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="B214" t="s">
-        <v>249</v>
+        <v>288</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -3662,10 +3743,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="B215" t="s">
-        <v>249</v>
+        <v>190</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -3673,10 +3754,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="B216" t="s">
-        <v>85</v>
+        <v>166</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -3684,10 +3765,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="B217" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -3695,10 +3776,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="B218" t="s">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -3706,10 +3787,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="B219" t="s">
-        <v>12</v>
+        <v>288</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -3717,10 +3798,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="B220" t="s">
-        <v>144</v>
+        <v>43</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -3728,10 +3809,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="B221" t="s">
-        <v>41</v>
+        <v>166</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -3739,10 +3820,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="B222" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -3750,10 +3831,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="B223" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -3761,10 +3842,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="B224" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -3772,10 +3853,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="B225" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -3783,10 +3864,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="B226" t="s">
-        <v>62</v>
+        <v>166</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -3794,10 +3875,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="B227" t="s">
-        <v>144</v>
+        <v>43</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -3805,10 +3886,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="B228" t="s">
-        <v>62</v>
+        <v>317</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -3816,10 +3897,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="B229" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -3827,10 +3908,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="B230" t="s">
-        <v>77</v>
+        <v>276</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -3838,10 +3919,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="B231" t="s">
-        <v>310</v>
+        <v>276</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -3849,10 +3930,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="B232" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -3860,10 +3941,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="B233" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -3871,10 +3952,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="B234" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -3882,10 +3963,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="B235" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -3893,10 +3974,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="B236" t="s">
-        <v>85</v>
+        <v>173</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -3904,10 +3985,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="B237" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -3915,10 +3996,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="B238" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -3926,10 +4007,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="B239" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -3937,10 +4018,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="B240" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -3948,12 +4029,188 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="B241" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="C241" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>331</v>
+      </c>
+      <c r="B242" t="s">
+        <v>91</v>
+      </c>
+      <c r="C242" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>332</v>
+      </c>
+      <c r="B243" t="s">
+        <v>173</v>
+      </c>
+      <c r="C243" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>333</v>
+      </c>
+      <c r="B244" t="s">
+        <v>91</v>
+      </c>
+      <c r="C244" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>334</v>
+      </c>
+      <c r="B245" t="s">
+        <v>57</v>
+      </c>
+      <c r="C245" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>335</v>
+      </c>
+      <c r="B246" t="s">
+        <v>106</v>
+      </c>
+      <c r="C246" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>336</v>
+      </c>
+      <c r="B247" t="s">
+        <v>337</v>
+      </c>
+      <c r="C247" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>338</v>
+      </c>
+      <c r="B248" t="s">
+        <v>66</v>
+      </c>
+      <c r="C248" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>339</v>
+      </c>
+      <c r="B249" t="s">
+        <v>114</v>
+      </c>
+      <c r="C249" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>340</v>
+      </c>
+      <c r="B250" t="s">
+        <v>114</v>
+      </c>
+      <c r="C250" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>341</v>
+      </c>
+      <c r="B251" t="s">
+        <v>117</v>
+      </c>
+      <c r="C251" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>342</v>
+      </c>
+      <c r="B252" t="s">
+        <v>114</v>
+      </c>
+      <c r="C252" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>343</v>
+      </c>
+      <c r="B253" t="s">
+        <v>114</v>
+      </c>
+      <c r="C253" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>344</v>
+      </c>
+      <c r="B254" t="s">
+        <v>60</v>
+      </c>
+      <c r="C254" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>345</v>
+      </c>
+      <c r="B255" t="s">
+        <v>60</v>
+      </c>
+      <c r="C255" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>346</v>
+      </c>
+      <c r="B256" t="s">
+        <v>60</v>
+      </c>
+      <c r="C256" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>347</v>
+      </c>
+      <c r="B257" t="s">
+        <v>60</v>
+      </c>
+      <c r="C257" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink Asia Dividend Advantage.xlsx
+++ b/data/GreatLink/GreatLink Asia Dividend Advantage.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid287651"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid381232"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="372">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,15 +26,123 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>04/06/2025</t>
+  </si>
+  <si>
+    <t>0.956</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>03/06/2025</t>
+  </si>
+  <si>
+    <t>0.953</t>
+  </si>
+  <si>
+    <t>02/06/2025</t>
+  </si>
+  <si>
+    <t>30/05/2025</t>
+  </si>
+  <si>
+    <t>29/05/2025</t>
+  </si>
+  <si>
+    <t>0.964</t>
+  </si>
+  <si>
+    <t>28/05/2025</t>
+  </si>
+  <si>
+    <t>0.960</t>
+  </si>
+  <si>
+    <t>27/05/2025</t>
+  </si>
+  <si>
+    <t>0.957</t>
+  </si>
+  <si>
+    <t>26/05/2025</t>
+  </si>
+  <si>
+    <t>0.958</t>
+  </si>
+  <si>
+    <t>23/05/2025</t>
+  </si>
+  <si>
+    <t>22/05/2025</t>
+  </si>
+  <si>
+    <t>21/05/2025</t>
+  </si>
+  <si>
+    <t>0.963</t>
+  </si>
+  <si>
+    <t>20/05/2025</t>
+  </si>
+  <si>
+    <t>19/05/2025</t>
+  </si>
+  <si>
+    <t>16/05/2025</t>
+  </si>
+  <si>
+    <t>0.969</t>
+  </si>
+  <si>
+    <t>15/05/2025</t>
+  </si>
+  <si>
+    <t>0.967</t>
+  </si>
+  <si>
+    <t>14/05/2025</t>
+  </si>
+  <si>
+    <t>0.968</t>
+  </si>
+  <si>
+    <t>13/05/2025</t>
+  </si>
+  <si>
+    <t>09/05/2025</t>
+  </si>
+  <si>
+    <t>0.940</t>
+  </si>
+  <si>
+    <t>08/05/2025</t>
+  </si>
+  <si>
+    <t>07/05/2025</t>
+  </si>
+  <si>
+    <t>0.939</t>
+  </si>
+  <si>
+    <t>06/05/2025</t>
+  </si>
+  <si>
+    <t>0.941</t>
+  </si>
+  <si>
+    <t>05/05/2025</t>
+  </si>
+  <si>
+    <t>02/05/2025</t>
+  </si>
+  <si>
     <t>30/04/2025</t>
   </si>
   <si>
     <t>0.932</t>
   </si>
   <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>29/04/2025</t>
   </si>
   <si>
@@ -140,9 +248,6 @@
     <t>01/04/2025</t>
   </si>
   <si>
-    <t>0.968</t>
-  </si>
-  <si>
     <t>28/03/2025</t>
   </si>
   <si>
@@ -164,9 +269,6 @@
     <t>25/03/2025</t>
   </si>
   <si>
-    <t>0.969</t>
-  </si>
-  <si>
     <t>24/03/2025</t>
   </si>
   <si>
@@ -188,9 +290,6 @@
     <t>17/03/2025</t>
   </si>
   <si>
-    <t>0.957</t>
-  </si>
-  <si>
     <t>14/03/2025</t>
   </si>
   <si>
@@ -209,21 +308,12 @@
     <t>11/03/2025</t>
   </si>
   <si>
-    <t>0.956</t>
-  </si>
-  <si>
     <t>10/03/2025</t>
   </si>
   <si>
-    <t>0.958</t>
-  </si>
-  <si>
     <t>07/03/2025</t>
   </si>
   <si>
-    <t>0.967</t>
-  </si>
-  <si>
     <t>06/03/2025</t>
   </si>
   <si>
@@ -251,9 +341,6 @@
     <t>25/02/2025</t>
   </si>
   <si>
-    <t>0.960</t>
-  </si>
-  <si>
     <t>24/02/2025</t>
   </si>
   <si>
@@ -290,9 +377,6 @@
     <t>12/02/2025</t>
   </si>
   <si>
-    <t>0.964</t>
-  </si>
-  <si>
     <t>11/02/2025</t>
   </si>
   <si>
@@ -335,9 +419,6 @@
     <t>24/01/2025</t>
   </si>
   <si>
-    <t>0.953</t>
-  </si>
-  <si>
     <t>23/01/2025</t>
   </si>
   <si>
@@ -536,9 +617,6 @@
     <t>18/11/2024</t>
   </si>
   <si>
-    <t>0.963</t>
-  </si>
-  <si>
     <t>15/11/2024</t>
   </si>
   <si>
@@ -761,9 +839,6 @@
     <t>27/08/2024</t>
   </si>
   <si>
-    <t>0.941</t>
-  </si>
-  <si>
     <t>26/08/2024</t>
   </si>
   <si>
@@ -774,9 +849,6 @@
   </si>
   <si>
     <t>22/08/2024</t>
-  </si>
-  <si>
-    <t>0.940</t>
   </si>
   <si>
     <t>21/08/2024</t>
@@ -1425,7 +1497,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1433,7 +1505,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -1444,10 +1516,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1455,10 +1527,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
         <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1466,10 +1538,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
         <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1477,10 +1549,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
         <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -1491,7 +1563,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1502,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1510,10 +1582,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
         <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1521,10 +1593,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1532,10 +1604,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1543,10 +1615,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1554,10 +1626,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -1565,10 +1637,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -1576,10 +1648,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -1587,10 +1659,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -1598,10 +1670,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -1609,10 +1681,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -1620,10 +1692,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1631,10 +1703,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -1642,10 +1714,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1653,10 +1725,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -1664,10 +1736,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -1675,10 +1747,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -1686,10 +1758,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -1697,10 +1769,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -1708,10 +1780,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -1719,10 +1791,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -1730,10 +1802,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -1741,10 +1813,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -1752,10 +1824,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -1763,10 +1835,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B35" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -1774,10 +1846,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B36" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1785,10 +1857,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -1796,10 +1868,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -1807,10 +1879,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B39" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -1818,10 +1890,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B40" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1829,10 +1901,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B41" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -1840,10 +1912,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B42" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -1851,10 +1923,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -1862,10 +1934,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" t="s">
         <v>75</v>
-      </c>
-      <c r="B44" t="s">
-        <v>43</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -1876,7 +1948,7 @@
         <v>76</v>
       </c>
       <c r="B45" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -1909,7 +1981,7 @@
         <v>81</v>
       </c>
       <c r="B48" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -1917,10 +1989,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B49" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -1928,10 +2000,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B50" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -1942,7 +2014,7 @@
         <v>85</v>
       </c>
       <c r="B51" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -1950,10 +2022,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>86</v>
+      </c>
+      <c r="B52" t="s">
         <v>87</v>
-      </c>
-      <c r="B52" t="s">
-        <v>43</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -1964,7 +2036,7 @@
         <v>88</v>
       </c>
       <c r="B53" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -1975,7 +2047,7 @@
         <v>89</v>
       </c>
       <c r="B54" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -1986,7 +2058,7 @@
         <v>90</v>
       </c>
       <c r="B55" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -1994,10 +2066,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B56" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -2005,10 +2077,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>92</v>
+      </c>
+      <c r="B57" t="s">
         <v>93</v>
-      </c>
-      <c r="B57" t="s">
-        <v>68</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -2019,7 +2091,7 @@
         <v>94</v>
       </c>
       <c r="B58" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -2027,10 +2099,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B59" t="s">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -2041,7 +2113,7 @@
         <v>97</v>
       </c>
       <c r="B60" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -2052,7 +2124,7 @@
         <v>98</v>
       </c>
       <c r="B61" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -2074,7 +2146,7 @@
         <v>101</v>
       </c>
       <c r="B63" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -2085,7 +2157,7 @@
         <v>102</v>
       </c>
       <c r="B64" t="s">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -2096,7 +2168,7 @@
         <v>103</v>
       </c>
       <c r="B65" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -2104,10 +2176,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B66" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -2115,10 +2187,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B67" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -2126,10 +2198,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B68" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -2137,10 +2209,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B69" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -2148,10 +2220,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B70" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -2159,10 +2231,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B71" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -2170,10 +2242,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B72" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -2181,10 +2253,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>112</v>
+      </c>
+      <c r="B73" t="s">
         <v>113</v>
-      </c>
-      <c r="B73" t="s">
-        <v>114</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -2192,10 +2264,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
+        <v>114</v>
+      </c>
+      <c r="B74" t="s">
         <v>115</v>
-      </c>
-      <c r="B74" t="s">
-        <v>60</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -2206,7 +2278,7 @@
         <v>116</v>
       </c>
       <c r="B75" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -2214,10 +2286,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B76" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -2225,10 +2297,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B77" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -2236,10 +2308,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B78" t="s">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -2247,10 +2319,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B79" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -2258,10 +2330,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B80" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -2269,10 +2341,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B81" t="s">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -2280,10 +2352,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B82" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -2291,10 +2363,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B83" t="s">
-        <v>129</v>
+        <v>4</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -2302,10 +2374,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B84" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -2313,10 +2385,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B85" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -2324,10 +2396,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B86" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -2335,10 +2407,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B87" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -2346,10 +2418,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B88" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -2357,10 +2429,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B89" t="s">
-        <v>137</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -2368,10 +2440,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B90" t="s">
-        <v>129</v>
+        <v>4</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -2379,10 +2451,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B91" t="s">
-        <v>140</v>
+        <v>4</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -2390,10 +2462,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B92" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -2401,10 +2473,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B93" t="s">
-        <v>144</v>
+        <v>4</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -2412,10 +2484,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B94" t="s">
-        <v>146</v>
+        <v>4</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -2423,10 +2495,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B95" t="s">
-        <v>148</v>
+        <v>15</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -2434,10 +2506,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B96" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -2445,10 +2517,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B97" t="s">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -2456,10 +2528,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B98" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -2467,10 +2539,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="B99" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -2478,10 +2550,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B100" t="s">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -2489,10 +2561,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B101" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -2500,10 +2572,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B102" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -2511,10 +2583,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B103" t="s">
-        <v>161</v>
+        <v>75</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -2522,10 +2594,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B104" t="s">
-        <v>53</v>
+        <v>152</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -2533,10 +2605,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B105" t="s">
-        <v>39</v>
+        <v>154</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -2544,10 +2616,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B106" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -2555,10 +2627,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B107" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -2566,10 +2638,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B108" t="s">
-        <v>84</v>
+        <v>159</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -2577,10 +2649,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B109" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -2588,10 +2660,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B110" t="s">
-        <v>39</v>
+        <v>159</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -2599,10 +2671,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B111" t="s">
-        <v>47</v>
+        <v>154</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -2610,10 +2682,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B112" t="s">
-        <v>49</v>
+        <v>164</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -2621,10 +2693,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B113" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -2632,10 +2704,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B114" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -2643,10 +2715,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B115" t="s">
-        <v>96</v>
+        <v>169</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -2654,10 +2726,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B116" t="s">
-        <v>49</v>
+        <v>171</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -2665,10 +2737,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B117" t="s">
-        <v>53</v>
+        <v>173</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -2676,10 +2748,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B118" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -2687,10 +2759,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B119" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -2698,10 +2770,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B120" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -2709,10 +2781,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B121" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -2720,10 +2792,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B122" t="s">
-        <v>45</v>
+        <v>182</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -2731,10 +2803,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B123" t="s">
-        <v>41</v>
+        <v>156</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -2742,10 +2814,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B124" t="s">
-        <v>70</v>
+        <v>185</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -2753,10 +2825,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B125" t="s">
-        <v>53</v>
+        <v>156</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -2764,10 +2836,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B126" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -2775,10 +2847,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B127" t="s">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -2786,10 +2858,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B128" t="s">
-        <v>161</v>
+        <v>75</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -2797,10 +2869,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B129" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -2808,10 +2880,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B130" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -2819,10 +2891,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B131" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -2830,10 +2902,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B132" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -2841,10 +2913,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B133" t="s">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -2852,10 +2924,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B134" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -2863,10 +2935,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B135" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -2874,10 +2946,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B136" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -2885,10 +2957,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
+        <v>200</v>
+      </c>
+      <c r="B137" t="s">
         <v>201</v>
-      </c>
-      <c r="B137" t="s">
-        <v>202</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -2896,10 +2968,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B138" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -2907,10 +2979,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B139" t="s">
-        <v>153</v>
+        <v>25</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -2918,10 +2990,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B140" t="s">
-        <v>180</v>
+        <v>87</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -2929,10 +3001,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
+        <v>205</v>
+      </c>
+      <c r="B141" t="s">
         <v>206</v>
-      </c>
-      <c r="B141" t="s">
-        <v>127</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -2954,7 +3026,7 @@
         <v>209</v>
       </c>
       <c r="B143" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -2965,7 +3037,7 @@
         <v>210</v>
       </c>
       <c r="B144" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -2976,7 +3048,7 @@
         <v>211</v>
       </c>
       <c r="B145" t="s">
-        <v>212</v>
+        <v>80</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -2984,10 +3056,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B146" t="s">
-        <v>144</v>
+        <v>29</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -2995,10 +3067,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B147" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -3006,10 +3078,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B148" t="s">
-        <v>150</v>
+        <v>87</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -3017,10 +3089,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
+        <v>215</v>
+      </c>
+      <c r="B149" t="s">
         <v>216</v>
-      </c>
-      <c r="B149" t="s">
-        <v>129</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -3031,7 +3103,7 @@
         <v>217</v>
       </c>
       <c r="B150" t="s">
-        <v>41</v>
+        <v>188</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -3042,7 +3114,7 @@
         <v>218</v>
       </c>
       <c r="B151" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -3053,7 +3125,7 @@
         <v>219</v>
       </c>
       <c r="B152" t="s">
-        <v>106</v>
+        <v>164</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -3064,7 +3136,7 @@
         <v>220</v>
       </c>
       <c r="B153" t="s">
-        <v>62</v>
+        <v>206</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -3075,7 +3147,7 @@
         <v>221</v>
       </c>
       <c r="B154" t="s">
-        <v>222</v>
+        <v>164</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -3083,10 +3155,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B155" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -3094,10 +3166,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B156" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -3105,10 +3177,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B157" t="s">
-        <v>228</v>
+        <v>100</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -3116,10 +3188,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B158" t="s">
-        <v>228</v>
+        <v>80</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -3127,10 +3199,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B159" t="s">
-        <v>228</v>
+        <v>152</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -3138,10 +3210,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B160" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -3149,10 +3221,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B161" t="s">
-        <v>234</v>
+        <v>167</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -3160,10 +3232,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B162" t="s">
-        <v>9</v>
+        <v>180</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -3171,10 +3243,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B163" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -3182,10 +3254,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B164" t="s">
-        <v>238</v>
+        <v>154</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -3193,10 +3265,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B165" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -3204,10 +3276,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B166" t="s">
-        <v>241</v>
+        <v>175</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -3215,10 +3287,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B167" t="s">
-        <v>222</v>
+        <v>180</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -3226,10 +3298,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B168" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -3237,10 +3309,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B169" t="s">
-        <v>222</v>
+        <v>171</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -3248,10 +3320,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B170" t="s">
-        <v>246</v>
+        <v>171</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -3259,10 +3331,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B171" t="s">
-        <v>248</v>
+        <v>177</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -3270,10 +3342,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B172" t="s">
-        <v>104</v>
+        <v>156</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -3281,10 +3353,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B173" t="s">
-        <v>251</v>
+        <v>29</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -3292,10 +3364,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B174" t="s">
-        <v>253</v>
+        <v>21</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -3303,10 +3375,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B175" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -3314,10 +3386,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="B176" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -3325,7 +3397,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="B177" t="s">
         <v>248</v>
@@ -3336,10 +3408,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B178" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -3347,10 +3419,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B179" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -3358,10 +3430,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B180" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -3369,10 +3441,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B181" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -3380,10 +3452,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B182" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -3391,10 +3463,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B183" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -3402,10 +3474,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B184" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -3413,10 +3485,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B185" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -3424,10 +3496,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B186" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -3435,10 +3507,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B187" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -3446,10 +3518,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B188" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -3457,10 +3529,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B189" t="s">
-        <v>117</v>
+        <v>267</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -3468,7 +3540,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B190" t="s">
         <v>248</v>
@@ -3479,10 +3551,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B191" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -3490,10 +3562,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B192" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -3501,10 +3573,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B193" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -3512,10 +3584,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B194" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -3523,10 +3595,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B195" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -3534,10 +3606,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B196" t="s">
-        <v>41</v>
+        <v>276</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -3545,10 +3617,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B197" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -3556,10 +3628,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B198" t="s">
-        <v>137</v>
+        <v>72</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -3567,10 +3639,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B199" t="s">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -3578,10 +3650,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B200" t="s">
-        <v>125</v>
+        <v>37</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -3589,10 +3661,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B201" t="s">
-        <v>288</v>
+        <v>248</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -3600,10 +3672,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B202" t="s">
-        <v>129</v>
+        <v>264</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -3611,10 +3683,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B203" t="s">
-        <v>182</v>
+        <v>284</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -3622,10 +3694,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B204" t="s">
-        <v>86</v>
+        <v>286</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -3633,10 +3705,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B205" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -3644,10 +3716,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B206" t="s">
-        <v>45</v>
+        <v>289</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -3655,10 +3727,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B207" t="s">
-        <v>166</v>
+        <v>291</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -3666,10 +3738,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B208" t="s">
-        <v>161</v>
+        <v>52</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -3677,10 +3749,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B209" t="s">
-        <v>47</v>
+        <v>258</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -3688,10 +3760,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B210" t="s">
-        <v>45</v>
+        <v>258</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -3699,10 +3771,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B211" t="s">
-        <v>161</v>
+        <v>296</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -3710,10 +3782,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B212" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -3721,10 +3793,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B213" t="s">
-        <v>190</v>
+        <v>37</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -3732,10 +3804,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B214" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -3743,10 +3815,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B215" t="s">
-        <v>190</v>
+        <v>302</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -3754,10 +3826,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B216" t="s">
-        <v>166</v>
+        <v>32</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -3765,10 +3837,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B217" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -3776,10 +3848,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B218" t="s">
-        <v>182</v>
+        <v>29</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -3787,10 +3859,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B219" t="s">
-        <v>288</v>
+        <v>29</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -3798,10 +3870,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B220" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -3809,10 +3881,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B221" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -3820,10 +3892,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B222" t="s">
-        <v>80</v>
+        <v>216</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -3831,10 +3903,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B223" t="s">
-        <v>96</v>
+        <v>152</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -3842,10 +3914,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
+        <v>311</v>
+      </c>
+      <c r="B224" t="s">
         <v>312</v>
-      </c>
-      <c r="B224" t="s">
-        <v>41</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -3856,7 +3928,7 @@
         <v>313</v>
       </c>
       <c r="B225" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -3867,7 +3939,7 @@
         <v>314</v>
       </c>
       <c r="B226" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -3878,7 +3950,7 @@
         <v>315</v>
       </c>
       <c r="B227" t="s">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -3900,7 +3972,7 @@
         <v>318</v>
       </c>
       <c r="B229" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -3911,7 +3983,7 @@
         <v>319</v>
       </c>
       <c r="B230" t="s">
-        <v>276</v>
+        <v>193</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -3922,7 +3994,7 @@
         <v>320</v>
       </c>
       <c r="B231" t="s">
-        <v>276</v>
+        <v>188</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -3933,7 +4005,7 @@
         <v>321</v>
       </c>
       <c r="B232" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -3944,7 +4016,7 @@
         <v>322</v>
       </c>
       <c r="B233" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -3955,7 +4027,7 @@
         <v>323</v>
       </c>
       <c r="B234" t="s">
-        <v>41</v>
+        <v>188</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -3966,7 +4038,7 @@
         <v>324</v>
       </c>
       <c r="B235" t="s">
-        <v>41</v>
+        <v>164</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -3977,7 +4049,7 @@
         <v>325</v>
       </c>
       <c r="B236" t="s">
-        <v>173</v>
+        <v>216</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -3988,7 +4060,7 @@
         <v>326</v>
       </c>
       <c r="B237" t="s">
-        <v>70</v>
+        <v>312</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -3999,7 +4071,7 @@
         <v>327</v>
       </c>
       <c r="B238" t="s">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -4010,7 +4082,7 @@
         <v>328</v>
       </c>
       <c r="B239" t="s">
-        <v>80</v>
+        <v>193</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -4021,7 +4093,7 @@
         <v>329</v>
       </c>
       <c r="B240" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -4032,7 +4104,7 @@
         <v>330</v>
       </c>
       <c r="B241" t="s">
-        <v>121</v>
+        <v>208</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -4043,7 +4115,7 @@
         <v>331</v>
       </c>
       <c r="B242" t="s">
-        <v>91</v>
+        <v>312</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -4054,7 +4126,7 @@
         <v>332</v>
       </c>
       <c r="B243" t="s">
-        <v>173</v>
+        <v>78</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -4065,7 +4137,7 @@
         <v>333</v>
       </c>
       <c r="B244" t="s">
-        <v>91</v>
+        <v>193</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -4076,7 +4148,7 @@
         <v>334</v>
       </c>
       <c r="B245" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -4087,7 +4159,7 @@
         <v>335</v>
       </c>
       <c r="B246" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -4098,7 +4170,7 @@
         <v>336</v>
       </c>
       <c r="B247" t="s">
-        <v>337</v>
+        <v>29</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -4106,10 +4178,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B248" t="s">
-        <v>66</v>
+        <v>148</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -4117,10 +4189,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B249" t="s">
-        <v>114</v>
+        <v>193</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -4128,10 +4200,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B250" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -4139,10 +4211,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
+        <v>340</v>
+      </c>
+      <c r="B251" t="s">
         <v>341</v>
-      </c>
-      <c r="B251" t="s">
-        <v>117</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -4153,7 +4225,7 @@
         <v>342</v>
       </c>
       <c r="B252" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -4164,7 +4236,7 @@
         <v>343</v>
       </c>
       <c r="B253" t="s">
-        <v>114</v>
+        <v>300</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -4175,7 +4247,7 @@
         <v>344</v>
       </c>
       <c r="B254" t="s">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -4186,7 +4258,7 @@
         <v>345</v>
       </c>
       <c r="B255" t="s">
-        <v>60</v>
+        <v>141</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -4197,7 +4269,7 @@
         <v>346</v>
       </c>
       <c r="B256" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -4208,9 +4280,262 @@
         <v>347</v>
       </c>
       <c r="B257" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="C257" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>348</v>
+      </c>
+      <c r="B258" t="s">
+        <v>29</v>
+      </c>
+      <c r="C258" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>349</v>
+      </c>
+      <c r="B259" t="s">
+        <v>21</v>
+      </c>
+      <c r="C259" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>350</v>
+      </c>
+      <c r="B260" t="s">
+        <v>100</v>
+      </c>
+      <c r="C260" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>351</v>
+      </c>
+      <c r="B261" t="s">
+        <v>11</v>
+      </c>
+      <c r="C261" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>352</v>
+      </c>
+      <c r="B262" t="s">
+        <v>109</v>
+      </c>
+      <c r="C262" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>353</v>
+      </c>
+      <c r="B263" t="s">
+        <v>25</v>
+      </c>
+      <c r="C263" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>354</v>
+      </c>
+      <c r="B264" t="s">
+        <v>148</v>
+      </c>
+      <c r="C264" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>355</v>
+      </c>
+      <c r="B265" t="s">
+        <v>11</v>
+      </c>
+      <c r="C265" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>356</v>
+      </c>
+      <c r="B266" t="s">
+        <v>21</v>
+      </c>
+      <c r="C266" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>357</v>
+      </c>
+      <c r="B267" t="s">
+        <v>11</v>
+      </c>
+      <c r="C267" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>358</v>
+      </c>
+      <c r="B268" t="s">
+        <v>15</v>
+      </c>
+      <c r="C268" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>359</v>
+      </c>
+      <c r="B269" t="s">
+        <v>7</v>
+      </c>
+      <c r="C269" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>360</v>
+      </c>
+      <c r="B270" t="s">
+        <v>361</v>
+      </c>
+      <c r="C270" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>362</v>
+      </c>
+      <c r="B271" t="s">
+        <v>17</v>
+      </c>
+      <c r="C271" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>363</v>
+      </c>
+      <c r="B272" t="s">
+        <v>141</v>
+      </c>
+      <c r="C272" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>364</v>
+      </c>
+      <c r="B273" t="s">
+        <v>141</v>
+      </c>
+      <c r="C273" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>365</v>
+      </c>
+      <c r="B274" t="s">
+        <v>144</v>
+      </c>
+      <c r="C274" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>366</v>
+      </c>
+      <c r="B275" t="s">
+        <v>141</v>
+      </c>
+      <c r="C275" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>367</v>
+      </c>
+      <c r="B276" t="s">
+        <v>141</v>
+      </c>
+      <c r="C276" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>368</v>
+      </c>
+      <c r="B277" t="s">
+        <v>93</v>
+      </c>
+      <c r="C277" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>369</v>
+      </c>
+      <c r="B278" t="s">
+        <v>93</v>
+      </c>
+      <c r="C278" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>370</v>
+      </c>
+      <c r="B279" t="s">
+        <v>93</v>
+      </c>
+      <c r="C279" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>371</v>
+      </c>
+      <c r="B280" t="s">
+        <v>93</v>
+      </c>
+      <c r="C280" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink Asia Dividend Advantage.xlsx
+++ b/data/GreatLink/GreatLink Asia Dividend Advantage.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid381232"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid515711"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="393">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,21 +26,120 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>01/07/2025</t>
+  </si>
+  <si>
+    <t>0.965</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>30/06/2025</t>
+  </si>
+  <si>
+    <t>0.961</t>
+  </si>
+  <si>
+    <t>27/06/2025</t>
+  </si>
+  <si>
+    <t>0.970</t>
+  </si>
+  <si>
+    <t>26/06/2025</t>
+  </si>
+  <si>
+    <t>0.966</t>
+  </si>
+  <si>
+    <t>25/06/2025</t>
+  </si>
+  <si>
+    <t>24/06/2025</t>
+  </si>
+  <si>
+    <t>0.959</t>
+  </si>
+  <si>
+    <t>23/06/2025</t>
+  </si>
+  <si>
+    <t>0.945</t>
+  </si>
+  <si>
+    <t>20/06/2025</t>
+  </si>
+  <si>
+    <t>0.953</t>
+  </si>
+  <si>
+    <t>19/06/2025</t>
+  </si>
+  <si>
+    <t>0.948</t>
+  </si>
+  <si>
+    <t>18/06/2025</t>
+  </si>
+  <si>
+    <t>0.958</t>
+  </si>
+  <si>
+    <t>17/06/2025</t>
+  </si>
+  <si>
+    <t>16/06/2025</t>
+  </si>
+  <si>
+    <t>0.956</t>
+  </si>
+  <si>
+    <t>13/06/2025</t>
+  </si>
+  <si>
+    <t>0.957</t>
+  </si>
+  <si>
+    <t>12/06/2025</t>
+  </si>
+  <si>
+    <t>11/06/2025</t>
+  </si>
+  <si>
+    <t>0.974</t>
+  </si>
+  <si>
+    <t>10/06/2025</t>
+  </si>
+  <si>
+    <t>0.972</t>
+  </si>
+  <si>
+    <t>09/06/2025</t>
+  </si>
+  <si>
+    <t>0.969</t>
+  </si>
+  <si>
+    <t>06/06/2025</t>
+  </si>
+  <si>
+    <t>0.967</t>
+  </si>
+  <si>
+    <t>05/06/2025</t>
+  </si>
+  <si>
+    <t>0.960</t>
+  </si>
+  <si>
     <t>04/06/2025</t>
   </si>
   <si>
-    <t>0.956</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>03/06/2025</t>
   </si>
   <si>
-    <t>0.953</t>
-  </si>
-  <si>
     <t>02/06/2025</t>
   </si>
   <si>
@@ -56,21 +155,12 @@
     <t>28/05/2025</t>
   </si>
   <si>
-    <t>0.960</t>
-  </si>
-  <si>
     <t>27/05/2025</t>
   </si>
   <si>
-    <t>0.957</t>
-  </si>
-  <si>
     <t>26/05/2025</t>
   </si>
   <si>
-    <t>0.958</t>
-  </si>
-  <si>
     <t>23/05/2025</t>
   </si>
   <si>
@@ -92,15 +182,9 @@
     <t>16/05/2025</t>
   </si>
   <si>
-    <t>0.969</t>
-  </si>
-  <si>
     <t>15/05/2025</t>
   </si>
   <si>
-    <t>0.967</t>
-  </si>
-  <si>
     <t>14/05/2025</t>
   </si>
   <si>
@@ -242,9 +326,6 @@
     <t>02/04/2025</t>
   </si>
   <si>
-    <t>0.972</t>
-  </si>
-  <si>
     <t>01/04/2025</t>
   </si>
   <si>
@@ -317,9 +398,6 @@
     <t>06/03/2025</t>
   </si>
   <si>
-    <t>0.970</t>
-  </si>
-  <si>
     <t>05/03/2025</t>
   </si>
   <si>
@@ -344,9 +422,6 @@
     <t>24/02/2025</t>
   </si>
   <si>
-    <t>0.974</t>
-  </si>
-  <si>
     <t>21/02/2025</t>
   </si>
   <si>
@@ -449,9 +524,6 @@
     <t>13/01/2025</t>
   </si>
   <si>
-    <t>0.948</t>
-  </si>
-  <si>
     <t>10/01/2025</t>
   </si>
   <si>
@@ -620,9 +692,6 @@
     <t>15/11/2024</t>
   </si>
   <si>
-    <t>0.965</t>
-  </si>
-  <si>
     <t>14/11/2024</t>
   </si>
   <si>
@@ -917,9 +986,6 @@
     <t>29/07/2024</t>
   </si>
   <si>
-    <t>0.945</t>
-  </si>
-  <si>
     <t>26/07/2024</t>
   </si>
   <si>
@@ -1038,9 +1104,6 @@
   </si>
   <si>
     <t>05/06/2024</t>
-  </si>
-  <si>
-    <t>0.966</t>
   </si>
   <si>
     <t>04/06/2024</t>
@@ -1497,7 +1560,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1505,10 +1568,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1516,10 +1579,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1527,10 +1590,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1538,10 +1601,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1549,10 +1612,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -1560,10 +1623,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1571,10 +1634,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1582,10 +1645,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1593,10 +1656,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1604,10 +1667,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1615,10 +1678,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1626,10 +1689,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -1637,10 +1700,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -1648,10 +1711,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -1659,10 +1722,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -1670,10 +1733,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -1681,10 +1744,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -1692,10 +1755,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1703,10 +1766,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -1714,10 +1777,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1725,10 +1788,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -1736,10 +1799,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -1747,10 +1810,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -1758,10 +1821,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -1769,10 +1832,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -1783,7 +1846,7 @@
         <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -1791,10 +1854,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" t="s">
         <v>51</v>
-      </c>
-      <c r="B31" t="s">
-        <v>52</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -1802,10 +1865,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -1813,10 +1876,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -1824,10 +1887,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -1835,10 +1898,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -1846,10 +1909,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B36" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1857,10 +1920,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -1868,10 +1931,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -1879,10 +1942,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B39" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -1890,10 +1953,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B40" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1901,10 +1964,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B41" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -1912,10 +1975,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B42" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -1923,10 +1986,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -1934,10 +1997,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B44" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -1945,10 +2008,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B45" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -1956,10 +2019,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -1967,10 +2030,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B47" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -1978,10 +2041,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -1989,10 +2052,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B49" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -2000,10 +2063,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B50" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -2011,10 +2074,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B51" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -2022,10 +2085,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B52" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -2033,10 +2096,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B53" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -2044,10 +2107,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B54" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -2055,10 +2118,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -2066,10 +2129,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -2077,10 +2140,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>91</v>
+      </c>
+      <c r="B57" t="s">
         <v>92</v>
-      </c>
-      <c r="B57" t="s">
-        <v>93</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -2088,10 +2151,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
+        <v>93</v>
+      </c>
+      <c r="B58" t="s">
         <v>94</v>
-      </c>
-      <c r="B58" t="s">
-        <v>95</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -2099,10 +2162,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>95</v>
+      </c>
+      <c r="B59" t="s">
         <v>96</v>
-      </c>
-      <c r="B59" t="s">
-        <v>4</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -2113,7 +2176,7 @@
         <v>97</v>
       </c>
       <c r="B60" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -2121,10 +2184,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B61" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -2132,7 +2195,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B62" t="s">
         <v>100</v>
@@ -2143,10 +2206,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B63" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -2154,10 +2217,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B64" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -2165,10 +2228,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B65" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -2176,10 +2239,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B66" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -2187,10 +2250,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B67" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -2198,10 +2261,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B68" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -2209,10 +2272,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B69" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -2220,10 +2283,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B70" t="s">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -2231,10 +2294,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B71" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -2242,10 +2305,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B72" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -2253,10 +2316,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B73" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -2264,10 +2327,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B74" t="s">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -2275,10 +2338,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B75" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -2286,10 +2349,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B76" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -2297,10 +2360,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B77" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -2308,10 +2371,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B78" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -2319,10 +2382,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B79" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -2330,10 +2393,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B80" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -2341,10 +2404,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B81" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -2352,10 +2415,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B82" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -2363,10 +2426,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B83" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -2374,10 +2437,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B84" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -2385,10 +2448,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B85" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -2396,10 +2459,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B86" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -2407,10 +2470,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B87" t="s">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -2418,10 +2481,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B88" t="s">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -2429,10 +2492,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -2440,10 +2503,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B90" t="s">
-        <v>4</v>
+        <v>107</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -2451,10 +2514,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B91" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -2462,10 +2525,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B92" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -2473,10 +2536,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B93" t="s">
-        <v>4</v>
+        <v>140</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -2484,10 +2547,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B94" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -2495,10 +2558,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B95" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -2506,10 +2569,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B96" t="s">
-        <v>141</v>
+        <v>22</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -2517,10 +2580,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B97" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -2528,10 +2591,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B98" t="s">
-        <v>144</v>
+        <v>38</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -2539,10 +2602,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B99" t="s">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -2550,10 +2613,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B100" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -2561,10 +2624,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B101" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -2572,10 +2635,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B102" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -2583,10 +2646,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B103" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -2594,10 +2657,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B104" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -2605,10 +2668,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
+        <v>154</v>
+      </c>
+      <c r="B105" t="s">
         <v>153</v>
-      </c>
-      <c r="B105" t="s">
-        <v>154</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -2619,7 +2682,7 @@
         <v>155</v>
       </c>
       <c r="B106" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -2627,10 +2690,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
+        <v>156</v>
+      </c>
+      <c r="B107" t="s">
         <v>157</v>
-      </c>
-      <c r="B107" t="s">
-        <v>156</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -2641,7 +2704,7 @@
         <v>158</v>
       </c>
       <c r="B108" t="s">
-        <v>159</v>
+        <v>18</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -2649,10 +2712,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B109" t="s">
-        <v>159</v>
+        <v>25</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -2660,10 +2723,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B110" t="s">
-        <v>159</v>
+        <v>25</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -2671,10 +2734,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B111" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -2682,10 +2745,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B112" t="s">
-        <v>164</v>
+        <v>25</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -2693,10 +2756,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B113" t="s">
-        <v>156</v>
+        <v>25</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -2704,10 +2767,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B114" t="s">
-        <v>167</v>
+        <v>27</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -2715,10 +2778,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B115" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -2726,10 +2789,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B116" t="s">
-        <v>171</v>
+        <v>120</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -2737,10 +2800,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B117" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -2748,10 +2811,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B118" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -2759,10 +2822,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B119" t="s">
-        <v>177</v>
+        <v>57</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -2770,10 +2833,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B120" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -2781,10 +2844,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B121" t="s">
-        <v>180</v>
+        <v>114</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -2792,10 +2855,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B122" t="s">
-        <v>182</v>
+        <v>32</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -2803,10 +2866,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B123" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -2814,10 +2877,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B124" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -2825,10 +2888,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B125" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -2836,10 +2899,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B126" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -2847,10 +2910,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B127" t="s">
-        <v>87</v>
+        <v>183</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -2858,10 +2921,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B128" t="s">
-        <v>75</v>
+        <v>183</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -2869,10 +2932,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B129" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -2880,10 +2943,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B130" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -2891,10 +2954,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B131" t="s">
-        <v>113</v>
+        <v>188</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -2902,10 +2965,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B132" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -2913,10 +2976,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B133" t="s">
-        <v>75</v>
+        <v>191</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -2924,10 +2987,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B134" t="s">
-        <v>82</v>
+        <v>193</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -2935,10 +2998,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B135" t="s">
-        <v>25</v>
+        <v>195</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -2946,10 +3009,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B136" t="s">
-        <v>21</v>
+        <v>197</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -2957,10 +3020,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B137" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -2968,10 +3031,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B138" t="s">
-        <v>124</v>
+        <v>201</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -2979,10 +3042,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B139" t="s">
-        <v>25</v>
+        <v>197</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -2990,10 +3053,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
+        <v>203</v>
+      </c>
+      <c r="B140" t="s">
         <v>204</v>
-      </c>
-      <c r="B140" t="s">
-        <v>87</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -3015,7 +3078,7 @@
         <v>207</v>
       </c>
       <c r="B142" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -3023,10 +3086,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
+        <v>208</v>
+      </c>
+      <c r="B143" t="s">
         <v>209</v>
-      </c>
-      <c r="B143" t="s">
-        <v>164</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -3037,7 +3100,7 @@
         <v>210</v>
       </c>
       <c r="B144" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -3048,7 +3111,7 @@
         <v>211</v>
       </c>
       <c r="B145" t="s">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -3056,10 +3119,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B146" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -3067,10 +3130,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B147" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -3078,10 +3141,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B148" t="s">
-        <v>87</v>
+        <v>188</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -3089,10 +3152,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B149" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -3100,10 +3163,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B150" t="s">
-        <v>188</v>
+        <v>138</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -3111,10 +3174,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B151" t="s">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -3122,10 +3185,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B152" t="s">
-        <v>164</v>
+        <v>32</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -3133,10 +3196,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B153" t="s">
-        <v>206</v>
+        <v>109</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -3144,10 +3207,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B154" t="s">
-        <v>164</v>
+        <v>34</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -3155,10 +3218,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B155" t="s">
-        <v>216</v>
+        <v>51</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -3166,10 +3229,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B156" t="s">
-        <v>206</v>
+        <v>4</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -3177,10 +3240,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B157" t="s">
-        <v>100</v>
+        <v>149</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -3188,10 +3251,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B158" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -3199,10 +3262,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B159" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -3210,10 +3273,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B160" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -3221,10 +3284,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B161" t="s">
-        <v>167</v>
+        <v>231</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -3232,10 +3295,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B162" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -3243,10 +3306,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B163" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -3254,10 +3317,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B164" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -3265,10 +3328,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B165" t="s">
-        <v>234</v>
+        <v>57</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -3276,10 +3339,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B166" t="s">
-        <v>175</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -3287,10 +3350,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B167" t="s">
-        <v>180</v>
+        <v>114</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -3298,10 +3361,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B168" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -3309,10 +3372,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B169" t="s">
-        <v>171</v>
+        <v>212</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -3320,10 +3383,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B170" t="s">
-        <v>171</v>
+        <v>212</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -3331,10 +3394,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B171" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -3342,10 +3405,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B172" t="s">
-        <v>156</v>
+        <v>229</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -3353,10 +3416,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B173" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -3364,10 +3427,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B174" t="s">
-        <v>21</v>
+        <v>239</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -3375,10 +3438,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>229</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -3386,10 +3449,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B176" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -3397,10 +3460,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B177" t="s">
-        <v>248</v>
+        <v>107</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -3411,7 +3474,7 @@
         <v>249</v>
       </c>
       <c r="B178" t="s">
-        <v>250</v>
+        <v>176</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -3419,10 +3482,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
+        <v>250</v>
+      </c>
+      <c r="B179" t="s">
         <v>251</v>
-      </c>
-      <c r="B179" t="s">
-        <v>252</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -3430,10 +3493,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B180" t="s">
-        <v>254</v>
+        <v>191</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -3441,10 +3504,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B181" t="s">
-        <v>254</v>
+        <v>204</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -3452,10 +3515,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B182" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -3463,10 +3526,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B183" t="s">
-        <v>258</v>
+        <v>178</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -3474,10 +3537,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B184" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -3485,10 +3548,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B185" t="s">
-        <v>45</v>
+        <v>199</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -3496,10 +3559,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B186" t="s">
-        <v>260</v>
+        <v>204</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -3507,10 +3570,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B187" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -3518,10 +3581,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B188" t="s">
-        <v>264</v>
+        <v>195</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -3529,10 +3592,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B189" t="s">
-        <v>267</v>
+        <v>195</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -3540,10 +3603,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B190" t="s">
-        <v>248</v>
+        <v>201</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -3551,10 +3614,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B191" t="s">
-        <v>267</v>
+        <v>180</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -3562,10 +3625,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B192" t="s">
-        <v>248</v>
+        <v>57</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -3573,10 +3636,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B193" t="s">
-        <v>272</v>
+        <v>51</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -3584,10 +3647,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B194" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -3595,10 +3658,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B195" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -3606,10 +3669,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B196" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -3617,10 +3680,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B197" t="s">
-        <v>32</v>
+        <v>273</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -3628,10 +3691,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B198" t="s">
-        <v>72</v>
+        <v>275</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -3639,10 +3702,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B199" t="s">
-        <v>132</v>
+        <v>277</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -3650,10 +3713,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B200" t="s">
-        <v>37</v>
+        <v>277</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -3661,10 +3724,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B201" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -3672,10 +3735,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B202" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -3683,10 +3746,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
+        <v>282</v>
+      </c>
+      <c r="B203" t="s">
         <v>283</v>
-      </c>
-      <c r="B203" t="s">
-        <v>284</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -3694,10 +3757,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B204" t="s">
-        <v>286</v>
+        <v>73</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -3705,10 +3768,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B205" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -3716,10 +3779,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B206" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -3727,10 +3790,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B207" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -3738,10 +3801,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B208" t="s">
-        <v>52</v>
+        <v>290</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -3749,10 +3812,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B209" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -3760,10 +3823,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B210" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -3771,10 +3834,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B211" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -3782,10 +3845,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B212" t="s">
-        <v>144</v>
+        <v>295</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -3793,10 +3856,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B213" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -3804,10 +3867,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B214" t="s">
-        <v>300</v>
+        <v>157</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -3815,10 +3878,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B215" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -3826,10 +3889,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B216" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -3837,10 +3900,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B217" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -3848,10 +3911,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B218" t="s">
-        <v>29</v>
+        <v>157</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -3859,10 +3922,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B219" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -3870,10 +3933,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B220" t="s">
-        <v>29</v>
+        <v>271</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -3881,10 +3944,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B221" t="s">
-        <v>164</v>
+        <v>287</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -3892,10 +3955,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B222" t="s">
-        <v>216</v>
+        <v>307</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -3903,10 +3966,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B223" t="s">
-        <v>152</v>
+        <v>309</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -3914,10 +3977,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B224" t="s">
-        <v>312</v>
+        <v>287</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -3925,10 +3988,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B225" t="s">
-        <v>156</v>
+        <v>312</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -3936,10 +3999,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
+        <v>313</v>
+      </c>
+      <c r="B226" t="s">
         <v>314</v>
-      </c>
-      <c r="B226" t="s">
-        <v>208</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -3950,7 +4013,7 @@
         <v>315</v>
       </c>
       <c r="B227" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -3961,7 +4024,7 @@
         <v>316</v>
       </c>
       <c r="B228" t="s">
-        <v>317</v>
+        <v>281</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -3969,10 +4032,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B229" t="s">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -3980,10 +4043,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
+        <v>318</v>
+      </c>
+      <c r="B230" t="s">
         <v>319</v>
-      </c>
-      <c r="B230" t="s">
-        <v>193</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -3994,7 +4057,7 @@
         <v>320</v>
       </c>
       <c r="B231" t="s">
-        <v>188</v>
+        <v>20</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -4005,7 +4068,7 @@
         <v>321</v>
       </c>
       <c r="B232" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -4016,7 +4079,7 @@
         <v>322</v>
       </c>
       <c r="B233" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -4027,7 +4090,7 @@
         <v>323</v>
       </c>
       <c r="B234" t="s">
-        <v>188</v>
+        <v>324</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -4035,10 +4098,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B235" t="s">
-        <v>164</v>
+        <v>60</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -4046,10 +4109,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B236" t="s">
-        <v>216</v>
+        <v>122</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -4057,10 +4120,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B237" t="s">
-        <v>312</v>
+        <v>57</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -4068,10 +4131,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B238" t="s">
-        <v>216</v>
+        <v>57</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -4079,10 +4142,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B239" t="s">
-        <v>193</v>
+        <v>57</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -4090,10 +4153,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B240" t="s">
-        <v>113</v>
+        <v>188</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -4101,10 +4164,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B241" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -4112,10 +4175,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B242" t="s">
-        <v>312</v>
+        <v>176</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -4123,10 +4186,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B243" t="s">
-        <v>78</v>
+        <v>334</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -4134,10 +4197,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B244" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -4145,10 +4208,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B245" t="s">
-        <v>109</v>
+        <v>231</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -4156,10 +4219,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B246" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -4167,10 +4230,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B247" t="s">
-        <v>29</v>
+        <v>339</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -4178,10 +4241,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B248" t="s">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -4189,10 +4252,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B249" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -4200,10 +4263,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B250" t="s">
-        <v>78</v>
+        <v>212</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -4211,10 +4274,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B251" t="s">
-        <v>341</v>
+        <v>109</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -4222,10 +4285,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B252" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -4233,10 +4296,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B253" t="s">
-        <v>300</v>
+        <v>212</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -4244,10 +4307,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B254" t="s">
-        <v>300</v>
+        <v>188</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -4255,10 +4318,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B255" t="s">
-        <v>141</v>
+        <v>239</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -4266,10 +4329,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B256" t="s">
-        <v>15</v>
+        <v>334</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -4277,10 +4340,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B257" t="s">
-        <v>29</v>
+        <v>239</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -4288,10 +4351,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B258" t="s">
-        <v>29</v>
+        <v>217</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -4299,10 +4362,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B259" t="s">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -4310,10 +4373,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B260" t="s">
-        <v>100</v>
+        <v>231</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -4321,10 +4384,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B261" t="s">
-        <v>11</v>
+        <v>334</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -4332,10 +4395,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B262" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -4343,10 +4406,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B263" t="s">
-        <v>25</v>
+        <v>217</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -4354,10 +4417,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B264" t="s">
-        <v>148</v>
+        <v>30</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -4365,10 +4428,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B265" t="s">
-        <v>11</v>
+        <v>149</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -4376,10 +4439,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B266" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -4387,10 +4450,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B267" t="s">
-        <v>11</v>
+        <v>172</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -4398,10 +4461,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B268" t="s">
-        <v>15</v>
+        <v>217</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -4409,10 +4472,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B269" t="s">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -4420,10 +4483,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B270" t="s">
-        <v>361</v>
+        <v>11</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -4431,10 +4494,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B271" t="s">
-        <v>17</v>
+        <v>153</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -4442,10 +4505,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B272" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -4453,10 +4516,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B273" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -4464,10 +4527,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B274" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -4475,10 +4538,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B275" t="s">
-        <v>141</v>
+        <v>27</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -4486,10 +4549,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B276" t="s">
-        <v>141</v>
+        <v>57</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -4497,10 +4560,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B277" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -4508,10 +4571,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B278" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -4519,10 +4582,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B279" t="s">
-        <v>93</v>
+        <v>9</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -4530,12 +4593,221 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B280" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="C280" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>373</v>
+      </c>
+      <c r="B281" t="s">
+        <v>30</v>
+      </c>
+      <c r="C281" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>374</v>
+      </c>
+      <c r="B282" t="s">
+        <v>34</v>
+      </c>
+      <c r="C282" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>375</v>
+      </c>
+      <c r="B283" t="s">
+        <v>172</v>
+      </c>
+      <c r="C283" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>376</v>
+      </c>
+      <c r="B284" t="s">
+        <v>44</v>
+      </c>
+      <c r="C284" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>377</v>
+      </c>
+      <c r="B285" t="s">
+        <v>51</v>
+      </c>
+      <c r="C285" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>378</v>
+      </c>
+      <c r="B286" t="s">
+        <v>44</v>
+      </c>
+      <c r="C286" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>379</v>
+      </c>
+      <c r="B287" t="s">
+        <v>27</v>
+      </c>
+      <c r="C287" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>380</v>
+      </c>
+      <c r="B288" t="s">
+        <v>18</v>
+      </c>
+      <c r="C288" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>381</v>
+      </c>
+      <c r="B289" t="s">
+        <v>382</v>
+      </c>
+      <c r="C289" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>383</v>
+      </c>
+      <c r="B290" t="s">
+        <v>22</v>
+      </c>
+      <c r="C290" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>384</v>
+      </c>
+      <c r="B291" t="s">
+        <v>166</v>
+      </c>
+      <c r="C291" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>385</v>
+      </c>
+      <c r="B292" t="s">
+        <v>166</v>
+      </c>
+      <c r="C292" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>386</v>
+      </c>
+      <c r="B293" t="s">
+        <v>20</v>
+      </c>
+      <c r="C293" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>387</v>
+      </c>
+      <c r="B294" t="s">
+        <v>166</v>
+      </c>
+      <c r="C294" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>388</v>
+      </c>
+      <c r="B295" t="s">
+        <v>166</v>
+      </c>
+      <c r="C295" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>389</v>
+      </c>
+      <c r="B296" t="s">
+        <v>120</v>
+      </c>
+      <c r="C296" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>390</v>
+      </c>
+      <c r="B297" t="s">
+        <v>120</v>
+      </c>
+      <c r="C297" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>391</v>
+      </c>
+      <c r="B298" t="s">
+        <v>120</v>
+      </c>
+      <c r="C298" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>392</v>
+      </c>
+      <c r="B299" t="s">
+        <v>120</v>
+      </c>
+      <c r="C299" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink Asia Dividend Advantage.xlsx
+++ b/data/GreatLink/GreatLink Asia Dividend Advantage.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid515711"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid808753"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="415">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,27 +26,138 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>31/07/2025</t>
+  </si>
+  <si>
+    <t>0.982</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>30/07/2025</t>
+  </si>
+  <si>
+    <t>0.989</t>
+  </si>
+  <si>
+    <t>29/07/2025</t>
+  </si>
+  <si>
+    <t>0.985</t>
+  </si>
+  <si>
+    <t>28/07/2025</t>
+  </si>
+  <si>
+    <t>0.987</t>
+  </si>
+  <si>
+    <t>25/07/2025</t>
+  </si>
+  <si>
+    <t>24/07/2025</t>
+  </si>
+  <si>
+    <t>0.990</t>
+  </si>
+  <si>
+    <t>23/07/2025</t>
+  </si>
+  <si>
+    <t>0.991</t>
+  </si>
+  <si>
+    <t>22/07/2025</t>
+  </si>
+  <si>
+    <t>0.978</t>
+  </si>
+  <si>
+    <t>21/07/2025</t>
+  </si>
+  <si>
+    <t>0.977</t>
+  </si>
+  <si>
+    <t>18/07/2025</t>
+  </si>
+  <si>
+    <t>0.975</t>
+  </si>
+  <si>
+    <t>17/07/2025</t>
+  </si>
+  <si>
+    <t>0.972</t>
+  </si>
+  <si>
+    <t>16/07/2025</t>
+  </si>
+  <si>
+    <t>0.970</t>
+  </si>
+  <si>
+    <t>15/07/2025</t>
+  </si>
+  <si>
+    <t>14/07/2025</t>
+  </si>
+  <si>
+    <t>0.958</t>
+  </si>
+  <si>
+    <t>11/07/2025</t>
+  </si>
+  <si>
+    <t>0.961</t>
+  </si>
+  <si>
+    <t>10/07/2025</t>
+  </si>
+  <si>
+    <t>0.960</t>
+  </si>
+  <si>
+    <t>09/07/2025</t>
+  </si>
+  <si>
+    <t>0.959</t>
+  </si>
+  <si>
+    <t>08/07/2025</t>
+  </si>
+  <si>
+    <t>0.962</t>
+  </si>
+  <si>
+    <t>07/07/2025</t>
+  </si>
+  <si>
+    <t>0.953</t>
+  </si>
+  <si>
+    <t>04/07/2025</t>
+  </si>
+  <si>
+    <t>03/07/2025</t>
+  </si>
+  <si>
+    <t>02/07/2025</t>
+  </si>
+  <si>
+    <t>0.965</t>
+  </si>
+  <si>
     <t>01/07/2025</t>
   </si>
   <si>
-    <t>0.965</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>30/06/2025</t>
   </si>
   <si>
-    <t>0.961</t>
-  </si>
-  <si>
     <t>27/06/2025</t>
   </si>
   <si>
-    <t>0.970</t>
-  </si>
-  <si>
     <t>26/06/2025</t>
   </si>
   <si>
@@ -59,9 +170,6 @@
     <t>24/06/2025</t>
   </si>
   <si>
-    <t>0.959</t>
-  </si>
-  <si>
     <t>23/06/2025</t>
   </si>
   <si>
@@ -71,9 +179,6 @@
     <t>20/06/2025</t>
   </si>
   <si>
-    <t>0.953</t>
-  </si>
-  <si>
     <t>19/06/2025</t>
   </si>
   <si>
@@ -83,9 +188,6 @@
     <t>18/06/2025</t>
   </si>
   <si>
-    <t>0.958</t>
-  </si>
-  <si>
     <t>17/06/2025</t>
   </si>
   <si>
@@ -113,9 +215,6 @@
     <t>10/06/2025</t>
   </si>
   <si>
-    <t>0.972</t>
-  </si>
-  <si>
     <t>09/06/2025</t>
   </si>
   <si>
@@ -131,9 +230,6 @@
     <t>05/06/2025</t>
   </si>
   <si>
-    <t>0.960</t>
-  </si>
-  <si>
     <t>04/06/2025</t>
   </si>
   <si>
@@ -332,15 +428,9 @@
     <t>28/03/2025</t>
   </si>
   <si>
-    <t>0.975</t>
-  </si>
-  <si>
     <t>27/03/2025</t>
   </si>
   <si>
-    <t>0.978</t>
-  </si>
-  <si>
     <t>26/03/2025</t>
   </si>
   <si>
@@ -464,9 +554,6 @@
     <t>06/02/2025</t>
   </si>
   <si>
-    <t>0.962</t>
-  </si>
-  <si>
     <t>05/02/2025</t>
   </si>
   <si>
@@ -545,21 +632,12 @@
     <t>03/01/2025</t>
   </si>
   <si>
-    <t>0.985</t>
-  </si>
-  <si>
     <t>02/01/2025</t>
   </si>
   <si>
-    <t>0.989</t>
-  </si>
-  <si>
     <t>31/12/2024</t>
   </si>
   <si>
-    <t>0.990</t>
-  </si>
-  <si>
     <t>30/12/2024</t>
   </si>
   <si>
@@ -644,18 +722,12 @@
     <t>04/12/2024</t>
   </si>
   <si>
-    <t>0.991</t>
-  </si>
-  <si>
     <t>03/12/2024</t>
   </si>
   <si>
     <t>02/12/2024</t>
   </si>
   <si>
-    <t>0.982</t>
-  </si>
-  <si>
     <t>29/11/2024</t>
   </si>
   <si>
@@ -668,9 +740,6 @@
     <t>26/11/2024</t>
   </si>
   <si>
-    <t>0.977</t>
-  </si>
-  <si>
     <t>25/11/2024</t>
   </si>
   <si>
@@ -1017,9 +1086,6 @@
   </si>
   <si>
     <t>15/07/2024</t>
-  </si>
-  <si>
-    <t>0.987</t>
   </si>
   <si>
     <t>12/07/2024</t>
@@ -1582,7 +1648,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1648,7 +1714,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1656,10 +1722,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1667,10 +1733,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
         <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1681,7 +1747,7 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1689,10 +1755,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -1700,10 +1766,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -1711,10 +1777,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -1722,10 +1788,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -1733,10 +1799,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -1744,10 +1810,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -1755,10 +1821,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1766,10 +1832,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -1777,10 +1843,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1788,10 +1854,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -1799,10 +1865,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -1810,10 +1876,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -1821,10 +1887,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -1832,10 +1898,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -1843,10 +1909,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -1854,10 +1920,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -1865,10 +1931,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -1876,10 +1942,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -1887,10 +1953,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -1898,10 +1964,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -1909,10 +1975,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1920,10 +1986,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -1931,10 +1997,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B38" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -1942,10 +2008,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -1953,10 +2019,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1964,10 +2030,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B41" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -1975,10 +2041,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -1986,10 +2052,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B43" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -1997,10 +2063,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B44" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -2008,10 +2074,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B45" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -2019,10 +2085,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B46" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -2030,10 +2096,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B47" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -2041,10 +2107,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B48" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -2052,10 +2118,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B49" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -2066,7 +2132,7 @@
         <v>79</v>
       </c>
       <c r="B50" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -2074,10 +2140,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B51" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -2085,10 +2151,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B52" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -2096,10 +2162,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
+        <v>82</v>
+      </c>
+      <c r="B53" t="s">
         <v>83</v>
-      </c>
-      <c r="B53" t="s">
-        <v>84</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -2107,10 +2173,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B54" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -2118,10 +2184,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B55" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -2129,10 +2195,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B56" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -2140,10 +2206,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B57" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -2151,10 +2217,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B58" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -2162,10 +2228,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B59" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -2173,10 +2239,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B60" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -2184,10 +2250,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B61" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -2195,10 +2261,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B62" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -2206,10 +2272,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B63" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -2217,10 +2283,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B64" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -2228,10 +2294,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B65" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -2239,10 +2305,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B66" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -2250,10 +2316,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B67" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -2261,10 +2327,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -2272,10 +2338,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B69" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -2283,10 +2349,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -2294,10 +2360,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B71" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -2305,10 +2371,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B72" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -2316,10 +2382,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B73" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -2327,10 +2393,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B74" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -2338,10 +2404,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B75" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -2349,10 +2415,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B76" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -2360,10 +2426,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B77" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -2371,10 +2437,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B78" t="s">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -2382,10 +2448,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
+        <v>123</v>
+      </c>
+      <c r="B79" t="s">
         <v>124</v>
-      </c>
-      <c r="B79" t="s">
-        <v>22</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -2396,7 +2462,7 @@
         <v>125</v>
       </c>
       <c r="B80" t="s">
-        <v>36</v>
+        <v>126</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -2404,10 +2470,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B81" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -2415,10 +2481,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B82" t="s">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -2426,10 +2492,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B83" t="s">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -2437,10 +2503,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B84" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -2448,10 +2514,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B85" t="s">
-        <v>122</v>
+        <v>24</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -2459,10 +2525,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B86" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -2470,10 +2536,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B87" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -2481,10 +2547,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B88" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -2492,10 +2558,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B89" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -2503,10 +2569,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B90" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -2514,10 +2580,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B91" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -2525,10 +2591,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B92" t="s">
-        <v>138</v>
+        <v>67</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -2536,10 +2602,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B93" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -2547,10 +2613,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B94" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -2558,10 +2624,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B95" t="s">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -2569,10 +2635,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B96" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -2580,10 +2646,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B97" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -2591,10 +2657,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B98" t="s">
-        <v>38</v>
+        <v>150</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -2602,10 +2668,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B99" t="s">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -2613,10 +2679,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B100" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -2624,10 +2690,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B101" t="s">
-        <v>149</v>
+        <v>29</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -2635,10 +2701,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B102" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -2646,10 +2712,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B103" t="s">
-        <v>149</v>
+        <v>26</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -2657,10 +2723,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B104" t="s">
-        <v>153</v>
+        <v>29</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -2668,10 +2734,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B105" t="s">
-        <v>153</v>
+        <v>59</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -2679,10 +2745,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B106" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -2690,10 +2756,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B107" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -2701,10 +2767,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B108" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -2712,10 +2778,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B109" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -2723,10 +2789,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B110" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -2734,10 +2800,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B111" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -2745,10 +2811,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B112" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -2756,10 +2822,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B113" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -2767,10 +2833,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B114" t="s">
-        <v>27</v>
+        <v>168</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -2778,10 +2844,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B115" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -2789,10 +2855,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B116" t="s">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -2800,10 +2866,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B117" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -2811,10 +2877,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B118" t="s">
-        <v>149</v>
+        <v>29</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -2822,10 +2888,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B119" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -2833,10 +2899,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B120" t="s">
-        <v>172</v>
+        <v>33</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -2844,10 +2910,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B121" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -2855,10 +2921,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B122" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -2866,10 +2932,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B123" t="s">
-        <v>176</v>
+        <v>37</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -2877,10 +2943,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B124" t="s">
-        <v>178</v>
+        <v>59</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -2888,10 +2954,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B125" t="s">
-        <v>180</v>
+        <v>37</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -2902,7 +2968,7 @@
         <v>181</v>
       </c>
       <c r="B126" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -2910,10 +2976,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
+        <v>183</v>
+      </c>
+      <c r="B127" t="s">
         <v>182</v>
-      </c>
-      <c r="B127" t="s">
-        <v>183</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -2924,7 +2990,7 @@
         <v>184</v>
       </c>
       <c r="B128" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -2935,7 +3001,7 @@
         <v>185</v>
       </c>
       <c r="B129" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -2943,10 +3009,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B130" t="s">
-        <v>178</v>
+        <v>39</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -2954,10 +3020,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B131" t="s">
-        <v>188</v>
+        <v>59</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -2968,7 +3034,7 @@
         <v>189</v>
       </c>
       <c r="B132" t="s">
-        <v>180</v>
+        <v>59</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -2979,7 +3045,7 @@
         <v>190</v>
       </c>
       <c r="B133" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -2987,10 +3053,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B134" t="s">
-        <v>193</v>
+        <v>59</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -2998,10 +3064,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B135" t="s">
-        <v>195</v>
+        <v>59</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -3009,10 +3075,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B136" t="s">
-        <v>197</v>
+        <v>61</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -3020,10 +3086,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B137" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -3031,10 +3097,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B138" t="s">
-        <v>201</v>
+        <v>150</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -3042,10 +3108,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B139" t="s">
-        <v>197</v>
+        <v>55</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -3053,10 +3119,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B140" t="s">
-        <v>204</v>
+        <v>37</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -3064,10 +3130,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B141" t="s">
-        <v>206</v>
+        <v>89</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -3075,10 +3141,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B142" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -3086,10 +3152,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B143" t="s">
-        <v>209</v>
+        <v>144</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -3097,10 +3163,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B144" t="s">
-        <v>180</v>
+        <v>24</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -3108,10 +3174,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B145" t="s">
-        <v>212</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -3119,10 +3185,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B146" t="s">
-        <v>114</v>
+        <v>7</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -3130,10 +3196,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B147" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -3141,10 +3207,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B148" t="s">
-        <v>188</v>
+        <v>14</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -3152,10 +3218,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B149" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -3163,10 +3229,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B150" t="s">
-        <v>138</v>
+        <v>209</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -3174,10 +3240,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B151" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -3185,10 +3251,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B152" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -3196,10 +3262,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B153" t="s">
-        <v>109</v>
+        <v>214</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -3207,10 +3273,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B154" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -3218,10 +3284,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B155" t="s">
-        <v>51</v>
+        <v>217</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -3229,10 +3295,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B156" t="s">
-        <v>4</v>
+        <v>219</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -3240,10 +3306,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B157" t="s">
-        <v>149</v>
+        <v>221</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -3251,10 +3317,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B158" t="s">
-        <v>34</v>
+        <v>223</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -3262,10 +3328,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B159" t="s">
-        <v>114</v>
+        <v>225</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -3273,10 +3339,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B160" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -3284,10 +3350,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B161" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -3295,10 +3361,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B162" t="s">
-        <v>188</v>
+        <v>230</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -3306,10 +3372,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B163" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -3317,10 +3383,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B164" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -3328,10 +3394,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B165" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -3339,10 +3405,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B166" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -3350,10 +3416,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B167" t="s">
-        <v>114</v>
+        <v>4</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -3361,10 +3427,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B168" t="s">
-        <v>239</v>
+        <v>144</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -3372,10 +3438,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B169" t="s">
-        <v>212</v>
+        <v>24</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -3383,10 +3449,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B170" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -3394,10 +3460,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B171" t="s">
-        <v>188</v>
+        <v>20</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -3405,10 +3471,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B172" t="s">
-        <v>229</v>
+        <v>168</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -3416,10 +3482,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B173" t="s">
-        <v>188</v>
+        <v>20</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -3427,10 +3493,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B174" t="s">
-        <v>239</v>
+        <v>24</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -3438,10 +3504,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B175" t="s">
-        <v>229</v>
+        <v>139</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -3449,10 +3515,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B176" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -3460,10 +3526,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B177" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -3471,10 +3537,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B178" t="s">
-        <v>176</v>
+        <v>43</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -3482,10 +3548,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B179" t="s">
-        <v>251</v>
+        <v>37</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -3493,10 +3559,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B180" t="s">
-        <v>191</v>
+        <v>67</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -3504,10 +3570,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B181" t="s">
-        <v>204</v>
+        <v>144</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -3515,10 +3581,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B182" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -3526,10 +3592,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B183" t="s">
-        <v>178</v>
+        <v>254</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -3537,10 +3603,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B184" t="s">
-        <v>257</v>
+        <v>214</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -3548,10 +3614,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B185" t="s">
-        <v>199</v>
+        <v>4</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -3559,10 +3625,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B186" t="s">
-        <v>204</v>
+        <v>18</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -3570,10 +3636,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B187" t="s">
-        <v>261</v>
+        <v>89</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -3581,10 +3647,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B188" t="s">
-        <v>195</v>
+        <v>26</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -3592,10 +3658,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B189" t="s">
-        <v>195</v>
+        <v>144</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -3603,10 +3669,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B190" t="s">
-        <v>201</v>
+        <v>262</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -3614,10 +3680,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B191" t="s">
-        <v>180</v>
+        <v>4</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -3625,10 +3691,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B192" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -3636,10 +3702,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B193" t="s">
-        <v>51</v>
+        <v>214</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -3647,10 +3713,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B194" t="s">
-        <v>18</v>
+        <v>252</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -3658,10 +3724,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B195" t="s">
-        <v>122</v>
+        <v>214</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -3669,10 +3735,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B196" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -3680,10 +3746,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B197" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -3691,10 +3757,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B198" t="s">
-        <v>275</v>
+        <v>26</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -3702,10 +3768,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B199" t="s">
-        <v>277</v>
+        <v>18</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -3713,10 +3779,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B200" t="s">
-        <v>277</v>
+        <v>9</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -3724,10 +3790,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B201" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -3735,10 +3801,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B202" t="s">
-        <v>281</v>
+        <v>217</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -3746,10 +3812,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B203" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -3757,10 +3823,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B204" t="s">
-        <v>73</v>
+        <v>252</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -3768,10 +3834,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B205" t="s">
-        <v>283</v>
+        <v>7</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -3779,10 +3845,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B206" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -3790,10 +3856,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B207" t="s">
-        <v>287</v>
+        <v>225</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -3801,10 +3867,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B208" t="s">
-        <v>290</v>
+        <v>230</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -3812,10 +3878,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B209" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -3823,10 +3889,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B210" t="s">
-        <v>290</v>
+        <v>221</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -3834,10 +3900,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B211" t="s">
-        <v>271</v>
+        <v>221</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -3845,10 +3911,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B212" t="s">
-        <v>295</v>
+        <v>227</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -3856,10 +3922,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B213" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -3867,10 +3933,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B214" t="s">
-        <v>157</v>
+        <v>89</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -3878,10 +3944,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B215" t="s">
-        <v>299</v>
+        <v>83</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -3889,10 +3955,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="B216" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -3900,10 +3966,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B217" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -3911,10 +3977,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="B218" t="s">
-        <v>157</v>
+        <v>294</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -3922,10 +3988,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B219" t="s">
-        <v>65</v>
+        <v>296</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -3933,10 +3999,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B220" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -3944,10 +4010,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B221" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -3955,10 +4021,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B222" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -3966,10 +4032,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B223" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -3977,10 +4043,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B224" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -3988,10 +4054,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B225" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -3999,10 +4065,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B226" t="s">
-        <v>314</v>
+        <v>105</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -4010,10 +4076,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B227" t="s">
-        <v>80</v>
+        <v>306</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -4021,10 +4087,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B228" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -4032,10 +4098,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B229" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -4043,10 +4109,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B230" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -4054,10 +4120,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B231" t="s">
-        <v>20</v>
+        <v>294</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -4065,10 +4131,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B232" t="s">
-        <v>65</v>
+        <v>313</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -4076,10 +4142,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B233" t="s">
-        <v>16</v>
+        <v>294</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -4087,10 +4153,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B234" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -4098,10 +4164,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B235" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -4109,10 +4175,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B236" t="s">
-        <v>122</v>
+        <v>186</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -4120,10 +4186,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B237" t="s">
-        <v>57</v>
+        <v>322</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -4131,10 +4197,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B238" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -4142,10 +4208,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B239" t="s">
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -4153,10 +4219,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B240" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -4164,10 +4230,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B241" t="s">
-        <v>239</v>
+        <v>97</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -4175,10 +4241,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B242" t="s">
-        <v>176</v>
+        <v>294</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -4186,10 +4252,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B243" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -4197,10 +4263,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B244" t="s">
-        <v>180</v>
+        <v>330</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -4208,10 +4274,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B245" t="s">
-        <v>231</v>
+        <v>332</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -4219,10 +4285,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B246" t="s">
-        <v>140</v>
+        <v>310</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -4230,10 +4296,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B247" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -4241,10 +4307,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B248" t="s">
-        <v>107</v>
+        <v>337</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -4252,10 +4318,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B249" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -4263,10 +4329,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B250" t="s">
-        <v>212</v>
+        <v>304</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -4274,10 +4340,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B251" t="s">
-        <v>109</v>
+        <v>304</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -4285,10 +4351,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B252" t="s">
-        <v>107</v>
+        <v>342</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -4296,10 +4362,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B253" t="s">
-        <v>212</v>
+        <v>55</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -4307,10 +4373,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B254" t="s">
-        <v>188</v>
+        <v>97</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -4318,10 +4384,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B255" t="s">
-        <v>239</v>
+        <v>52</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -4329,10 +4395,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B256" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -4340,10 +4406,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B257" t="s">
-        <v>239</v>
+        <v>92</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -4351,10 +4417,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B258" t="s">
-        <v>217</v>
+        <v>152</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -4362,10 +4428,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B259" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -4373,10 +4439,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B260" t="s">
-        <v>231</v>
+        <v>89</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -4384,10 +4450,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B261" t="s">
-        <v>334</v>
+        <v>89</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -4395,10 +4461,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B262" t="s">
-        <v>105</v>
+        <v>214</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -4406,10 +4472,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B263" t="s">
-        <v>217</v>
+        <v>262</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -4417,10 +4483,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B264" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -4428,10 +4494,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B265" t="s">
-        <v>149</v>
+        <v>11</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -4439,10 +4505,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B266" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -4450,10 +4516,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B267" t="s">
-        <v>172</v>
+        <v>254</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -4461,10 +4527,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B268" t="s">
-        <v>217</v>
+        <v>170</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -4472,10 +4538,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
+        <v>360</v>
+      </c>
+      <c r="B269" t="s">
         <v>361</v>
-      </c>
-      <c r="B269" t="s">
-        <v>105</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -4486,7 +4552,7 @@
         <v>362</v>
       </c>
       <c r="B270" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -4497,7 +4563,7 @@
         <v>363</v>
       </c>
       <c r="B271" t="s">
-        <v>153</v>
+        <v>20</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -4508,7 +4574,7 @@
         <v>364</v>
       </c>
       <c r="B272" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -4519,7 +4585,7 @@
         <v>365</v>
       </c>
       <c r="B273" t="s">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -4530,7 +4596,7 @@
         <v>366</v>
       </c>
       <c r="B274" t="s">
-        <v>166</v>
+        <v>18</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -4541,7 +4607,7 @@
         <v>367</v>
       </c>
       <c r="B275" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -4552,7 +4618,7 @@
         <v>368</v>
       </c>
       <c r="B276" t="s">
-        <v>57</v>
+        <v>214</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -4563,7 +4629,7 @@
         <v>369</v>
       </c>
       <c r="B277" t="s">
-        <v>57</v>
+        <v>262</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -4574,7 +4640,7 @@
         <v>370</v>
       </c>
       <c r="B278" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -4585,7 +4651,7 @@
         <v>371</v>
       </c>
       <c r="B279" t="s">
-        <v>9</v>
+        <v>262</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -4596,7 +4662,7 @@
         <v>372</v>
       </c>
       <c r="B280" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -4607,7 +4673,7 @@
         <v>373</v>
       </c>
       <c r="B281" t="s">
-        <v>30</v>
+        <v>168</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -4618,7 +4684,7 @@
         <v>374</v>
       </c>
       <c r="B282" t="s">
-        <v>34</v>
+        <v>254</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -4629,7 +4695,7 @@
         <v>375</v>
       </c>
       <c r="B283" t="s">
-        <v>172</v>
+        <v>11</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -4640,7 +4706,7 @@
         <v>376</v>
       </c>
       <c r="B284" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -4651,7 +4717,7 @@
         <v>377</v>
       </c>
       <c r="B285" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -4662,7 +4728,7 @@
         <v>378</v>
       </c>
       <c r="B286" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -4673,7 +4739,7 @@
         <v>379</v>
       </c>
       <c r="B287" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -4684,7 +4750,7 @@
         <v>380</v>
       </c>
       <c r="B288" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -4695,7 +4761,7 @@
         <v>381</v>
       </c>
       <c r="B289" t="s">
-        <v>382</v>
+        <v>201</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -4703,10 +4769,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B290" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -4714,10 +4780,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B291" t="s">
-        <v>166</v>
+        <v>22</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -4725,10 +4791,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B292" t="s">
-        <v>166</v>
+        <v>48</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -4736,10 +4802,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B293" t="s">
-        <v>20</v>
+        <v>182</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -4747,10 +4813,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B294" t="s">
-        <v>166</v>
+        <v>52</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -4758,10 +4824,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B295" t="s">
-        <v>166</v>
+        <v>52</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -4769,10 +4835,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B296" t="s">
-        <v>120</v>
+        <v>195</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -4780,10 +4846,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B297" t="s">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -4791,10 +4857,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B298" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -4802,12 +4868,254 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
+        <v>391</v>
+      </c>
+      <c r="B299" t="s">
+        <v>89</v>
+      </c>
+      <c r="C299" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
         <v>392</v>
       </c>
-      <c r="B299" t="s">
-        <v>120</v>
-      </c>
-      <c r="C299" t="s">
+      <c r="B300" t="s">
+        <v>83</v>
+      </c>
+      <c r="C300" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>393</v>
+      </c>
+      <c r="B301" t="s">
+        <v>26</v>
+      </c>
+      <c r="C301" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>394</v>
+      </c>
+      <c r="B302" t="s">
+        <v>76</v>
+      </c>
+      <c r="C302" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>395</v>
+      </c>
+      <c r="B303" t="s">
+        <v>64</v>
+      </c>
+      <c r="C303" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>396</v>
+      </c>
+      <c r="B304" t="s">
+        <v>67</v>
+      </c>
+      <c r="C304" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>397</v>
+      </c>
+      <c r="B305" t="s">
+        <v>201</v>
+      </c>
+      <c r="C305" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>398</v>
+      </c>
+      <c r="B306" t="s">
+        <v>76</v>
+      </c>
+      <c r="C306" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>399</v>
+      </c>
+      <c r="B307" t="s">
+        <v>83</v>
+      </c>
+      <c r="C307" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s">
+        <v>400</v>
+      </c>
+      <c r="B308" t="s">
+        <v>76</v>
+      </c>
+      <c r="C308" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s">
+        <v>401</v>
+      </c>
+      <c r="B309" t="s">
+        <v>61</v>
+      </c>
+      <c r="C309" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s">
+        <v>402</v>
+      </c>
+      <c r="B310" t="s">
+        <v>39</v>
+      </c>
+      <c r="C310" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s">
+        <v>403</v>
+      </c>
+      <c r="B311" t="s">
+        <v>404</v>
+      </c>
+      <c r="C311" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s">
+        <v>405</v>
+      </c>
+      <c r="B312" t="s">
+        <v>29</v>
+      </c>
+      <c r="C312" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>406</v>
+      </c>
+      <c r="B313" t="s">
+        <v>195</v>
+      </c>
+      <c r="C313" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>407</v>
+      </c>
+      <c r="B314" t="s">
+        <v>195</v>
+      </c>
+      <c r="C314" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s">
+        <v>408</v>
+      </c>
+      <c r="B315" t="s">
+        <v>55</v>
+      </c>
+      <c r="C315" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>409</v>
+      </c>
+      <c r="B316" t="s">
+        <v>195</v>
+      </c>
+      <c r="C316" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>410</v>
+      </c>
+      <c r="B317" t="s">
+        <v>195</v>
+      </c>
+      <c r="C317" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>411</v>
+      </c>
+      <c r="B318" t="s">
+        <v>150</v>
+      </c>
+      <c r="C318" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>412</v>
+      </c>
+      <c r="B319" t="s">
+        <v>150</v>
+      </c>
+      <c r="C319" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>413</v>
+      </c>
+      <c r="B320" t="s">
+        <v>150</v>
+      </c>
+      <c r="C320" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s">
+        <v>414</v>
+      </c>
+      <c r="B321" t="s">
+        <v>150</v>
+      </c>
+      <c r="C321" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink Asia Dividend Advantage.xlsx
+++ b/data/GreatLink/GreatLink Asia Dividend Advantage.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid808753"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid482436"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="438">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,21 +26,135 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>01/09/2025</t>
+  </si>
+  <si>
+    <t>0.989</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>29/08/2025</t>
+  </si>
+  <si>
+    <t>28/08/2025</t>
+  </si>
+  <si>
+    <t>0.992</t>
+  </si>
+  <si>
+    <t>27/08/2025</t>
+  </si>
+  <si>
+    <t>0.999</t>
+  </si>
+  <si>
+    <t>26/08/2025</t>
+  </si>
+  <si>
+    <t>1.000</t>
+  </si>
+  <si>
+    <t>25/08/2025</t>
+  </si>
+  <si>
+    <t>1.005</t>
+  </si>
+  <si>
+    <t>22/08/2025</t>
+  </si>
+  <si>
+    <t>0.987</t>
+  </si>
+  <si>
+    <t>21/08/2025</t>
+  </si>
+  <si>
+    <t>0.996</t>
+  </si>
+  <si>
+    <t>20/08/2025</t>
+  </si>
+  <si>
+    <t>19/08/2025</t>
+  </si>
+  <si>
+    <t>0.994</t>
+  </si>
+  <si>
+    <t>18/08/2025</t>
+  </si>
+  <si>
+    <t>0.993</t>
+  </si>
+  <si>
+    <t>15/08/2025</t>
+  </si>
+  <si>
+    <t>0.991</t>
+  </si>
+  <si>
+    <t>14/08/2025</t>
+  </si>
+  <si>
+    <t>0.995</t>
+  </si>
+  <si>
+    <t>13/08/2025</t>
+  </si>
+  <si>
+    <t>12/08/2025</t>
+  </si>
+  <si>
+    <t>0.980</t>
+  </si>
+  <si>
+    <t>11/08/2025</t>
+  </si>
+  <si>
+    <t>0.982</t>
+  </si>
+  <si>
+    <t>08/08/2025</t>
+  </si>
+  <si>
+    <t>0.977</t>
+  </si>
+  <si>
+    <t>07/08/2025</t>
+  </si>
+  <si>
+    <t>0.981</t>
+  </si>
+  <si>
+    <t>06/08/2025</t>
+  </si>
+  <si>
+    <t>0.971</t>
+  </si>
+  <si>
+    <t>05/08/2025</t>
+  </si>
+  <si>
+    <t>0.975</t>
+  </si>
+  <si>
+    <t>04/08/2025</t>
+  </si>
+  <si>
+    <t>0.963</t>
+  </si>
+  <si>
+    <t>01/08/2025</t>
+  </si>
+  <si>
     <t>31/07/2025</t>
   </si>
   <si>
-    <t>0.982</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>30/07/2025</t>
   </si>
   <si>
-    <t>0.989</t>
-  </si>
-  <si>
     <t>29/07/2025</t>
   </si>
   <si>
@@ -50,9 +164,6 @@
     <t>28/07/2025</t>
   </si>
   <si>
-    <t>0.987</t>
-  </si>
-  <si>
     <t>25/07/2025</t>
   </si>
   <si>
@@ -65,9 +176,6 @@
     <t>23/07/2025</t>
   </si>
   <si>
-    <t>0.991</t>
-  </si>
-  <si>
     <t>22/07/2025</t>
   </si>
   <si>
@@ -77,15 +185,9 @@
     <t>21/07/2025</t>
   </si>
   <si>
-    <t>0.977</t>
-  </si>
-  <si>
     <t>18/07/2025</t>
   </si>
   <si>
-    <t>0.975</t>
-  </si>
-  <si>
     <t>17/07/2025</t>
   </si>
   <si>
@@ -266,9 +368,6 @@
     <t>21/05/2025</t>
   </si>
   <si>
-    <t>0.963</t>
-  </si>
-  <si>
     <t>20/05/2025</t>
   </si>
   <si>
@@ -521,9 +620,6 @@
     <t>19/02/2025</t>
   </si>
   <si>
-    <t>0.981</t>
-  </si>
-  <si>
     <t>18/02/2025</t>
   </si>
   <si>
@@ -620,9 +716,6 @@
     <t>08/01/2025</t>
   </si>
   <si>
-    <t>0.971</t>
-  </si>
-  <si>
     <t>07/01/2025</t>
   </si>
   <si>
@@ -644,9 +737,6 @@
     <t>27/12/2024</t>
   </si>
   <si>
-    <t>0.994</t>
-  </si>
-  <si>
     <t>26/12/2024</t>
   </si>
   <si>
@@ -659,24 +749,15 @@
     <t>20/12/2024</t>
   </si>
   <si>
-    <t>0.980</t>
-  </si>
-  <si>
     <t>19/12/2024</t>
   </si>
   <si>
     <t>18/12/2024</t>
   </si>
   <si>
-    <t>0.995</t>
-  </si>
-  <si>
     <t>17/12/2024</t>
   </si>
   <si>
-    <t>0.992</t>
-  </si>
-  <si>
     <t>16/12/2024</t>
   </si>
   <si>
@@ -686,9 +767,6 @@
     <t>13/12/2024</t>
   </si>
   <si>
-    <t>1.005</t>
-  </si>
-  <si>
     <t>12/12/2024</t>
   </si>
   <si>
@@ -707,15 +785,9 @@
     <t>09/12/2024</t>
   </si>
   <si>
-    <t>0.999</t>
-  </si>
-  <si>
     <t>06/12/2024</t>
   </si>
   <si>
-    <t>0.993</t>
-  </si>
-  <si>
     <t>05/12/2024</t>
   </si>
   <si>
@@ -837,9 +909,6 @@
   </si>
   <si>
     <t>14/10/2024</t>
-  </si>
-  <si>
-    <t>0.996</t>
   </si>
   <si>
     <t>11/10/2024</t>
@@ -1615,7 +1684,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -1623,10 +1692,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1634,10 +1703,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1645,10 +1714,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1692,7 +1761,7 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1700,10 +1769,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
         <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1711,10 +1780,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1722,10 +1791,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
         <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1733,10 +1802,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
         <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1747,7 +1816,7 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1755,10 +1824,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
         <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -1766,10 +1835,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
         <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -1777,10 +1846,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
         <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -1788,10 +1857,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
         <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -1799,10 +1868,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
         <v>38</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -1810,10 +1879,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
         <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>29</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -1824,7 +1893,7 @@
         <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1832,10 +1901,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
         <v>42</v>
-      </c>
-      <c r="B23" t="s">
-        <v>43</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -1846,7 +1915,7 @@
         <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1857,7 +1926,7 @@
         <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -1868,7 +1937,7 @@
         <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -1876,10 +1945,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -1890,7 +1959,7 @@
         <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -1901,7 +1970,7 @@
         <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -1909,10 +1978,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -1923,7 +1992,7 @@
         <v>53</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -1931,10 +2000,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -1945,7 +2014,7 @@
         <v>56</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -1956,7 +2025,7 @@
         <v>57</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -1964,10 +2033,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -1975,10 +2044,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" t="s">
         <v>60</v>
-      </c>
-      <c r="B36" t="s">
-        <v>61</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1989,7 +2058,7 @@
         <v>62</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -1997,10 +2066,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -2008,10 +2077,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B39" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -2019,10 +2088,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B40" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -2030,10 +2099,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B41" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -2041,10 +2110,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B42" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -2052,10 +2121,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B43" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -2063,10 +2132,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B44" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -2074,10 +2143,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B45" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -2085,10 +2154,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B46" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -2096,10 +2165,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B47" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -2107,10 +2176,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B48" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -2118,10 +2187,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B49" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -2129,10 +2198,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B50" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -2140,10 +2209,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B51" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -2151,10 +2220,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B52" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -2162,10 +2231,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B53" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -2173,10 +2242,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B54" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -2184,10 +2253,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B55" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -2195,10 +2264,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B56" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -2206,10 +2275,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B57" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -2217,10 +2286,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B58" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -2228,10 +2297,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -2239,10 +2308,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B60" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -2250,10 +2319,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B61" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -2261,10 +2330,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B62" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -2272,10 +2341,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B63" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -2283,10 +2352,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B64" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -2294,10 +2363,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B65" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -2305,10 +2374,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B66" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -2316,10 +2385,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B67" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -2327,10 +2396,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B68" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -2338,10 +2407,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B69" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -2349,10 +2418,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B70" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -2360,10 +2429,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B71" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -2371,10 +2440,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B72" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -2382,10 +2451,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B73" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -2393,10 +2462,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B74" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -2404,10 +2473,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B75" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -2418,7 +2487,7 @@
         <v>117</v>
       </c>
       <c r="B76" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -2426,10 +2495,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B77" t="s">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -2437,10 +2506,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B78" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -2448,10 +2517,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B79" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -2459,10 +2528,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B80" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -2470,10 +2539,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B81" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -2481,10 +2550,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B82" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -2492,10 +2561,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B83" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -2503,10 +2572,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B84" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -2514,10 +2583,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B85" t="s">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -2525,10 +2594,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B86" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -2536,10 +2605,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B87" t="s">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -2547,10 +2616,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B88" t="s">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -2558,10 +2627,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B89" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -2569,10 +2638,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B90" t="s">
-        <v>67</v>
+        <v>138</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -2580,10 +2649,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B91" t="s">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -2591,10 +2660,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B92" t="s">
-        <v>67</v>
+        <v>141</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -2602,10 +2671,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
+        <v>142</v>
+      </c>
+      <c r="B93" t="s">
         <v>143</v>
-      </c>
-      <c r="B93" t="s">
-        <v>144</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -2613,10 +2682,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
+        <v>144</v>
+      </c>
+      <c r="B94" t="s">
         <v>145</v>
-      </c>
-      <c r="B94" t="s">
-        <v>139</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -2627,7 +2696,7 @@
         <v>146</v>
       </c>
       <c r="B95" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -2638,7 +2707,7 @@
         <v>147</v>
       </c>
       <c r="B96" t="s">
-        <v>61</v>
+        <v>145</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -2649,7 +2718,7 @@
         <v>148</v>
       </c>
       <c r="B97" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -2657,10 +2726,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B98" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -2668,10 +2737,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B99" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -2679,10 +2748,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B100" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -2690,10 +2759,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B101" t="s">
-        <v>29</v>
+        <v>157</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -2701,10 +2770,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B102" t="s">
-        <v>69</v>
+        <v>159</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -2712,10 +2781,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B103" t="s">
-        <v>26</v>
+        <v>161</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -2723,10 +2792,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B104" t="s">
-        <v>29</v>
+        <v>163</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -2734,10 +2803,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B105" t="s">
-        <v>59</v>
+        <v>165</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -2745,10 +2814,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B106" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -2756,10 +2825,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="B107" t="s">
-        <v>152</v>
+        <v>58</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -2767,10 +2836,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B108" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -2778,10 +2847,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="B109" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -2789,10 +2858,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B110" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -2800,10 +2869,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B111" t="s">
-        <v>64</v>
+        <v>172</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -2811,10 +2880,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B112" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -2822,10 +2891,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B113" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -2833,10 +2902,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B114" t="s">
-        <v>168</v>
+        <v>101</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -2844,10 +2913,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B115" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -2855,10 +2924,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B116" t="s">
-        <v>22</v>
+        <v>172</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -2866,10 +2935,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B117" t="s">
-        <v>89</v>
+        <v>177</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -2877,10 +2946,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="B118" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -2888,10 +2957,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B119" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -2899,10 +2968,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="B120" t="s">
-        <v>33</v>
+        <v>183</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -2910,10 +2979,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B121" t="s">
-        <v>69</v>
+        <v>185</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -2921,10 +2990,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="B122" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -2932,10 +3001,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="B123" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -2943,10 +3012,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="B124" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -2954,10 +3023,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="B125" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -2965,10 +3034,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B126" t="s">
-        <v>182</v>
+        <v>63</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -2976,10 +3045,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B127" t="s">
-        <v>182</v>
+        <v>93</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -2987,10 +3056,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B128" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -2998,10 +3067,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
+        <v>193</v>
+      </c>
+      <c r="B129" t="s">
         <v>185</v>
-      </c>
-      <c r="B129" t="s">
-        <v>186</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -3009,10 +3078,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="B130" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -3020,10 +3089,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="B131" t="s">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -3031,10 +3100,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B132" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -3042,10 +3111,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="B133" t="s">
-        <v>152</v>
+        <v>98</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -3053,10 +3122,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B134" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -3064,10 +3133,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B135" t="s">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -3075,10 +3144,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="B136" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -3086,10 +3155,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B137" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -3097,10 +3166,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B138" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -3108,10 +3177,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B139" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -3119,10 +3188,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B140" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -3130,10 +3199,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B141" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -3141,10 +3210,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="B142" t="s">
-        <v>201</v>
+        <v>67</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -3152,10 +3221,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B143" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -3163,10 +3232,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B144" t="s">
-        <v>24</v>
+        <v>122</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -3174,10 +3243,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B145" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -3185,10 +3254,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>93</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -3196,10 +3265,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B147" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -3207,10 +3276,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B148" t="s">
-        <v>14</v>
+        <v>214</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -3218,10 +3287,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="B149" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -3229,10 +3298,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B150" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -3240,10 +3309,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B151" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -3251,10 +3320,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -3262,10 +3331,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="B153" t="s">
-        <v>214</v>
+        <v>93</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -3273,10 +3342,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B154" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -3284,10 +3353,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B155" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -3295,10 +3364,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B156" t="s">
-        <v>219</v>
+        <v>93</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -3306,10 +3375,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B157" t="s">
-        <v>221</v>
+        <v>93</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -3317,10 +3386,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B158" t="s">
-        <v>223</v>
+        <v>95</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -3328,10 +3397,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B159" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -3339,10 +3408,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B160" t="s">
-        <v>227</v>
+        <v>183</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -3350,10 +3419,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B161" t="s">
-        <v>223</v>
+        <v>89</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -3361,10 +3430,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B162" t="s">
-        <v>230</v>
+        <v>71</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -3375,7 +3444,7 @@
         <v>231</v>
       </c>
       <c r="B163" t="s">
-        <v>232</v>
+        <v>122</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -3383,10 +3452,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B164" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -3394,10 +3463,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B165" t="s">
-        <v>16</v>
+        <v>177</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -3405,10 +3474,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B166" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -3416,10 +3485,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B167" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -3427,10 +3496,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B168" t="s">
-        <v>144</v>
+        <v>4</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -3438,10 +3507,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B169" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -3449,10 +3518,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B170" t="s">
-        <v>214</v>
+        <v>51</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -3460,10 +3529,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B171" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -3471,10 +3540,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B172" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -3482,10 +3551,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B173" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -3493,10 +3562,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B174" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -3504,10 +3573,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B175" t="s">
-        <v>139</v>
+        <v>30</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -3515,10 +3584,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B176" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -3526,10 +3595,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B177" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -3537,10 +3606,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B178" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -3548,10 +3617,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
+        <v>247</v>
+      </c>
+      <c r="B179" t="s">
         <v>248</v>
-      </c>
-      <c r="B179" t="s">
-        <v>37</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -3562,7 +3631,7 @@
         <v>249</v>
       </c>
       <c r="B180" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -3573,7 +3642,7 @@
         <v>250</v>
       </c>
       <c r="B181" t="s">
-        <v>144</v>
+        <v>251</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -3581,10 +3650,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B182" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -3592,10 +3661,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B183" t="s">
-        <v>254</v>
+        <v>14</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -3606,7 +3675,7 @@
         <v>255</v>
       </c>
       <c r="B184" t="s">
-        <v>214</v>
+        <v>10</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -3617,7 +3686,7 @@
         <v>256</v>
       </c>
       <c r="B185" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -3628,7 +3697,7 @@
         <v>257</v>
       </c>
       <c r="B186" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -3639,7 +3708,7 @@
         <v>258</v>
       </c>
       <c r="B187" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -3650,7 +3719,7 @@
         <v>259</v>
       </c>
       <c r="B188" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -3661,7 +3730,7 @@
         <v>260</v>
       </c>
       <c r="B189" t="s">
-        <v>144</v>
+        <v>32</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -3672,7 +3741,7 @@
         <v>261</v>
       </c>
       <c r="B190" t="s">
-        <v>262</v>
+        <v>177</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -3680,10 +3749,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B191" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -3691,10 +3760,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B192" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -3702,10 +3771,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B193" t="s">
-        <v>214</v>
+        <v>34</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -3713,10 +3782,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B194" t="s">
-        <v>252</v>
+        <v>36</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -3724,10 +3793,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B195" t="s">
-        <v>214</v>
+        <v>34</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -3735,10 +3804,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B196" t="s">
-        <v>262</v>
+        <v>58</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -3746,10 +3815,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B197" t="s">
-        <v>252</v>
+        <v>172</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -3757,10 +3826,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B198" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -3768,10 +3837,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B199" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -3779,10 +3848,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B200" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -3790,10 +3859,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B201" t="s">
-        <v>274</v>
+        <v>71</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -3801,10 +3870,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B202" t="s">
-        <v>217</v>
+        <v>101</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -3812,10 +3881,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B203" t="s">
-        <v>230</v>
+        <v>177</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -3823,10 +3892,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B204" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -3834,10 +3903,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
+        <v>277</v>
+      </c>
+      <c r="B205" t="s">
         <v>278</v>
-      </c>
-      <c r="B205" t="s">
-        <v>7</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -3848,7 +3917,7 @@
         <v>279</v>
       </c>
       <c r="B206" t="s">
-        <v>280</v>
+        <v>30</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -3856,10 +3925,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B207" t="s">
-        <v>225</v>
+        <v>32</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -3867,10 +3936,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B208" t="s">
-        <v>230</v>
+        <v>54</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -3878,10 +3947,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B209" t="s">
-        <v>284</v>
+        <v>122</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -3889,10 +3958,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B210" t="s">
-        <v>221</v>
+        <v>60</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -3900,10 +3969,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B211" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -3911,10 +3980,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B212" t="s">
-        <v>227</v>
+        <v>286</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -3922,10 +3991,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B213" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -3933,10 +4002,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B214" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -3944,10 +4013,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B215" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -3955,10 +4024,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B216" t="s">
-        <v>39</v>
+        <v>276</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -3966,10 +4035,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B217" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -3977,10 +4046,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B218" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -3988,10 +4057,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B219" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -3999,10 +4068,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B220" t="s">
-        <v>298</v>
+        <v>60</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -4010,10 +4079,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B221" t="s">
-        <v>300</v>
+        <v>54</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -4021,10 +4090,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B222" t="s">
-        <v>300</v>
+        <v>47</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -4032,10 +4101,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B223" t="s">
-        <v>300</v>
+        <v>18</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -4043,10 +4112,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B224" t="s">
-        <v>304</v>
+        <v>27</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -4054,10 +4123,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B225" t="s">
-        <v>306</v>
+        <v>10</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -4065,10 +4134,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B226" t="s">
-        <v>105</v>
+        <v>276</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -4076,10 +4145,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B227" t="s">
-        <v>306</v>
+        <v>4</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -4087,10 +4156,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B228" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -4098,10 +4167,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B229" t="s">
-        <v>310</v>
+        <v>251</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -4109,10 +4178,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B230" t="s">
-        <v>313</v>
+        <v>10</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -4120,10 +4189,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B231" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -4131,10 +4200,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B232" t="s">
-        <v>313</v>
+        <v>248</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -4142,10 +4211,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B233" t="s">
-        <v>294</v>
+        <v>248</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -4153,10 +4222,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B234" t="s">
-        <v>318</v>
+        <v>253</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -4164,10 +4233,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B235" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -4175,10 +4244,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B236" t="s">
-        <v>186</v>
+        <v>122</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -4186,10 +4255,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B237" t="s">
-        <v>322</v>
+        <v>42</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -4197,10 +4266,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="B238" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -4208,10 +4277,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="B239" t="s">
-        <v>132</v>
+        <v>185</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -4219,10 +4288,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="B240" t="s">
-        <v>186</v>
+        <v>317</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -4230,10 +4299,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B241" t="s">
-        <v>97</v>
+        <v>319</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -4241,10 +4310,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B242" t="s">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -4252,10 +4321,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B243" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -4263,10 +4332,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B244" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -4274,10 +4343,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B245" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -4285,10 +4354,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B246" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -4296,10 +4365,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B247" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -4307,10 +4376,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B248" t="s">
-        <v>337</v>
+        <v>138</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -4318,10 +4387,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B249" t="s">
-        <v>112</v>
+        <v>329</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -4329,10 +4398,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B250" t="s">
-        <v>304</v>
+        <v>333</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -4340,10 +4409,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B251" t="s">
-        <v>304</v>
+        <v>333</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -4351,10 +4420,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B252" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -4362,10 +4431,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B253" t="s">
-        <v>55</v>
+        <v>317</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -4373,10 +4442,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B254" t="s">
-        <v>97</v>
+        <v>336</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -4384,10 +4453,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B255" t="s">
-        <v>52</v>
+        <v>317</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -4395,10 +4464,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B256" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -4406,10 +4475,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B257" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -4417,10 +4486,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B258" t="s">
-        <v>152</v>
+        <v>218</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -4428,10 +4497,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B259" t="s">
-        <v>89</v>
+        <v>345</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -4439,10 +4508,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B260" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -4450,10 +4519,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B261" t="s">
-        <v>89</v>
+        <v>165</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -4461,10 +4530,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B262" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -4472,10 +4541,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B263" t="s">
-        <v>262</v>
+        <v>130</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -4483,10 +4552,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B264" t="s">
-        <v>9</v>
+        <v>317</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -4494,10 +4563,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B265" t="s">
-        <v>11</v>
+        <v>333</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -4505,10 +4574,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B266" t="s">
-        <v>14</v>
+        <v>353</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -4516,10 +4585,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B267" t="s">
-        <v>254</v>
+        <v>355</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -4527,10 +4596,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B268" t="s">
-        <v>170</v>
+        <v>333</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -4538,10 +4607,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B269" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -4549,10 +4618,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B270" t="s">
-        <v>18</v>
+        <v>360</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -4560,10 +4629,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B271" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -4571,10 +4640,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B272" t="s">
-        <v>4</v>
+        <v>327</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -4582,10 +4651,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B273" t="s">
-        <v>139</v>
+        <v>327</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -4593,10 +4662,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B274" t="s">
-        <v>18</v>
+        <v>365</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -4604,10 +4673,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B275" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -4615,10 +4684,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B276" t="s">
-        <v>214</v>
+        <v>130</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -4626,10 +4695,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B277" t="s">
-        <v>262</v>
+        <v>86</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -4637,10 +4706,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
+        <v>369</v>
+      </c>
+      <c r="B278" t="s">
         <v>370</v>
-      </c>
-      <c r="B278" t="s">
-        <v>11</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -4651,7 +4720,7 @@
         <v>371</v>
       </c>
       <c r="B279" t="s">
-        <v>262</v>
+        <v>125</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -4662,7 +4731,7 @@
         <v>372</v>
       </c>
       <c r="B280" t="s">
-        <v>20</v>
+        <v>185</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -4673,7 +4742,7 @@
         <v>373</v>
       </c>
       <c r="B281" t="s">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -4684,7 +4753,7 @@
         <v>374</v>
       </c>
       <c r="B282" t="s">
-        <v>254</v>
+        <v>122</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -4695,7 +4764,7 @@
         <v>375</v>
       </c>
       <c r="B283" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -4706,7 +4775,7 @@
         <v>376</v>
       </c>
       <c r="B284" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -4717,7 +4786,7 @@
         <v>377</v>
       </c>
       <c r="B285" t="s">
-        <v>20</v>
+        <v>286</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -4728,7 +4797,7 @@
         <v>378</v>
       </c>
       <c r="B286" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -4739,7 +4808,7 @@
         <v>379</v>
       </c>
       <c r="B287" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -4750,7 +4819,7 @@
         <v>380</v>
       </c>
       <c r="B288" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -4761,7 +4830,7 @@
         <v>381</v>
       </c>
       <c r="B289" t="s">
-        <v>201</v>
+        <v>278</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -4772,7 +4841,7 @@
         <v>382</v>
       </c>
       <c r="B290" t="s">
-        <v>20</v>
+        <v>202</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -4783,7 +4852,7 @@
         <v>383</v>
       </c>
       <c r="B291" t="s">
-        <v>22</v>
+        <v>384</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -4791,10 +4860,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B292" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -4802,10 +4871,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B293" t="s">
-        <v>182</v>
+        <v>34</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -4813,10 +4882,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B294" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -4824,10 +4893,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B295" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -4835,10 +4904,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B296" t="s">
-        <v>195</v>
+        <v>54</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -4846,10 +4915,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B297" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -4857,10 +4926,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B298" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -4868,10 +4937,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B299" t="s">
-        <v>89</v>
+        <v>286</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -4879,10 +4948,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B300" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -4890,10 +4959,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B301" t="s">
-        <v>26</v>
+        <v>286</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
@@ -4901,10 +4970,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B302" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
@@ -4912,10 +4981,10 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B303" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
@@ -4923,10 +4992,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B304" t="s">
-        <v>67</v>
+        <v>278</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
@@ -4934,10 +5003,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B305" t="s">
-        <v>201</v>
+        <v>16</v>
       </c>
       <c r="C305" t="s">
         <v>5</v>
@@ -4945,10 +5014,10 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B306" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
@@ -4956,10 +5025,10 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B307" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="C307" t="s">
         <v>5</v>
@@ -4967,10 +5036,10 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B308" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="C308" t="s">
         <v>5</v>
@@ -4978,10 +5047,10 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B309" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C309" t="s">
         <v>5</v>
@@ -4989,10 +5058,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B310" t="s">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="C310" t="s">
         <v>5</v>
@@ -5000,10 +5069,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B311" t="s">
-        <v>404</v>
+        <v>38</v>
       </c>
       <c r="C311" t="s">
         <v>5</v>
@@ -5014,7 +5083,7 @@
         <v>405</v>
       </c>
       <c r="B312" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C312" t="s">
         <v>5</v>
@@ -5025,7 +5094,7 @@
         <v>406</v>
       </c>
       <c r="B313" t="s">
-        <v>195</v>
+        <v>40</v>
       </c>
       <c r="C313" t="s">
         <v>5</v>
@@ -5036,7 +5105,7 @@
         <v>407</v>
       </c>
       <c r="B314" t="s">
-        <v>195</v>
+        <v>82</v>
       </c>
       <c r="C314" t="s">
         <v>5</v>
@@ -5047,7 +5116,7 @@
         <v>408</v>
       </c>
       <c r="B315" t="s">
-        <v>55</v>
+        <v>214</v>
       </c>
       <c r="C315" t="s">
         <v>5</v>
@@ -5058,7 +5127,7 @@
         <v>409</v>
       </c>
       <c r="B316" t="s">
-        <v>195</v>
+        <v>86</v>
       </c>
       <c r="C316" t="s">
         <v>5</v>
@@ -5069,7 +5138,7 @@
         <v>410</v>
       </c>
       <c r="B317" t="s">
-        <v>195</v>
+        <v>86</v>
       </c>
       <c r="C317" t="s">
         <v>5</v>
@@ -5080,7 +5149,7 @@
         <v>411</v>
       </c>
       <c r="B318" t="s">
-        <v>150</v>
+        <v>227</v>
       </c>
       <c r="C318" t="s">
         <v>5</v>
@@ -5091,7 +5160,7 @@
         <v>412</v>
       </c>
       <c r="B319" t="s">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="C319" t="s">
         <v>5</v>
@@ -5102,7 +5171,7 @@
         <v>413</v>
       </c>
       <c r="B320" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="C320" t="s">
         <v>5</v>
@@ -5113,9 +5182,251 @@
         <v>414</v>
       </c>
       <c r="B321" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="C321" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s">
+        <v>415</v>
+      </c>
+      <c r="B322" t="s">
+        <v>42</v>
+      </c>
+      <c r="C322" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>416</v>
+      </c>
+      <c r="B323" t="s">
+        <v>60</v>
+      </c>
+      <c r="C323" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>417</v>
+      </c>
+      <c r="B324" t="s">
+        <v>110</v>
+      </c>
+      <c r="C324" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>418</v>
+      </c>
+      <c r="B325" t="s">
+        <v>98</v>
+      </c>
+      <c r="C325" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s">
+        <v>419</v>
+      </c>
+      <c r="B326" t="s">
+        <v>101</v>
+      </c>
+      <c r="C326" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
+        <v>420</v>
+      </c>
+      <c r="B327" t="s">
+        <v>38</v>
+      </c>
+      <c r="C327" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>421</v>
+      </c>
+      <c r="B328" t="s">
+        <v>110</v>
+      </c>
+      <c r="C328" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>422</v>
+      </c>
+      <c r="B329" t="s">
+        <v>42</v>
+      </c>
+      <c r="C329" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>423</v>
+      </c>
+      <c r="B330" t="s">
+        <v>110</v>
+      </c>
+      <c r="C330" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>424</v>
+      </c>
+      <c r="B331" t="s">
+        <v>95</v>
+      </c>
+      <c r="C331" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>425</v>
+      </c>
+      <c r="B332" t="s">
+        <v>73</v>
+      </c>
+      <c r="C332" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>426</v>
+      </c>
+      <c r="B333" t="s">
+        <v>427</v>
+      </c>
+      <c r="C333" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>428</v>
+      </c>
+      <c r="B334" t="s">
+        <v>63</v>
+      </c>
+      <c r="C334" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>429</v>
+      </c>
+      <c r="B335" t="s">
+        <v>227</v>
+      </c>
+      <c r="C335" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>430</v>
+      </c>
+      <c r="B336" t="s">
+        <v>227</v>
+      </c>
+      <c r="C336" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>431</v>
+      </c>
+      <c r="B337" t="s">
+        <v>89</v>
+      </c>
+      <c r="C337" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s">
+        <v>432</v>
+      </c>
+      <c r="B338" t="s">
+        <v>227</v>
+      </c>
+      <c r="C338" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
+        <v>433</v>
+      </c>
+      <c r="B339" t="s">
+        <v>227</v>
+      </c>
+      <c r="C339" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s">
+        <v>434</v>
+      </c>
+      <c r="B340" t="s">
+        <v>183</v>
+      </c>
+      <c r="C340" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s">
+        <v>435</v>
+      </c>
+      <c r="B341" t="s">
+        <v>183</v>
+      </c>
+      <c r="C341" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s">
+        <v>436</v>
+      </c>
+      <c r="B342" t="s">
+        <v>183</v>
+      </c>
+      <c r="C342" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s">
+        <v>437</v>
+      </c>
+      <c r="B343" t="s">
+        <v>183</v>
+      </c>
+      <c r="C343" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink Asia Dividend Advantage.xlsx
+++ b/data/GreatLink/GreatLink Asia Dividend Advantage.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid482436"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid910213"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="488">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,15 +26,183 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>16/10/2025</t>
+  </si>
+  <si>
+    <t>1.033</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>15/10/2025</t>
+  </si>
+  <si>
+    <t>1.028</t>
+  </si>
+  <si>
+    <t>14/10/2025</t>
+  </si>
+  <si>
+    <t>1.016</t>
+  </si>
+  <si>
+    <t>13/10/2025</t>
+  </si>
+  <si>
+    <t>1.027</t>
+  </si>
+  <si>
+    <t>10/10/2025</t>
+  </si>
+  <si>
+    <t>1.042</t>
+  </si>
+  <si>
+    <t>09/10/2025</t>
+  </si>
+  <si>
+    <t>1.051</t>
+  </si>
+  <si>
+    <t>08/10/2025</t>
+  </si>
+  <si>
+    <t>1.040</t>
+  </si>
+  <si>
+    <t>07/10/2025</t>
+  </si>
+  <si>
+    <t>1.048</t>
+  </si>
+  <si>
+    <t>06/10/2025</t>
+  </si>
+  <si>
+    <t>1.038</t>
+  </si>
+  <si>
+    <t>03/10/2025</t>
+  </si>
+  <si>
+    <t>1.036</t>
+  </si>
+  <si>
+    <t>02/10/2025</t>
+  </si>
+  <si>
+    <t>1.044</t>
+  </si>
+  <si>
+    <t>01/10/2025</t>
+  </si>
+  <si>
+    <t>1.031</t>
+  </si>
+  <si>
+    <t>30/09/2025</t>
+  </si>
+  <si>
+    <t>1.030</t>
+  </si>
+  <si>
+    <t>29/09/2025</t>
+  </si>
+  <si>
+    <t>26/09/2025</t>
+  </si>
+  <si>
+    <t>1.019</t>
+  </si>
+  <si>
+    <t>25/09/2025</t>
+  </si>
+  <si>
+    <t>1.032</t>
+  </si>
+  <si>
+    <t>24/09/2025</t>
+  </si>
+  <si>
+    <t>23/09/2025</t>
+  </si>
+  <si>
+    <t>22/09/2025</t>
+  </si>
+  <si>
+    <t>19/09/2025</t>
+  </si>
+  <si>
+    <t>18/09/2025</t>
+  </si>
+  <si>
+    <t>17/09/2025</t>
+  </si>
+  <si>
+    <t>1.035</t>
+  </si>
+  <si>
+    <t>16/09/2025</t>
+  </si>
+  <si>
+    <t>15/09/2025</t>
+  </si>
+  <si>
+    <t>12/09/2025</t>
+  </si>
+  <si>
+    <t>11/09/2025</t>
+  </si>
+  <si>
+    <t>1.018</t>
+  </si>
+  <si>
+    <t>10/09/2025</t>
+  </si>
+  <si>
+    <t>09/09/2025</t>
+  </si>
+  <si>
+    <t>1.011</t>
+  </si>
+  <si>
+    <t>08/09/2025</t>
+  </si>
+  <si>
+    <t>1.003</t>
+  </si>
+  <si>
+    <t>05/09/2025</t>
+  </si>
+  <si>
+    <t>0.994</t>
+  </si>
+  <si>
+    <t>04/09/2025</t>
+  </si>
+  <si>
+    <t>0.991</t>
+  </si>
+  <si>
+    <t>03/09/2025</t>
+  </si>
+  <si>
+    <t>0.988</t>
+  </si>
+  <si>
+    <t>02/09/2025</t>
+  </si>
+  <si>
+    <t>0.987</t>
+  </si>
+  <si>
     <t>01/09/2025</t>
   </si>
   <si>
     <t>0.989</t>
   </si>
   <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>29/08/2025</t>
   </si>
   <si>
@@ -65,9 +233,6 @@
     <t>22/08/2025</t>
   </si>
   <si>
-    <t>0.987</t>
-  </si>
-  <si>
     <t>21/08/2025</t>
   </si>
   <si>
@@ -80,9 +245,6 @@
     <t>19/08/2025</t>
   </si>
   <si>
-    <t>0.994</t>
-  </si>
-  <si>
     <t>18/08/2025</t>
   </si>
   <si>
@@ -92,9 +254,6 @@
     <t>15/08/2025</t>
   </si>
   <si>
-    <t>0.991</t>
-  </si>
-  <si>
     <t>14/08/2025</t>
   </si>
   <si>
@@ -770,9 +929,6 @@
     <t>12/12/2024</t>
   </si>
   <si>
-    <t>1.011</t>
-  </si>
-  <si>
     <t>11/12/2024</t>
   </si>
   <si>
@@ -845,9 +1001,6 @@
     <t>11/11/2024</t>
   </si>
   <si>
-    <t>0.988</t>
-  </si>
-  <si>
     <t>08/11/2024</t>
   </si>
   <si>
@@ -936,9 +1089,6 @@
   </si>
   <si>
     <t>02/10/2024</t>
-  </si>
-  <si>
-    <t>1.018</t>
   </si>
   <si>
     <t>01/10/2024</t>
@@ -1684,7 +1834,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -1692,10 +1842,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1703,10 +1853,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1714,10 +1864,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1725,10 +1875,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1736,10 +1886,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1747,10 +1897,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -1758,10 +1908,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1769,10 +1919,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1780,10 +1930,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1791,10 +1941,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1802,10 +1952,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1813,10 +1963,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1824,10 +1974,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -1835,10 +1985,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -1846,10 +1996,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -1857,10 +2007,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -1871,7 +2021,7 @@
         <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -1879,10 +2029,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -1890,10 +2040,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1901,10 +2051,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -1912,10 +2062,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1923,10 +2073,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -1934,10 +2084,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -1945,10 +2095,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -1956,10 +2106,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -1967,10 +2117,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -1978,10 +2128,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -1989,10 +2139,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" t="s">
         <v>53</v>
-      </c>
-      <c r="B31" t="s">
-        <v>54</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -2000,10 +2150,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" t="s">
         <v>55</v>
-      </c>
-      <c r="B32" t="s">
-        <v>34</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -2014,7 +2164,7 @@
         <v>56</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -2022,10 +2172,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -2033,10 +2183,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -2044,10 +2194,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" t="s">
         <v>61</v>
-      </c>
-      <c r="B36" t="s">
-        <v>60</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -2055,10 +2205,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -2066,10 +2216,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B38" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -2077,10 +2227,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B39" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -2088,10 +2238,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -2099,10 +2249,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B41" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -2124,7 +2274,7 @@
         <v>74</v>
       </c>
       <c r="B43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -2135,7 +2285,7 @@
         <v>75</v>
       </c>
       <c r="B44" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -2157,7 +2307,7 @@
         <v>78</v>
       </c>
       <c r="B46" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -2168,7 +2318,7 @@
         <v>79</v>
       </c>
       <c r="B47" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -2176,10 +2326,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B48" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -2187,10 +2337,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -2198,10 +2348,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B50" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -2209,10 +2359,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B51" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -2220,10 +2370,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B52" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -2231,10 +2381,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B53" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -2242,10 +2392,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B54" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -2253,10 +2403,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B55" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -2264,10 +2414,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B56" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -2275,10 +2425,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B57" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -2286,10 +2436,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B58" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -2297,10 +2447,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B59" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -2308,10 +2458,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B60" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -2319,10 +2469,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B61" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -2330,10 +2480,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B62" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -2341,10 +2491,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B63" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -2352,10 +2502,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -2363,10 +2513,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B65" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -2374,10 +2524,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B66" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -2385,10 +2535,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B67" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -2396,10 +2546,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B68" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -2407,10 +2557,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B69" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -2418,10 +2568,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B70" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -2429,10 +2579,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B71" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -2440,10 +2590,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B72" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -2451,10 +2601,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B73" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -2462,10 +2612,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B74" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -2473,10 +2623,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="B75" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -2484,10 +2634,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B76" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -2495,10 +2645,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="B77" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -2506,10 +2656,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B78" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -2517,10 +2667,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="B79" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -2528,10 +2678,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="B80" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -2539,10 +2689,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B81" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -2550,10 +2700,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="B82" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -2561,10 +2711,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="B83" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -2572,10 +2722,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B84" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -2583,10 +2733,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B85" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -2594,10 +2744,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B86" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -2605,10 +2755,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B87" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -2616,10 +2766,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B88" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -2627,10 +2777,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="B89" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -2638,10 +2788,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B90" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -2649,10 +2799,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B91" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -2660,10 +2810,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="B92" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -2671,10 +2821,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B93" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -2682,10 +2832,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B94" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -2693,10 +2843,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B95" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -2704,10 +2854,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B96" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -2715,10 +2865,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="B97" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -2726,10 +2876,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B98" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -2737,10 +2887,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B99" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -2748,10 +2898,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B100" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -2759,10 +2909,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B101" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -2770,10 +2920,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B102" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -2781,10 +2931,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B103" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -2792,10 +2942,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B104" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -2803,10 +2953,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B105" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -2814,10 +2964,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B106" t="s">
-        <v>165</v>
+        <v>120</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -2825,10 +2975,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B107" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -2836,10 +2986,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B108" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -2847,10 +2997,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B109" t="s">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -2858,10 +3008,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B110" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -2869,10 +3019,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B111" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -2883,7 +3033,7 @@
         <v>173</v>
       </c>
       <c r="B112" t="s">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -2894,7 +3044,7 @@
         <v>174</v>
       </c>
       <c r="B113" t="s">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -2902,10 +3052,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B114" t="s">
-        <v>101</v>
+        <v>146</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -2913,10 +3063,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B115" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -2924,10 +3074,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
+        <v>179</v>
+      </c>
+      <c r="B116" t="s">
         <v>178</v>
-      </c>
-      <c r="B116" t="s">
-        <v>172</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -2935,10 +3085,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B117" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -2946,10 +3096,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B118" t="s">
-        <v>95</v>
+        <v>183</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -2957,10 +3107,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
+        <v>184</v>
+      </c>
+      <c r="B119" t="s">
         <v>181</v>
-      </c>
-      <c r="B119" t="s">
-        <v>95</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -2968,10 +3118,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B120" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -2979,10 +3129,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B121" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -2990,10 +3140,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B122" t="s">
-        <v>93</v>
+        <v>189</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -3001,10 +3151,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B123" t="s">
-        <v>63</v>
+        <v>191</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -3012,10 +3162,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B124" t="s">
-        <v>103</v>
+        <v>189</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -3023,10 +3173,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B125" t="s">
-        <v>60</v>
+        <v>194</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -3034,10 +3184,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B126" t="s">
-        <v>63</v>
+        <v>196</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -3045,10 +3195,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B127" t="s">
-        <v>93</v>
+        <v>198</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -3056,10 +3206,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B128" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -3067,10 +3217,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="B129" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -3078,10 +3228,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B130" t="s">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -3089,10 +3239,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="B131" t="s">
-        <v>122</v>
+        <v>204</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -3100,10 +3250,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="B132" t="s">
-        <v>67</v>
+        <v>206</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -3111,10 +3261,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="B133" t="s">
-        <v>98</v>
+        <v>208</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -3122,10 +3272,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="B134" t="s">
-        <v>54</v>
+        <v>210</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -3133,10 +3283,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="B135" t="s">
-        <v>122</v>
+        <v>212</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -3144,10 +3294,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="B136" t="s">
-        <v>36</v>
+        <v>214</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -3155,10 +3305,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="B137" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -3166,10 +3316,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="B138" t="s">
-        <v>40</v>
+        <v>218</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -3177,10 +3327,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="B139" t="s">
-        <v>122</v>
+        <v>218</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -3188,10 +3338,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="B140" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -3199,10 +3349,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="B141" t="s">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -3210,10 +3360,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="B142" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -3221,10 +3371,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="B143" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -3232,10 +3382,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="B144" t="s">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -3243,10 +3393,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="B145" t="s">
-        <v>71</v>
+        <v>154</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -3254,7 +3404,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="B146" t="s">
         <v>93</v>
@@ -3265,10 +3415,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="B147" t="s">
-        <v>71</v>
+        <v>154</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -3276,10 +3426,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="B148" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -3287,10 +3437,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="B149" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -3298,10 +3448,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="B150" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -3309,10 +3459,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="B151" t="s">
-        <v>218</v>
+        <v>148</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -3320,10 +3470,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="B152" t="s">
-        <v>73</v>
+        <v>148</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -3331,10 +3481,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="B153" t="s">
-        <v>93</v>
+        <v>236</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -3342,10 +3492,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="B154" t="s">
-        <v>93</v>
+        <v>238</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -3353,10 +3503,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="B155" t="s">
-        <v>185</v>
+        <v>146</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -3364,10 +3514,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="B156" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -3375,10 +3525,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="B157" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -3386,10 +3536,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="B158" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -3397,10 +3547,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="B159" t="s">
-        <v>227</v>
+        <v>116</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -3408,10 +3558,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="B160" t="s">
-        <v>183</v>
+        <v>146</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -3419,10 +3569,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="B161" t="s">
-        <v>89</v>
+        <v>238</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -3430,10 +3580,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="B162" t="s">
-        <v>71</v>
+        <v>238</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -3441,10 +3591,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="B163" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -3452,10 +3602,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="B164" t="s">
-        <v>38</v>
+        <v>175</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -3463,10 +3613,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="B165" t="s">
-        <v>177</v>
+        <v>120</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -3474,10 +3624,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="B166" t="s">
-        <v>58</v>
+        <v>151</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -3485,10 +3635,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="B167" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -3496,10 +3646,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="B168" t="s">
-        <v>4</v>
+        <v>175</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -3507,10 +3657,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="B169" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -3518,10 +3668,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="B170" t="s">
-        <v>51</v>
+        <v>255</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -3529,10 +3679,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="B171" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -3540,10 +3690,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="B172" t="s">
-        <v>21</v>
+        <v>175</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -3551,10 +3701,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="B173" t="s">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -3562,10 +3712,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="B174" t="s">
-        <v>4</v>
+        <v>163</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -3573,10 +3723,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="B175" t="s">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -3584,10 +3734,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="B176" t="s">
-        <v>51</v>
+        <v>156</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -3595,10 +3745,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="B177" t="s">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -3606,10 +3756,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>124</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -3617,10 +3767,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="B179" t="s">
-        <v>248</v>
+        <v>146</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -3628,10 +3778,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="B180" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -3639,10 +3789,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="B181" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -3650,10 +3800,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="B182" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -3661,10 +3811,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="B183" t="s">
-        <v>14</v>
+        <v>267</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -3672,10 +3822,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="B184" t="s">
-        <v>10</v>
+        <v>271</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -3683,10 +3833,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="B185" t="s">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -3694,10 +3844,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="B186" t="s">
-        <v>51</v>
+        <v>146</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -3705,10 +3855,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B187" t="s">
-        <v>25</v>
+        <v>146</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -3716,10 +3866,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="B188" t="s">
-        <v>51</v>
+        <v>238</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -3727,10 +3877,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="B189" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -3738,10 +3888,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="B190" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -3749,10 +3899,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="B191" t="s">
-        <v>58</v>
+        <v>148</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -3760,10 +3910,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="B192" t="s">
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -3771,10 +3921,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="B193" t="s">
-        <v>34</v>
+        <v>236</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -3782,10 +3932,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="B194" t="s">
-        <v>36</v>
+        <v>142</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -3793,10 +3943,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="B195" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -3804,10 +3954,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="B196" t="s">
-        <v>58</v>
+        <v>175</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -3815,10 +3965,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="B197" t="s">
-        <v>172</v>
+        <v>91</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -3826,10 +3976,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="B198" t="s">
-        <v>101</v>
+        <v>230</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -3837,10 +3987,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="B199" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -3848,10 +3998,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="B200" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -3859,10 +4009,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="B201" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -3870,10 +4020,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="B202" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -3881,10 +4031,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="B203" t="s">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -3892,10 +4042,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="B204" t="s">
-        <v>276</v>
+        <v>53</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -3903,10 +4053,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="B205" t="s">
-        <v>278</v>
+        <v>53</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -3914,10 +4064,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="B206" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -3925,10 +4075,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="B207" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -3936,10 +4086,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="B208" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -3947,10 +4097,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="B209" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -3958,10 +4108,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="B210" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -3969,10 +4119,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="B211" t="s">
-        <v>177</v>
+        <v>64</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -3980,10 +4130,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="B212" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -3991,10 +4141,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="B213" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -4002,10 +4152,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="B214" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -4013,10 +4163,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="B215" t="s">
-        <v>30</v>
+        <v>305</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -4024,10 +4174,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="B216" t="s">
-        <v>276</v>
+        <v>70</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -4035,10 +4185,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="B217" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -4046,10 +4196,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="B218" t="s">
-        <v>286</v>
+        <v>77</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -4057,10 +4207,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="B219" t="s">
-        <v>276</v>
+        <v>104</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -4068,10 +4218,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="B220" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -4079,10 +4229,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="B221" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -4090,10 +4240,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="B222" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -4101,10 +4251,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="B223" t="s">
-        <v>18</v>
+        <v>230</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -4112,10 +4262,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="B224" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -4123,10 +4273,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="B225" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -4134,10 +4284,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="B226" t="s">
-        <v>276</v>
+        <v>87</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -4145,10 +4295,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="B227" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -4156,10 +4306,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="B228" t="s">
-        <v>303</v>
+        <v>87</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -4167,10 +4317,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="B229" t="s">
-        <v>251</v>
+        <v>111</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -4178,10 +4328,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="B230" t="s">
-        <v>10</v>
+        <v>225</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -4189,10 +4339,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="B231" t="s">
-        <v>307</v>
+        <v>154</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -4200,10 +4350,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="B232" t="s">
-        <v>248</v>
+        <v>95</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -4211,10 +4361,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="B233" t="s">
-        <v>248</v>
+        <v>130</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -4222,10 +4372,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="B234" t="s">
-        <v>253</v>
+        <v>124</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -4233,10 +4383,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="B235" t="s">
-        <v>51</v>
+        <v>154</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -4244,10 +4394,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B236" t="s">
-        <v>122</v>
+        <v>230</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -4255,10 +4405,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="B237" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -4266,10 +4416,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="B238" t="s">
-        <v>73</v>
+        <v>329</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -4277,10 +4427,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="B239" t="s">
-        <v>185</v>
+        <v>83</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -4288,10 +4438,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="B240" t="s">
-        <v>317</v>
+        <v>85</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -4299,10 +4449,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="B241" t="s">
-        <v>319</v>
+        <v>107</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -4310,10 +4460,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="B242" t="s">
-        <v>321</v>
+        <v>175</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -4321,10 +4471,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="B243" t="s">
-        <v>323</v>
+        <v>113</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -4332,10 +4482,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="B244" t="s">
-        <v>323</v>
+        <v>230</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -4343,10 +4493,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="B245" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -4354,10 +4504,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="B246" t="s">
-        <v>327</v>
+        <v>85</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -4365,10 +4515,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="B247" t="s">
-        <v>329</v>
+        <v>85</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -4376,10 +4526,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="B248" t="s">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -4387,10 +4537,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="B249" t="s">
-        <v>329</v>
+        <v>57</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -4398,10 +4548,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="B250" t="s">
-        <v>333</v>
+        <v>83</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -4409,10 +4559,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="B251" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -4420,10 +4570,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="B252" t="s">
-        <v>336</v>
+        <v>57</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -4431,10 +4581,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="B253" t="s">
-        <v>317</v>
+        <v>113</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -4442,10 +4592,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B254" t="s">
-        <v>336</v>
+        <v>107</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -4453,10 +4603,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="B255" t="s">
-        <v>317</v>
+        <v>100</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -4464,10 +4614,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="B256" t="s">
-        <v>341</v>
+        <v>73</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -4475,10 +4625,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="B257" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -4486,10 +4636,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="B258" t="s">
-        <v>218</v>
+        <v>66</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -4497,10 +4647,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="B259" t="s">
-        <v>345</v>
+        <v>57</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -4508,10 +4658,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="B260" t="s">
-        <v>125</v>
+        <v>61</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -4519,10 +4669,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="B261" t="s">
-        <v>165</v>
+        <v>354</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -4530,10 +4680,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="B262" t="s">
-        <v>218</v>
+        <v>49</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -4541,10 +4691,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="B263" t="s">
-        <v>130</v>
+        <v>66</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -4552,10 +4702,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B264" t="s">
-        <v>317</v>
+        <v>46</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -4563,10 +4713,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="B265" t="s">
-        <v>333</v>
+        <v>301</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -4574,10 +4724,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="B266" t="s">
-        <v>353</v>
+        <v>301</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -4585,10 +4735,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="B267" t="s">
-        <v>355</v>
+        <v>305</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -4596,10 +4746,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B268" t="s">
-        <v>333</v>
+        <v>104</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -4607,10 +4757,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="B269" t="s">
-        <v>358</v>
+        <v>175</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -4618,10 +4768,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B270" t="s">
-        <v>360</v>
+        <v>95</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -4629,10 +4779,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B271" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -4640,10 +4790,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B272" t="s">
-        <v>327</v>
+        <v>238</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -4651,10 +4801,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B273" t="s">
-        <v>327</v>
+        <v>367</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -4662,10 +4812,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B274" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -4673,10 +4823,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B275" t="s">
-        <v>89</v>
+        <v>371</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -4684,10 +4834,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="B276" t="s">
-        <v>130</v>
+        <v>373</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -4695,10 +4845,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="B277" t="s">
-        <v>86</v>
+        <v>373</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -4706,10 +4856,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="B278" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -4717,10 +4867,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="B279" t="s">
-        <v>125</v>
+        <v>377</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -4728,10 +4878,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B280" t="s">
-        <v>185</v>
+        <v>379</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -4739,10 +4889,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="B281" t="s">
-        <v>122</v>
+        <v>191</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -4750,10 +4900,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="B282" t="s">
-        <v>122</v>
+        <v>379</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -4761,10 +4911,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="B283" t="s">
-        <v>122</v>
+        <v>383</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -4772,10 +4922,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="B284" t="s">
-        <v>30</v>
+        <v>383</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -4783,10 +4933,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="B285" t="s">
-        <v>286</v>
+        <v>386</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -4794,10 +4944,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="B286" t="s">
-        <v>47</v>
+        <v>367</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -4805,10 +4955,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="B287" t="s">
-        <v>16</v>
+        <v>386</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -4816,10 +4966,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="B288" t="s">
-        <v>51</v>
+        <v>367</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -4827,10 +4977,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="B289" t="s">
-        <v>278</v>
+        <v>391</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -4838,10 +4988,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="B290" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -4849,10 +4999,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="B291" t="s">
-        <v>384</v>
+        <v>271</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -4860,10 +5010,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="B292" t="s">
-        <v>54</v>
+        <v>395</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -4871,10 +5021,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="B293" t="s">
-        <v>34</v>
+        <v>178</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -4882,10 +5032,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="B294" t="s">
-        <v>32</v>
+        <v>218</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -4893,10 +5043,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="B295" t="s">
-        <v>172</v>
+        <v>271</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -4904,10 +5054,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="B296" t="s">
-        <v>54</v>
+        <v>183</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -4915,10 +5065,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="B297" t="s">
-        <v>32</v>
+        <v>367</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -4926,10 +5076,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="B298" t="s">
-        <v>30</v>
+        <v>383</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -4937,10 +5087,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="B299" t="s">
-        <v>286</v>
+        <v>403</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -4948,10 +5098,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="B300" t="s">
-        <v>16</v>
+        <v>405</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -4959,10 +5109,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="B301" t="s">
-        <v>286</v>
+        <v>383</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
@@ -4970,10 +5120,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="B302" t="s">
-        <v>34</v>
+        <v>408</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
@@ -4981,10 +5131,10 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="B303" t="s">
-        <v>36</v>
+        <v>410</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
@@ -4992,10 +5142,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="B304" t="s">
-        <v>278</v>
+        <v>198</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
@@ -5003,10 +5153,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="B305" t="s">
-        <v>16</v>
+        <v>377</v>
       </c>
       <c r="C305" t="s">
         <v>5</v>
@@ -5014,10 +5164,10 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="B306" t="s">
-        <v>40</v>
+        <v>377</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
@@ -5025,10 +5175,10 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="B307" t="s">
-        <v>34</v>
+        <v>415</v>
       </c>
       <c r="C307" t="s">
         <v>5</v>
@@ -5036,10 +5186,10 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="B308" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="C308" t="s">
         <v>5</v>
@@ -5047,10 +5197,10 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="B309" t="s">
-        <v>71</v>
+        <v>183</v>
       </c>
       <c r="C309" t="s">
         <v>5</v>
@@ -5058,10 +5208,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="B310" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="C310" t="s">
         <v>5</v>
@@ -5069,10 +5219,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="B311" t="s">
-        <v>38</v>
+        <v>420</v>
       </c>
       <c r="C311" t="s">
         <v>5</v>
@@ -5080,10 +5230,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="B312" t="s">
-        <v>34</v>
+        <v>178</v>
       </c>
       <c r="C312" t="s">
         <v>5</v>
@@ -5091,10 +5241,10 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="B313" t="s">
-        <v>40</v>
+        <v>238</v>
       </c>
       <c r="C313" t="s">
         <v>5</v>
@@ -5102,10 +5252,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="B314" t="s">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="C314" t="s">
         <v>5</v>
@@ -5113,10 +5263,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="B315" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="C315" t="s">
         <v>5</v>
@@ -5124,10 +5274,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="B316" t="s">
-        <v>86</v>
+        <v>175</v>
       </c>
       <c r="C316" t="s">
         <v>5</v>
@@ -5135,10 +5285,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="B317" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C317" t="s">
         <v>5</v>
@@ -5146,10 +5296,10 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="B318" t="s">
-        <v>227</v>
+        <v>337</v>
       </c>
       <c r="C318" t="s">
         <v>5</v>
@@ -5157,10 +5307,10 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="B319" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C319" t="s">
         <v>5</v>
@@ -5168,10 +5318,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="B320" t="s">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="C320" t="s">
         <v>5</v>
@@ -5179,10 +5329,10 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="B321" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C321" t="s">
         <v>5</v>
@@ -5190,10 +5340,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="B322" t="s">
-        <v>42</v>
+        <v>329</v>
       </c>
       <c r="C322" t="s">
         <v>5</v>
@@ -5201,10 +5351,10 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="B323" t="s">
-        <v>60</v>
+        <v>255</v>
       </c>
       <c r="C323" t="s">
         <v>5</v>
@@ -5212,10 +5362,10 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="B324" t="s">
-        <v>110</v>
+        <v>434</v>
       </c>
       <c r="C324" t="s">
         <v>5</v>
@@ -5223,10 +5373,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="B325" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C325" t="s">
         <v>5</v>
@@ -5234,10 +5384,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="B326" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
@@ -5245,10 +5395,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="B327" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="C327" t="s">
         <v>5</v>
@@ -5256,10 +5406,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="B328" t="s">
-        <v>110</v>
+        <v>225</v>
       </c>
       <c r="C328" t="s">
         <v>5</v>
@@ -5267,10 +5417,10 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="B329" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="C329" t="s">
         <v>5</v>
@@ -5278,10 +5428,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="B330" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
@@ -5289,10 +5439,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="B331" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C331" t="s">
         <v>5</v>
@@ -5300,10 +5450,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="B332" t="s">
-        <v>73</v>
+        <v>337</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
@@ -5311,10 +5461,10 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="B333" t="s">
-        <v>427</v>
+        <v>59</v>
       </c>
       <c r="C333" t="s">
         <v>5</v>
@@ -5322,10 +5472,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="B334" t="s">
-        <v>63</v>
+        <v>337</v>
       </c>
       <c r="C334" t="s">
         <v>5</v>
@@ -5333,10 +5483,10 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="B335" t="s">
-        <v>227</v>
+        <v>87</v>
       </c>
       <c r="C335" t="s">
         <v>5</v>
@@ -5344,10 +5494,10 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="B336" t="s">
-        <v>227</v>
+        <v>89</v>
       </c>
       <c r="C336" t="s">
         <v>5</v>
@@ -5355,10 +5505,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="B337" t="s">
-        <v>89</v>
+        <v>329</v>
       </c>
       <c r="C337" t="s">
         <v>5</v>
@@ -5366,10 +5516,10 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="B338" t="s">
-        <v>227</v>
+        <v>59</v>
       </c>
       <c r="C338" t="s">
         <v>5</v>
@@ -5377,10 +5527,10 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
       <c r="B339" t="s">
-        <v>227</v>
+        <v>93</v>
       </c>
       <c r="C339" t="s">
         <v>5</v>
@@ -5388,10 +5538,10 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
       <c r="B340" t="s">
-        <v>183</v>
+        <v>87</v>
       </c>
       <c r="C340" t="s">
         <v>5</v>
@@ -5399,10 +5549,10 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="B341" t="s">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="C341" t="s">
         <v>5</v>
@@ -5410,10 +5560,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="B342" t="s">
-        <v>183</v>
+        <v>124</v>
       </c>
       <c r="C342" t="s">
         <v>5</v>
@@ -5421,12 +5571,375 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="B343" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C343" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s">
+        <v>454</v>
+      </c>
+      <c r="B344" t="s">
+        <v>91</v>
+      </c>
+      <c r="C344" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s">
+        <v>455</v>
+      </c>
+      <c r="B345" t="s">
+        <v>87</v>
+      </c>
+      <c r="C345" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s">
+        <v>456</v>
+      </c>
+      <c r="B346" t="s">
+        <v>93</v>
+      </c>
+      <c r="C346" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s">
+        <v>457</v>
+      </c>
+      <c r="B347" t="s">
+        <v>135</v>
+      </c>
+      <c r="C347" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s">
+        <v>458</v>
+      </c>
+      <c r="B348" t="s">
+        <v>267</v>
+      </c>
+      <c r="C348" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>459</v>
+      </c>
+      <c r="B349" t="s">
+        <v>139</v>
+      </c>
+      <c r="C349" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>460</v>
+      </c>
+      <c r="B350" t="s">
+        <v>139</v>
+      </c>
+      <c r="C350" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B351" t="s">
+        <v>280</v>
+      </c>
+      <c r="C351" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s">
+        <v>462</v>
+      </c>
+      <c r="B352" t="s">
+        <v>148</v>
+      </c>
+      <c r="C352" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s">
+        <v>463</v>
+      </c>
+      <c r="B353" t="s">
+        <v>175</v>
+      </c>
+      <c r="C353" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s">
+        <v>464</v>
+      </c>
+      <c r="B354" t="s">
+        <v>175</v>
+      </c>
+      <c r="C354" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s">
+        <v>465</v>
+      </c>
+      <c r="B355" t="s">
+        <v>95</v>
+      </c>
+      <c r="C355" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s">
+        <v>466</v>
+      </c>
+      <c r="B356" t="s">
+        <v>113</v>
+      </c>
+      <c r="C356" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s">
+        <v>467</v>
+      </c>
+      <c r="B357" t="s">
+        <v>163</v>
+      </c>
+      <c r="C357" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s">
+        <v>468</v>
+      </c>
+      <c r="B358" t="s">
+        <v>151</v>
+      </c>
+      <c r="C358" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s">
+        <v>469</v>
+      </c>
+      <c r="B359" t="s">
+        <v>154</v>
+      </c>
+      <c r="C359" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s">
+        <v>470</v>
+      </c>
+      <c r="B360" t="s">
+        <v>91</v>
+      </c>
+      <c r="C360" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s">
+        <v>471</v>
+      </c>
+      <c r="B361" t="s">
+        <v>163</v>
+      </c>
+      <c r="C361" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s">
+        <v>472</v>
+      </c>
+      <c r="B362" t="s">
+        <v>95</v>
+      </c>
+      <c r="C362" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s">
+        <v>473</v>
+      </c>
+      <c r="B363" t="s">
+        <v>163</v>
+      </c>
+      <c r="C363" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s">
+        <v>474</v>
+      </c>
+      <c r="B364" t="s">
+        <v>148</v>
+      </c>
+      <c r="C364" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s">
+        <v>475</v>
+      </c>
+      <c r="B365" t="s">
+        <v>126</v>
+      </c>
+      <c r="C365" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s">
+        <v>476</v>
+      </c>
+      <c r="B366" t="s">
+        <v>477</v>
+      </c>
+      <c r="C366" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s">
+        <v>478</v>
+      </c>
+      <c r="B367" t="s">
+        <v>116</v>
+      </c>
+      <c r="C367" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s">
+        <v>479</v>
+      </c>
+      <c r="B368" t="s">
+        <v>280</v>
+      </c>
+      <c r="C368" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s">
+        <v>480</v>
+      </c>
+      <c r="B369" t="s">
+        <v>280</v>
+      </c>
+      <c r="C369" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s">
+        <v>481</v>
+      </c>
+      <c r="B370" t="s">
+        <v>142</v>
+      </c>
+      <c r="C370" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s">
+        <v>482</v>
+      </c>
+      <c r="B371" t="s">
+        <v>280</v>
+      </c>
+      <c r="C371" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s">
+        <v>483</v>
+      </c>
+      <c r="B372" t="s">
+        <v>280</v>
+      </c>
+      <c r="C372" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s">
+        <v>484</v>
+      </c>
+      <c r="B373" t="s">
+        <v>236</v>
+      </c>
+      <c r="C373" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s">
+        <v>485</v>
+      </c>
+      <c r="B374" t="s">
+        <v>236</v>
+      </c>
+      <c r="C374" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s">
+        <v>486</v>
+      </c>
+      <c r="B375" t="s">
+        <v>236</v>
+      </c>
+      <c r="C375" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s">
+        <v>487</v>
+      </c>
+      <c r="B376" t="s">
+        <v>236</v>
+      </c>
+      <c r="C376" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink Asia Dividend Advantage.xlsx
+++ b/data/GreatLink/GreatLink Asia Dividend Advantage.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid910213"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid630934"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="510">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,15 +26,84 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>04/11/2025</t>
+  </si>
+  <si>
+    <t>1.057</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>03/11/2025</t>
+  </si>
+  <si>
+    <t>1.063</t>
+  </si>
+  <si>
+    <t>31/10/2025</t>
+  </si>
+  <si>
+    <t>1.055</t>
+  </si>
+  <si>
+    <t>30/10/2025</t>
+  </si>
+  <si>
+    <t>1.058</t>
+  </si>
+  <si>
+    <t>29/10/2025</t>
+  </si>
+  <si>
+    <t>1.062</t>
+  </si>
+  <si>
+    <t>28/10/2025</t>
+  </si>
+  <si>
+    <t>1.051</t>
+  </si>
+  <si>
+    <t>27/10/2025</t>
+  </si>
+  <si>
+    <t>1.054</t>
+  </si>
+  <si>
+    <t>24/10/2025</t>
+  </si>
+  <si>
+    <t>23/10/2025</t>
+  </si>
+  <si>
+    <t>1.045</t>
+  </si>
+  <si>
+    <t>22/10/2025</t>
+  </si>
+  <si>
+    <t>1.046</t>
+  </si>
+  <si>
+    <t>21/10/2025</t>
+  </si>
+  <si>
+    <t>1.052</t>
+  </si>
+  <si>
+    <t>17/10/2025</t>
+  </si>
+  <si>
+    <t>1.024</t>
+  </si>
+  <si>
     <t>16/10/2025</t>
   </si>
   <si>
     <t>1.033</t>
   </si>
   <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>15/10/2025</t>
   </si>
   <si>
@@ -60,9 +129,6 @@
   </si>
   <si>
     <t>09/10/2025</t>
-  </si>
-  <si>
-    <t>1.051</t>
   </si>
   <si>
     <t>08/10/2025</t>
@@ -1900,7 +1966,7 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -1908,10 +1974,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
         <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1919,10 +1985,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
         <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1930,10 +1996,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
         <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1941,10 +2007,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
         <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1952,10 +2018,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
         <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1963,10 +2029,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
         <v>30</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1999,7 +2065,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -2007,10 +2073,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -2018,10 +2084,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -2029,10 +2095,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -2040,10 +2106,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -2051,10 +2117,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -2062,10 +2128,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -2073,10 +2139,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -2084,10 +2150,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -2095,10 +2161,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -2106,10 +2172,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -2117,10 +2183,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -2128,10 +2194,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -2139,10 +2205,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -2150,10 +2216,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -2161,10 +2227,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -2172,10 +2238,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -2183,10 +2249,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -2194,10 +2260,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -2205,10 +2271,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -2216,10 +2282,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B38" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -2241,7 +2307,7 @@
         <v>69</v>
       </c>
       <c r="B40" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -2249,10 +2315,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" t="s">
         <v>71</v>
-      </c>
-      <c r="B41" t="s">
-        <v>59</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -2274,7 +2340,7 @@
         <v>74</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -2282,10 +2348,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -2293,10 +2359,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B45" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -2304,10 +2370,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -2315,10 +2381,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B47" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -2326,10 +2392,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -2337,10 +2403,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -2348,10 +2414,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B50" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -2359,10 +2425,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B51" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -2370,10 +2436,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B52" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -2381,10 +2447,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B53" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -2392,10 +2458,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B54" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -2403,10 +2469,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B55" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -2414,10 +2480,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B56" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -2425,10 +2491,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B57" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -2436,10 +2502,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -2447,10 +2513,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B59" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -2458,10 +2524,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -2469,10 +2535,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B61" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -2480,10 +2546,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B62" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -2491,10 +2557,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B63" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -2502,10 +2568,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B64" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -2513,10 +2579,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B65" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -2524,10 +2590,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B66" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -2535,10 +2601,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B67" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -2546,10 +2612,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B68" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -2557,10 +2623,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B69" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -2568,10 +2634,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B70" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -2579,10 +2645,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B71" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -2590,10 +2656,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B72" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -2601,7 +2667,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B73" t="s">
         <v>122</v>
@@ -2612,10 +2678,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B74" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -2623,10 +2689,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B75" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -2634,10 +2700,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B76" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -2645,10 +2711,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B77" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -2656,10 +2722,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B78" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -2667,10 +2733,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B79" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -2678,10 +2744,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B80" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -2689,10 +2755,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B81" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -2700,10 +2766,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B82" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -2711,10 +2777,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B83" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -2722,10 +2788,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B84" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -2733,10 +2799,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B85" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -2744,10 +2810,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B86" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -2755,10 +2821,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B87" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -2766,10 +2832,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B88" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -2777,10 +2843,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B89" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -2788,10 +2854,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B90" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -2799,10 +2865,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B91" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -2810,10 +2876,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B92" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -2821,10 +2887,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B93" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -2832,10 +2898,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B94" t="s">
-        <v>111</v>
+        <v>157</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -2843,10 +2909,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B95" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -2854,10 +2920,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B96" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -2865,10 +2931,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B97" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -2876,10 +2942,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B98" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -2887,10 +2953,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B99" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -2898,10 +2964,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B100" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -2909,10 +2975,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B101" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -2920,10 +2986,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B102" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -2931,10 +2997,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B103" t="s">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -2942,10 +3008,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B104" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -2953,10 +3019,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B105" t="s">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -2964,10 +3030,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B106" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -2975,10 +3041,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B107" t="s">
-        <v>116</v>
+        <v>176</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -2986,10 +3052,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B108" t="s">
-        <v>95</v>
+        <v>178</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -2997,10 +3063,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="B109" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -3008,10 +3074,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="B110" t="s">
-        <v>95</v>
+        <v>168</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -3019,10 +3085,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="B111" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -3030,10 +3096,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="B112" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -3041,10 +3107,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="B113" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -3052,10 +3118,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B114" t="s">
-        <v>146</v>
+        <v>185</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -3063,10 +3129,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="B115" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -3074,10 +3140,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B116" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -3085,10 +3151,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B117" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -3096,10 +3162,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B118" t="s">
-        <v>183</v>
+        <v>142</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -3107,10 +3173,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B119" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -3118,10 +3184,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B120" t="s">
-        <v>181</v>
+        <v>117</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -3129,10 +3195,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B121" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -3140,10 +3206,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B122" t="s">
-        <v>189</v>
+        <v>117</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -3151,10 +3217,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B123" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -3162,10 +3228,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B124" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -3173,10 +3239,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B125" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -3184,10 +3250,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B126" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -3195,10 +3261,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B127" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -3206,10 +3272,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B128" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -3217,10 +3283,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B129" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -3228,10 +3294,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B130" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -3239,10 +3305,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
+        <v>206</v>
+      </c>
+      <c r="B131" t="s">
         <v>203</v>
-      </c>
-      <c r="B131" t="s">
-        <v>204</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -3250,10 +3316,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B132" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -3261,10 +3327,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B133" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -3272,10 +3338,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B134" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -3283,10 +3349,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B135" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -3294,10 +3360,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B136" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -3330,7 +3396,7 @@
         <v>219</v>
       </c>
       <c r="B139" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -3338,10 +3404,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
+        <v>221</v>
+      </c>
+      <c r="B140" t="s">
         <v>220</v>
-      </c>
-      <c r="B140" t="s">
-        <v>111</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -3349,10 +3415,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B141" t="s">
-        <v>175</v>
+        <v>220</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -3360,10 +3426,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B142" t="s">
-        <v>93</v>
+        <v>224</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -3371,10 +3437,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B143" t="s">
-        <v>107</v>
+        <v>226</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -3382,10 +3448,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B144" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -3393,10 +3459,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B145" t="s">
-        <v>154</v>
+        <v>230</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -3404,10 +3470,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B146" t="s">
-        <v>93</v>
+        <v>232</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -3415,10 +3481,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B147" t="s">
-        <v>154</v>
+        <v>234</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -3426,10 +3492,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B148" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -3437,10 +3503,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B149" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -3448,10 +3514,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="B150" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -3459,10 +3525,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="B151" t="s">
-        <v>148</v>
+        <v>240</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -3470,10 +3536,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B152" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -3481,10 +3547,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="B153" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -3492,10 +3558,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="B154" t="s">
-        <v>238</v>
+        <v>115</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -3503,10 +3569,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B155" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -3514,10 +3580,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B156" t="s">
-        <v>116</v>
+        <v>247</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -3525,10 +3591,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="B157" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -3536,10 +3602,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B158" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -3547,10 +3613,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="B159" t="s">
-        <v>116</v>
+        <v>176</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -3558,10 +3624,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="B160" t="s">
-        <v>146</v>
+        <v>252</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -3569,10 +3635,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B161" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -3580,10 +3646,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="B162" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -3591,10 +3657,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B163" t="s">
-        <v>93</v>
+        <v>170</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -3602,10 +3668,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B164" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -3613,10 +3679,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="B165" t="s">
-        <v>120</v>
+        <v>258</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -3624,10 +3690,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="B166" t="s">
-        <v>151</v>
+        <v>260</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -3635,10 +3701,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="B167" t="s">
-        <v>107</v>
+        <v>168</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -3646,10 +3712,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="B168" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -3657,10 +3723,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="B169" t="s">
-        <v>89</v>
+        <v>178</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -3668,10 +3734,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="B170" t="s">
-        <v>255</v>
+        <v>135</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -3679,10 +3745,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="B171" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -3690,10 +3756,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="B172" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -3701,10 +3767,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="B173" t="s">
-        <v>116</v>
+        <v>260</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -3712,10 +3778,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="B174" t="s">
-        <v>163</v>
+        <v>260</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -3723,10 +3789,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="B175" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -3734,10 +3800,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="B176" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -3745,10 +3811,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="B177" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -3756,10 +3822,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="B178" t="s">
-        <v>124</v>
+        <v>173</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -3767,10 +3833,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="B179" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -3778,10 +3844,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="B180" t="s">
-        <v>124</v>
+        <v>197</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -3789,10 +3855,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="B181" t="s">
-        <v>267</v>
+        <v>111</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -3800,10 +3866,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B182" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -3811,10 +3877,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="B183" t="s">
-        <v>267</v>
+        <v>115</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -3822,10 +3888,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="B184" t="s">
-        <v>271</v>
+        <v>197</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -3833,10 +3899,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="B185" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -3844,10 +3910,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="B186" t="s">
-        <v>146</v>
+        <v>185</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -3855,10 +3921,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="B187" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -3866,10 +3932,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B188" t="s">
-        <v>238</v>
+        <v>178</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -3877,10 +3943,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="B189" t="s">
-        <v>146</v>
+        <v>197</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -3888,7 +3954,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="B190" t="s">
         <v>146</v>
@@ -3899,10 +3965,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B191" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -3910,10 +3976,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="B192" t="s">
-        <v>280</v>
+        <v>146</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -3921,10 +3987,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="B193" t="s">
-        <v>236</v>
+        <v>289</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -3932,10 +3998,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="B194" t="s">
-        <v>142</v>
+        <v>289</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -3943,10 +4009,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B195" t="s">
-        <v>124</v>
+        <v>289</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -3954,10 +4020,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="B196" t="s">
-        <v>175</v>
+        <v>293</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -3965,10 +4031,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="B197" t="s">
-        <v>91</v>
+        <v>148</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -3976,10 +4042,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="B198" t="s">
-        <v>230</v>
+        <v>168</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -3987,10 +4053,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="B199" t="s">
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -3998,10 +4064,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="B200" t="s">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -4009,10 +4075,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="B201" t="s">
-        <v>61</v>
+        <v>168</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -4020,10 +4086,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="B202" t="s">
-        <v>104</v>
+        <v>168</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -4031,10 +4097,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="B203" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -4042,10 +4108,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="B204" t="s">
-        <v>53</v>
+        <v>302</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -4053,10 +4119,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="B205" t="s">
-        <v>53</v>
+        <v>258</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -4064,10 +4130,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="B206" t="s">
-        <v>53</v>
+        <v>164</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -4075,10 +4141,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="B207" t="s">
-        <v>61</v>
+        <v>146</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -4086,10 +4152,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="B208" t="s">
-        <v>83</v>
+        <v>197</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -4097,10 +4163,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="B209" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -4108,10 +4174,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="B210" t="s">
-        <v>80</v>
+        <v>252</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -4119,10 +4185,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="B211" t="s">
-        <v>64</v>
+        <v>133</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -4130,10 +4196,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="B212" t="s">
-        <v>301</v>
+        <v>122</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -4141,10 +4207,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="B213" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -4152,10 +4218,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="B214" t="s">
-        <v>49</v>
+        <v>126</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -4163,10 +4229,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="B215" t="s">
-        <v>305</v>
+        <v>126</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -4174,10 +4240,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="B216" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -4185,10 +4251,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B217" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -4196,10 +4262,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="B218" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -4207,10 +4273,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="B219" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -4218,10 +4284,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="B220" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -4229,10 +4295,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="B221" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -4240,10 +4306,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="B222" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -4251,10 +4317,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="B223" t="s">
-        <v>230</v>
+        <v>86</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -4262,10 +4328,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="B224" t="s">
-        <v>111</v>
+        <v>323</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -4273,10 +4339,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="B225" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -4284,10 +4350,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="B226" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -4295,10 +4361,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="B227" t="s">
-        <v>89</v>
+        <v>327</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -4306,10 +4372,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="B228" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -4317,10 +4383,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="B229" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -4328,10 +4394,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="B230" t="s">
-        <v>225</v>
+        <v>99</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -4339,10 +4405,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B231" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -4350,10 +4416,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="B232" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -4361,10 +4427,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="B233" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -4372,10 +4438,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="B234" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -4383,10 +4449,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="B235" t="s">
-        <v>154</v>
+        <v>252</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -4394,10 +4460,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="B236" t="s">
-        <v>230</v>
+        <v>133</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -4405,10 +4471,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="B237" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -4416,10 +4482,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="B238" t="s">
-        <v>329</v>
+        <v>109</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -4427,10 +4493,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="B239" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -4438,10 +4504,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="B240" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -4449,10 +4515,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="B241" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -4460,10 +4526,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="B242" t="s">
-        <v>175</v>
+        <v>247</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -4471,10 +4537,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="B243" t="s">
-        <v>113</v>
+        <v>176</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -4482,10 +4548,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="B244" t="s">
-        <v>230</v>
+        <v>117</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -4493,10 +4559,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="B245" t="s">
-        <v>337</v>
+        <v>152</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -4504,10 +4570,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B246" t="s">
-        <v>85</v>
+        <v>146</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -4515,10 +4581,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="B247" t="s">
-        <v>85</v>
+        <v>176</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -4526,10 +4592,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="B248" t="s">
-        <v>83</v>
+        <v>252</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -4537,10 +4603,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="B249" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -4548,10 +4614,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="B250" t="s">
-        <v>83</v>
+        <v>351</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -4559,10 +4625,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="B251" t="s">
-        <v>337</v>
+        <v>105</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -4570,10 +4636,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="B252" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -4581,10 +4647,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="B253" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -4592,10 +4658,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="B254" t="s">
-        <v>107</v>
+        <v>197</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -4603,10 +4669,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="B255" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -4614,10 +4680,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="B256" t="s">
-        <v>73</v>
+        <v>252</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -4625,10 +4691,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="B257" t="s">
-        <v>80</v>
+        <v>359</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -4636,10 +4702,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="B258" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -4647,10 +4713,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="B259" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -4658,10 +4724,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="B260" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -4669,10 +4735,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="B261" t="s">
-        <v>354</v>
+        <v>79</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -4680,10 +4746,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B262" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -4691,10 +4757,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="B263" t="s">
-        <v>66</v>
+        <v>359</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -4702,10 +4768,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="B264" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -4713,10 +4779,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="B265" t="s">
-        <v>301</v>
+        <v>135</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -4724,10 +4790,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="B266" t="s">
-        <v>301</v>
+        <v>129</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -4735,10 +4801,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="B267" t="s">
-        <v>305</v>
+        <v>122</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -4746,10 +4812,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="B268" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -4757,10 +4823,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="B269" t="s">
-        <v>175</v>
+        <v>102</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -4768,10 +4834,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B270" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -4779,10 +4845,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="B271" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -4790,10 +4856,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="B272" t="s">
-        <v>238</v>
+        <v>83</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -4801,10 +4867,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="B273" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -4812,10 +4878,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="B274" t="s">
-        <v>369</v>
+        <v>71</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -4823,10 +4889,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="B275" t="s">
-        <v>371</v>
+        <v>88</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -4834,10 +4900,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="B276" t="s">
-        <v>373</v>
+        <v>68</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -4845,10 +4911,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="B277" t="s">
-        <v>373</v>
+        <v>323</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -4856,10 +4922,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="B278" t="s">
-        <v>373</v>
+        <v>323</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -4867,10 +4933,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="B279" t="s">
-        <v>377</v>
+        <v>327</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -4878,10 +4944,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="B280" t="s">
-        <v>379</v>
+        <v>126</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -4889,10 +4955,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B281" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -4900,10 +4966,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B282" t="s">
-        <v>379</v>
+        <v>117</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -4911,10 +4977,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B283" t="s">
-        <v>383</v>
+        <v>148</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -4922,10 +4988,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B284" t="s">
-        <v>383</v>
+        <v>260</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -4933,10 +4999,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B285" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -4944,10 +5010,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B286" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -4955,10 +5021,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B287" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -4966,10 +5032,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="B288" t="s">
-        <v>367</v>
+        <v>395</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -4977,10 +5043,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="B289" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -4988,10 +5054,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="B290" t="s">
-        <v>183</v>
+        <v>395</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -4999,10 +5065,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="B291" t="s">
-        <v>271</v>
+        <v>399</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -5010,10 +5076,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="B292" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -5021,10 +5087,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="B293" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -5032,10 +5098,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="B294" t="s">
-        <v>218</v>
+        <v>401</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -5043,10 +5109,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="B295" t="s">
-        <v>271</v>
+        <v>405</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -5054,10 +5120,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="B296" t="s">
-        <v>183</v>
+        <v>405</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -5065,10 +5131,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="B297" t="s">
-        <v>367</v>
+        <v>408</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -5076,10 +5142,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="B298" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -5087,10 +5153,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="B299" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -5098,10 +5164,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B300" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -5109,10 +5175,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="B301" t="s">
-        <v>383</v>
+        <v>413</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
@@ -5120,10 +5186,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="B302" t="s">
-        <v>408</v>
+        <v>205</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
@@ -5131,10 +5197,10 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="B303" t="s">
-        <v>410</v>
+        <v>293</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
@@ -5142,10 +5208,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="B304" t="s">
-        <v>198</v>
+        <v>417</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
@@ -5153,10 +5219,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="B305" t="s">
-        <v>377</v>
+        <v>200</v>
       </c>
       <c r="C305" t="s">
         <v>5</v>
@@ -5164,10 +5230,10 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="B306" t="s">
-        <v>377</v>
+        <v>240</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
@@ -5175,10 +5241,10 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="B307" t="s">
-        <v>415</v>
+        <v>293</v>
       </c>
       <c r="C307" t="s">
         <v>5</v>
@@ -5186,10 +5252,10 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="B308" t="s">
-        <v>142</v>
+        <v>205</v>
       </c>
       <c r="C308" t="s">
         <v>5</v>
@@ -5197,10 +5263,10 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="B309" t="s">
-        <v>183</v>
+        <v>389</v>
       </c>
       <c r="C309" t="s">
         <v>5</v>
@@ -5208,10 +5274,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="B310" t="s">
-        <v>139</v>
+        <v>405</v>
       </c>
       <c r="C310" t="s">
         <v>5</v>
@@ -5219,10 +5285,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="B311" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="C311" t="s">
         <v>5</v>
@@ -5230,10 +5296,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="B312" t="s">
-        <v>178</v>
+        <v>427</v>
       </c>
       <c r="C312" t="s">
         <v>5</v>
@@ -5241,10 +5307,10 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="B313" t="s">
-        <v>238</v>
+        <v>405</v>
       </c>
       <c r="C313" t="s">
         <v>5</v>
@@ -5252,10 +5318,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="B314" t="s">
-        <v>175</v>
+        <v>430</v>
       </c>
       <c r="C314" t="s">
         <v>5</v>
@@ -5263,10 +5329,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="B315" t="s">
-        <v>175</v>
+        <v>432</v>
       </c>
       <c r="C315" t="s">
         <v>5</v>
@@ -5274,10 +5340,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="B316" t="s">
-        <v>175</v>
+        <v>220</v>
       </c>
       <c r="C316" t="s">
         <v>5</v>
@@ -5285,10 +5351,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="B317" t="s">
-        <v>83</v>
+        <v>399</v>
       </c>
       <c r="C317" t="s">
         <v>5</v>
@@ -5296,10 +5362,10 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="B318" t="s">
-        <v>337</v>
+        <v>399</v>
       </c>
       <c r="C318" t="s">
         <v>5</v>
@@ -5307,10 +5373,10 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="B319" t="s">
-        <v>100</v>
+        <v>437</v>
       </c>
       <c r="C319" t="s">
         <v>5</v>
@@ -5318,10 +5384,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="B320" t="s">
-        <v>59</v>
+        <v>164</v>
       </c>
       <c r="C320" t="s">
         <v>5</v>
@@ -5329,10 +5395,10 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="B321" t="s">
-        <v>104</v>
+        <v>205</v>
       </c>
       <c r="C321" t="s">
         <v>5</v>
@@ -5340,10 +5406,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="B322" t="s">
-        <v>329</v>
+        <v>161</v>
       </c>
       <c r="C322" t="s">
         <v>5</v>
@@ -5351,10 +5417,10 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="B323" t="s">
-        <v>255</v>
+        <v>442</v>
       </c>
       <c r="C323" t="s">
         <v>5</v>
@@ -5362,10 +5428,10 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="B324" t="s">
-        <v>434</v>
+        <v>200</v>
       </c>
       <c r="C324" t="s">
         <v>5</v>
@@ -5373,10 +5439,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="B325" t="s">
-        <v>107</v>
+        <v>260</v>
       </c>
       <c r="C325" t="s">
         <v>5</v>
@@ -5384,10 +5450,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="B326" t="s">
-        <v>87</v>
+        <v>197</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
@@ -5395,10 +5461,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="B327" t="s">
-        <v>85</v>
+        <v>197</v>
       </c>
       <c r="C327" t="s">
         <v>5</v>
@@ -5406,10 +5472,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="B328" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="C328" t="s">
         <v>5</v>
@@ -5417,10 +5483,10 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="B329" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C329" t="s">
         <v>5</v>
@@ -5428,10 +5494,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="B330" t="s">
-        <v>85</v>
+        <v>359</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
@@ -5439,10 +5505,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="B331" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="C331" t="s">
         <v>5</v>
@@ -5450,10 +5516,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B332" t="s">
-        <v>337</v>
+        <v>81</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
@@ -5461,10 +5527,10 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="B333" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="C333" t="s">
         <v>5</v>
@@ -5472,10 +5538,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="B334" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="C334" t="s">
         <v>5</v>
@@ -5483,10 +5549,10 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="B335" t="s">
-        <v>87</v>
+        <v>277</v>
       </c>
       <c r="C335" t="s">
         <v>5</v>
@@ -5494,10 +5560,10 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="B336" t="s">
-        <v>89</v>
+        <v>456</v>
       </c>
       <c r="C336" t="s">
         <v>5</v>
@@ -5505,10 +5571,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="B337" t="s">
-        <v>329</v>
+        <v>129</v>
       </c>
       <c r="C337" t="s">
         <v>5</v>
@@ -5516,10 +5582,10 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="B338" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="C338" t="s">
         <v>5</v>
@@ -5527,10 +5593,10 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="B339" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="C339" t="s">
         <v>5</v>
@@ -5538,10 +5604,10 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="B340" t="s">
-        <v>87</v>
+        <v>247</v>
       </c>
       <c r="C340" t="s">
         <v>5</v>
@@ -5549,10 +5615,10 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="B341" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="C341" t="s">
         <v>5</v>
@@ -5560,10 +5626,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="B342" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C342" t="s">
         <v>5</v>
@@ -5571,10 +5637,10 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="B343" t="s">
-        <v>175</v>
+        <v>105</v>
       </c>
       <c r="C343" t="s">
         <v>5</v>
@@ -5582,10 +5648,10 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="B344" t="s">
-        <v>91</v>
+        <v>359</v>
       </c>
       <c r="C344" t="s">
         <v>5</v>
@@ -5593,10 +5659,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="B345" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C345" t="s">
         <v>5</v>
@@ -5604,10 +5670,10 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="B346" t="s">
-        <v>93</v>
+        <v>359</v>
       </c>
       <c r="C346" t="s">
         <v>5</v>
@@ -5615,10 +5681,10 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="B347" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="C347" t="s">
         <v>5</v>
@@ -5626,10 +5692,10 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="B348" t="s">
-        <v>267</v>
+        <v>111</v>
       </c>
       <c r="C348" t="s">
         <v>5</v>
@@ -5637,10 +5703,10 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="B349" t="s">
-        <v>139</v>
+        <v>351</v>
       </c>
       <c r="C349" t="s">
         <v>5</v>
@@ -5648,10 +5714,10 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="B350" t="s">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="C350" t="s">
         <v>5</v>
@@ -5659,10 +5725,10 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="B351" t="s">
-        <v>280</v>
+        <v>115</v>
       </c>
       <c r="C351" t="s">
         <v>5</v>
@@ -5670,10 +5736,10 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="B352" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="C352" t="s">
         <v>5</v>
@@ -5681,10 +5747,10 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="B353" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C353" t="s">
         <v>5</v>
@@ -5692,10 +5758,10 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="B354" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="C354" t="s">
         <v>5</v>
@@ -5703,10 +5769,10 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="B355" t="s">
-        <v>95</v>
+        <v>197</v>
       </c>
       <c r="C355" t="s">
         <v>5</v>
@@ -5714,7 +5780,7 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="B356" t="s">
         <v>113</v>
@@ -5725,10 +5791,10 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="B357" t="s">
-        <v>163</v>
+        <v>109</v>
       </c>
       <c r="C357" t="s">
         <v>5</v>
@@ -5736,10 +5802,10 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="B358" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="C358" t="s">
         <v>5</v>
@@ -5747,10 +5813,10 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="B359" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C359" t="s">
         <v>5</v>
@@ -5758,10 +5824,10 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="B360" t="s">
-        <v>91</v>
+        <v>289</v>
       </c>
       <c r="C360" t="s">
         <v>5</v>
@@ -5769,10 +5835,10 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="B361" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C361" t="s">
         <v>5</v>
@@ -5780,10 +5846,10 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="B362" t="s">
-        <v>95</v>
+        <v>161</v>
       </c>
       <c r="C362" t="s">
         <v>5</v>
@@ -5791,10 +5857,10 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="B363" t="s">
-        <v>163</v>
+        <v>302</v>
       </c>
       <c r="C363" t="s">
         <v>5</v>
@@ -5802,10 +5868,10 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="B364" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="C364" t="s">
         <v>5</v>
@@ -5813,10 +5879,10 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="B365" t="s">
-        <v>126</v>
+        <v>197</v>
       </c>
       <c r="C365" t="s">
         <v>5</v>
@@ -5824,10 +5890,10 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="B366" t="s">
-        <v>477</v>
+        <v>197</v>
       </c>
       <c r="C366" t="s">
         <v>5</v>
@@ -5835,10 +5901,10 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="B367" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C367" t="s">
         <v>5</v>
@@ -5846,10 +5912,10 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="B368" t="s">
-        <v>280</v>
+        <v>135</v>
       </c>
       <c r="C368" t="s">
         <v>5</v>
@@ -5857,10 +5923,10 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="B369" t="s">
-        <v>280</v>
+        <v>185</v>
       </c>
       <c r="C369" t="s">
         <v>5</v>
@@ -5868,10 +5934,10 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="B370" t="s">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="C370" t="s">
         <v>5</v>
@@ -5879,10 +5945,10 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="B371" t="s">
-        <v>280</v>
+        <v>176</v>
       </c>
       <c r="C371" t="s">
         <v>5</v>
@@ -5890,10 +5956,10 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="B372" t="s">
-        <v>280</v>
+        <v>113</v>
       </c>
       <c r="C372" t="s">
         <v>5</v>
@@ -5901,10 +5967,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="B373" t="s">
-        <v>236</v>
+        <v>185</v>
       </c>
       <c r="C373" t="s">
         <v>5</v>
@@ -5912,10 +5978,10 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="B374" t="s">
-        <v>236</v>
+        <v>117</v>
       </c>
       <c r="C374" t="s">
         <v>5</v>
@@ -5923,10 +5989,10 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="B375" t="s">
-        <v>236</v>
+        <v>185</v>
       </c>
       <c r="C375" t="s">
         <v>5</v>
@@ -5934,12 +6000,144 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="B376" t="s">
-        <v>236</v>
+        <v>170</v>
       </c>
       <c r="C376" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s">
+        <v>497</v>
+      </c>
+      <c r="B377" t="s">
+        <v>148</v>
+      </c>
+      <c r="C377" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s">
+        <v>498</v>
+      </c>
+      <c r="B378" t="s">
+        <v>499</v>
+      </c>
+      <c r="C378" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s">
+        <v>500</v>
+      </c>
+      <c r="B379" t="s">
+        <v>138</v>
+      </c>
+      <c r="C379" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s">
+        <v>501</v>
+      </c>
+      <c r="B380" t="s">
+        <v>302</v>
+      </c>
+      <c r="C380" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s">
+        <v>502</v>
+      </c>
+      <c r="B381" t="s">
+        <v>302</v>
+      </c>
+      <c r="C381" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s">
+        <v>503</v>
+      </c>
+      <c r="B382" t="s">
+        <v>164</v>
+      </c>
+      <c r="C382" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s">
+        <v>504</v>
+      </c>
+      <c r="B383" t="s">
+        <v>302</v>
+      </c>
+      <c r="C383" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s">
+        <v>505</v>
+      </c>
+      <c r="B384" t="s">
+        <v>302</v>
+      </c>
+      <c r="C384" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s">
+        <v>506</v>
+      </c>
+      <c r="B385" t="s">
+        <v>258</v>
+      </c>
+      <c r="C385" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="s">
+        <v>507</v>
+      </c>
+      <c r="B386" t="s">
+        <v>258</v>
+      </c>
+      <c r="C386" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="s">
+        <v>508</v>
+      </c>
+      <c r="B387" t="s">
+        <v>258</v>
+      </c>
+      <c r="C387" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="s">
+        <v>509</v>
+      </c>
+      <c r="B388" t="s">
+        <v>258</v>
+      </c>
+      <c r="C388" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink Asia Dividend Advantage.xlsx
+++ b/data/GreatLink/GreatLink Asia Dividend Advantage.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid630934"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid697504"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="540">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,21 +26,135 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>03/12/2025</t>
+  </si>
+  <si>
+    <t>1.052</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>02/12/2025</t>
+  </si>
+  <si>
+    <t>1.053</t>
+  </si>
+  <si>
+    <t>01/12/2025</t>
+  </si>
+  <si>
+    <t>1.048</t>
+  </si>
+  <si>
+    <t>28/11/2025</t>
+  </si>
+  <si>
+    <t>1.045</t>
+  </si>
+  <si>
+    <t>27/11/2025</t>
+  </si>
+  <si>
+    <t>1.049</t>
+  </si>
+  <si>
+    <t>26/11/2025</t>
+  </si>
+  <si>
+    <t>1.044</t>
+  </si>
+  <si>
+    <t>25/11/2025</t>
+  </si>
+  <si>
+    <t>1.035</t>
+  </si>
+  <si>
+    <t>24/11/2025</t>
+  </si>
+  <si>
+    <t>1.031</t>
+  </si>
+  <si>
+    <t>21/11/2025</t>
+  </si>
+  <si>
+    <t>1.023</t>
+  </si>
+  <si>
+    <t>20/11/2025</t>
+  </si>
+  <si>
+    <t>1.046</t>
+  </si>
+  <si>
+    <t>19/11/2025</t>
+  </si>
+  <si>
+    <t>1.038</t>
+  </si>
+  <si>
+    <t>18/11/2025</t>
+  </si>
+  <si>
+    <t>1.039</t>
+  </si>
+  <si>
+    <t>17/11/2025</t>
+  </si>
+  <si>
+    <t>1.059</t>
+  </si>
+  <si>
+    <t>14/11/2025</t>
+  </si>
+  <si>
+    <t>13/11/2025</t>
+  </si>
+  <si>
+    <t>1.075</t>
+  </si>
+  <si>
+    <t>12/11/2025</t>
+  </si>
+  <si>
+    <t>1.076</t>
+  </si>
+  <si>
+    <t>11/11/2025</t>
+  </si>
+  <si>
+    <t>1.067</t>
+  </si>
+  <si>
+    <t>10/11/2025</t>
+  </si>
+  <si>
+    <t>1.063</t>
+  </si>
+  <si>
+    <t>07/11/2025</t>
+  </si>
+  <si>
+    <t>06/11/2025</t>
+  </si>
+  <si>
+    <t>1.061</t>
+  </si>
+  <si>
+    <t>05/11/2025</t>
+  </si>
+  <si>
     <t>04/11/2025</t>
   </si>
   <si>
     <t>1.057</t>
   </si>
   <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>03/11/2025</t>
   </si>
   <si>
-    <t>1.063</t>
-  </si>
-  <si>
     <t>31/10/2025</t>
   </si>
   <si>
@@ -77,21 +191,12 @@
     <t>23/10/2025</t>
   </si>
   <si>
-    <t>1.045</t>
-  </si>
-  <si>
     <t>22/10/2025</t>
   </si>
   <si>
-    <t>1.046</t>
-  </si>
-  <si>
     <t>21/10/2025</t>
   </si>
   <si>
-    <t>1.052</t>
-  </si>
-  <si>
     <t>17/10/2025</t>
   </si>
   <si>
@@ -140,15 +245,9 @@
     <t>07/10/2025</t>
   </si>
   <si>
-    <t>1.048</t>
-  </si>
-  <si>
     <t>06/10/2025</t>
   </si>
   <si>
-    <t>1.038</t>
-  </si>
-  <si>
     <t>03/10/2025</t>
   </si>
   <si>
@@ -158,15 +257,9 @@
     <t>02/10/2025</t>
   </si>
   <si>
-    <t>1.044</t>
-  </si>
-  <si>
     <t>01/10/2025</t>
   </si>
   <si>
-    <t>1.031</t>
-  </si>
-  <si>
     <t>30/09/2025</t>
   </si>
   <si>
@@ -204,9 +297,6 @@
   </si>
   <si>
     <t>17/09/2025</t>
-  </si>
-  <si>
-    <t>1.035</t>
   </si>
   <si>
     <t>16/09/2025</t>
@@ -1966,7 +2056,7 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -1974,10 +2064,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1985,10 +2075,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1996,10 +2086,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -2007,10 +2097,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -2018,10 +2108,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -2029,10 +2119,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
         <v>29</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -2076,7 +2166,7 @@
         <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -2084,10 +2174,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -2109,7 +2199,7 @@
         <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -2117,10 +2207,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
         <v>44</v>
-      </c>
-      <c r="B23" t="s">
-        <v>45</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -2128,10 +2218,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -2139,10 +2229,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -2150,10 +2240,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -2161,10 +2251,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -2172,10 +2262,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
         <v>53</v>
-      </c>
-      <c r="B28" t="s">
-        <v>54</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -2183,10 +2273,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
         <v>55</v>
-      </c>
-      <c r="B29" t="s">
-        <v>56</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -2194,10 +2284,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -2205,10 +2295,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -2216,10 +2306,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -2227,10 +2317,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -2238,10 +2328,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" t="s">
         <v>61</v>
-      </c>
-      <c r="B34" t="s">
-        <v>45</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -2263,7 +2353,7 @@
         <v>64</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -2271,10 +2361,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -2282,10 +2372,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -2293,10 +2383,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -2304,10 +2394,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B40" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -2315,10 +2405,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B41" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -2326,10 +2416,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -2337,10 +2427,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B43" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -2348,10 +2438,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -2359,10 +2449,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -2373,7 +2463,7 @@
         <v>80</v>
       </c>
       <c r="B46" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -2381,10 +2471,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B47" t="s">
         <v>82</v>
-      </c>
-      <c r="B47" t="s">
-        <v>83</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -2392,10 +2482,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B48" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -2403,10 +2493,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" t="s">
         <v>85</v>
-      </c>
-      <c r="B49" t="s">
-        <v>86</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -2414,10 +2504,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>86</v>
+      </c>
+      <c r="B50" t="s">
         <v>87</v>
-      </c>
-      <c r="B50" t="s">
-        <v>88</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -2425,10 +2515,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B51" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -2436,10 +2526,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B52" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -2447,10 +2537,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B53" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -2458,10 +2548,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B54" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -2469,10 +2559,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B55" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -2480,10 +2570,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B56" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -2491,10 +2581,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B57" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -2502,10 +2592,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B58" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -2513,10 +2603,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B59" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -2524,10 +2614,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B60" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -2535,10 +2625,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B61" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -2546,10 +2636,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B62" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -2557,10 +2647,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B63" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -2568,10 +2658,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B64" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -2579,10 +2669,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B65" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -2590,10 +2680,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B66" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -2601,10 +2691,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B67" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -2612,10 +2702,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B68" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -2623,10 +2713,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B69" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -2634,10 +2724,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B70" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -2645,10 +2735,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B71" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -2656,10 +2746,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B72" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -2667,7 +2757,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B73" t="s">
         <v>122</v>
@@ -2678,10 +2768,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B74" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -2689,10 +2779,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -2700,10 +2790,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B76" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -2711,10 +2801,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B77" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -2722,10 +2812,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B78" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -2733,10 +2823,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B79" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -2744,10 +2834,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B80" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -2755,10 +2845,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B81" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -2766,10 +2856,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B82" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -2777,10 +2867,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B83" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -2788,10 +2878,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B84" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -2799,10 +2889,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B85" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -2810,10 +2900,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B86" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -2821,10 +2911,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B87" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -2832,10 +2922,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B88" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -2843,10 +2933,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B89" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -2854,10 +2944,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B90" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -2865,10 +2955,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B91" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -2876,10 +2966,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B92" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -2887,10 +2977,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B93" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -2898,10 +2988,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B94" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -2909,10 +2999,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B95" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -2920,10 +3010,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B96" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -2931,10 +3021,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B97" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -2942,10 +3032,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B98" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -2953,10 +3043,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B99" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -2964,10 +3054,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B100" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -2975,10 +3065,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B101" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -2986,10 +3076,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B102" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -2997,10 +3087,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B103" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -3008,10 +3098,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B104" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -3019,10 +3109,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
+        <v>171</v>
+      </c>
+      <c r="B105" t="s">
         <v>172</v>
-      </c>
-      <c r="B105" t="s">
-        <v>173</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -3030,10 +3120,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
+        <v>173</v>
+      </c>
+      <c r="B106" t="s">
         <v>174</v>
-      </c>
-      <c r="B106" t="s">
-        <v>133</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -3066,7 +3156,7 @@
         <v>179</v>
       </c>
       <c r="B109" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -3077,7 +3167,7 @@
         <v>180</v>
       </c>
       <c r="B110" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -3088,7 +3178,7 @@
         <v>181</v>
       </c>
       <c r="B111" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -3096,10 +3186,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
+        <v>183</v>
+      </c>
+      <c r="B112" t="s">
         <v>182</v>
-      </c>
-      <c r="B112" t="s">
-        <v>148</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -3107,10 +3197,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B113" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -3118,10 +3208,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B114" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -3132,7 +3222,7 @@
         <v>186</v>
       </c>
       <c r="B115" t="s">
-        <v>142</v>
+        <v>187</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -3140,10 +3230,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B116" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -3151,10 +3241,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B117" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -3162,10 +3252,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B118" t="s">
-        <v>142</v>
+        <v>191</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -3173,10 +3263,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B119" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -3184,10 +3274,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B120" t="s">
-        <v>117</v>
+        <v>194</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -3195,10 +3285,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B121" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -3206,10 +3296,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B122" t="s">
-        <v>117</v>
+        <v>170</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -3217,10 +3307,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B123" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -3228,10 +3318,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B124" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -3239,10 +3329,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B125" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -3250,10 +3340,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B126" t="s">
-        <v>168</v>
+        <v>203</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -3261,10 +3351,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B127" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -3272,10 +3362,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B128" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -3283,10 +3373,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B129" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -3294,10 +3384,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B130" t="s">
-        <v>205</v>
+        <v>172</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -3305,10 +3395,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B131" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -3316,10 +3406,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B132" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -3327,10 +3417,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B133" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -3338,10 +3428,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B134" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -3349,10 +3439,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B135" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -3360,10 +3450,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B136" t="s">
-        <v>211</v>
+        <v>172</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -3371,10 +3461,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B137" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -3382,10 +3472,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B138" t="s">
-        <v>218</v>
+        <v>168</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -3396,7 +3486,7 @@
         <v>219</v>
       </c>
       <c r="B139" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -3404,10 +3494,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B140" t="s">
-        <v>220</v>
+        <v>168</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -3415,10 +3505,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B141" t="s">
-        <v>220</v>
+        <v>147</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -3426,10 +3516,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B142" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -3437,10 +3527,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B143" t="s">
-        <v>226</v>
+        <v>147</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -3448,10 +3538,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B144" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -3459,10 +3549,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B145" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -3470,10 +3560,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B146" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -3481,10 +3571,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B147" t="s">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -3492,10 +3582,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B148" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -3503,10 +3593,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B149" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -3514,10 +3604,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B150" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -3525,10 +3615,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B151" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -3536,10 +3626,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B152" t="s">
-        <v>133</v>
+        <v>233</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -3547,10 +3637,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B153" t="s">
-        <v>197</v>
+        <v>233</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -3558,10 +3648,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B154" t="s">
-        <v>115</v>
+        <v>239</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -3569,10 +3659,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B155" t="s">
-        <v>129</v>
+        <v>241</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -3580,10 +3670,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B156" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -3591,10 +3681,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B157" t="s">
-        <v>176</v>
+        <v>241</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -3602,10 +3692,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B158" t="s">
-        <v>115</v>
+        <v>246</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -3613,10 +3703,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B159" t="s">
-        <v>176</v>
+        <v>248</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -3624,10 +3714,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B160" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -3635,10 +3725,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B161" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -3646,10 +3736,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B162" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -3657,10 +3747,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B163" t="s">
-        <v>170</v>
+        <v>254</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -3668,10 +3758,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
+        <v>255</v>
+      </c>
+      <c r="B164" t="s">
         <v>256</v>
-      </c>
-      <c r="B164" t="s">
-        <v>170</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -3704,7 +3794,7 @@
         <v>261</v>
       </c>
       <c r="B167" t="s">
-        <v>168</v>
+        <v>262</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -3712,10 +3802,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B168" t="s">
-        <v>138</v>
+        <v>264</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -3723,10 +3813,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B169" t="s">
-        <v>178</v>
+        <v>266</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -3734,10 +3824,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B170" t="s">
-        <v>135</v>
+        <v>268</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -3745,10 +3835,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B171" t="s">
-        <v>138</v>
+        <v>270</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -3756,10 +3846,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B172" t="s">
-        <v>168</v>
+        <v>270</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -3767,10 +3857,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B173" t="s">
-        <v>260</v>
+        <v>163</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -3778,10 +3868,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B174" t="s">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -3789,10 +3879,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B175" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -3800,10 +3890,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B176" t="s">
-        <v>197</v>
+        <v>159</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -3811,10 +3901,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B177" t="s">
-        <v>142</v>
+        <v>277</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -3822,10 +3912,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B178" t="s">
-        <v>173</v>
+        <v>206</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -3833,10 +3923,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B179" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -3844,10 +3934,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B180" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -3855,10 +3945,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B181" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -3866,7 +3956,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="B182" t="s">
         <v>277</v>
@@ -3877,10 +3967,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B183" t="s">
-        <v>115</v>
+        <v>282</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -3888,10 +3978,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="B184" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -3899,10 +3989,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="B185" t="s">
-        <v>138</v>
+        <v>200</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -3910,10 +4000,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="B186" t="s">
-        <v>185</v>
+        <v>288</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -3921,10 +4011,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="B187" t="s">
-        <v>142</v>
+        <v>290</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -3932,10 +4022,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B188" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -3943,10 +4033,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="B189" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -3954,10 +4044,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="B190" t="s">
-        <v>146</v>
+        <v>208</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -3965,10 +4055,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="B191" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -3976,10 +4066,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="B192" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -3987,10 +4077,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="B193" t="s">
-        <v>289</v>
+        <v>198</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -3998,10 +4088,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
+        <v>297</v>
+      </c>
+      <c r="B194" t="s">
         <v>290</v>
-      </c>
-      <c r="B194" t="s">
-        <v>289</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -4009,10 +4099,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B195" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -4020,10 +4110,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="B196" t="s">
-        <v>293</v>
+        <v>145</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -4031,10 +4121,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B197" t="s">
-        <v>148</v>
+        <v>227</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -4042,10 +4132,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="B198" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -4053,10 +4143,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B199" t="s">
-        <v>168</v>
+        <v>203</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -4064,10 +4154,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="B200" t="s">
-        <v>260</v>
+        <v>159</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -4075,10 +4165,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="B201" t="s">
-        <v>168</v>
+        <v>227</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -4086,10 +4176,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="B202" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -4097,10 +4187,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="B203" t="s">
-        <v>170</v>
+        <v>307</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -4108,10 +4198,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="B204" t="s">
-        <v>302</v>
+        <v>145</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -4119,10 +4209,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="B205" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -4130,10 +4220,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B206" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -4141,10 +4231,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="B207" t="s">
-        <v>146</v>
+        <v>215</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -4152,10 +4242,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="B208" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -4163,10 +4253,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="B209" t="s">
-        <v>113</v>
+        <v>208</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -4174,10 +4264,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="B210" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -4185,10 +4275,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="B211" t="s">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -4196,10 +4286,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="B212" t="s">
-        <v>122</v>
+        <v>198</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -4207,10 +4297,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B213" t="s">
-        <v>83</v>
+        <v>176</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -4218,10 +4308,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="B214" t="s">
-        <v>126</v>
+        <v>319</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -4229,10 +4319,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="B215" t="s">
-        <v>126</v>
+        <v>319</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -4240,10 +4330,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="B216" t="s">
-        <v>75</v>
+        <v>319</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -4251,10 +4341,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="B217" t="s">
-        <v>75</v>
+        <v>323</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -4262,10 +4352,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="B218" t="s">
-        <v>75</v>
+        <v>178</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -4273,10 +4363,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="B219" t="s">
-        <v>83</v>
+        <v>198</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -4284,10 +4374,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B220" t="s">
-        <v>105</v>
+        <v>198</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -4295,10 +4385,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="B221" t="s">
-        <v>126</v>
+        <v>290</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -4306,10 +4396,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="B222" t="s">
-        <v>102</v>
+        <v>198</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -4317,10 +4407,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="B223" t="s">
-        <v>86</v>
+        <v>198</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -4328,10 +4418,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="B224" t="s">
-        <v>323</v>
+        <v>200</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -4339,10 +4429,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="B225" t="s">
-        <v>92</v>
+        <v>332</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -4350,10 +4440,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="B226" t="s">
-        <v>71</v>
+        <v>288</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -4361,10 +4451,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="B227" t="s">
-        <v>327</v>
+        <v>194</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -4372,10 +4462,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="B228" t="s">
-        <v>92</v>
+        <v>176</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -4383,10 +4473,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="B229" t="s">
-        <v>88</v>
+        <v>227</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -4394,10 +4484,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="B230" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -4405,10 +4495,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="B231" t="s">
-        <v>126</v>
+        <v>282</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -4416,10 +4506,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="B232" t="s">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -4427,10 +4517,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="B233" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -4438,10 +4528,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="B234" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -4449,10 +4539,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="B235" t="s">
-        <v>252</v>
+        <v>156</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -4460,10 +4550,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="B236" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -4471,7 +4561,7 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="B237" t="s">
         <v>105</v>
@@ -4482,10 +4572,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="B238" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -4493,10 +4583,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="B239" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -4504,10 +4594,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="B240" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -4515,10 +4605,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="B241" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -4526,10 +4616,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="B242" t="s">
-        <v>247</v>
+        <v>156</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -4537,10 +4627,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="B243" t="s">
-        <v>176</v>
+        <v>132</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -4548,10 +4638,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="B244" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -4559,10 +4649,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="B245" t="s">
-        <v>152</v>
+        <v>353</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -4570,10 +4660,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="B246" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -4581,10 +4671,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="B247" t="s">
-        <v>176</v>
+        <v>101</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -4592,10 +4682,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="B248" t="s">
-        <v>252</v>
+        <v>357</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -4603,10 +4693,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="B249" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -4614,10 +4704,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="B250" t="s">
-        <v>351</v>
+        <v>118</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -4625,10 +4715,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="B251" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -4636,10 +4726,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="B252" t="s">
-        <v>107</v>
+        <v>156</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -4647,10 +4737,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="B253" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -4658,10 +4748,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="B254" t="s">
-        <v>197</v>
+        <v>156</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -4669,10 +4759,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="B255" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -4680,10 +4770,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="B256" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -4691,10 +4781,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="B257" t="s">
-        <v>359</v>
+        <v>163</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -4702,10 +4792,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="B258" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -4713,10 +4803,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="B259" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -4724,10 +4814,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="B260" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -4735,10 +4825,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="B261" t="s">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -4746,10 +4836,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="B262" t="s">
-        <v>105</v>
+        <v>163</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -4757,10 +4847,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="B263" t="s">
-        <v>359</v>
+        <v>277</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -4768,10 +4858,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="B264" t="s">
-        <v>79</v>
+        <v>206</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -4779,10 +4869,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="B265" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -4790,10 +4880,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="B266" t="s">
-        <v>129</v>
+        <v>182</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -4801,10 +4891,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="B267" t="s">
-        <v>122</v>
+        <v>176</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -4812,10 +4902,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="B268" t="s">
-        <v>95</v>
+        <v>206</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -4823,10 +4913,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="B269" t="s">
-        <v>102</v>
+        <v>282</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -4834,10 +4924,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="B270" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -4845,10 +4935,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="B271" t="s">
-        <v>79</v>
+        <v>381</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -4856,10 +4946,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="B272" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -4867,10 +4957,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="B273" t="s">
-        <v>376</v>
+        <v>137</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -4878,10 +4968,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="B274" t="s">
-        <v>71</v>
+        <v>159</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -4889,10 +4979,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="B275" t="s">
-        <v>88</v>
+        <v>227</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -4900,10 +4990,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="B276" t="s">
-        <v>68</v>
+        <v>165</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -4911,10 +5001,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="B277" t="s">
-        <v>323</v>
+        <v>282</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -4922,10 +5012,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="B278" t="s">
-        <v>323</v>
+        <v>389</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -4933,10 +5023,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="B279" t="s">
-        <v>327</v>
+        <v>137</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -4944,10 +5034,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="B280" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -4955,10 +5045,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="B281" t="s">
-        <v>197</v>
+        <v>135</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -4966,10 +5056,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="B282" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -4977,10 +5067,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="B283" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -4988,10 +5078,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="B284" t="s">
-        <v>260</v>
+        <v>389</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -4999,10 +5089,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="B285" t="s">
-        <v>389</v>
+        <v>109</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -5010,10 +5100,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="B286" t="s">
-        <v>391</v>
+        <v>165</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -5021,10 +5111,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="B287" t="s">
-        <v>393</v>
+        <v>159</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -5032,10 +5122,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="B288" t="s">
-        <v>395</v>
+        <v>152</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -5043,10 +5133,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B289" t="s">
-        <v>395</v>
+        <v>125</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -5054,10 +5144,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B290" t="s">
-        <v>395</v>
+        <v>132</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -5065,10 +5155,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B291" t="s">
-        <v>399</v>
+        <v>118</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -5076,10 +5166,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B292" t="s">
-        <v>401</v>
+        <v>109</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -5087,10 +5177,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B293" t="s">
-        <v>213</v>
+        <v>113</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -5098,10 +5188,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B294" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -5109,10 +5199,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B295" t="s">
-        <v>405</v>
+        <v>101</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -5120,10 +5210,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B296" t="s">
-        <v>405</v>
+        <v>118</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -5131,10 +5221,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B297" t="s">
-        <v>408</v>
+        <v>98</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -5142,10 +5232,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B298" t="s">
-        <v>389</v>
+        <v>353</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -5153,10 +5243,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B299" t="s">
-        <v>408</v>
+        <v>353</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -5164,10 +5254,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B300" t="s">
-        <v>389</v>
+        <v>357</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -5175,10 +5265,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B301" t="s">
-        <v>413</v>
+        <v>156</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
@@ -5189,7 +5279,7 @@
         <v>414</v>
       </c>
       <c r="B302" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
@@ -5200,7 +5290,7 @@
         <v>415</v>
       </c>
       <c r="B303" t="s">
-        <v>293</v>
+        <v>147</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
@@ -5211,7 +5301,7 @@
         <v>416</v>
       </c>
       <c r="B304" t="s">
-        <v>417</v>
+        <v>178</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
@@ -5219,10 +5309,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B305" t="s">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="C305" t="s">
         <v>5</v>
@@ -5230,10 +5320,10 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
+        <v>418</v>
+      </c>
+      <c r="B306" t="s">
         <v>419</v>
-      </c>
-      <c r="B306" t="s">
-        <v>240</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
@@ -5244,7 +5334,7 @@
         <v>420</v>
       </c>
       <c r="B307" t="s">
-        <v>293</v>
+        <v>421</v>
       </c>
       <c r="C307" t="s">
         <v>5</v>
@@ -5252,10 +5342,10 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B308" t="s">
-        <v>205</v>
+        <v>423</v>
       </c>
       <c r="C308" t="s">
         <v>5</v>
@@ -5263,10 +5353,10 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B309" t="s">
-        <v>389</v>
+        <v>425</v>
       </c>
       <c r="C309" t="s">
         <v>5</v>
@@ -5274,10 +5364,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B310" t="s">
-        <v>405</v>
+        <v>425</v>
       </c>
       <c r="C310" t="s">
         <v>5</v>
@@ -5285,7 +5375,7 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B311" t="s">
         <v>425</v>
@@ -5296,10 +5386,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B312" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C312" t="s">
         <v>5</v>
@@ -5307,10 +5397,10 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B313" t="s">
-        <v>405</v>
+        <v>431</v>
       </c>
       <c r="C313" t="s">
         <v>5</v>
@@ -5318,10 +5408,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B314" t="s">
-        <v>430</v>
+        <v>243</v>
       </c>
       <c r="C314" t="s">
         <v>5</v>
@@ -5329,10 +5419,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
+        <v>433</v>
+      </c>
+      <c r="B315" t="s">
         <v>431</v>
-      </c>
-      <c r="B315" t="s">
-        <v>432</v>
       </c>
       <c r="C315" t="s">
         <v>5</v>
@@ -5340,10 +5430,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B316" t="s">
-        <v>220</v>
+        <v>435</v>
       </c>
       <c r="C316" t="s">
         <v>5</v>
@@ -5351,10 +5441,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B317" t="s">
-        <v>399</v>
+        <v>435</v>
       </c>
       <c r="C317" t="s">
         <v>5</v>
@@ -5362,10 +5452,10 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B318" t="s">
-        <v>399</v>
+        <v>438</v>
       </c>
       <c r="C318" t="s">
         <v>5</v>
@@ -5373,10 +5463,10 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B319" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C319" t="s">
         <v>5</v>
@@ -5384,10 +5474,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
+        <v>440</v>
+      </c>
+      <c r="B320" t="s">
         <v>438</v>
-      </c>
-      <c r="B320" t="s">
-        <v>164</v>
       </c>
       <c r="C320" t="s">
         <v>5</v>
@@ -5395,10 +5485,10 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B321" t="s">
-        <v>205</v>
+        <v>419</v>
       </c>
       <c r="C321" t="s">
         <v>5</v>
@@ -5406,10 +5496,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B322" t="s">
-        <v>161</v>
+        <v>443</v>
       </c>
       <c r="C322" t="s">
         <v>5</v>
@@ -5417,10 +5507,10 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B323" t="s">
-        <v>442</v>
+        <v>235</v>
       </c>
       <c r="C323" t="s">
         <v>5</v>
@@ -5428,10 +5518,10 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B324" t="s">
-        <v>200</v>
+        <v>323</v>
       </c>
       <c r="C324" t="s">
         <v>5</v>
@@ -5439,10 +5529,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B325" t="s">
-        <v>260</v>
+        <v>447</v>
       </c>
       <c r="C325" t="s">
         <v>5</v>
@@ -5450,10 +5540,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B326" t="s">
-        <v>197</v>
+        <v>230</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
@@ -5461,10 +5551,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B327" t="s">
-        <v>197</v>
+        <v>270</v>
       </c>
       <c r="C327" t="s">
         <v>5</v>
@@ -5472,10 +5562,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B328" t="s">
-        <v>197</v>
+        <v>323</v>
       </c>
       <c r="C328" t="s">
         <v>5</v>
@@ -5483,10 +5573,10 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B329" t="s">
-        <v>105</v>
+        <v>235</v>
       </c>
       <c r="C329" t="s">
         <v>5</v>
@@ -5494,10 +5584,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B330" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
@@ -5505,10 +5595,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B331" t="s">
-        <v>122</v>
+        <v>435</v>
       </c>
       <c r="C331" t="s">
         <v>5</v>
@@ -5516,10 +5606,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B332" t="s">
-        <v>81</v>
+        <v>455</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
@@ -5527,10 +5617,10 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B333" t="s">
-        <v>126</v>
+        <v>457</v>
       </c>
       <c r="C333" t="s">
         <v>5</v>
@@ -5538,10 +5628,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="B334" t="s">
-        <v>351</v>
+        <v>435</v>
       </c>
       <c r="C334" t="s">
         <v>5</v>
@@ -5549,10 +5639,10 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="B335" t="s">
-        <v>277</v>
+        <v>460</v>
       </c>
       <c r="C335" t="s">
         <v>5</v>
@@ -5560,10 +5650,10 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="B336" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="C336" t="s">
         <v>5</v>
@@ -5571,10 +5661,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="B337" t="s">
-        <v>129</v>
+        <v>250</v>
       </c>
       <c r="C337" t="s">
         <v>5</v>
@@ -5582,10 +5672,10 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="B338" t="s">
-        <v>109</v>
+        <v>429</v>
       </c>
       <c r="C338" t="s">
         <v>5</v>
@@ -5593,10 +5683,10 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="B339" t="s">
-        <v>107</v>
+        <v>429</v>
       </c>
       <c r="C339" t="s">
         <v>5</v>
@@ -5604,10 +5694,10 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="B340" t="s">
-        <v>247</v>
+        <v>467</v>
       </c>
       <c r="C340" t="s">
         <v>5</v>
@@ -5615,10 +5705,10 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="B341" t="s">
-        <v>129</v>
+        <v>194</v>
       </c>
       <c r="C341" t="s">
         <v>5</v>
@@ -5626,10 +5716,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="B342" t="s">
-        <v>107</v>
+        <v>235</v>
       </c>
       <c r="C342" t="s">
         <v>5</v>
@@ -5637,10 +5727,10 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="B343" t="s">
-        <v>105</v>
+        <v>191</v>
       </c>
       <c r="C343" t="s">
         <v>5</v>
@@ -5648,10 +5738,10 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="B344" t="s">
-        <v>359</v>
+        <v>472</v>
       </c>
       <c r="C344" t="s">
         <v>5</v>
@@ -5659,10 +5749,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="B345" t="s">
-        <v>81</v>
+        <v>230</v>
       </c>
       <c r="C345" t="s">
         <v>5</v>
@@ -5670,10 +5760,10 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="B346" t="s">
-        <v>359</v>
+        <v>290</v>
       </c>
       <c r="C346" t="s">
         <v>5</v>
@@ -5681,10 +5771,10 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="B347" t="s">
-        <v>109</v>
+        <v>227</v>
       </c>
       <c r="C347" t="s">
         <v>5</v>
@@ -5692,10 +5782,10 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="B348" t="s">
-        <v>111</v>
+        <v>227</v>
       </c>
       <c r="C348" t="s">
         <v>5</v>
@@ -5703,10 +5793,10 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="B349" t="s">
-        <v>351</v>
+        <v>227</v>
       </c>
       <c r="C349" t="s">
         <v>5</v>
@@ -5714,10 +5804,10 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="B350" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="C350" t="s">
         <v>5</v>
@@ -5725,10 +5815,10 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="B351" t="s">
-        <v>115</v>
+        <v>389</v>
       </c>
       <c r="C351" t="s">
         <v>5</v>
@@ -5736,10 +5826,10 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="B352" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="C352" t="s">
         <v>5</v>
@@ -5747,10 +5837,10 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="B353" t="s">
-        <v>173</v>
+        <v>111</v>
       </c>
       <c r="C353" t="s">
         <v>5</v>
@@ -5758,10 +5848,10 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="B354" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="C354" t="s">
         <v>5</v>
@@ -5769,10 +5859,10 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="B355" t="s">
-        <v>197</v>
+        <v>381</v>
       </c>
       <c r="C355" t="s">
         <v>5</v>
@@ -5780,10 +5870,10 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="B356" t="s">
-        <v>113</v>
+        <v>307</v>
       </c>
       <c r="C356" t="s">
         <v>5</v>
@@ -5791,10 +5881,10 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="B357" t="s">
-        <v>109</v>
+        <v>486</v>
       </c>
       <c r="C357" t="s">
         <v>5</v>
@@ -5802,10 +5892,10 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="B358" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="C358" t="s">
         <v>5</v>
@@ -5813,10 +5903,10 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="B359" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="C359" t="s">
         <v>5</v>
@@ -5824,10 +5914,10 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="B360" t="s">
-        <v>289</v>
+        <v>137</v>
       </c>
       <c r="C360" t="s">
         <v>5</v>
@@ -5835,10 +5925,10 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="B361" t="s">
-        <v>161</v>
+        <v>277</v>
       </c>
       <c r="C361" t="s">
         <v>5</v>
@@ -5846,10 +5936,10 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="B362" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C362" t="s">
         <v>5</v>
@@ -5857,10 +5947,10 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="B363" t="s">
-        <v>302</v>
+        <v>137</v>
       </c>
       <c r="C363" t="s">
         <v>5</v>
@@ -5868,10 +5958,10 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="B364" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="C364" t="s">
         <v>5</v>
@@ -5879,10 +5969,10 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="B365" t="s">
-        <v>197</v>
+        <v>389</v>
       </c>
       <c r="C365" t="s">
         <v>5</v>
@@ -5890,10 +5980,10 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="B366" t="s">
-        <v>197</v>
+        <v>111</v>
       </c>
       <c r="C366" t="s">
         <v>5</v>
@@ -5901,10 +5991,10 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="B367" t="s">
-        <v>117</v>
+        <v>389</v>
       </c>
       <c r="C367" t="s">
         <v>5</v>
@@ -5912,10 +6002,10 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="B368" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C368" t="s">
         <v>5</v>
@@ -5923,10 +6013,10 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="B369" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c r="C369" t="s">
         <v>5</v>
@@ -5934,10 +6024,10 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="B370" t="s">
-        <v>173</v>
+        <v>381</v>
       </c>
       <c r="C370" t="s">
         <v>5</v>
@@ -5945,10 +6035,10 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="B371" t="s">
-        <v>176</v>
+        <v>111</v>
       </c>
       <c r="C371" t="s">
         <v>5</v>
@@ -5956,10 +6046,10 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="B372" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="C372" t="s">
         <v>5</v>
@@ -5967,10 +6057,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="B373" t="s">
-        <v>185</v>
+        <v>139</v>
       </c>
       <c r="C373" t="s">
         <v>5</v>
@@ -5978,10 +6068,10 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="B374" t="s">
-        <v>117</v>
+        <v>203</v>
       </c>
       <c r="C374" t="s">
         <v>5</v>
@@ -5989,10 +6079,10 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="B375" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C375" t="s">
         <v>5</v>
@@ -6000,10 +6090,10 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="B376" t="s">
-        <v>170</v>
+        <v>227</v>
       </c>
       <c r="C376" t="s">
         <v>5</v>
@@ -6011,10 +6101,10 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="B377" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C377" t="s">
         <v>5</v>
@@ -6022,10 +6112,10 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="B378" t="s">
-        <v>499</v>
+        <v>139</v>
       </c>
       <c r="C378" t="s">
         <v>5</v>
@@ -6033,10 +6123,10 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="B379" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C379" t="s">
         <v>5</v>
@@ -6044,10 +6134,10 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="B380" t="s">
-        <v>302</v>
+        <v>187</v>
       </c>
       <c r="C380" t="s">
         <v>5</v>
@@ -6055,10 +6145,10 @@
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="B381" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="C381" t="s">
         <v>5</v>
@@ -6066,10 +6156,10 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="B382" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="C382" t="s">
         <v>5</v>
@@ -6077,10 +6167,10 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="B383" t="s">
-        <v>302</v>
+        <v>191</v>
       </c>
       <c r="C383" t="s">
         <v>5</v>
@@ -6088,10 +6178,10 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="B384" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
       <c r="C384" t="s">
         <v>5</v>
@@ -6099,10 +6189,10 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="B385" t="s">
-        <v>258</v>
+        <v>200</v>
       </c>
       <c r="C385" t="s">
         <v>5</v>
@@ -6110,10 +6200,10 @@
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="B386" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="C386" t="s">
         <v>5</v>
@@ -6121,10 +6211,10 @@
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="B387" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="C387" t="s">
         <v>5</v>
@@ -6132,12 +6222,243 @@
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="B388" t="s">
-        <v>258</v>
+        <v>147</v>
       </c>
       <c r="C388" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s">
+        <v>518</v>
+      </c>
+      <c r="B389" t="s">
+        <v>165</v>
+      </c>
+      <c r="C389" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s">
+        <v>519</v>
+      </c>
+      <c r="B390" t="s">
+        <v>215</v>
+      </c>
+      <c r="C390" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s">
+        <v>520</v>
+      </c>
+      <c r="B391" t="s">
+        <v>203</v>
+      </c>
+      <c r="C391" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="s">
+        <v>521</v>
+      </c>
+      <c r="B392" t="s">
+        <v>206</v>
+      </c>
+      <c r="C392" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="s">
+        <v>522</v>
+      </c>
+      <c r="B393" t="s">
+        <v>143</v>
+      </c>
+      <c r="C393" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s">
+        <v>523</v>
+      </c>
+      <c r="B394" t="s">
+        <v>215</v>
+      </c>
+      <c r="C394" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s">
+        <v>524</v>
+      </c>
+      <c r="B395" t="s">
+        <v>147</v>
+      </c>
+      <c r="C395" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s">
+        <v>525</v>
+      </c>
+      <c r="B396" t="s">
+        <v>215</v>
+      </c>
+      <c r="C396" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s">
+        <v>526</v>
+      </c>
+      <c r="B397" t="s">
+        <v>200</v>
+      </c>
+      <c r="C397" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s">
+        <v>527</v>
+      </c>
+      <c r="B398" t="s">
+        <v>178</v>
+      </c>
+      <c r="C398" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s">
+        <v>528</v>
+      </c>
+      <c r="B399" t="s">
+        <v>529</v>
+      </c>
+      <c r="C399" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s">
+        <v>530</v>
+      </c>
+      <c r="B400" t="s">
+        <v>168</v>
+      </c>
+      <c r="C400" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s">
+        <v>531</v>
+      </c>
+      <c r="B401" t="s">
+        <v>332</v>
+      </c>
+      <c r="C401" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s">
+        <v>532</v>
+      </c>
+      <c r="B402" t="s">
+        <v>332</v>
+      </c>
+      <c r="C402" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="s">
+        <v>533</v>
+      </c>
+      <c r="B403" t="s">
+        <v>194</v>
+      </c>
+      <c r="C403" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="s">
+        <v>534</v>
+      </c>
+      <c r="B404" t="s">
+        <v>332</v>
+      </c>
+      <c r="C404" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="s">
+        <v>535</v>
+      </c>
+      <c r="B405" t="s">
+        <v>332</v>
+      </c>
+      <c r="C405" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="s">
+        <v>536</v>
+      </c>
+      <c r="B406" t="s">
+        <v>288</v>
+      </c>
+      <c r="C406" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="s">
+        <v>537</v>
+      </c>
+      <c r="B407" t="s">
+        <v>288</v>
+      </c>
+      <c r="C407" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="s">
+        <v>538</v>
+      </c>
+      <c r="B408" t="s">
+        <v>288</v>
+      </c>
+      <c r="C408" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="s">
+        <v>539</v>
+      </c>
+      <c r="B409" t="s">
+        <v>288</v>
+      </c>
+      <c r="C409" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink Asia Dividend Advantage.xlsx
+++ b/data/GreatLink/GreatLink Asia Dividend Advantage.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid697504"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid385379"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="569">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,15 +26,132 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>07/01/2026</t>
+  </si>
+  <si>
+    <t>1.077</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>06/01/2026</t>
+  </si>
+  <si>
+    <t>1.075</t>
+  </si>
+  <si>
+    <t>05/01/2026</t>
+  </si>
+  <si>
+    <t>1.076</t>
+  </si>
+  <si>
+    <t>02/01/2026</t>
+  </si>
+  <si>
+    <t>1.064</t>
+  </si>
+  <si>
+    <t>31/12/2025</t>
+  </si>
+  <si>
+    <t>1.049</t>
+  </si>
+  <si>
+    <t>30/12/2025</t>
+  </si>
+  <si>
+    <t>1.051</t>
+  </si>
+  <si>
+    <t>29/12/2025</t>
+  </si>
+  <si>
+    <t>1.044</t>
+  </si>
+  <si>
+    <t>26/12/2025</t>
+  </si>
+  <si>
+    <t>24/12/2025</t>
+  </si>
+  <si>
+    <t>23/12/2025</t>
+  </si>
+  <si>
+    <t>22/12/2025</t>
+  </si>
+  <si>
+    <t>1.045</t>
+  </si>
+  <si>
+    <t>19/12/2025</t>
+  </si>
+  <si>
+    <t>1.041</t>
+  </si>
+  <si>
+    <t>18/12/2025</t>
+  </si>
+  <si>
+    <t>1.036</t>
+  </si>
+  <si>
+    <t>17/12/2025</t>
+  </si>
+  <si>
+    <t>1.040</t>
+  </si>
+  <si>
+    <t>16/12/2025</t>
+  </si>
+  <si>
+    <t>1.034</t>
+  </si>
+  <si>
+    <t>15/12/2025</t>
+  </si>
+  <si>
+    <t>12/12/2025</t>
+  </si>
+  <si>
+    <t>11/12/2025</t>
+  </si>
+  <si>
+    <t>1.038</t>
+  </si>
+  <si>
+    <t>10/12/2025</t>
+  </si>
+  <si>
+    <t>1.050</t>
+  </si>
+  <si>
+    <t>09/12/2025</t>
+  </si>
+  <si>
+    <t>08/12/2025</t>
+  </si>
+  <si>
+    <t>1.059</t>
+  </si>
+  <si>
+    <t>05/12/2025</t>
+  </si>
+  <si>
+    <t>1.056</t>
+  </si>
+  <si>
+    <t>04/12/2025</t>
+  </si>
+  <si>
+    <t>1.052</t>
+  </si>
+  <si>
     <t>03/12/2025</t>
   </si>
   <si>
-    <t>1.052</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>02/12/2025</t>
   </si>
   <si>
@@ -50,21 +167,12 @@
     <t>28/11/2025</t>
   </si>
   <si>
-    <t>1.045</t>
-  </si>
-  <si>
     <t>27/11/2025</t>
   </si>
   <si>
-    <t>1.049</t>
-  </si>
-  <si>
     <t>26/11/2025</t>
   </si>
   <si>
-    <t>1.044</t>
-  </si>
-  <si>
     <t>25/11/2025</t>
   </si>
   <si>
@@ -92,9 +200,6 @@
     <t>19/11/2025</t>
   </si>
   <si>
-    <t>1.038</t>
-  </si>
-  <si>
     <t>18/11/2025</t>
   </si>
   <si>
@@ -104,24 +209,15 @@
     <t>17/11/2025</t>
   </si>
   <si>
-    <t>1.059</t>
-  </si>
-  <si>
     <t>14/11/2025</t>
   </si>
   <si>
     <t>13/11/2025</t>
   </si>
   <si>
-    <t>1.075</t>
-  </si>
-  <si>
     <t>12/11/2025</t>
   </si>
   <si>
-    <t>1.076</t>
-  </si>
-  <si>
     <t>11/11/2025</t>
   </si>
   <si>
@@ -176,9 +272,6 @@
     <t>28/10/2025</t>
   </si>
   <si>
-    <t>1.051</t>
-  </si>
-  <si>
     <t>27/10/2025</t>
   </si>
   <si>
@@ -239,9 +332,6 @@
     <t>08/10/2025</t>
   </si>
   <si>
-    <t>1.040</t>
-  </si>
-  <si>
     <t>07/10/2025</t>
   </si>
   <si>
@@ -249,9 +339,6 @@
   </si>
   <si>
     <t>03/10/2025</t>
-  </si>
-  <si>
-    <t>1.036</t>
   </si>
   <si>
     <t>02/10/2025</t>
@@ -2056,7 +2143,7 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -2064,10 +2151,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -2075,10 +2162,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -2086,10 +2173,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -2097,10 +2184,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -2108,10 +2195,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -2119,10 +2206,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -2130,10 +2217,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -2141,10 +2228,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -2152,10 +2239,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -2163,10 +2250,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -2174,10 +2261,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -2185,10 +2272,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -2196,10 +2283,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -2207,10 +2294,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -2218,10 +2305,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -2229,10 +2316,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -2240,10 +2327,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -2251,10 +2338,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -2262,10 +2349,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -2273,10 +2360,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -2284,10 +2371,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -2295,10 +2382,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -2306,10 +2393,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -2317,10 +2404,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B33" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -2328,10 +2415,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -2339,10 +2426,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -2350,10 +2437,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -2361,10 +2448,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B37" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -2372,10 +2459,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -2383,10 +2470,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -2394,10 +2481,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -2405,10 +2492,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B41" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -2416,10 +2503,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -2427,10 +2514,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B43" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -2438,10 +2525,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B44" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -2449,10 +2536,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -2460,10 +2547,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B46" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -2471,10 +2558,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B47" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -2482,10 +2569,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B48" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -2493,10 +2580,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B49" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -2504,10 +2591,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B50" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -2515,10 +2602,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B51" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -2526,10 +2613,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B52" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -2537,10 +2624,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B53" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -2548,10 +2635,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B54" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -2559,10 +2646,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B55" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -2570,10 +2657,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B56" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -2581,10 +2668,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B57" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -2592,10 +2679,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B58" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -2603,10 +2690,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>95</v>
+      </c>
+      <c r="B59" t="s">
         <v>96</v>
-      </c>
-      <c r="B59" t="s">
-        <v>65</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -2628,7 +2715,7 @@
         <v>99</v>
       </c>
       <c r="B61" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -2636,10 +2723,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B62" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -2647,10 +2734,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B63" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -2661,7 +2748,7 @@
         <v>104</v>
       </c>
       <c r="B64" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -2669,10 +2756,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B65" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -2680,10 +2767,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B66" t="s">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -2691,10 +2778,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B67" t="s">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -2702,10 +2789,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B68" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -2713,10 +2800,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B69" t="s">
-        <v>113</v>
+        <v>55</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -2724,10 +2811,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B70" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -2735,10 +2822,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B71" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -2746,10 +2833,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B72" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -2757,10 +2844,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B73" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -2768,10 +2855,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B74" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -2779,10 +2866,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B75" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -2790,10 +2877,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B76" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -2801,10 +2888,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B77" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -2812,10 +2899,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B78" t="s">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -2823,10 +2910,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B79" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -2834,10 +2921,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B80" t="s">
-        <v>132</v>
+        <v>55</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -2845,10 +2932,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B81" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -2856,10 +2943,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B82" t="s">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -2867,10 +2954,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B83" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -2878,10 +2965,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B84" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -2889,10 +2976,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="B85" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -2900,10 +2987,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B86" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -2911,10 +2998,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B87" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -2922,10 +3009,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="B88" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -2933,10 +3020,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="B89" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -2944,10 +3031,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="B90" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -2955,10 +3042,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B91" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -2966,10 +3053,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B92" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -2977,10 +3064,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B93" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -2988,10 +3075,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B94" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -2999,10 +3086,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B95" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -3010,10 +3097,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B96" t="s">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -3021,10 +3108,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B97" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -3032,10 +3119,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B98" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -3043,10 +3130,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B99" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -3054,10 +3141,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B100" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -3065,10 +3152,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B101" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -3076,10 +3163,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B102" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -3087,10 +3174,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B103" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -3098,10 +3185,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B104" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -3109,10 +3196,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B105" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -3120,10 +3207,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B106" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -3131,10 +3218,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B107" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -3142,10 +3229,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B108" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -3153,10 +3240,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B109" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -3164,10 +3251,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B110" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -3175,10 +3262,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B111" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -3186,10 +3273,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B112" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -3197,10 +3284,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B113" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -3208,10 +3295,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B114" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -3219,10 +3306,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B115" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -3230,10 +3317,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B116" t="s">
-        <v>182</v>
+        <v>140</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -3241,10 +3328,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B117" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -3252,10 +3339,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B118" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -3263,10 +3350,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B119" t="s">
-        <v>178</v>
+        <v>136</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -3274,10 +3361,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B120" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -3285,7 +3372,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B121" t="s">
         <v>168</v>
@@ -3296,10 +3383,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B122" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -3307,10 +3394,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B123" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -3318,10 +3405,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B124" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -3329,10 +3416,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B125" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -3340,10 +3427,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B126" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -3351,10 +3438,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B127" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -3362,10 +3449,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B128" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -3373,10 +3460,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B129" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -3384,10 +3471,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B130" t="s">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -3395,10 +3482,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B131" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -3406,10 +3493,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B132" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -3417,10 +3504,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B133" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -3428,10 +3515,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B134" t="s">
-        <v>178</v>
+        <v>211</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -3439,10 +3526,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B135" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -3450,10 +3537,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B136" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -3461,10 +3548,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B137" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -3472,10 +3559,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B138" t="s">
-        <v>168</v>
+        <v>216</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -3483,10 +3570,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B139" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -3494,10 +3581,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B140" t="s">
-        <v>168</v>
+        <v>203</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -3505,10 +3592,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B141" t="s">
-        <v>147</v>
+        <v>220</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -3516,10 +3603,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B142" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -3527,10 +3614,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
+        <v>222</v>
+      </c>
+      <c r="B143" t="s">
         <v>223</v>
-      </c>
-      <c r="B143" t="s">
-        <v>147</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -3541,7 +3628,7 @@
         <v>224</v>
       </c>
       <c r="B144" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -3552,7 +3639,7 @@
         <v>225</v>
       </c>
       <c r="B145" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -3574,7 +3661,7 @@
         <v>228</v>
       </c>
       <c r="B147" t="s">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -3582,10 +3669,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B148" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -3596,7 +3683,7 @@
         <v>231</v>
       </c>
       <c r="B149" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -3604,10 +3691,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B150" t="s">
-        <v>233</v>
+        <v>192</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -3629,7 +3716,7 @@
         <v>236</v>
       </c>
       <c r="B152" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -3637,10 +3724,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B153" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -3648,10 +3735,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B154" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -3662,7 +3749,7 @@
         <v>240</v>
       </c>
       <c r="B155" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -3670,10 +3757,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B156" t="s">
-        <v>243</v>
+        <v>207</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -3681,10 +3768,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B157" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -3692,10 +3779,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B158" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -3703,10 +3790,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B159" t="s">
-        <v>248</v>
+        <v>201</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -3714,10 +3801,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B160" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -3725,10 +3812,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B161" t="s">
-        <v>250</v>
+        <v>197</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -3736,10 +3823,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B162" t="s">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -3747,10 +3834,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B163" t="s">
-        <v>254</v>
+        <v>197</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -3758,10 +3845,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B164" t="s">
-        <v>256</v>
+        <v>176</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -3769,10 +3856,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B165" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -3780,10 +3867,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B166" t="s">
-        <v>260</v>
+        <v>176</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -3791,10 +3878,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B167" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -3802,10 +3889,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B168" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -3813,10 +3900,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="B169" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -3824,10 +3911,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="B170" t="s">
-        <v>268</v>
+        <v>227</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -3835,10 +3922,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="B171" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -3846,10 +3933,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="B172" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -3857,10 +3944,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="B173" t="s">
-        <v>163</v>
+        <v>262</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -3868,10 +3955,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="B174" t="s">
-        <v>227</v>
+        <v>264</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -3879,10 +3966,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B175" t="s">
-        <v>145</v>
+        <v>262</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -3890,10 +3977,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B176" t="s">
-        <v>159</v>
+        <v>262</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -3901,10 +3988,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="B177" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -3912,10 +3999,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="B178" t="s">
-        <v>206</v>
+        <v>270</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -3923,10 +4010,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B179" t="s">
-        <v>145</v>
+        <v>272</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -3934,10 +4021,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B180" t="s">
-        <v>206</v>
+        <v>270</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -3945,10 +4032,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B181" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -3956,7 +4043,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B182" t="s">
         <v>277</v>
@@ -3967,10 +4054,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B183" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -3978,10 +4065,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B184" t="s">
-        <v>200</v>
+        <v>279</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -3989,10 +4076,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B185" t="s">
-        <v>200</v>
+        <v>279</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -4000,10 +4087,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B186" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -4011,10 +4098,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B187" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -4022,10 +4109,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B188" t="s">
-        <v>198</v>
+        <v>287</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -4033,10 +4120,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B189" t="s">
-        <v>168</v>
+        <v>289</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -4044,10 +4131,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B190" t="s">
-        <v>208</v>
+        <v>291</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -4055,10 +4142,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B191" t="s">
-        <v>165</v>
+        <v>293</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -4066,10 +4153,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
+        <v>294</v>
+      </c>
+      <c r="B192" t="s">
         <v>295</v>
-      </c>
-      <c r="B192" t="s">
-        <v>168</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -4080,7 +4167,7 @@
         <v>296</v>
       </c>
       <c r="B193" t="s">
-        <v>198</v>
+        <v>297</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -4088,10 +4175,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B194" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -4099,10 +4186,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B195" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -4110,10 +4197,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B196" t="s">
-        <v>145</v>
+        <v>192</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -4121,10 +4208,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B197" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -4132,10 +4219,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B198" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -4143,10 +4230,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B199" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -4154,10 +4241,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B200" t="s">
-        <v>159</v>
+        <v>306</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -4165,10 +4252,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B201" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -4176,10 +4263,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B202" t="s">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -4187,10 +4274,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B203" t="s">
-        <v>307</v>
+        <v>235</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -4198,10 +4285,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B204" t="s">
-        <v>145</v>
+        <v>311</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -4209,10 +4296,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B205" t="s">
-        <v>227</v>
+        <v>306</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -4220,10 +4307,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B206" t="s">
-        <v>168</v>
+        <v>311</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -4231,10 +4318,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B207" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -4242,10 +4329,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B208" t="s">
-        <v>172</v>
+        <v>229</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -4253,10 +4340,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B209" t="s">
-        <v>208</v>
+        <v>317</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -4264,10 +4351,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B210" t="s">
-        <v>227</v>
+        <v>319</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -4275,10 +4362,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="B211" t="s">
-        <v>176</v>
+        <v>227</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -4286,10 +4373,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="B212" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -4297,10 +4384,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="B213" t="s">
-        <v>176</v>
+        <v>237</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -4308,10 +4395,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="B214" t="s">
-        <v>319</v>
+        <v>194</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -4319,10 +4406,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B215" t="s">
-        <v>319</v>
+        <v>197</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -4330,10 +4417,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B216" t="s">
-        <v>319</v>
+        <v>227</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -4341,10 +4428,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B217" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -4352,10 +4439,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B218" t="s">
-        <v>178</v>
+        <v>319</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -4363,10 +4450,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B219" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -4374,10 +4461,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B220" t="s">
-        <v>198</v>
+        <v>256</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -4385,10 +4472,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B221" t="s">
-        <v>290</v>
+        <v>201</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -4396,10 +4483,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B222" t="s">
-        <v>198</v>
+        <v>232</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -4407,10 +4494,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B223" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -4418,10 +4505,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B224" t="s">
-        <v>200</v>
+        <v>256</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -4429,10 +4516,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B225" t="s">
-        <v>332</v>
+        <v>170</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -4440,10 +4527,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B226" t="s">
-        <v>288</v>
+        <v>336</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -4451,10 +4538,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B227" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -4462,10 +4549,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B228" t="s">
-        <v>176</v>
+        <v>256</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -4473,10 +4560,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B229" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -4484,10 +4571,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B230" t="s">
-        <v>143</v>
+        <v>244</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -4495,10 +4582,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B231" t="s">
-        <v>282</v>
+        <v>201</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -4506,10 +4593,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B232" t="s">
-        <v>163</v>
+        <v>237</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -4517,10 +4604,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B233" t="s">
-        <v>152</v>
+        <v>256</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -4528,10 +4615,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B234" t="s">
-        <v>113</v>
+        <v>205</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -4539,10 +4626,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B235" t="s">
-        <v>156</v>
+        <v>227</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -4550,10 +4637,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B236" t="s">
-        <v>156</v>
+        <v>205</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -4561,10 +4648,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B237" t="s">
-        <v>105</v>
+        <v>348</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -4572,10 +4659,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B238" t="s">
-        <v>105</v>
+        <v>348</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -4583,10 +4670,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B239" t="s">
-        <v>105</v>
+        <v>348</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -4594,10 +4681,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B240" t="s">
-        <v>113</v>
+        <v>352</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -4605,10 +4692,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="B241" t="s">
-        <v>135</v>
+        <v>207</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -4616,10 +4703,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B242" t="s">
-        <v>156</v>
+        <v>227</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -4627,10 +4714,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="B243" t="s">
-        <v>132</v>
+        <v>227</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -4638,10 +4725,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B244" t="s">
-        <v>116</v>
+        <v>319</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -4649,10 +4736,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="B245" t="s">
-        <v>353</v>
+        <v>227</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -4660,10 +4747,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B246" t="s">
-        <v>122</v>
+        <v>227</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -4671,10 +4758,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B247" t="s">
-        <v>101</v>
+        <v>229</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -4682,10 +4769,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B248" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -4693,10 +4780,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B249" t="s">
-        <v>122</v>
+        <v>317</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -4704,10 +4791,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B250" t="s">
-        <v>118</v>
+        <v>223</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -4715,10 +4802,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B251" t="s">
-        <v>129</v>
+        <v>205</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -4726,10 +4813,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B252" t="s">
-        <v>156</v>
+        <v>256</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -4737,10 +4824,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B253" t="s">
-        <v>107</v>
+        <v>172</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -4748,10 +4835,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B254" t="s">
-        <v>156</v>
+        <v>311</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -4759,10 +4846,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B255" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -4770,10 +4857,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B256" t="s">
-        <v>282</v>
+        <v>181</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -4781,10 +4868,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B257" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -4792,10 +4879,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B258" t="s">
-        <v>135</v>
+        <v>185</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -4803,10 +4890,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B259" t="s">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -4814,10 +4901,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B260" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -4825,10 +4912,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B261" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -4836,10 +4923,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B262" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -4847,10 +4934,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B263" t="s">
-        <v>277</v>
+        <v>142</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -4858,10 +4945,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B264" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -4869,10 +4956,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B265" t="s">
-        <v>147</v>
+        <v>185</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -4880,10 +4967,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B266" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -4891,10 +4978,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B267" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -4902,10 +4989,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B268" t="s">
-        <v>206</v>
+        <v>382</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -4913,10 +5000,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="B269" t="s">
-        <v>282</v>
+        <v>151</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -4924,10 +5011,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="B270" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -4935,10 +5022,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="B271" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -4946,10 +5033,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="B272" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -4957,10 +5044,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="B273" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -4968,10 +5055,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="B274" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -4979,10 +5066,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="B275" t="s">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -4990,10 +5077,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="B276" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -5001,10 +5088,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="B277" t="s">
-        <v>282</v>
+        <v>185</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -5012,10 +5099,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="B278" t="s">
-        <v>389</v>
+        <v>166</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -5023,10 +5110,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B279" t="s">
-        <v>137</v>
+        <v>311</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -5034,10 +5121,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B280" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -5045,10 +5132,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B281" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -5056,10 +5143,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B282" t="s">
-        <v>109</v>
+        <v>168</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -5067,10 +5154,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B283" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -5078,10 +5165,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B284" t="s">
-        <v>389</v>
+        <v>168</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -5089,10 +5176,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B285" t="s">
-        <v>109</v>
+        <v>192</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -5100,10 +5187,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B286" t="s">
-        <v>165</v>
+        <v>306</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -5111,10 +5198,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B287" t="s">
-        <v>159</v>
+        <v>235</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -5122,10 +5209,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B288" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -5133,10 +5220,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B289" t="s">
-        <v>125</v>
+        <v>211</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -5144,10 +5231,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B290" t="s">
-        <v>132</v>
+        <v>205</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -5155,10 +5242,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B291" t="s">
-        <v>118</v>
+        <v>235</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -5166,10 +5253,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B292" t="s">
-        <v>109</v>
+        <v>311</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -5177,10 +5264,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B293" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -5188,10 +5275,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B294" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -5199,10 +5286,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B295" t="s">
-        <v>101</v>
+        <v>164</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -5210,10 +5297,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B296" t="s">
-        <v>118</v>
+        <v>166</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -5221,10 +5308,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B297" t="s">
-        <v>98</v>
+        <v>188</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -5232,10 +5319,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B298" t="s">
-        <v>353</v>
+        <v>256</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -5243,10 +5330,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B299" t="s">
-        <v>353</v>
+        <v>194</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -5254,10 +5341,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B300" t="s">
-        <v>357</v>
+        <v>311</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -5265,10 +5352,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B301" t="s">
-        <v>156</v>
+        <v>418</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
@@ -5276,10 +5363,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="B302" t="s">
-        <v>227</v>
+        <v>166</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
@@ -5287,10 +5374,10 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="B303" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
@@ -5298,10 +5385,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="B304" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
@@ -5309,10 +5396,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="B305" t="s">
-        <v>290</v>
+        <v>138</v>
       </c>
       <c r="C305" t="s">
         <v>5</v>
@@ -5320,10 +5407,10 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="B306" t="s">
-        <v>419</v>
+        <v>164</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
@@ -5331,10 +5418,10 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B307" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C307" t="s">
         <v>5</v>
@@ -5342,10 +5429,10 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B308" t="s">
-        <v>423</v>
+        <v>138</v>
       </c>
       <c r="C308" t="s">
         <v>5</v>
@@ -5353,10 +5440,10 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B309" t="s">
-        <v>425</v>
+        <v>194</v>
       </c>
       <c r="C309" t="s">
         <v>5</v>
@@ -5364,10 +5451,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B310" t="s">
-        <v>425</v>
+        <v>188</v>
       </c>
       <c r="C310" t="s">
         <v>5</v>
@@ -5375,10 +5462,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B311" t="s">
-        <v>425</v>
+        <v>181</v>
       </c>
       <c r="C311" t="s">
         <v>5</v>
@@ -5386,10 +5473,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B312" t="s">
-        <v>429</v>
+        <v>154</v>
       </c>
       <c r="C312" t="s">
         <v>5</v>
@@ -5400,7 +5487,7 @@
         <v>430</v>
       </c>
       <c r="B313" t="s">
-        <v>431</v>
+        <v>161</v>
       </c>
       <c r="C313" t="s">
         <v>5</v>
@@ -5408,10 +5495,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B314" t="s">
-        <v>243</v>
+        <v>147</v>
       </c>
       <c r="C314" t="s">
         <v>5</v>
@@ -5419,10 +5506,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B315" t="s">
-        <v>431</v>
+        <v>138</v>
       </c>
       <c r="C315" t="s">
         <v>5</v>
@@ -5430,10 +5517,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B316" t="s">
-        <v>435</v>
+        <v>142</v>
       </c>
       <c r="C316" t="s">
         <v>5</v>
@@ -5441,7 +5528,7 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B317" t="s">
         <v>435</v>
@@ -5452,10 +5539,10 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B318" t="s">
-        <v>438</v>
+        <v>130</v>
       </c>
       <c r="C318" t="s">
         <v>5</v>
@@ -5463,10 +5550,10 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B319" t="s">
-        <v>419</v>
+        <v>147</v>
       </c>
       <c r="C319" t="s">
         <v>5</v>
@@ -5474,10 +5561,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B320" t="s">
-        <v>438</v>
+        <v>127</v>
       </c>
       <c r="C320" t="s">
         <v>5</v>
@@ -5485,10 +5572,10 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B321" t="s">
-        <v>419</v>
+        <v>382</v>
       </c>
       <c r="C321" t="s">
         <v>5</v>
@@ -5496,10 +5583,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B322" t="s">
-        <v>443</v>
+        <v>382</v>
       </c>
       <c r="C322" t="s">
         <v>5</v>
@@ -5507,10 +5594,10 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B323" t="s">
-        <v>235</v>
+        <v>386</v>
       </c>
       <c r="C323" t="s">
         <v>5</v>
@@ -5518,10 +5605,10 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B324" t="s">
-        <v>323</v>
+        <v>185</v>
       </c>
       <c r="C324" t="s">
         <v>5</v>
@@ -5529,10 +5616,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B325" t="s">
-        <v>447</v>
+        <v>256</v>
       </c>
       <c r="C325" t="s">
         <v>5</v>
@@ -5540,10 +5627,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B326" t="s">
-        <v>230</v>
+        <v>176</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
@@ -5551,10 +5638,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B327" t="s">
-        <v>270</v>
+        <v>207</v>
       </c>
       <c r="C327" t="s">
         <v>5</v>
@@ -5562,10 +5649,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B328" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C328" t="s">
         <v>5</v>
@@ -5573,10 +5660,10 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B329" t="s">
-        <v>235</v>
+        <v>448</v>
       </c>
       <c r="C329" t="s">
         <v>5</v>
@@ -5584,10 +5671,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B330" t="s">
-        <v>419</v>
+        <v>450</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
@@ -5595,10 +5682,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B331" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="C331" t="s">
         <v>5</v>
@@ -5606,10 +5693,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
+        <v>453</v>
+      </c>
+      <c r="B332" t="s">
         <v>454</v>
-      </c>
-      <c r="B332" t="s">
-        <v>455</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
@@ -5617,10 +5704,10 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B333" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C333" t="s">
         <v>5</v>
@@ -5628,10 +5715,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B334" t="s">
-        <v>435</v>
+        <v>454</v>
       </c>
       <c r="C334" t="s">
         <v>5</v>
@@ -5639,10 +5726,10 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B335" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C335" t="s">
         <v>5</v>
@@ -5650,10 +5737,10 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B336" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C336" t="s">
         <v>5</v>
@@ -5661,10 +5748,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B337" t="s">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="C337" t="s">
         <v>5</v>
@@ -5672,10 +5759,10 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B338" t="s">
-        <v>429</v>
+        <v>460</v>
       </c>
       <c r="C338" t="s">
         <v>5</v>
@@ -5683,10 +5770,10 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B339" t="s">
-        <v>429</v>
+        <v>464</v>
       </c>
       <c r="C339" t="s">
         <v>5</v>
@@ -5694,10 +5781,10 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B340" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C340" t="s">
         <v>5</v>
@@ -5705,10 +5792,10 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B341" t="s">
-        <v>194</v>
+        <v>467</v>
       </c>
       <c r="C341" t="s">
         <v>5</v>
@@ -5716,10 +5803,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B342" t="s">
-        <v>235</v>
+        <v>448</v>
       </c>
       <c r="C342" t="s">
         <v>5</v>
@@ -5727,10 +5814,10 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B343" t="s">
-        <v>191</v>
+        <v>467</v>
       </c>
       <c r="C343" t="s">
         <v>5</v>
@@ -5738,10 +5825,10 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B344" t="s">
-        <v>472</v>
+        <v>448</v>
       </c>
       <c r="C344" t="s">
         <v>5</v>
@@ -5749,10 +5836,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B345" t="s">
-        <v>230</v>
+        <v>472</v>
       </c>
       <c r="C345" t="s">
         <v>5</v>
@@ -5760,10 +5847,10 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B346" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="C346" t="s">
         <v>5</v>
@@ -5771,10 +5858,10 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B347" t="s">
-        <v>227</v>
+        <v>352</v>
       </c>
       <c r="C347" t="s">
         <v>5</v>
@@ -5782,10 +5869,10 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
+        <v>475</v>
+      </c>
+      <c r="B348" t="s">
         <v>476</v>
-      </c>
-      <c r="B348" t="s">
-        <v>227</v>
       </c>
       <c r="C348" t="s">
         <v>5</v>
@@ -5796,7 +5883,7 @@
         <v>477</v>
       </c>
       <c r="B349" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="C349" t="s">
         <v>5</v>
@@ -5807,7 +5894,7 @@
         <v>478</v>
       </c>
       <c r="B350" t="s">
-        <v>135</v>
+        <v>299</v>
       </c>
       <c r="C350" t="s">
         <v>5</v>
@@ -5818,7 +5905,7 @@
         <v>479</v>
       </c>
       <c r="B351" t="s">
-        <v>389</v>
+        <v>352</v>
       </c>
       <c r="C351" t="s">
         <v>5</v>
@@ -5829,7 +5916,7 @@
         <v>480</v>
       </c>
       <c r="B352" t="s">
-        <v>152</v>
+        <v>264</v>
       </c>
       <c r="C352" t="s">
         <v>5</v>
@@ -5840,7 +5927,7 @@
         <v>481</v>
       </c>
       <c r="B353" t="s">
-        <v>111</v>
+        <v>448</v>
       </c>
       <c r="C353" t="s">
         <v>5</v>
@@ -5851,7 +5938,7 @@
         <v>482</v>
       </c>
       <c r="B354" t="s">
-        <v>156</v>
+        <v>464</v>
       </c>
       <c r="C354" t="s">
         <v>5</v>
@@ -5862,7 +5949,7 @@
         <v>483</v>
       </c>
       <c r="B355" t="s">
-        <v>381</v>
+        <v>484</v>
       </c>
       <c r="C355" t="s">
         <v>5</v>
@@ -5870,10 +5957,10 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B356" t="s">
-        <v>307</v>
+        <v>486</v>
       </c>
       <c r="C356" t="s">
         <v>5</v>
@@ -5881,10 +5968,10 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B357" t="s">
-        <v>486</v>
+        <v>464</v>
       </c>
       <c r="C357" t="s">
         <v>5</v>
@@ -5892,10 +5979,10 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B358" t="s">
-        <v>159</v>
+        <v>489</v>
       </c>
       <c r="C358" t="s">
         <v>5</v>
@@ -5903,10 +5990,10 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B359" t="s">
-        <v>139</v>
+        <v>491</v>
       </c>
       <c r="C359" t="s">
         <v>5</v>
@@ -5914,10 +6001,10 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B360" t="s">
-        <v>137</v>
+        <v>279</v>
       </c>
       <c r="C360" t="s">
         <v>5</v>
@@ -5925,10 +6012,10 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B361" t="s">
-        <v>277</v>
+        <v>458</v>
       </c>
       <c r="C361" t="s">
         <v>5</v>
@@ -5936,10 +6023,10 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B362" t="s">
-        <v>159</v>
+        <v>458</v>
       </c>
       <c r="C362" t="s">
         <v>5</v>
@@ -5947,10 +6034,10 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B363" t="s">
-        <v>137</v>
+        <v>496</v>
       </c>
       <c r="C363" t="s">
         <v>5</v>
@@ -5958,10 +6045,10 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="B364" t="s">
-        <v>135</v>
+        <v>223</v>
       </c>
       <c r="C364" t="s">
         <v>5</v>
@@ -5969,10 +6056,10 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="B365" t="s">
-        <v>389</v>
+        <v>264</v>
       </c>
       <c r="C365" t="s">
         <v>5</v>
@@ -5980,10 +6067,10 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="B366" t="s">
-        <v>111</v>
+        <v>220</v>
       </c>
       <c r="C366" t="s">
         <v>5</v>
@@ -5991,10 +6078,10 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="B367" t="s">
-        <v>389</v>
+        <v>501</v>
       </c>
       <c r="C367" t="s">
         <v>5</v>
@@ -6002,10 +6089,10 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="B368" t="s">
-        <v>139</v>
+        <v>259</v>
       </c>
       <c r="C368" t="s">
         <v>5</v>
@@ -6013,10 +6100,10 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="B369" t="s">
-        <v>141</v>
+        <v>319</v>
       </c>
       <c r="C369" t="s">
         <v>5</v>
@@ -6024,10 +6111,10 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="B370" t="s">
-        <v>381</v>
+        <v>256</v>
       </c>
       <c r="C370" t="s">
         <v>5</v>
@@ -6035,10 +6122,10 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="B371" t="s">
-        <v>111</v>
+        <v>256</v>
       </c>
       <c r="C371" t="s">
         <v>5</v>
@@ -6046,10 +6133,10 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="B372" t="s">
-        <v>145</v>
+        <v>256</v>
       </c>
       <c r="C372" t="s">
         <v>5</v>
@@ -6057,10 +6144,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="B373" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="C373" t="s">
         <v>5</v>
@@ -6068,10 +6155,10 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="B374" t="s">
-        <v>203</v>
+        <v>418</v>
       </c>
       <c r="C374" t="s">
         <v>5</v>
@@ -6079,10 +6166,10 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="B375" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C375" t="s">
         <v>5</v>
@@ -6090,10 +6177,10 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="B376" t="s">
-        <v>227</v>
+        <v>140</v>
       </c>
       <c r="C376" t="s">
         <v>5</v>
@@ -6101,10 +6188,10 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B377" t="s">
-        <v>143</v>
+        <v>185</v>
       </c>
       <c r="C377" t="s">
         <v>5</v>
@@ -6112,10 +6199,10 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="B378" t="s">
-        <v>139</v>
+        <v>410</v>
       </c>
       <c r="C378" t="s">
         <v>5</v>
@@ -6123,10 +6210,10 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="B379" t="s">
-        <v>145</v>
+        <v>336</v>
       </c>
       <c r="C379" t="s">
         <v>5</v>
@@ -6134,10 +6221,10 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="B380" t="s">
-        <v>187</v>
+        <v>515</v>
       </c>
       <c r="C380" t="s">
         <v>5</v>
@@ -6145,10 +6232,10 @@
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="B381" t="s">
-        <v>319</v>
+        <v>188</v>
       </c>
       <c r="C381" t="s">
         <v>5</v>
@@ -6156,10 +6243,10 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="B382" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="C382" t="s">
         <v>5</v>
@@ -6167,10 +6254,10 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="B383" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="C383" t="s">
         <v>5</v>
@@ -6178,10 +6265,10 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="B384" t="s">
-        <v>332</v>
+        <v>306</v>
       </c>
       <c r="C384" t="s">
         <v>5</v>
@@ -6189,10 +6276,10 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="B385" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="C385" t="s">
         <v>5</v>
@@ -6200,10 +6287,10 @@
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="B386" t="s">
-        <v>227</v>
+        <v>166</v>
       </c>
       <c r="C386" t="s">
         <v>5</v>
@@ -6211,10 +6298,10 @@
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="B387" t="s">
-        <v>227</v>
+        <v>164</v>
       </c>
       <c r="C387" t="s">
         <v>5</v>
@@ -6222,10 +6309,10 @@
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="B388" t="s">
-        <v>147</v>
+        <v>418</v>
       </c>
       <c r="C388" t="s">
         <v>5</v>
@@ -6233,10 +6320,10 @@
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="B389" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="C389" t="s">
         <v>5</v>
@@ -6244,10 +6331,10 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="B390" t="s">
-        <v>215</v>
+        <v>418</v>
       </c>
       <c r="C390" t="s">
         <v>5</v>
@@ -6255,10 +6342,10 @@
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="B391" t="s">
-        <v>203</v>
+        <v>168</v>
       </c>
       <c r="C391" t="s">
         <v>5</v>
@@ -6266,10 +6353,10 @@
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="B392" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="C392" t="s">
         <v>5</v>
@@ -6277,10 +6364,10 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="B393" t="s">
-        <v>143</v>
+        <v>410</v>
       </c>
       <c r="C393" t="s">
         <v>5</v>
@@ -6288,10 +6375,10 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="B394" t="s">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="C394" t="s">
         <v>5</v>
@@ -6299,10 +6386,10 @@
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="B395" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="C395" t="s">
         <v>5</v>
@@ -6310,10 +6397,10 @@
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="B396" t="s">
-        <v>215</v>
+        <v>168</v>
       </c>
       <c r="C396" t="s">
         <v>5</v>
@@ -6321,10 +6408,10 @@
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="B397" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="C397" t="s">
         <v>5</v>
@@ -6332,10 +6419,10 @@
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="B398" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="C398" t="s">
         <v>5</v>
@@ -6343,10 +6430,10 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="B399" t="s">
-        <v>529</v>
+        <v>256</v>
       </c>
       <c r="C399" t="s">
         <v>5</v>
@@ -6354,10 +6441,10 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="B400" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C400" t="s">
         <v>5</v>
@@ -6365,10 +6452,10 @@
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="B401" t="s">
-        <v>332</v>
+        <v>168</v>
       </c>
       <c r="C401" t="s">
         <v>5</v>
@@ -6376,10 +6463,10 @@
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="B402" t="s">
-        <v>332</v>
+        <v>174</v>
       </c>
       <c r="C402" t="s">
         <v>5</v>
@@ -6387,10 +6474,10 @@
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="B403" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="C403" t="s">
         <v>5</v>
@@ -6398,10 +6485,10 @@
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="B404" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="C404" t="s">
         <v>5</v>
@@ -6409,10 +6496,10 @@
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="B405" t="s">
-        <v>332</v>
+        <v>220</v>
       </c>
       <c r="C405" t="s">
         <v>5</v>
@@ -6420,10 +6507,10 @@
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="B406" t="s">
-        <v>288</v>
+        <v>220</v>
       </c>
       <c r="C406" t="s">
         <v>5</v>
@@ -6431,10 +6518,10 @@
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="B407" t="s">
-        <v>288</v>
+        <v>361</v>
       </c>
       <c r="C407" t="s">
         <v>5</v>
@@ -6442,10 +6529,10 @@
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="B408" t="s">
-        <v>288</v>
+        <v>229</v>
       </c>
       <c r="C408" t="s">
         <v>5</v>
@@ -6453,12 +6540,265 @@
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B409" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="C409" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="s">
+        <v>545</v>
+      </c>
+      <c r="B410" t="s">
+        <v>256</v>
+      </c>
+      <c r="C410" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="s">
+        <v>546</v>
+      </c>
+      <c r="B411" t="s">
+        <v>176</v>
+      </c>
+      <c r="C411" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="s">
+        <v>547</v>
+      </c>
+      <c r="B412" t="s">
+        <v>194</v>
+      </c>
+      <c r="C412" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="s">
+        <v>548</v>
+      </c>
+      <c r="B413" t="s">
+        <v>244</v>
+      </c>
+      <c r="C413" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="s">
+        <v>549</v>
+      </c>
+      <c r="B414" t="s">
+        <v>232</v>
+      </c>
+      <c r="C414" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="s">
+        <v>550</v>
+      </c>
+      <c r="B415" t="s">
+        <v>235</v>
+      </c>
+      <c r="C415" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="s">
+        <v>551</v>
+      </c>
+      <c r="B416" t="s">
+        <v>172</v>
+      </c>
+      <c r="C416" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="s">
+        <v>552</v>
+      </c>
+      <c r="B417" t="s">
+        <v>244</v>
+      </c>
+      <c r="C417" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="s">
+        <v>553</v>
+      </c>
+      <c r="B418" t="s">
+        <v>176</v>
+      </c>
+      <c r="C418" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="s">
+        <v>554</v>
+      </c>
+      <c r="B419" t="s">
+        <v>244</v>
+      </c>
+      <c r="C419" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="s">
+        <v>555</v>
+      </c>
+      <c r="B420" t="s">
+        <v>229</v>
+      </c>
+      <c r="C420" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="s">
+        <v>556</v>
+      </c>
+      <c r="B421" t="s">
+        <v>207</v>
+      </c>
+      <c r="C421" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="s">
+        <v>557</v>
+      </c>
+      <c r="B422" t="s">
+        <v>558</v>
+      </c>
+      <c r="C422" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="s">
+        <v>559</v>
+      </c>
+      <c r="B423" t="s">
+        <v>197</v>
+      </c>
+      <c r="C423" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="s">
+        <v>560</v>
+      </c>
+      <c r="B424" t="s">
+        <v>361</v>
+      </c>
+      <c r="C424" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="s">
+        <v>561</v>
+      </c>
+      <c r="B425" t="s">
+        <v>361</v>
+      </c>
+      <c r="C425" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="s">
+        <v>562</v>
+      </c>
+      <c r="B426" t="s">
+        <v>223</v>
+      </c>
+      <c r="C426" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="s">
+        <v>563</v>
+      </c>
+      <c r="B427" t="s">
+        <v>361</v>
+      </c>
+      <c r="C427" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="s">
+        <v>564</v>
+      </c>
+      <c r="B428" t="s">
+        <v>361</v>
+      </c>
+      <c r="C428" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="s">
+        <v>565</v>
+      </c>
+      <c r="B429" t="s">
+        <v>317</v>
+      </c>
+      <c r="C429" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="s">
+        <v>566</v>
+      </c>
+      <c r="B430" t="s">
+        <v>317</v>
+      </c>
+      <c r="C430" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="s">
+        <v>567</v>
+      </c>
+      <c r="B431" t="s">
+        <v>317</v>
+      </c>
+      <c r="C431" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="s">
+        <v>568</v>
+      </c>
+      <c r="B432" t="s">
+        <v>317</v>
+      </c>
+      <c r="C432" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink Asia Dividend Advantage.xlsx
+++ b/data/GreatLink/GreatLink Asia Dividend Advantage.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid385379"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid106247"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="593">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,27 +26,114 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>02/02/2026</t>
+  </si>
+  <si>
+    <t>1.071</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>30/01/2026</t>
+  </si>
+  <si>
+    <t>29/01/2026</t>
+  </si>
+  <si>
+    <t>1.076</t>
+  </si>
+  <si>
+    <t>28/01/2026</t>
+  </si>
+  <si>
+    <t>1.075</t>
+  </si>
+  <si>
+    <t>27/01/2026</t>
+  </si>
+  <si>
+    <t>1.066</t>
+  </si>
+  <si>
+    <t>26/01/2026</t>
+  </si>
+  <si>
+    <t>1.058</t>
+  </si>
+  <si>
+    <t>23/01/2026</t>
+  </si>
+  <si>
+    <t>1.061</t>
+  </si>
+  <si>
+    <t>22/01/2026</t>
+  </si>
+  <si>
+    <t>1.059</t>
+  </si>
+  <si>
+    <t>21/01/2026</t>
+  </si>
+  <si>
+    <t>1.057</t>
+  </si>
+  <si>
+    <t>20/01/2026</t>
+  </si>
+  <si>
+    <t>1.067</t>
+  </si>
+  <si>
+    <t>19/01/2026</t>
+  </si>
+  <si>
+    <t>1.073</t>
+  </si>
+  <si>
+    <t>16/01/2026</t>
+  </si>
+  <si>
+    <t>1.077</t>
+  </si>
+  <si>
+    <t>15/01/2026</t>
+  </si>
+  <si>
+    <t>1.069</t>
+  </si>
+  <si>
+    <t>14/01/2026</t>
+  </si>
+  <si>
+    <t>1.072</t>
+  </si>
+  <si>
+    <t>13/01/2026</t>
+  </si>
+  <si>
+    <t>1.080</t>
+  </si>
+  <si>
+    <t>12/01/2026</t>
+  </si>
+  <si>
+    <t>09/01/2026</t>
+  </si>
+  <si>
+    <t>08/01/2026</t>
+  </si>
+  <si>
     <t>07/01/2026</t>
   </si>
   <si>
-    <t>1.077</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>06/01/2026</t>
   </si>
   <si>
-    <t>1.075</t>
-  </si>
-  <si>
     <t>05/01/2026</t>
   </si>
   <si>
-    <t>1.076</t>
-  </si>
-  <si>
     <t>02/01/2026</t>
   </si>
   <si>
@@ -134,9 +221,6 @@
     <t>08/12/2025</t>
   </si>
   <si>
-    <t>1.059</t>
-  </si>
-  <si>
     <t>05/12/2025</t>
   </si>
   <si>
@@ -221,9 +305,6 @@
     <t>11/11/2025</t>
   </si>
   <si>
-    <t>1.067</t>
-  </si>
-  <si>
     <t>10/11/2025</t>
   </si>
   <si>
@@ -236,18 +317,12 @@
     <t>06/11/2025</t>
   </si>
   <si>
-    <t>1.061</t>
-  </si>
-  <si>
     <t>05/11/2025</t>
   </si>
   <si>
     <t>04/11/2025</t>
   </si>
   <si>
-    <t>1.057</t>
-  </si>
-  <si>
     <t>03/11/2025</t>
   </si>
   <si>
@@ -258,9 +333,6 @@
   </si>
   <si>
     <t>30/10/2025</t>
-  </si>
-  <si>
-    <t>1.058</t>
   </si>
   <si>
     <t>29/10/2025</t>
@@ -2077,7 +2149,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -2085,10 +2157,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -2096,10 +2168,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -2107,10 +2179,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2118,10 +2190,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2129,10 +2201,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
         <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2140,10 +2212,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
         <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -2154,7 +2226,7 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -2162,10 +2234,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -2173,10 +2245,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -2184,10 +2256,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -2195,10 +2267,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -2206,10 +2278,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -2217,10 +2289,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -2228,10 +2300,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -2239,10 +2311,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -2250,10 +2322,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -2261,10 +2333,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -2275,7 +2347,7 @@
         <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -2286,7 +2358,7 @@
         <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -2294,10 +2366,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" t="s">
         <v>40</v>
-      </c>
-      <c r="B23" t="s">
-        <v>41</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -2305,10 +2377,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" t="s">
         <v>42</v>
-      </c>
-      <c r="B24" t="s">
-        <v>43</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -2316,10 +2388,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" t="s">
         <v>44</v>
-      </c>
-      <c r="B25" t="s">
-        <v>43</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -2341,7 +2413,7 @@
         <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -2349,10 +2421,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -2360,10 +2432,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -2371,10 +2443,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" t="s">
         <v>51</v>
-      </c>
-      <c r="B30" t="s">
-        <v>17</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -2429,7 +2501,7 @@
         <v>60</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -2440,7 +2512,7 @@
         <v>61</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -2448,10 +2520,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" t="s">
         <v>63</v>
-      </c>
-      <c r="B37" t="s">
-        <v>39</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -2462,7 +2534,7 @@
         <v>64</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -2470,10 +2542,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" t="s">
         <v>65</v>
-      </c>
-      <c r="B39" t="s">
-        <v>7</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -2481,10 +2553,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -2492,10 +2564,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B41" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -2503,10 +2575,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B42" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -2514,10 +2586,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" t="s">
         <v>71</v>
-      </c>
-      <c r="B43" t="s">
-        <v>43</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -2525,10 +2597,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B44" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -2536,10 +2608,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -2547,10 +2619,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B46" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -2558,10 +2630,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B47" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -2569,10 +2641,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B48" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -2605,7 +2677,7 @@
         <v>84</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -2613,10 +2685,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B52" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -2624,10 +2696,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B53" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -2635,10 +2707,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B54" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -2646,10 +2718,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -2657,10 +2729,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B56" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -2668,10 +2740,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B57" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -2679,10 +2751,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B58" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -2693,7 +2765,7 @@
         <v>95</v>
       </c>
       <c r="B59" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -2701,10 +2773,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>96</v>
+      </c>
+      <c r="B60" t="s">
         <v>97</v>
-      </c>
-      <c r="B60" t="s">
-        <v>98</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -2712,10 +2784,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B61" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -2723,10 +2795,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B62" t="s">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -2734,10 +2806,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B63" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -2745,10 +2817,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B64" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -2756,10 +2828,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B65" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -2767,10 +2839,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -2778,10 +2850,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B67" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -2789,10 +2861,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B68" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -2800,10 +2872,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B69" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -2811,10 +2883,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
+        <v>109</v>
+      </c>
+      <c r="B70" t="s">
         <v>110</v>
-      </c>
-      <c r="B70" t="s">
-        <v>111</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -2822,10 +2894,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B71" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -2833,10 +2905,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B72" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -2844,10 +2916,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B73" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -2855,10 +2927,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B74" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -2866,10 +2938,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B75" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -2877,10 +2949,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B76" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -2888,10 +2960,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
+        <v>119</v>
+      </c>
+      <c r="B77" t="s">
         <v>120</v>
-      </c>
-      <c r="B77" t="s">
-        <v>55</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -2902,7 +2974,7 @@
         <v>121</v>
       </c>
       <c r="B78" t="s">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -2910,10 +2982,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B79" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -2921,10 +2993,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B80" t="s">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -2932,10 +3004,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B81" t="s">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -2943,10 +3015,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B82" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -2954,10 +3026,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B83" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -2965,10 +3037,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B84" t="s">
-        <v>127</v>
+        <v>63</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -2976,10 +3048,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B85" t="s">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -2987,10 +3059,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B86" t="s">
-        <v>132</v>
+        <v>46</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -3001,7 +3073,7 @@
         <v>133</v>
       </c>
       <c r="B87" t="s">
-        <v>134</v>
+        <v>83</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -3009,10 +3081,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
+        <v>134</v>
+      </c>
+      <c r="B88" t="s">
         <v>135</v>
-      </c>
-      <c r="B88" t="s">
-        <v>136</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -3020,10 +3092,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B89" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -3031,10 +3103,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B90" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -3042,10 +3114,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B91" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -3053,10 +3125,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B92" t="s">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -3064,10 +3136,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B93" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -3075,10 +3147,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B94" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -3086,10 +3158,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B95" t="s">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -3097,10 +3169,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B96" t="s">
-        <v>151</v>
+        <v>55</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -3108,10 +3180,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B97" t="s">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -3119,10 +3191,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B98" t="s">
-        <v>154</v>
+        <v>83</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -3130,10 +3202,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B99" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -3141,10 +3213,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B100" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -3152,10 +3224,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B101" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -3163,10 +3235,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B102" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -3174,10 +3246,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B103" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -3185,10 +3257,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B104" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -3196,10 +3268,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B105" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -3207,10 +3279,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B106" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -3218,10 +3290,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B107" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -3229,10 +3301,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B108" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -3240,10 +3312,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B109" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -3251,10 +3323,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B110" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -3262,10 +3334,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B111" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -3273,10 +3345,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B112" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -3284,10 +3356,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B113" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -3295,10 +3367,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B114" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -3306,10 +3378,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B115" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -3317,10 +3389,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B116" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -3328,10 +3400,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B117" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -3339,10 +3411,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B118" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -3350,10 +3422,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B119" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -3361,10 +3433,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B120" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -3372,10 +3444,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B121" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -3383,10 +3455,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B122" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -3394,10 +3466,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B123" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -3405,10 +3477,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B124" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -3416,10 +3488,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B125" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -3427,10 +3499,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B126" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -3438,10 +3510,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B127" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -3449,10 +3521,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B128" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -3460,10 +3532,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B129" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -3471,10 +3543,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B130" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -3482,10 +3554,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B131" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -3493,10 +3565,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B132" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -3504,7 +3576,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B133" t="s">
         <v>205</v>
@@ -3515,10 +3587,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B134" t="s">
-        <v>211</v>
+        <v>164</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -3526,10 +3598,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B135" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -3537,10 +3609,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B136" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -3548,10 +3620,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B137" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -3559,10 +3631,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B138" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -3570,10 +3642,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B139" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -3581,10 +3653,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B140" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -3592,10 +3664,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B141" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -3603,10 +3675,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B142" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -3614,10 +3686,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B143" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -3625,10 +3697,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B144" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -3636,10 +3708,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B145" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -3647,10 +3719,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B146" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -3658,10 +3730,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B147" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -3669,10 +3741,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B148" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -3680,10 +3752,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
+        <v>230</v>
+      </c>
+      <c r="B149" t="s">
         <v>231</v>
-      </c>
-      <c r="B149" t="s">
-        <v>232</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -3691,10 +3763,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B150" t="s">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -3702,10 +3774,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B151" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -3713,10 +3785,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B152" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -3724,10 +3796,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B153" t="s">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -3735,10 +3807,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B154" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -3746,10 +3818,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B155" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -3757,10 +3829,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B156" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -3768,10 +3840,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B157" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -3779,10 +3851,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B158" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -3790,10 +3862,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B159" t="s">
-        <v>201</v>
+        <v>244</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -3801,10 +3873,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B160" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -3812,10 +3884,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
+        <v>246</v>
+      </c>
+      <c r="B161" t="s">
         <v>247</v>
-      </c>
-      <c r="B161" t="s">
-        <v>197</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -3826,7 +3898,7 @@
         <v>248</v>
       </c>
       <c r="B162" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -3837,7 +3909,7 @@
         <v>249</v>
       </c>
       <c r="B163" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -3848,7 +3920,7 @@
         <v>250</v>
       </c>
       <c r="B164" t="s">
-        <v>176</v>
+        <v>251</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -3856,10 +3928,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B165" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -3867,10 +3939,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B166" t="s">
-        <v>176</v>
+        <v>240</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -3878,10 +3950,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B167" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -3889,10 +3961,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B168" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -3900,10 +3972,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B169" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -3911,10 +3983,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B170" t="s">
-        <v>227</v>
+        <v>261</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -3922,10 +3994,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B171" t="s">
-        <v>259</v>
+        <v>225</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -3933,10 +4005,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B172" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -3944,10 +4016,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B173" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -3955,10 +4027,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B174" t="s">
-        <v>264</v>
+        <v>231</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -3966,10 +4038,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B175" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -3977,10 +4049,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B176" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -3988,10 +4060,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B177" t="s">
-        <v>268</v>
+        <v>225</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -3999,10 +4071,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B178" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -4013,7 +4085,7 @@
         <v>271</v>
       </c>
       <c r="B179" t="s">
-        <v>272</v>
+        <v>221</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -4021,10 +4093,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B180" t="s">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -4032,10 +4104,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B181" t="s">
-        <v>275</v>
+        <v>221</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -4043,10 +4115,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B182" t="s">
-        <v>277</v>
+        <v>200</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -4054,10 +4126,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B183" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -4065,10 +4137,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B184" t="s">
-        <v>279</v>
+        <v>200</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -4076,10 +4148,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B185" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -4087,10 +4159,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B186" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -4098,10 +4170,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B187" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -4109,10 +4181,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B188" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -4120,10 +4192,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B189" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -4131,10 +4203,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B190" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -4142,10 +4214,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B191" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -4153,10 +4225,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B192" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -4164,10 +4236,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B193" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -4175,10 +4247,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B194" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -4186,10 +4258,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="B195" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -4197,10 +4269,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B196" t="s">
-        <v>192</v>
+        <v>294</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -4208,10 +4280,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B197" t="s">
-        <v>256</v>
+        <v>296</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -4219,10 +4291,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B198" t="s">
-        <v>174</v>
+        <v>294</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -4230,10 +4302,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B199" t="s">
-        <v>188</v>
+        <v>299</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -4241,10 +4313,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B200" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -4252,10 +4324,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B201" t="s">
-        <v>235</v>
+        <v>303</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -4263,10 +4335,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B202" t="s">
-        <v>174</v>
+        <v>303</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -4274,10 +4346,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B203" t="s">
-        <v>235</v>
+        <v>303</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -4285,10 +4357,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B204" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -4296,10 +4368,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B205" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -4307,7 +4379,7 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B206" t="s">
         <v>311</v>
@@ -4318,10 +4390,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B207" t="s">
-        <v>229</v>
+        <v>313</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -4329,10 +4401,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
+        <v>314</v>
+      </c>
+      <c r="B208" t="s">
         <v>315</v>
-      </c>
-      <c r="B208" t="s">
-        <v>229</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -4365,7 +4437,7 @@
         <v>320</v>
       </c>
       <c r="B211" t="s">
-        <v>227</v>
+        <v>321</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -4373,10 +4445,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B212" t="s">
-        <v>197</v>
+        <v>323</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -4384,10 +4456,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B213" t="s">
-        <v>237</v>
+        <v>323</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -4395,10 +4467,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B214" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -4406,10 +4478,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B215" t="s">
-        <v>197</v>
+        <v>280</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -4417,10 +4489,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B216" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -4428,10 +4500,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B217" t="s">
-        <v>319</v>
+        <v>212</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -4439,10 +4511,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B218" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -4450,10 +4522,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B219" t="s">
-        <v>174</v>
+        <v>259</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -4461,10 +4533,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B220" t="s">
-        <v>256</v>
+        <v>198</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -4472,10 +4544,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B221" t="s">
-        <v>201</v>
+        <v>259</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -4483,10 +4555,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B222" t="s">
-        <v>232</v>
+        <v>335</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -4494,10 +4566,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B223" t="s">
-        <v>188</v>
+        <v>330</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -4505,10 +4577,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B224" t="s">
-        <v>256</v>
+        <v>335</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -4516,10 +4588,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B225" t="s">
-        <v>170</v>
+        <v>253</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -4527,10 +4599,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B226" t="s">
-        <v>336</v>
+        <v>253</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -4538,10 +4610,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B227" t="s">
-        <v>174</v>
+        <v>341</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -4549,10 +4621,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B228" t="s">
-        <v>256</v>
+        <v>343</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -4560,10 +4632,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B229" t="s">
-        <v>197</v>
+        <v>251</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -4571,10 +4643,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B230" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -4582,10 +4654,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="B231" t="s">
-        <v>201</v>
+        <v>261</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -4593,10 +4665,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B232" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -4604,10 +4676,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="B233" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -4615,10 +4687,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="B234" t="s">
-        <v>205</v>
+        <v>251</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -4626,10 +4698,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="B235" t="s">
-        <v>227</v>
+        <v>343</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -4637,10 +4709,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="B236" t="s">
-        <v>205</v>
+        <v>343</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -4648,10 +4720,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="B237" t="s">
-        <v>348</v>
+        <v>198</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -4659,10 +4731,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B238" t="s">
-        <v>348</v>
+        <v>280</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -4670,10 +4742,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B239" t="s">
-        <v>348</v>
+        <v>225</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -4681,10 +4753,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B240" t="s">
-        <v>352</v>
+        <v>256</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -4692,10 +4764,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B241" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -4703,10 +4775,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B242" t="s">
-        <v>227</v>
+        <v>280</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -4714,10 +4786,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B243" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -4725,10 +4797,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B244" t="s">
-        <v>319</v>
+        <v>360</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -4736,10 +4808,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B245" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -4747,10 +4819,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B246" t="s">
-        <v>227</v>
+        <v>280</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -4758,10 +4830,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B247" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -4769,10 +4841,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B248" t="s">
-        <v>361</v>
+        <v>268</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -4780,10 +4852,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B249" t="s">
-        <v>317</v>
+        <v>225</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -4791,10 +4863,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B250" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -4802,10 +4874,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B251" t="s">
-        <v>205</v>
+        <v>280</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -4813,10 +4885,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B252" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -4824,10 +4896,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B253" t="s">
-        <v>172</v>
+        <v>251</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -4835,10 +4907,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B254" t="s">
-        <v>311</v>
+        <v>229</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -4846,10 +4918,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B255" t="s">
-        <v>192</v>
+        <v>372</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -4857,10 +4929,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B256" t="s">
-        <v>181</v>
+        <v>372</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -4868,10 +4940,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B257" t="s">
-        <v>142</v>
+        <v>372</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -4879,10 +4951,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B258" t="s">
-        <v>185</v>
+        <v>376</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -4890,10 +4962,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="B259" t="s">
-        <v>185</v>
+        <v>231</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -4901,10 +4973,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="B260" t="s">
-        <v>134</v>
+        <v>251</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -4912,10 +4984,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="B261" t="s">
-        <v>134</v>
+        <v>251</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -4923,10 +4995,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="B262" t="s">
-        <v>134</v>
+        <v>343</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -4934,10 +5006,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="B263" t="s">
-        <v>142</v>
+        <v>251</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -4945,10 +5017,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="B264" t="s">
-        <v>164</v>
+        <v>251</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -4956,10 +5028,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="B265" t="s">
-        <v>185</v>
+        <v>253</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -4967,10 +5039,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="B266" t="s">
-        <v>161</v>
+        <v>385</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -4978,10 +5050,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="B267" t="s">
-        <v>145</v>
+        <v>341</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -4989,10 +5061,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="B268" t="s">
-        <v>382</v>
+        <v>247</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -5000,10 +5072,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="B269" t="s">
-        <v>151</v>
+        <v>229</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -5011,10 +5083,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="B270" t="s">
-        <v>130</v>
+        <v>280</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -5022,10 +5094,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="B271" t="s">
-        <v>386</v>
+        <v>196</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -5033,10 +5105,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B272" t="s">
-        <v>151</v>
+        <v>335</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -5044,10 +5116,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B273" t="s">
-        <v>147</v>
+        <v>216</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -5055,10 +5127,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B274" t="s">
-        <v>158</v>
+        <v>205</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -5066,10 +5138,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B275" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -5077,10 +5149,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B276" t="s">
-        <v>136</v>
+        <v>209</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -5088,10 +5160,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B277" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -5099,10 +5171,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B278" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -5110,10 +5182,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B279" t="s">
-        <v>311</v>
+        <v>158</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -5121,10 +5193,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B280" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -5132,10 +5204,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B281" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -5143,10 +5215,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B282" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -5154,10 +5226,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B283" t="s">
-        <v>170</v>
+        <v>209</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -5165,10 +5237,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B284" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -5176,10 +5248,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B285" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -5187,10 +5259,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B286" t="s">
-        <v>306</v>
+        <v>406</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -5198,10 +5270,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="B287" t="s">
-        <v>235</v>
+        <v>175</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -5209,10 +5281,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="B288" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -5220,10 +5292,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="B289" t="s">
-        <v>211</v>
+        <v>410</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -5231,10 +5303,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="B290" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -5242,10 +5314,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="B291" t="s">
-        <v>235</v>
+        <v>171</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -5253,10 +5325,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="B292" t="s">
-        <v>311</v>
+        <v>182</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -5264,10 +5336,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="B293" t="s">
-        <v>138</v>
+        <v>209</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -5275,10 +5347,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="B294" t="s">
-        <v>410</v>
+        <v>160</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -5286,10 +5358,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="B295" t="s">
-        <v>164</v>
+        <v>209</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -5297,10 +5369,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="B296" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -5308,10 +5380,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="B297" t="s">
-        <v>188</v>
+        <v>335</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -5319,10 +5391,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="B298" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -5330,10 +5402,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="B299" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -5341,10 +5413,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="B300" t="s">
-        <v>311</v>
+        <v>192</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -5352,10 +5424,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="B301" t="s">
-        <v>418</v>
+        <v>194</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
@@ -5363,10 +5435,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B302" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
@@ -5374,10 +5446,10 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B303" t="s">
-        <v>166</v>
+        <v>216</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
@@ -5385,10 +5457,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B304" t="s">
-        <v>164</v>
+        <v>330</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
@@ -5396,10 +5468,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B305" t="s">
-        <v>138</v>
+        <v>259</v>
       </c>
       <c r="C305" t="s">
         <v>5</v>
@@ -5407,10 +5479,10 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B306" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
@@ -5418,10 +5490,10 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B307" t="s">
-        <v>418</v>
+        <v>235</v>
       </c>
       <c r="C307" t="s">
         <v>5</v>
@@ -5429,10 +5501,10 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B308" t="s">
-        <v>138</v>
+        <v>229</v>
       </c>
       <c r="C308" t="s">
         <v>5</v>
@@ -5440,10 +5512,10 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B309" t="s">
-        <v>194</v>
+        <v>259</v>
       </c>
       <c r="C309" t="s">
         <v>5</v>
@@ -5451,10 +5523,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B310" t="s">
-        <v>188</v>
+        <v>335</v>
       </c>
       <c r="C310" t="s">
         <v>5</v>
@@ -5462,10 +5534,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B311" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="C311" t="s">
         <v>5</v>
@@ -5473,10 +5545,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B312" t="s">
-        <v>154</v>
+        <v>434</v>
       </c>
       <c r="C312" t="s">
         <v>5</v>
@@ -5484,10 +5556,10 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="B313" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="C313" t="s">
         <v>5</v>
@@ -5495,10 +5567,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="B314" t="s">
-        <v>147</v>
+        <v>190</v>
       </c>
       <c r="C314" t="s">
         <v>5</v>
@@ -5506,10 +5578,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="B315" t="s">
-        <v>138</v>
+        <v>212</v>
       </c>
       <c r="C315" t="s">
         <v>5</v>
@@ -5517,10 +5589,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="B316" t="s">
-        <v>142</v>
+        <v>280</v>
       </c>
       <c r="C316" t="s">
         <v>5</v>
@@ -5528,10 +5600,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B317" t="s">
-        <v>435</v>
+        <v>218</v>
       </c>
       <c r="C317" t="s">
         <v>5</v>
@@ -5539,10 +5611,10 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="B318" t="s">
-        <v>130</v>
+        <v>335</v>
       </c>
       <c r="C318" t="s">
         <v>5</v>
@@ -5550,10 +5622,10 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B319" t="s">
-        <v>147</v>
+        <v>442</v>
       </c>
       <c r="C319" t="s">
         <v>5</v>
@@ -5561,10 +5633,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="B320" t="s">
-        <v>127</v>
+        <v>190</v>
       </c>
       <c r="C320" t="s">
         <v>5</v>
@@ -5572,10 +5644,10 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="B321" t="s">
-        <v>382</v>
+        <v>190</v>
       </c>
       <c r="C321" t="s">
         <v>5</v>
@@ -5583,10 +5655,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B322" t="s">
-        <v>382</v>
+        <v>188</v>
       </c>
       <c r="C322" t="s">
         <v>5</v>
@@ -5594,10 +5666,10 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="B323" t="s">
-        <v>386</v>
+        <v>162</v>
       </c>
       <c r="C323" t="s">
         <v>5</v>
@@ -5605,10 +5677,10 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="B324" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C324" t="s">
         <v>5</v>
@@ -5616,10 +5688,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="B325" t="s">
-        <v>256</v>
+        <v>442</v>
       </c>
       <c r="C325" t="s">
         <v>5</v>
@@ -5627,10 +5699,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="B326" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
@@ -5638,10 +5710,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="B327" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="C327" t="s">
         <v>5</v>
@@ -5649,10 +5721,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="B328" t="s">
-        <v>319</v>
+        <v>212</v>
       </c>
       <c r="C328" t="s">
         <v>5</v>
@@ -5660,10 +5732,10 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="B329" t="s">
-        <v>448</v>
+        <v>205</v>
       </c>
       <c r="C329" t="s">
         <v>5</v>
@@ -5671,10 +5743,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B330" t="s">
-        <v>450</v>
+        <v>178</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
@@ -5682,10 +5754,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B331" t="s">
-        <v>452</v>
+        <v>185</v>
       </c>
       <c r="C331" t="s">
         <v>5</v>
@@ -5693,10 +5765,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B332" t="s">
-        <v>454</v>
+        <v>171</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
@@ -5704,10 +5776,10 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B333" t="s">
-        <v>454</v>
+        <v>162</v>
       </c>
       <c r="C333" t="s">
         <v>5</v>
@@ -5715,10 +5787,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B334" t="s">
-        <v>454</v>
+        <v>166</v>
       </c>
       <c r="C334" t="s">
         <v>5</v>
@@ -5726,10 +5798,10 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B335" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C335" t="s">
         <v>5</v>
@@ -5737,10 +5809,10 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B336" t="s">
-        <v>460</v>
+        <v>154</v>
       </c>
       <c r="C336" t="s">
         <v>5</v>
@@ -5751,7 +5823,7 @@
         <v>461</v>
       </c>
       <c r="B337" t="s">
-        <v>272</v>
+        <v>171</v>
       </c>
       <c r="C337" t="s">
         <v>5</v>
@@ -5762,7 +5834,7 @@
         <v>462</v>
       </c>
       <c r="B338" t="s">
-        <v>460</v>
+        <v>151</v>
       </c>
       <c r="C338" t="s">
         <v>5</v>
@@ -5773,7 +5845,7 @@
         <v>463</v>
       </c>
       <c r="B339" t="s">
-        <v>464</v>
+        <v>406</v>
       </c>
       <c r="C339" t="s">
         <v>5</v>
@@ -5781,10 +5853,10 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B340" t="s">
-        <v>464</v>
+        <v>406</v>
       </c>
       <c r="C340" t="s">
         <v>5</v>
@@ -5792,10 +5864,10 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B341" t="s">
-        <v>467</v>
+        <v>410</v>
       </c>
       <c r="C341" t="s">
         <v>5</v>
@@ -5803,10 +5875,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B342" t="s">
-        <v>448</v>
+        <v>209</v>
       </c>
       <c r="C342" t="s">
         <v>5</v>
@@ -5814,10 +5886,10 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B343" t="s">
-        <v>467</v>
+        <v>280</v>
       </c>
       <c r="C343" t="s">
         <v>5</v>
@@ -5825,10 +5897,10 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B344" t="s">
-        <v>448</v>
+        <v>200</v>
       </c>
       <c r="C344" t="s">
         <v>5</v>
@@ -5836,10 +5908,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B345" t="s">
-        <v>472</v>
+        <v>231</v>
       </c>
       <c r="C345" t="s">
         <v>5</v>
@@ -5847,10 +5919,10 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B346" t="s">
-        <v>264</v>
+        <v>343</v>
       </c>
       <c r="C346" t="s">
         <v>5</v>
@@ -5858,10 +5930,10 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B347" t="s">
-        <v>352</v>
+        <v>472</v>
       </c>
       <c r="C347" t="s">
         <v>5</v>
@@ -5869,10 +5941,10 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B348" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C348" t="s">
         <v>5</v>
@@ -5880,10 +5952,10 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B349" t="s">
-        <v>259</v>
+        <v>476</v>
       </c>
       <c r="C349" t="s">
         <v>5</v>
@@ -5891,10 +5963,10 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
+        <v>477</v>
+      </c>
+      <c r="B350" t="s">
         <v>478</v>
-      </c>
-      <c r="B350" t="s">
-        <v>299</v>
       </c>
       <c r="C350" t="s">
         <v>5</v>
@@ -5905,7 +5977,7 @@
         <v>479</v>
       </c>
       <c r="B351" t="s">
-        <v>352</v>
+        <v>478</v>
       </c>
       <c r="C351" t="s">
         <v>5</v>
@@ -5916,7 +5988,7 @@
         <v>480</v>
       </c>
       <c r="B352" t="s">
-        <v>264</v>
+        <v>478</v>
       </c>
       <c r="C352" t="s">
         <v>5</v>
@@ -5927,7 +5999,7 @@
         <v>481</v>
       </c>
       <c r="B353" t="s">
-        <v>448</v>
+        <v>482</v>
       </c>
       <c r="C353" t="s">
         <v>5</v>
@@ -5935,10 +6007,10 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B354" t="s">
-        <v>464</v>
+        <v>484</v>
       </c>
       <c r="C354" t="s">
         <v>5</v>
@@ -5946,10 +6018,10 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B355" t="s">
-        <v>484</v>
+        <v>296</v>
       </c>
       <c r="C355" t="s">
         <v>5</v>
@@ -5957,10 +6029,10 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B356" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C356" t="s">
         <v>5</v>
@@ -5971,7 +6043,7 @@
         <v>487</v>
       </c>
       <c r="B357" t="s">
-        <v>464</v>
+        <v>488</v>
       </c>
       <c r="C357" t="s">
         <v>5</v>
@@ -5979,10 +6051,10 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
+        <v>489</v>
+      </c>
+      <c r="B358" t="s">
         <v>488</v>
-      </c>
-      <c r="B358" t="s">
-        <v>489</v>
       </c>
       <c r="C358" t="s">
         <v>5</v>
@@ -6004,7 +6076,7 @@
         <v>492</v>
       </c>
       <c r="B360" t="s">
-        <v>279</v>
+        <v>472</v>
       </c>
       <c r="C360" t="s">
         <v>5</v>
@@ -6015,7 +6087,7 @@
         <v>493</v>
       </c>
       <c r="B361" t="s">
-        <v>458</v>
+        <v>491</v>
       </c>
       <c r="C361" t="s">
         <v>5</v>
@@ -6026,7 +6098,7 @@
         <v>494</v>
       </c>
       <c r="B362" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="C362" t="s">
         <v>5</v>
@@ -6048,7 +6120,7 @@
         <v>497</v>
       </c>
       <c r="B364" t="s">
-        <v>223</v>
+        <v>288</v>
       </c>
       <c r="C364" t="s">
         <v>5</v>
@@ -6059,7 +6131,7 @@
         <v>498</v>
       </c>
       <c r="B365" t="s">
-        <v>264</v>
+        <v>376</v>
       </c>
       <c r="C365" t="s">
         <v>5</v>
@@ -6070,7 +6142,7 @@
         <v>499</v>
       </c>
       <c r="B366" t="s">
-        <v>220</v>
+        <v>500</v>
       </c>
       <c r="C366" t="s">
         <v>5</v>
@@ -6078,10 +6150,10 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B367" t="s">
-        <v>501</v>
+        <v>283</v>
       </c>
       <c r="C367" t="s">
         <v>5</v>
@@ -6092,7 +6164,7 @@
         <v>502</v>
       </c>
       <c r="B368" t="s">
-        <v>259</v>
+        <v>323</v>
       </c>
       <c r="C368" t="s">
         <v>5</v>
@@ -6103,7 +6175,7 @@
         <v>503</v>
       </c>
       <c r="B369" t="s">
-        <v>319</v>
+        <v>376</v>
       </c>
       <c r="C369" t="s">
         <v>5</v>
@@ -6114,7 +6186,7 @@
         <v>504</v>
       </c>
       <c r="B370" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="C370" t="s">
         <v>5</v>
@@ -6125,7 +6197,7 @@
         <v>505</v>
       </c>
       <c r="B371" t="s">
-        <v>256</v>
+        <v>472</v>
       </c>
       <c r="C371" t="s">
         <v>5</v>
@@ -6136,7 +6208,7 @@
         <v>506</v>
       </c>
       <c r="B372" t="s">
-        <v>256</v>
+        <v>488</v>
       </c>
       <c r="C372" t="s">
         <v>5</v>
@@ -6147,7 +6219,7 @@
         <v>507</v>
       </c>
       <c r="B373" t="s">
-        <v>164</v>
+        <v>508</v>
       </c>
       <c r="C373" t="s">
         <v>5</v>
@@ -6155,10 +6227,10 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B374" t="s">
-        <v>418</v>
+        <v>510</v>
       </c>
       <c r="C374" t="s">
         <v>5</v>
@@ -6166,10 +6238,10 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B375" t="s">
-        <v>181</v>
+        <v>488</v>
       </c>
       <c r="C375" t="s">
         <v>5</v>
@@ -6177,10 +6249,10 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B376" t="s">
-        <v>140</v>
+        <v>513</v>
       </c>
       <c r="C376" t="s">
         <v>5</v>
@@ -6188,10 +6260,10 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B377" t="s">
-        <v>185</v>
+        <v>515</v>
       </c>
       <c r="C377" t="s">
         <v>5</v>
@@ -6199,10 +6271,10 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="B378" t="s">
-        <v>410</v>
+        <v>303</v>
       </c>
       <c r="C378" t="s">
         <v>5</v>
@@ -6210,10 +6282,10 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="B379" t="s">
-        <v>336</v>
+        <v>482</v>
       </c>
       <c r="C379" t="s">
         <v>5</v>
@@ -6221,10 +6293,10 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="B380" t="s">
-        <v>515</v>
+        <v>482</v>
       </c>
       <c r="C380" t="s">
         <v>5</v>
@@ -6232,10 +6304,10 @@
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="B381" t="s">
-        <v>188</v>
+        <v>520</v>
       </c>
       <c r="C381" t="s">
         <v>5</v>
@@ -6243,10 +6315,10 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B382" t="s">
-        <v>168</v>
+        <v>247</v>
       </c>
       <c r="C382" t="s">
         <v>5</v>
@@ -6254,10 +6326,10 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="B383" t="s">
-        <v>166</v>
+        <v>288</v>
       </c>
       <c r="C383" t="s">
         <v>5</v>
@@ -6265,10 +6337,10 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="B384" t="s">
-        <v>306</v>
+        <v>244</v>
       </c>
       <c r="C384" t="s">
         <v>5</v>
@@ -6276,10 +6348,10 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="B385" t="s">
-        <v>188</v>
+        <v>525</v>
       </c>
       <c r="C385" t="s">
         <v>5</v>
@@ -6287,10 +6359,10 @@
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="B386" t="s">
-        <v>166</v>
+        <v>283</v>
       </c>
       <c r="C386" t="s">
         <v>5</v>
@@ -6298,10 +6370,10 @@
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="B387" t="s">
-        <v>164</v>
+        <v>343</v>
       </c>
       <c r="C387" t="s">
         <v>5</v>
@@ -6309,10 +6381,10 @@
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="B388" t="s">
-        <v>418</v>
+        <v>280</v>
       </c>
       <c r="C388" t="s">
         <v>5</v>
@@ -6320,10 +6392,10 @@
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="B389" t="s">
-        <v>140</v>
+        <v>280</v>
       </c>
       <c r="C389" t="s">
         <v>5</v>
@@ -6331,10 +6403,10 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="B390" t="s">
-        <v>418</v>
+        <v>280</v>
       </c>
       <c r="C390" t="s">
         <v>5</v>
@@ -6342,10 +6414,10 @@
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="B391" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="C391" t="s">
         <v>5</v>
@@ -6353,10 +6425,10 @@
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="B392" t="s">
-        <v>170</v>
+        <v>442</v>
       </c>
       <c r="C392" t="s">
         <v>5</v>
@@ -6364,10 +6436,10 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="B393" t="s">
-        <v>410</v>
+        <v>205</v>
       </c>
       <c r="C393" t="s">
         <v>5</v>
@@ -6375,10 +6447,10 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="B394" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="C394" t="s">
         <v>5</v>
@@ -6386,10 +6458,10 @@
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="B395" t="s">
-        <v>174</v>
+        <v>209</v>
       </c>
       <c r="C395" t="s">
         <v>5</v>
@@ -6397,10 +6469,10 @@
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="B396" t="s">
-        <v>168</v>
+        <v>434</v>
       </c>
       <c r="C396" t="s">
         <v>5</v>
@@ -6408,10 +6480,10 @@
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="B397" t="s">
-        <v>232</v>
+        <v>360</v>
       </c>
       <c r="C397" t="s">
         <v>5</v>
@@ -6419,10 +6491,10 @@
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="B398" t="s">
-        <v>205</v>
+        <v>539</v>
       </c>
       <c r="C398" t="s">
         <v>5</v>
@@ -6430,10 +6502,10 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="B399" t="s">
-        <v>256</v>
+        <v>212</v>
       </c>
       <c r="C399" t="s">
         <v>5</v>
@@ -6441,10 +6513,10 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="B400" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="C400" t="s">
         <v>5</v>
@@ -6452,10 +6524,10 @@
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="B401" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="C401" t="s">
         <v>5</v>
@@ -6463,10 +6535,10 @@
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="B402" t="s">
-        <v>174</v>
+        <v>330</v>
       </c>
       <c r="C402" t="s">
         <v>5</v>
@@ -6474,10 +6546,10 @@
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="B403" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C403" t="s">
         <v>5</v>
@@ -6485,10 +6557,10 @@
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="B404" t="s">
-        <v>348</v>
+        <v>190</v>
       </c>
       <c r="C404" t="s">
         <v>5</v>
@@ -6496,10 +6568,10 @@
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="B405" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="C405" t="s">
         <v>5</v>
@@ -6507,10 +6579,10 @@
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="B406" t="s">
-        <v>220</v>
+        <v>442</v>
       </c>
       <c r="C406" t="s">
         <v>5</v>
@@ -6518,10 +6590,10 @@
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B407" t="s">
-        <v>361</v>
+        <v>164</v>
       </c>
       <c r="C407" t="s">
         <v>5</v>
@@ -6529,10 +6601,10 @@
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="B408" t="s">
-        <v>229</v>
+        <v>442</v>
       </c>
       <c r="C408" t="s">
         <v>5</v>
@@ -6540,10 +6612,10 @@
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="B409" t="s">
-        <v>256</v>
+        <v>192</v>
       </c>
       <c r="C409" t="s">
         <v>5</v>
@@ -6551,10 +6623,10 @@
     </row>
     <row r="410">
       <c r="A410" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="B410" t="s">
-        <v>256</v>
+        <v>194</v>
       </c>
       <c r="C410" t="s">
         <v>5</v>
@@ -6562,10 +6634,10 @@
     </row>
     <row r="411">
       <c r="A411" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="B411" t="s">
-        <v>176</v>
+        <v>434</v>
       </c>
       <c r="C411" t="s">
         <v>5</v>
@@ -6573,10 +6645,10 @@
     </row>
     <row r="412">
       <c r="A412" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="B412" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="C412" t="s">
         <v>5</v>
@@ -6584,10 +6656,10 @@
     </row>
     <row r="413">
       <c r="A413" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="B413" t="s">
-        <v>244</v>
+        <v>198</v>
       </c>
       <c r="C413" t="s">
         <v>5</v>
@@ -6595,10 +6667,10 @@
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="B414" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="C414" t="s">
         <v>5</v>
@@ -6606,10 +6678,10 @@
     </row>
     <row r="415">
       <c r="A415" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="B415" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="C415" t="s">
         <v>5</v>
@@ -6617,10 +6689,10 @@
     </row>
     <row r="416">
       <c r="A416" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="B416" t="s">
-        <v>172</v>
+        <v>229</v>
       </c>
       <c r="C416" t="s">
         <v>5</v>
@@ -6628,10 +6700,10 @@
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="B417" t="s">
-        <v>244</v>
+        <v>280</v>
       </c>
       <c r="C417" t="s">
         <v>5</v>
@@ -6639,10 +6711,10 @@
     </row>
     <row r="418">
       <c r="A418" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="B418" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="C418" t="s">
         <v>5</v>
@@ -6650,10 +6722,10 @@
     </row>
     <row r="419">
       <c r="A419" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="B419" t="s">
-        <v>244</v>
+        <v>192</v>
       </c>
       <c r="C419" t="s">
         <v>5</v>
@@ -6661,10 +6733,10 @@
     </row>
     <row r="420">
       <c r="A420" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="B420" t="s">
-        <v>229</v>
+        <v>198</v>
       </c>
       <c r="C420" t="s">
         <v>5</v>
@@ -6672,10 +6744,10 @@
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="B421" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="C421" t="s">
         <v>5</v>
@@ -6683,10 +6755,10 @@
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="B422" t="s">
-        <v>558</v>
+        <v>372</v>
       </c>
       <c r="C422" t="s">
         <v>5</v>
@@ -6694,10 +6766,10 @@
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="B423" t="s">
-        <v>197</v>
+        <v>244</v>
       </c>
       <c r="C423" t="s">
         <v>5</v>
@@ -6705,10 +6777,10 @@
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="B424" t="s">
-        <v>361</v>
+        <v>244</v>
       </c>
       <c r="C424" t="s">
         <v>5</v>
@@ -6716,10 +6788,10 @@
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="B425" t="s">
-        <v>361</v>
+        <v>385</v>
       </c>
       <c r="C425" t="s">
         <v>5</v>
@@ -6727,10 +6799,10 @@
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="B426" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="C426" t="s">
         <v>5</v>
@@ -6738,10 +6810,10 @@
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="B427" t="s">
-        <v>361</v>
+        <v>280</v>
       </c>
       <c r="C427" t="s">
         <v>5</v>
@@ -6749,10 +6821,10 @@
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="B428" t="s">
-        <v>361</v>
+        <v>280</v>
       </c>
       <c r="C428" t="s">
         <v>5</v>
@@ -6760,10 +6832,10 @@
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="B429" t="s">
-        <v>317</v>
+        <v>200</v>
       </c>
       <c r="C429" t="s">
         <v>5</v>
@@ -6771,10 +6843,10 @@
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="B430" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
       <c r="C430" t="s">
         <v>5</v>
@@ -6782,10 +6854,10 @@
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="B431" t="s">
-        <v>317</v>
+        <v>268</v>
       </c>
       <c r="C431" t="s">
         <v>5</v>
@@ -6793,12 +6865,210 @@
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="B432" t="s">
-        <v>317</v>
+        <v>256</v>
       </c>
       <c r="C432" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="s">
+        <v>574</v>
+      </c>
+      <c r="B433" t="s">
+        <v>259</v>
+      </c>
+      <c r="C433" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="s">
+        <v>575</v>
+      </c>
+      <c r="B434" t="s">
+        <v>196</v>
+      </c>
+      <c r="C434" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="s">
+        <v>576</v>
+      </c>
+      <c r="B435" t="s">
+        <v>268</v>
+      </c>
+      <c r="C435" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="s">
+        <v>577</v>
+      </c>
+      <c r="B436" t="s">
+        <v>200</v>
+      </c>
+      <c r="C436" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="s">
+        <v>578</v>
+      </c>
+      <c r="B437" t="s">
+        <v>268</v>
+      </c>
+      <c r="C437" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="s">
+        <v>579</v>
+      </c>
+      <c r="B438" t="s">
+        <v>253</v>
+      </c>
+      <c r="C438" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="s">
+        <v>580</v>
+      </c>
+      <c r="B439" t="s">
+        <v>231</v>
+      </c>
+      <c r="C439" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="s">
+        <v>581</v>
+      </c>
+      <c r="B440" t="s">
+        <v>582</v>
+      </c>
+      <c r="C440" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="s">
+        <v>583</v>
+      </c>
+      <c r="B441" t="s">
+        <v>221</v>
+      </c>
+      <c r="C441" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="s">
+        <v>584</v>
+      </c>
+      <c r="B442" t="s">
+        <v>385</v>
+      </c>
+      <c r="C442" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="s">
+        <v>585</v>
+      </c>
+      <c r="B443" t="s">
+        <v>385</v>
+      </c>
+      <c r="C443" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="s">
+        <v>586</v>
+      </c>
+      <c r="B444" t="s">
+        <v>247</v>
+      </c>
+      <c r="C444" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="s">
+        <v>587</v>
+      </c>
+      <c r="B445" t="s">
+        <v>385</v>
+      </c>
+      <c r="C445" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="s">
+        <v>588</v>
+      </c>
+      <c r="B446" t="s">
+        <v>385</v>
+      </c>
+      <c r="C446" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="s">
+        <v>589</v>
+      </c>
+      <c r="B447" t="s">
+        <v>341</v>
+      </c>
+      <c r="C447" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="s">
+        <v>590</v>
+      </c>
+      <c r="B448" t="s">
+        <v>341</v>
+      </c>
+      <c r="C448" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="s">
+        <v>591</v>
+      </c>
+      <c r="B449" t="s">
+        <v>341</v>
+      </c>
+      <c r="C449" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="s">
+        <v>592</v>
+      </c>
+      <c r="B450" t="s">
+        <v>341</v>
+      </c>
+      <c r="C450" t="s">
         <v>5</v>
       </c>
     </row>
